--- a/BackTest/2019-11-02 BackTest CHR.xlsx
+++ b/BackTest/2019-11-02 BackTest CHR.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>5</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
       <c r="L12" t="n">
         <v>28.54</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>5.100000000000001</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>-3.999999999999983</v>
+      </c>
       <c r="L13" t="n">
         <v>28.52999999999999</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>5.600000000000001</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>-26.53061224489796</v>
+      </c>
       <c r="L14" t="n">
         <v>28.46</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>5.700000000000003</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>-28.00000000000002</v>
+      </c>
       <c r="L15" t="n">
         <v>28.31999999999999</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>5.700000000000003</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>-25.00000000000004</v>
+      </c>
       <c r="L16" t="n">
         <v>28.17999999999999</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>5.800000000000004</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>11.76470588235288</v>
+      </c>
       <c r="L17" t="n">
         <v>28.06999999999999</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>6.100000000000005</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>-11.11111111111111</v>
+      </c>
       <c r="L18" t="n">
         <v>28.13999999999999</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>6.400000000000006</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>9.090909090909033</v>
+      </c>
       <c r="L19" t="n">
         <v>28.07999999999998</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>6.700000000000006</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>19.99999999999994</v>
+      </c>
       <c r="L20" t="n">
         <v>28.12999999999998</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>7.000000000000007</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>-29.99999999999996</v>
+      </c>
       <c r="L21" t="n">
         <v>28.14999999999998</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>7.300000000000008</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>-9.090909090909033</v>
+      </c>
       <c r="L22" t="n">
         <v>28.11999999999998</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>7.700000000000006</v>
       </c>
       <c r="K23" t="n">
-        <v>1.29870129870127</v>
+        <v>33.33333333333322</v>
       </c>
       <c r="L23" t="n">
         <v>28.13999999999998</v>
@@ -1466,7 +1488,7 @@
         <v>8.100000000000005</v>
       </c>
       <c r="K24" t="n">
-        <v>-4.999999999999978</v>
+        <v>16.66666666666674</v>
       </c>
       <c r="L24" t="n">
         <v>28.16999999999998</v>
@@ -1515,7 +1537,7 @@
         <v>8.400000000000006</v>
       </c>
       <c r="K25" t="n">
-        <v>-16.88311688311688</v>
+        <v>3.703703703703753</v>
       </c>
       <c r="L25" t="n">
         <v>28.17999999999999</v>
@@ -1564,7 +1586,7 @@
         <v>8.800000000000004</v>
       </c>
       <c r="K26" t="n">
-        <v>-11.11111111111113</v>
+        <v>13.33333333333329</v>
       </c>
       <c r="L26" t="n">
         <v>28.22999999999998</v>
@@ -1613,7 +1635,7 @@
         <v>8.900000000000006</v>
       </c>
       <c r="K27" t="n">
-        <v>-7.500000000000011</v>
+        <v>7.142857142857116</v>
       </c>
       <c r="L27" t="n">
         <v>28.27999999999998</v>
@@ -1662,7 +1684,7 @@
         <v>9.500000000000007</v>
       </c>
       <c r="K28" t="n">
-        <v>21.12676056338026</v>
+        <v>35.48387096774196</v>
       </c>
       <c r="L28" t="n">
         <v>28.35999999999999</v>
@@ -1711,7 +1733,7 @@
         <v>9.700000000000006</v>
       </c>
       <c r="K29" t="n">
-        <v>11.11111111111109</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L29" t="n">
         <v>28.48999999999999</v>
@@ -1760,7 +1782,7 @@
         <v>9.900000000000006</v>
       </c>
       <c r="K30" t="n">
-        <v>22.80701754385964</v>
+        <v>37.93103448275869</v>
       </c>
       <c r="L30" t="n">
         <v>28.56999999999999</v>
@@ -1809,7 +1831,7 @@
         <v>11.3</v>
       </c>
       <c r="K31" t="n">
-        <v>38.02816901408448</v>
+        <v>55.00000000000003</v>
       </c>
       <c r="L31" t="n">
         <v>28.81999999999999</v>
@@ -1860,7 +1882,7 @@
         <v>11.5</v>
       </c>
       <c r="K32" t="n">
-        <v>32.30769230769226</v>
+        <v>52.63157894736846</v>
       </c>
       <c r="L32" t="n">
         <v>29.05999999999998</v>
@@ -1911,7 +1933,7 @@
         <v>11.5</v>
       </c>
       <c r="K33" t="n">
-        <v>34.37499999999998</v>
+        <v>70.58823529411762</v>
       </c>
       <c r="L33" t="n">
         <v>29.25999999999998</v>
@@ -1962,7 +1984,7 @@
         <v>11.8</v>
       </c>
       <c r="K34" t="n">
-        <v>48.38709677419353</v>
+        <v>88.2352941176471</v>
       </c>
       <c r="L34" t="n">
         <v>29.52999999999998</v>
@@ -2013,7 +2035,7 @@
         <v>11.90000000000001</v>
       </c>
       <c r="K35" t="n">
-        <v>48.38709677419353</v>
+        <v>80.64516129032255</v>
       </c>
       <c r="L35" t="n">
         <v>29.81999999999998</v>
@@ -2064,7 +2086,7 @@
         <v>12.1</v>
       </c>
       <c r="K36" t="n">
-        <v>43.74999999999999</v>
+        <v>68.74999999999999</v>
       </c>
       <c r="L36" t="n">
         <v>30.04999999999998</v>
@@ -2115,7 +2137,7 @@
         <v>12.50000000000001</v>
       </c>
       <c r="K37" t="n">
-        <v>46.26865671641791</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L37" t="n">
         <v>30.30999999999998</v>
@@ -2166,7 +2188,7 @@
         <v>13.00000000000001</v>
       </c>
       <c r="K38" t="n">
-        <v>47.82608695652173</v>
+        <v>69.6969696969697</v>
       </c>
       <c r="L38" t="n">
         <v>30.55999999999998</v>
@@ -2217,7 +2239,7 @@
         <v>13.60000000000001</v>
       </c>
       <c r="K39" t="n">
-        <v>41.66666666666665</v>
+        <v>51.35135135135127</v>
       </c>
       <c r="L39" t="n">
         <v>30.72999999999998</v>
@@ -2268,7 +2290,7 @@
         <v>13.70000000000001</v>
       </c>
       <c r="K40" t="n">
-        <v>37.1428571428571</v>
+        <v>16.66666666666657</v>
       </c>
       <c r="L40" t="n">
         <v>30.90999999999998</v>
@@ -2319,7 +2341,7 @@
         <v>15.20000000000001</v>
       </c>
       <c r="K41" t="n">
-        <v>17.07317073170729</v>
+        <v>-35.13513513513509</v>
       </c>
       <c r="L41" t="n">
         <v>30.79999999999998</v>
@@ -2370,7 +2392,7 @@
         <v>15.50000000000001</v>
       </c>
       <c r="K42" t="n">
-        <v>17.07317073170729</v>
+        <v>-24.99999999999996</v>
       </c>
       <c r="L42" t="n">
         <v>30.69999999999998</v>
@@ -2421,7 +2443,7 @@
         <v>15.70000000000001</v>
       </c>
       <c r="K43" t="n">
-        <v>14.99999999999999</v>
+        <v>-28.2051282051282</v>
       </c>
       <c r="L43" t="n">
         <v>30.61999999999998</v>
@@ -2472,7 +2494,7 @@
         <v>16.20000000000001</v>
       </c>
       <c r="K44" t="n">
-        <v>25.92592592592588</v>
+        <v>-11.62790697674417</v>
       </c>
       <c r="L44" t="n">
         <v>30.55999999999997</v>
@@ -2523,7 +2545,7 @@
         <v>16.70000000000001</v>
       </c>
       <c r="K45" t="n">
-        <v>22.89156626506021</v>
+        <v>-17.39130434782608</v>
       </c>
       <c r="L45" t="n">
         <v>30.45999999999997</v>
@@ -2574,7 +2596,7 @@
         <v>16.80000000000001</v>
       </c>
       <c r="K46" t="n">
-        <v>20</v>
+        <v>-25.58139534883722</v>
       </c>
       <c r="L46" t="n">
         <v>30.38999999999998</v>
@@ -2625,7 +2647,7 @@
         <v>17.00000000000001</v>
       </c>
       <c r="K47" t="n">
-        <v>20.98765432098763</v>
+        <v>-35.00000000000002</v>
       </c>
       <c r="L47" t="n">
         <v>30.29999999999997</v>
@@ -2676,7 +2698,7 @@
         <v>17.00000000000001</v>
       </c>
       <c r="K48" t="n">
-        <v>14.66666666666663</v>
+        <v>-23.52941176470589</v>
       </c>
       <c r="L48" t="n">
         <v>30.15999999999997</v>
@@ -2727,7 +2749,7 @@
         <v>17.20000000000001</v>
       </c>
       <c r="K49" t="n">
-        <v>9.33333333333332</v>
+        <v>-25.71428571428567</v>
       </c>
       <c r="L49" t="n">
         <v>30.05999999999997</v>
@@ -2778,7 +2800,7 @@
         <v>17.30000000000001</v>
       </c>
       <c r="K50" t="n">
-        <v>13.5135135135135</v>
+        <v>33.33333333333345</v>
       </c>
       <c r="L50" t="n">
         <v>29.97999999999997</v>
@@ -2829,7 +2851,7 @@
         <v>17.40000000000001</v>
       </c>
       <c r="K51" t="n">
-        <v>-8.196721311475399</v>
+        <v>15.78947368421055</v>
       </c>
       <c r="L51" t="n">
         <v>30.03999999999997</v>
@@ -2880,7 +2902,7 @@
         <v>18.00000000000001</v>
       </c>
       <c r="K52" t="n">
-        <v>-19.99999999999998</v>
+        <v>-21.73913043478257</v>
       </c>
       <c r="L52" t="n">
         <v>30.00999999999997</v>
@@ -2931,7 +2953,7 @@
         <v>18.40000000000002</v>
       </c>
       <c r="K53" t="n">
-        <v>-13.04347826086952</v>
+        <v>-27.2727272727271</v>
       </c>
       <c r="L53" t="n">
         <v>29.99999999999998</v>
@@ -2982,7 +3004,7 @@
         <v>18.40000000000002</v>
       </c>
       <c r="K54" t="n">
-        <v>-18.18181818181814</v>
+        <v>-5.882352941176324</v>
       </c>
       <c r="L54" t="n">
         <v>29.93999999999998</v>
@@ -3033,7 +3055,7 @@
         <v>18.50000000000001</v>
       </c>
       <c r="K55" t="n">
-        <v>-15.15151515151513</v>
+        <v>-5.882352941176544</v>
       </c>
       <c r="L55" t="n">
         <v>29.93999999999998</v>
@@ -3084,7 +3106,7 @@
         <v>18.50000000000001</v>
       </c>
       <c r="K56" t="n">
-        <v>-12.49999999999999</v>
+        <v>-20</v>
       </c>
       <c r="L56" t="n">
         <v>29.92999999999998</v>
@@ -3135,7 +3157,7 @@
         <v>18.70000000000001</v>
       </c>
       <c r="K57" t="n">
-        <v>-22.58064516129033</v>
+        <v>-29.41176470588231</v>
       </c>
       <c r="L57" t="n">
         <v>29.87999999999998</v>
@@ -3186,7 +3208,7 @@
         <v>18.70000000000001</v>
       </c>
       <c r="K58" t="n">
-        <v>-33.33333333333333</v>
+        <v>-20</v>
       </c>
       <c r="L58" t="n">
         <v>29.82999999999998</v>
@@ -3237,7 +3259,7 @@
         <v>19.00000000000001</v>
       </c>
       <c r="K59" t="n">
-        <v>-29.62962962962962</v>
+        <v>-41.17647058823539</v>
       </c>
       <c r="L59" t="n">
         <v>29.76999999999997</v>
@@ -3288,7 +3310,7 @@
         <v>19.40000000000001</v>
       </c>
       <c r="K60" t="n">
-        <v>-33.33333333333329</v>
+        <v>-50</v>
       </c>
       <c r="L60" t="n">
         <v>29.65999999999998</v>
@@ -3339,7 +3361,7 @@
         <v>19.70000000000001</v>
       </c>
       <c r="K61" t="n">
-        <v>-2.222222222222173</v>
+        <v>-5.882352941176348</v>
       </c>
       <c r="L61" t="n">
         <v>29.58999999999997</v>
@@ -3390,7 +3412,7 @@
         <v>20.60000000000002</v>
       </c>
       <c r="K62" t="n">
-        <v>-25.49019607843136</v>
+        <v>-63.63636363636375</v>
       </c>
       <c r="L62" t="n">
         <v>29.48999999999997</v>
@@ -3441,7 +3463,7 @@
         <v>20.70000000000002</v>
       </c>
       <c r="K63" t="n">
-        <v>-27.99999999999993</v>
+        <v>-56.5217391304348</v>
       </c>
       <c r="L63" t="n">
         <v>29.35999999999997</v>
@@ -3492,7 +3514,7 @@
         <v>21.00000000000002</v>
       </c>
       <c r="K64" t="n">
-        <v>-33.33333333333324</v>
+        <v>-43.99999999999985</v>
       </c>
       <c r="L64" t="n">
         <v>29.25999999999997</v>
@@ -3543,7 +3565,7 @@
         <v>21.10000000000002</v>
       </c>
       <c r="K65" t="n">
-        <v>-27.2727272727272</v>
+        <v>-46.15384615384604</v>
       </c>
       <c r="L65" t="n">
         <v>29.13999999999998</v>
@@ -3594,7 +3616,7 @@
         <v>21.30000000000002</v>
       </c>
       <c r="K66" t="n">
-        <v>-33.33333333333328</v>
+        <v>-46.15384615384604</v>
       </c>
       <c r="L66" t="n">
         <v>28.99999999999998</v>
@@ -3645,7 +3667,7 @@
         <v>21.30000000000002</v>
       </c>
       <c r="K67" t="n">
-        <v>-39.53488372093014</v>
+        <v>-46.15384615384604</v>
       </c>
       <c r="L67" t="n">
         <v>28.87999999999998</v>
@@ -3696,7 +3718,7 @@
         <v>21.60000000000002</v>
       </c>
       <c r="K68" t="n">
-        <v>-30.43478260869556</v>
+        <v>-23.07692307692295</v>
       </c>
       <c r="L68" t="n">
         <v>28.78999999999998</v>
@@ -3747,7 +3769,7 @@
         <v>21.60000000000002</v>
       </c>
       <c r="K69" t="n">
-        <v>-27.2727272727272</v>
+        <v>-9.090909090909033</v>
       </c>
       <c r="L69" t="n">
         <v>28.72999999999998</v>
@@ -3798,7 +3820,7 @@
         <v>21.80000000000002</v>
       </c>
       <c r="K70" t="n">
-        <v>-24.44444444444444</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L70" t="n">
         <v>28.72999999999998</v>
@@ -3849,7 +3871,7 @@
         <v>22.30000000000002</v>
       </c>
       <c r="K71" t="n">
-        <v>-30.61224489795914</v>
+        <v>5.882352941176544</v>
       </c>
       <c r="L71" t="n">
         <v>28.64999999999998</v>
@@ -3900,7 +3922,7 @@
         <v>22.40000000000002</v>
       </c>
       <c r="K72" t="n">
-        <v>-22.7272727272727</v>
+        <v>-5.882352941176544</v>
       </c>
       <c r="L72" t="n">
         <v>28.64999999999998</v>
@@ -3951,7 +3973,7 @@
         <v>22.70000000000002</v>
       </c>
       <c r="K73" t="n">
-        <v>-25.58139534883722</v>
+        <v>-5.882352941176544</v>
       </c>
       <c r="L73" t="n">
         <v>28.66999999999998</v>
@@ -4002,7 +4024,7 @@
         <v>22.80000000000002</v>
       </c>
       <c r="K74" t="n">
-        <v>-27.27272727272724</v>
+        <v>-5.882352941176348</v>
       </c>
       <c r="L74" t="n">
         <v>28.64999999999998</v>
@@ -4053,7 +4075,7 @@
         <v>23.10000000000002</v>
       </c>
       <c r="K75" t="n">
-        <v>-34.78260869565209</v>
+        <v>-11.11111111111107</v>
       </c>
       <c r="L75" t="n">
         <v>28.60999999999999</v>
@@ -4104,7 +4126,7 @@
         <v>23.20000000000002</v>
       </c>
       <c r="K76" t="n">
-        <v>-31.91489361702126</v>
+        <v>-5.263157894736921</v>
       </c>
       <c r="L76" t="n">
         <v>28.59999999999998</v>
@@ -4155,7 +4177,7 @@
         <v>23.40000000000002</v>
       </c>
       <c r="K77" t="n">
-        <v>-23.40425531914886</v>
+        <v>-11.11111111111107</v>
       </c>
       <c r="L77" t="n">
         <v>28.60999999999999</v>
@@ -4206,7 +4228,7 @@
         <v>23.40000000000002</v>
       </c>
       <c r="K78" t="n">
-        <v>-23.40425531914886</v>
+        <v>-11.11111111111107</v>
       </c>
       <c r="L78" t="n">
         <v>28.58999999999999</v>
@@ -4257,7 +4279,7 @@
         <v>23.50000000000002</v>
       </c>
       <c r="K79" t="n">
-        <v>-15.55555555555553</v>
+        <v>-17.64705882352946</v>
       </c>
       <c r="L79" t="n">
         <v>28.57999999999998</v>
@@ -4308,7 +4330,7 @@
         <v>23.50000000000002</v>
       </c>
       <c r="K80" t="n">
-        <v>-7.317073170731716</v>
+        <v>16.66666666666662</v>
       </c>
       <c r="L80" t="n">
         <v>28.54999999999998</v>
@@ -4359,7 +4381,7 @@
         <v>23.70000000000002</v>
       </c>
       <c r="K81" t="n">
-        <v>-10.00000000000004</v>
+        <v>38.46153846153855</v>
       </c>
       <c r="L81" t="n">
         <v>28.58999999999998</v>
@@ -4410,7 +4432,7 @@
         <v>23.70000000000002</v>
       </c>
       <c r="K82" t="n">
-        <v>16.12903225806451</v>
+        <v>20</v>
       </c>
       <c r="L82" t="n">
         <v>28.63999999999998</v>
@@ -4461,7 +4483,7 @@
         <v>23.90000000000002</v>
       </c>
       <c r="K83" t="n">
-        <v>6.24999999999998</v>
+        <v>9.090909090908914</v>
       </c>
       <c r="L83" t="n">
         <v>28.63999999999998</v>
@@ -4512,7 +4534,7 @@
         <v>24.20000000000002</v>
       </c>
       <c r="K84" t="n">
-        <v>6.24999999999998</v>
+        <v>63.63636363636369</v>
       </c>
       <c r="L84" t="n">
         <v>28.67999999999998</v>
@@ -4563,7 +4585,7 @@
         <v>24.90000000000002</v>
       </c>
       <c r="K85" t="n">
-        <v>-10.52631578947365</v>
+        <v>-5.882352941176348</v>
       </c>
       <c r="L85" t="n">
         <v>28.67999999999998</v>
@@ -4614,7 +4636,7 @@
         <v>24.90000000000002</v>
       </c>
       <c r="K86" t="n">
-        <v>-5.555555555555539</v>
+        <v>-20.0000000000001</v>
       </c>
       <c r="L86" t="n">
         <v>28.66999999999998</v>
@@ -4665,7 +4687,7 @@
         <v>25.10000000000002</v>
       </c>
       <c r="K87" t="n">
-        <v>0</v>
+        <v>-5.882352941176569</v>
       </c>
       <c r="L87" t="n">
         <v>28.65999999999998</v>
@@ -4716,7 +4738,7 @@
         <v>25.20000000000002</v>
       </c>
       <c r="K88" t="n">
-        <v>-5.555555555555539</v>
+        <v>-5.882352941176348</v>
       </c>
       <c r="L88" t="n">
         <v>28.65999999999998</v>
@@ -4767,7 +4789,7 @@
         <v>25.20000000000002</v>
       </c>
       <c r="K89" t="n">
-        <v>-5.555555555555539</v>
+        <v>-5.882352941176348</v>
       </c>
       <c r="L89" t="n">
         <v>28.64999999999998</v>
@@ -4818,7 +4840,7 @@
         <v>25.50000000000001</v>
       </c>
       <c r="K90" t="n">
-        <v>-2.702702702702744</v>
+        <v>0</v>
       </c>
       <c r="L90" t="n">
         <v>28.66999999999998</v>
@@ -4869,7 +4891,7 @@
         <v>25.80000000000001</v>
       </c>
       <c r="K91" t="n">
-        <v>2.857142857142903</v>
+        <v>-14.28571428571419</v>
       </c>
       <c r="L91" t="n">
         <v>28.63999999999999</v>
@@ -4920,7 +4942,7 @@
         <v>25.90000000000001</v>
       </c>
       <c r="K92" t="n">
-        <v>2.857142857142903</v>
+        <v>-9.999999999999982</v>
       </c>
       <c r="L92" t="n">
         <v>28.59999999999999</v>
@@ -4971,7 +4993,7 @@
         <v>26.00000000000001</v>
       </c>
       <c r="K93" t="n">
-        <v>-3.030303030302972</v>
+        <v>-22.22222222222218</v>
       </c>
       <c r="L93" t="n">
         <v>28.58999999999999</v>
@@ -5022,7 +5044,7 @@
         <v>26.20000000000002</v>
       </c>
       <c r="K94" t="n">
-        <v>-5.882352941176556</v>
+        <v>7.692307692307525</v>
       </c>
       <c r="L94" t="n">
         <v>28.52999999999999</v>
@@ -5073,7 +5095,7 @@
         <v>26.60000000000002</v>
       </c>
       <c r="K95" t="n">
-        <v>14.28571428571428</v>
+        <v>29.41176470588231</v>
       </c>
       <c r="L95" t="n">
         <v>28.57999999999999</v>
@@ -5124,7 +5146,7 @@
         <v>26.70000000000002</v>
       </c>
       <c r="K96" t="n">
-        <v>14.28571428571428</v>
+        <v>24.99999999999989</v>
       </c>
       <c r="L96" t="n">
         <v>28.63999999999999</v>
@@ -5175,7 +5197,7 @@
         <v>26.90000000000002</v>
       </c>
       <c r="K97" t="n">
-        <v>2.857142857142799</v>
+        <v>5.882352941176348</v>
       </c>
       <c r="L97" t="n">
         <v>28.65999999999999</v>
@@ -5226,7 +5248,7 @@
         <v>27.10000000000002</v>
       </c>
       <c r="K98" t="n">
-        <v>8.108108108108041</v>
+        <v>15.78947368421039</v>
       </c>
       <c r="L98" t="n">
         <v>28.68999999999998</v>
@@ -5277,7 +5299,7 @@
         <v>27.30000000000001</v>
       </c>
       <c r="K99" t="n">
-        <v>0</v>
+        <v>-11.11111111111107</v>
       </c>
       <c r="L99" t="n">
         <v>28.69999999999998</v>
@@ -5328,7 +5350,7 @@
         <v>27.60000000000002</v>
       </c>
       <c r="K100" t="n">
-        <v>-7.317073170731729</v>
+        <v>-11.11111111111124</v>
       </c>
       <c r="L100" t="n">
         <v>28.64999999999998</v>
@@ -5379,7 +5401,7 @@
         <v>27.90000000000002</v>
       </c>
       <c r="K101" t="n">
-        <v>-4.761904761904746</v>
+        <v>9.999999999999947</v>
       </c>
       <c r="L101" t="n">
         <v>28.65999999999998</v>
@@ -5430,7 +5452,7 @@
         <v>28.10000000000002</v>
       </c>
       <c r="K102" t="n">
-        <v>-9.090909090909062</v>
+        <v>-4.761904761904826</v>
       </c>
       <c r="L102" t="n">
         <v>28.65999999999998</v>
@@ -5481,7 +5503,7 @@
         <v>28.30000000000001</v>
       </c>
       <c r="K103" t="n">
-        <v>0</v>
+        <v>14.28571428571433</v>
       </c>
       <c r="L103" t="n">
         <v>28.66999999999997</v>
@@ -5532,7 +5554,7 @@
         <v>28.40000000000001</v>
       </c>
       <c r="K104" t="n">
-        <v>-9.523809523809499</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L104" t="n">
         <v>28.68999999999998</v>
@@ -5583,7 +5605,7 @@
         <v>28.40000000000001</v>
       </c>
       <c r="K105" t="n">
-        <v>8.571428571428601</v>
+        <v>-17.64705882352929</v>
       </c>
       <c r="L105" t="n">
         <v>28.66999999999998</v>
@@ -5634,7 +5656,7 @@
         <v>28.50000000000001</v>
       </c>
       <c r="K106" t="n">
-        <v>11.11111111111109</v>
+        <v>0</v>
       </c>
       <c r="L106" t="n">
         <v>28.64999999999998</v>
@@ -5685,7 +5707,7 @@
         <v>28.60000000000001</v>
       </c>
       <c r="K107" t="n">
-        <v>2.857142857142903</v>
+        <v>-19.9999999999999</v>
       </c>
       <c r="L107" t="n">
         <v>28.63999999999998</v>
@@ -5736,7 +5758,7 @@
         <v>28.90000000000001</v>
       </c>
       <c r="K108" t="n">
-        <v>-8.108108108108144</v>
+        <v>-25</v>
       </c>
       <c r="L108" t="n">
         <v>28.57999999999998</v>
@@ -5787,7 +5809,7 @@
         <v>29.20000000000001</v>
       </c>
       <c r="K109" t="n">
-        <v>0</v>
+        <v>12.50000000000022</v>
       </c>
       <c r="L109" t="n">
         <v>28.56999999999999</v>
@@ -5838,7 +5860,7 @@
         <v>29.20000000000001</v>
       </c>
       <c r="K110" t="n">
-        <v>-8.108108108108041</v>
+        <v>-7.692307692307566</v>
       </c>
       <c r="L110" t="n">
         <v>28.58999999999999</v>
@@ -5889,7 +5911,7 @@
         <v>29.40000000000001</v>
       </c>
       <c r="K111" t="n">
-        <v>-5.555555555555633</v>
+        <v>-7.692307692307819</v>
       </c>
       <c r="L111" t="n">
         <v>28.55999999999999</v>
@@ -5940,7 +5962,7 @@
         <v>29.40000000000001</v>
       </c>
       <c r="K112" t="n">
-        <v>-2.857142857142898</v>
+        <v>-27.27272727272739</v>
       </c>
       <c r="L112" t="n">
         <v>28.54999999999999</v>
@@ -6042,7 +6064,7 @@
         <v>29.90000000000002</v>
       </c>
       <c r="K114" t="n">
-        <v>-2.702702702702646</v>
+        <v>-20</v>
       </c>
       <c r="L114" t="n">
         <v>28.50999999999999</v>
@@ -6093,7 +6115,7 @@
         <v>30.10000000000002</v>
       </c>
       <c r="K115" t="n">
-        <v>-8.571428571428601</v>
+        <v>-12.49999999999992</v>
       </c>
       <c r="L115" t="n">
         <v>28.49999999999999</v>
@@ -6144,7 +6166,7 @@
         <v>30.10000000000002</v>
       </c>
       <c r="K116" t="n">
-        <v>-11.7647058823529</v>
+        <v>-6.66666666666673</v>
       </c>
       <c r="L116" t="n">
         <v>28.47999999999999</v>
@@ -6195,7 +6217,7 @@
         <v>30.10000000000002</v>
       </c>
       <c r="K117" t="n">
-        <v>-6.24999999999998</v>
+        <v>16.66666666666652</v>
       </c>
       <c r="L117" t="n">
         <v>28.46999999999999</v>
@@ -6246,7 +6268,7 @@
         <v>30.10000000000002</v>
       </c>
       <c r="K118" t="n">
-        <v>-13.33333333333329</v>
+        <v>-11.1111111111112</v>
       </c>
       <c r="L118" t="n">
         <v>28.48999999999999</v>
@@ -6297,7 +6319,7 @@
         <v>30.30000000000001</v>
       </c>
       <c r="K119" t="n">
-        <v>-13.33333333333329</v>
+        <v>-27.27272727272722</v>
       </c>
       <c r="L119" t="n">
         <v>28.45999999999999</v>
@@ -6348,7 +6370,7 @@
         <v>30.50000000000001</v>
       </c>
       <c r="K120" t="n">
-        <v>3.448275862069016</v>
+        <v>9.090909090909207</v>
       </c>
       <c r="L120" t="n">
         <v>28.44999999999998</v>
@@ -6399,7 +6421,7 @@
         <v>30.50000000000001</v>
       </c>
       <c r="K121" t="n">
-        <v>-7.692307692307672</v>
+        <v>9.090909090909207</v>
       </c>
       <c r="L121" t="n">
         <v>28.45999999999999</v>
@@ -6450,7 +6472,7 @@
         <v>30.50000000000001</v>
       </c>
       <c r="K122" t="n">
-        <v>0</v>
+        <v>-11.11111111111129</v>
       </c>
       <c r="L122" t="n">
         <v>28.46999999999999</v>
@@ -6501,7 +6523,7 @@
         <v>30.60000000000002</v>
       </c>
       <c r="K123" t="n">
-        <v>-4.347826086956428</v>
+        <v>42.857142857143</v>
       </c>
       <c r="L123" t="n">
         <v>28.46999999999999</v>
@@ -6552,7 +6574,7 @@
         <v>31.00000000000001</v>
       </c>
       <c r="K124" t="n">
-        <v>15.38461538461532</v>
+        <v>55.55555555555565</v>
       </c>
       <c r="L124" t="n">
         <v>28.53999999999998</v>
@@ -6603,7 +6625,7 @@
         <v>31.20000000000001</v>
       </c>
       <c r="K125" t="n">
-        <v>21.42857142857135</v>
+        <v>63.63636363636369</v>
       </c>
       <c r="L125" t="n">
         <v>28.60999999999999</v>
@@ -6654,7 +6676,7 @@
         <v>31.30000000000001</v>
       </c>
       <c r="K126" t="n">
-        <v>14.28571428571436</v>
+        <v>50.0000000000003</v>
       </c>
       <c r="L126" t="n">
         <v>28.66999999999999</v>
@@ -6705,7 +6727,7 @@
         <v>31.30000000000001</v>
       </c>
       <c r="K127" t="n">
-        <v>18.5185185185185</v>
+        <v>50.0000000000003</v>
       </c>
       <c r="L127" t="n">
         <v>28.72999999999999</v>
@@ -6756,7 +6778,7 @@
         <v>31.40000000000001</v>
       </c>
       <c r="K128" t="n">
-        <v>27.99999999999993</v>
+        <v>63.63636363636369</v>
       </c>
       <c r="L128" t="n">
         <v>28.77999999999999</v>
@@ -6807,7 +6829,7 @@
         <v>31.90000000000001</v>
       </c>
       <c r="K129" t="n">
-        <v>-3.703703703703753</v>
+        <v>0</v>
       </c>
       <c r="L129" t="n">
         <v>28.79999999999999</v>
@@ -6858,7 +6880,7 @@
         <v>32.40000000000001</v>
       </c>
       <c r="K130" t="n">
-        <v>12.49999999999994</v>
+        <v>26.31578947368423</v>
       </c>
       <c r="L130" t="n">
         <v>28.84999999999999</v>
@@ -6909,7 +6931,7 @@
         <v>32.40000000000001</v>
       </c>
       <c r="K131" t="n">
-        <v>20.00000000000005</v>
+        <v>26.31578947368423</v>
       </c>
       <c r="L131" t="n">
         <v>28.89999999999999</v>
@@ -6960,7 +6982,7 @@
         <v>32.70000000000002</v>
       </c>
       <c r="K132" t="n">
-        <v>27.27272727272731</v>
+        <v>33.33333333333328</v>
       </c>
       <c r="L132" t="n">
         <v>28.97999999999999</v>
@@ -7011,7 +7033,7 @@
         <v>33.40000000000002</v>
       </c>
       <c r="K133" t="n">
-        <v>0</v>
+        <v>-16.66666666666657</v>
       </c>
       <c r="L133" t="n">
         <v>28.97999999999999</v>
@@ -7062,7 +7084,7 @@
         <v>33.50000000000001</v>
       </c>
       <c r="K134" t="n">
-        <v>11.11111111111108</v>
+        <v>-21.7391304347826</v>
       </c>
       <c r="L134" t="n">
         <v>28.94999999999999</v>
@@ -7113,7 +7135,7 @@
         <v>33.50000000000001</v>
       </c>
       <c r="K135" t="n">
-        <v>5.882352941176452</v>
+        <v>-18.18181818181825</v>
       </c>
       <c r="L135" t="n">
         <v>28.89999999999999</v>
@@ -7164,7 +7186,7 @@
         <v>33.50000000000001</v>
       </c>
       <c r="K136" t="n">
-        <v>5.882352941176452</v>
+        <v>-18.18181818181825</v>
       </c>
       <c r="L136" t="n">
         <v>28.85999999999999</v>
@@ -7215,7 +7237,7 @@
         <v>33.90000000000002</v>
       </c>
       <c r="K137" t="n">
-        <v>15.78947368421055</v>
+        <v>4.000000000000045</v>
       </c>
       <c r="L137" t="n">
         <v>28.85999999999999</v>
@@ -7317,7 +7339,7 @@
         <v>34.50000000000002</v>
       </c>
       <c r="K139" t="n">
-        <v>4.761904761904738</v>
+        <v>-23.80952380952371</v>
       </c>
       <c r="L139" t="n">
         <v>28.80999999999998</v>
@@ -7368,7 +7390,7 @@
         <v>34.80000000000003</v>
       </c>
       <c r="K140" t="n">
-        <v>-6.97674418604651</v>
+        <v>-33.33333333333319</v>
       </c>
       <c r="L140" t="n">
         <v>28.72999999999998</v>
@@ -7419,7 +7441,7 @@
         <v>35.10000000000002</v>
       </c>
       <c r="K141" t="n">
-        <v>0</v>
+        <v>-33.33333333333328</v>
       </c>
       <c r="L141" t="n">
         <v>28.67999999999999</v>
@@ -7470,7 +7492,7 @@
         <v>35.10000000000002</v>
       </c>
       <c r="K142" t="n">
-        <v>0</v>
+        <v>-5.882352941176544</v>
       </c>
       <c r="L142" t="n">
         <v>28.59999999999998</v>
@@ -7521,7 +7543,7 @@
         <v>35.10000000000002</v>
       </c>
       <c r="K143" t="n">
-        <v>-2.22222222222225</v>
+        <v>-12.49999999999989</v>
       </c>
       <c r="L143" t="n">
         <v>28.58999999999998</v>
@@ -7572,7 +7594,7 @@
         <v>35.50000000000002</v>
       </c>
       <c r="K144" t="n">
-        <v>-19.99999999999994</v>
+        <v>-29.99999999999979</v>
       </c>
       <c r="L144" t="n">
         <v>28.52999999999998</v>
@@ -7623,7 +7645,7 @@
         <v>35.90000000000002</v>
       </c>
       <c r="K145" t="n">
-        <v>-14.89361702127656</v>
+        <v>-8.333333333333284</v>
       </c>
       <c r="L145" t="n">
         <v>28.50999999999998</v>
@@ -7674,7 +7696,7 @@
         <v>35.90000000000002</v>
       </c>
       <c r="K146" t="n">
-        <v>-13.04347826086957</v>
+        <v>-30.00000000000007</v>
       </c>
       <c r="L146" t="n">
         <v>28.48999999999999</v>
@@ -7725,7 +7747,7 @@
         <v>35.90000000000002</v>
       </c>
       <c r="K147" t="n">
-        <v>-13.04347826086957</v>
+        <v>0</v>
       </c>
       <c r="L147" t="n">
         <v>28.42999999999999</v>
@@ -7776,7 +7798,7 @@
         <v>35.90000000000002</v>
       </c>
       <c r="K148" t="n">
-        <v>-11.11111111111109</v>
+        <v>0</v>
       </c>
       <c r="L148" t="n">
         <v>28.42999999999999</v>
@@ -7827,7 +7849,7 @@
         <v>36.90000000000002</v>
       </c>
       <c r="K149" t="n">
-        <v>-19.99999999999997</v>
+        <v>-33.33333333333339</v>
       </c>
       <c r="L149" t="n">
         <v>28.32999999999998</v>
@@ -7878,7 +7900,7 @@
         <v>37.60000000000002</v>
       </c>
       <c r="K150" t="n">
-        <v>-15.38461538461537</v>
+        <v>-12.00000000000003</v>
       </c>
       <c r="L150" t="n">
         <v>28.32999999999998</v>
@@ -7929,7 +7951,7 @@
         <v>38.60000000000002</v>
       </c>
       <c r="K151" t="n">
-        <v>-29.03225806451609</v>
+        <v>-37.14285714285716</v>
       </c>
       <c r="L151" t="n">
         <v>28.19999999999998</v>
@@ -7980,7 +8002,7 @@
         <v>39.00000000000003</v>
       </c>
       <c r="K152" t="n">
-        <v>-26.98412698412692</v>
+        <v>-23.07692307692301</v>
       </c>
       <c r="L152" t="n">
         <v>28.10999999999999</v>

--- a/BackTest/2019-11-02 BackTest CHR.xlsx
+++ b/BackTest/2019-11-02 BackTest CHR.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S152"/>
+  <dimension ref="A1:M131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,60 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>closegap_cunsum</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>closegap_abs_cumsum</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>CMO</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>MA5</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>MA20</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>MA30</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>SPP</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -481,19 +451,19 @@
         <v>27.72999999999999</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="K2" t="n">
+        <v>28.6</v>
+      </c>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -520,23 +490,23 @@
         <v>27.74999999999999</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="K3" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -563,23 +533,23 @@
         <v>27.77499999999998</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>0.09999999999999787</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.09999999999999787</v>
-      </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="K4" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -606,23 +576,23 @@
         <v>27.80333333333332</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>0.6999999999999993</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0.6999999999999993</v>
-      </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="K5" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -649,23 +619,23 @@
         <v>27.82833333333332</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>0.6999999999999993</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.6999999999999993</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="K6" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -695,20 +665,18 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.8999999999999986</v>
-      </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -738,20 +706,18 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J8" t="n">
-        <v>2.399999999999999</v>
-      </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -783,18 +749,16 @@
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>3.399999999999999</v>
-      </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="n">
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -821,23 +785,23 @@
         <v>27.89499999999998</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.8000000000000007</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>4.199999999999999</v>
-      </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="K10" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -867,22 +831,18 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.8000000000000007</v>
-      </c>
-      <c r="J11" t="n">
-        <v>4.199999999999999</v>
-      </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>28.54</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -909,27 +869,23 @@
         <v>27.91833333333331</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>5</v>
+        <v>28.6</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>28.54</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -956,27 +912,23 @@
         <v>27.92666666666664</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.1000000000000014</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>5.100000000000001</v>
+        <v>28.6</v>
       </c>
       <c r="K13" t="n">
-        <v>-3.999999999999983</v>
-      </c>
-      <c r="L13" t="n">
-        <v>28.52999999999999</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1003,27 +955,23 @@
         <v>27.94166666666665</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.6000000000000014</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>5.600000000000001</v>
+        <v>28</v>
       </c>
       <c r="K14" t="n">
-        <v>-26.53061224489796</v>
-      </c>
-      <c r="L14" t="n">
-        <v>28.46</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1053,24 +1001,18 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.7000000000000028</v>
-      </c>
-      <c r="J15" t="n">
-        <v>5.700000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="n">
-        <v>-28.00000000000002</v>
-      </c>
-      <c r="L15" t="n">
-        <v>28.31999999999999</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1097,27 +1039,23 @@
         <v>27.94333333333332</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.7000000000000028</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>5.700000000000003</v>
+        <v>27.5</v>
       </c>
       <c r="K16" t="n">
-        <v>-25.00000000000004</v>
-      </c>
-      <c r="L16" t="n">
-        <v>28.17999999999999</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1144,27 +1082,23 @@
         <v>27.94666666666665</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.6000000000000014</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>5.800000000000004</v>
+        <v>27.9</v>
       </c>
       <c r="K17" t="n">
-        <v>11.76470588235288</v>
-      </c>
-      <c r="L17" t="n">
-        <v>28.06999999999999</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1191,27 +1125,23 @@
         <v>27.96666666666665</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.3000000000000007</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>6.100000000000005</v>
+        <v>28</v>
       </c>
       <c r="K18" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L18" t="n">
-        <v>28.13999999999999</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1238,27 +1168,23 @@
         <v>27.97166666666665</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.6000000000000014</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>6.400000000000006</v>
+        <v>28</v>
       </c>
       <c r="K19" t="n">
-        <v>9.090909090909033</v>
-      </c>
-      <c r="L19" t="n">
-        <v>28.07999999999998</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1285,27 +1211,23 @@
         <v>27.98166666666665</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.3000000000000007</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>6.700000000000006</v>
+        <v>28.3</v>
       </c>
       <c r="K20" t="n">
-        <v>19.99999999999994</v>
-      </c>
-      <c r="L20" t="n">
-        <v>28.12999999999998</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1332,29 +1254,23 @@
         <v>27.98833333333332</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.6000000000000014</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>7.000000000000007</v>
+        <v>28</v>
       </c>
       <c r="K21" t="n">
-        <v>-29.99999999999996</v>
-      </c>
-      <c r="L21" t="n">
-        <v>28.14999999999998</v>
+        <v>28.6</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M21" t="n">
-        <v>28.345</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1381,29 +1297,23 @@
         <v>28.00333333333332</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.3000000000000007</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>7.300000000000008</v>
+        <v>28</v>
       </c>
       <c r="K22" t="n">
-        <v>-9.090909090909033</v>
-      </c>
-      <c r="L22" t="n">
-        <v>28.11999999999998</v>
+        <v>28.6</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M22" t="n">
-        <v>28.32999999999999</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1430,29 +1340,23 @@
         <v>28.02166666666665</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
-        <v>0.09999999999999787</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>7.700000000000006</v>
+        <v>28.3</v>
       </c>
       <c r="K23" t="n">
-        <v>33.33333333333322</v>
-      </c>
-      <c r="L23" t="n">
-        <v>28.13999999999998</v>
+        <v>28.6</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M23" t="n">
-        <v>28.335</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1479,29 +1383,23 @@
         <v>28.03833333333332</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.3000000000000007</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>8.100000000000005</v>
+        <v>28.3</v>
       </c>
       <c r="K24" t="n">
-        <v>16.66666666666674</v>
-      </c>
-      <c r="L24" t="n">
-        <v>28.16999999999998</v>
+        <v>28.6</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M24" t="n">
-        <v>28.31499999999999</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1528,29 +1426,23 @@
         <v>28.04999999999999</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.6000000000000014</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>8.400000000000006</v>
+        <v>28</v>
       </c>
       <c r="K25" t="n">
-        <v>3.703703703703753</v>
-      </c>
-      <c r="L25" t="n">
-        <v>28.17999999999999</v>
+        <v>28.6</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M25" t="n">
-        <v>28.24999999999999</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1577,29 +1469,23 @@
         <v>28.06999999999999</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.2000000000000028</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>8.800000000000004</v>
+        <v>28.4</v>
       </c>
       <c r="K26" t="n">
-        <v>13.33333333333329</v>
-      </c>
-      <c r="L26" t="n">
-        <v>28.22999999999998</v>
+        <v>28.6</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M26" t="n">
-        <v>28.20499999999999</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1626,29 +1512,23 @@
         <v>28.09166666666665</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.1000000000000014</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>8.900000000000006</v>
+        <v>28.4</v>
       </c>
       <c r="K27" t="n">
-        <v>7.142857142857116</v>
-      </c>
-      <c r="L27" t="n">
-        <v>28.27999999999998</v>
+        <v>28.6</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M27" t="n">
-        <v>28.17499999999999</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1675,29 +1555,23 @@
         <v>28.11666666666665</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>9.500000000000007</v>
+        <v>28.7</v>
       </c>
       <c r="K28" t="n">
-        <v>35.48387096774196</v>
-      </c>
-      <c r="L28" t="n">
-        <v>28.35999999999999</v>
+        <v>28.6</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M28" t="n">
-        <v>28.24999999999999</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1724,29 +1598,23 @@
         <v>28.14499999999999</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
-        <v>0.6999999999999993</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>9.700000000000006</v>
+        <v>29.1</v>
       </c>
       <c r="K29" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L29" t="n">
-        <v>28.48999999999999</v>
+        <v>28.6</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M29" t="n">
-        <v>28.28499999999999</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1776,26 +1644,18 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J30" t="n">
-        <v>9.900000000000006</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="n">
-        <v>37.93103448275869</v>
-      </c>
-      <c r="L30" t="n">
-        <v>28.56999999999999</v>
+        <v>28.6</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M30" t="n">
-        <v>28.34999999999999</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1825,28 +1685,18 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>1.899999999999999</v>
-      </c>
-      <c r="J31" t="n">
-        <v>11.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="n">
-        <v>55.00000000000003</v>
-      </c>
-      <c r="L31" t="n">
-        <v>28.81999999999999</v>
+        <v>28.6</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M31" t="n">
-        <v>28.485</v>
-      </c>
-      <c r="N31" t="n">
-        <v>28.50333333333333</v>
-      </c>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1876,28 +1726,18 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>2.099999999999998</v>
-      </c>
-      <c r="J32" t="n">
-        <v>11.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="n">
-        <v>52.63157894736846</v>
-      </c>
-      <c r="L32" t="n">
-        <v>29.05999999999998</v>
+        <v>28.6</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M32" t="n">
-        <v>28.59</v>
-      </c>
-      <c r="N32" t="n">
-        <v>28.57333333333333</v>
-      </c>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1927,28 +1767,18 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>2.099999999999998</v>
-      </c>
-      <c r="J33" t="n">
-        <v>11.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="n">
-        <v>70.58823529411762</v>
-      </c>
-      <c r="L33" t="n">
-        <v>29.25999999999998</v>
+        <v>28.6</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M33" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="N33" t="n">
-        <v>28.64333333333333</v>
-      </c>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1978,29 +1808,19 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>2.399999999999999</v>
-      </c>
-      <c r="J34" t="n">
-        <v>11.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="n">
-        <v>88.2352941176471</v>
-      </c>
-      <c r="L34" t="n">
-        <v>29.52999999999998</v>
+        <v>28.6</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
       </c>
       <c r="M34" t="n">
-        <v>28.85</v>
-      </c>
-      <c r="N34" t="n">
-        <v>28.72</v>
-      </c>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="n">
-        <v>1</v>
+        <v>1.078916083916084</v>
       </c>
     </row>
     <row r="35">
@@ -2029,28 +1849,12 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>2.299999999999997</v>
-      </c>
-      <c r="J35" t="n">
-        <v>11.90000000000001</v>
-      </c>
-      <c r="K35" t="n">
-        <v>80.64516129032255</v>
-      </c>
-      <c r="L35" t="n">
-        <v>29.81999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
-        <v>29</v>
-      </c>
-      <c r="N35" t="n">
-        <v>28.77333333333333</v>
-      </c>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2080,28 +1884,12 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>2.099999999999998</v>
-      </c>
-      <c r="J36" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K36" t="n">
-        <v>68.74999999999999</v>
-      </c>
-      <c r="L36" t="n">
-        <v>30.04999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
-        <v>29.14</v>
-      </c>
-      <c r="N36" t="n">
-        <v>28.82</v>
-      </c>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2131,28 +1919,12 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="J37" t="n">
-        <v>12.50000000000001</v>
-      </c>
-      <c r="K37" t="n">
-        <v>66.66666666666666</v>
-      </c>
-      <c r="L37" t="n">
-        <v>30.30999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
-        <v>29.29500000000001</v>
-      </c>
-      <c r="N37" t="n">
-        <v>28.88666666666667</v>
-      </c>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2182,28 +1954,12 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>3</v>
-      </c>
-      <c r="J38" t="n">
-        <v>13.00000000000001</v>
-      </c>
-      <c r="K38" t="n">
-        <v>69.6969696969697</v>
-      </c>
-      <c r="L38" t="n">
-        <v>30.55999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
-        <v>29.46000000000001</v>
-      </c>
-      <c r="N38" t="n">
-        <v>29.02</v>
-      </c>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,28 +1989,12 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>2.399999999999999</v>
-      </c>
-      <c r="J39" t="n">
-        <v>13.60000000000001</v>
-      </c>
-      <c r="K39" t="n">
-        <v>51.35135135135127</v>
-      </c>
-      <c r="L39" t="n">
-        <v>30.72999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
-        <v>29.61000000000001</v>
-      </c>
-      <c r="N39" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2284,28 +2024,12 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>2.299999999999997</v>
-      </c>
-      <c r="J40" t="n">
-        <v>13.70000000000001</v>
-      </c>
-      <c r="K40" t="n">
-        <v>16.66666666666657</v>
-      </c>
-      <c r="L40" t="n">
-        <v>30.90999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
-        <v>29.74000000000001</v>
-      </c>
-      <c r="N40" t="n">
-        <v>29.20333333333333</v>
-      </c>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2335,28 +2059,12 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.7999999999999972</v>
-      </c>
-      <c r="J41" t="n">
-        <v>15.20000000000001</v>
-      </c>
-      <c r="K41" t="n">
-        <v>-35.13513513513509</v>
-      </c>
-      <c r="L41" t="n">
-        <v>30.79999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
-        <v>29.81000000000001</v>
-      </c>
-      <c r="N41" t="n">
-        <v>29.25666666666667</v>
-      </c>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2386,28 +2094,12 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.099999999999998</v>
-      </c>
-      <c r="J42" t="n">
-        <v>15.50000000000001</v>
-      </c>
-      <c r="K42" t="n">
-        <v>-24.99999999999996</v>
-      </c>
-      <c r="L42" t="n">
-        <v>30.69999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
-        <v>29.88000000000001</v>
-      </c>
-      <c r="N42" t="n">
-        <v>29.29333333333334</v>
-      </c>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2437,28 +2129,12 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>1.299999999999997</v>
-      </c>
-      <c r="J43" t="n">
-        <v>15.70000000000001</v>
-      </c>
-      <c r="K43" t="n">
-        <v>-28.2051282051282</v>
-      </c>
-      <c r="L43" t="n">
-        <v>30.61999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
-        <v>29.94000000000001</v>
-      </c>
-      <c r="N43" t="n">
-        <v>29.34</v>
-      </c>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2488,28 +2164,12 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.799999999999997</v>
-      </c>
-      <c r="J44" t="n">
-        <v>16.20000000000001</v>
-      </c>
-      <c r="K44" t="n">
-        <v>-11.62790697674417</v>
-      </c>
-      <c r="L44" t="n">
-        <v>30.55999999999997</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
-        <v>30.04500000000001</v>
-      </c>
-      <c r="N44" t="n">
-        <v>29.42</v>
-      </c>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2539,28 +2199,12 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.299999999999997</v>
-      </c>
-      <c r="J45" t="n">
-        <v>16.70000000000001</v>
-      </c>
-      <c r="K45" t="n">
-        <v>-17.39130434782608</v>
-      </c>
-      <c r="L45" t="n">
-        <v>30.45999999999997</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
-        <v>30.14000000000001</v>
-      </c>
-      <c r="N45" t="n">
-        <v>29.48666666666667</v>
-      </c>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2590,28 +2234,12 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>1.399999999999999</v>
-      </c>
-      <c r="J46" t="n">
-        <v>16.80000000000001</v>
-      </c>
-      <c r="K46" t="n">
-        <v>-25.58139534883722</v>
-      </c>
-      <c r="L46" t="n">
-        <v>30.38999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
-        <v>30.22000000000001</v>
-      </c>
-      <c r="N46" t="n">
-        <v>29.55666666666667</v>
-      </c>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2641,28 +2269,12 @@
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>1.599999999999998</v>
-      </c>
-      <c r="J47" t="n">
-        <v>17.00000000000001</v>
-      </c>
-      <c r="K47" t="n">
-        <v>-35.00000000000002</v>
-      </c>
-      <c r="L47" t="n">
-        <v>30.29999999999997</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
-        <v>30.30500000000001</v>
-      </c>
-      <c r="N47" t="n">
-        <v>29.63</v>
-      </c>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2692,28 +2304,12 @@
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>1.599999999999998</v>
-      </c>
-      <c r="J48" t="n">
-        <v>17.00000000000001</v>
-      </c>
-      <c r="K48" t="n">
-        <v>-23.52941176470589</v>
-      </c>
-      <c r="L48" t="n">
-        <v>30.15999999999997</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
-        <v>30.36000000000001</v>
-      </c>
-      <c r="N48" t="n">
-        <v>29.69333333333334</v>
-      </c>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2743,28 +2339,12 @@
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>1.399999999999999</v>
-      </c>
-      <c r="J49" t="n">
-        <v>17.20000000000001</v>
-      </c>
-      <c r="K49" t="n">
-        <v>-25.71428571428567</v>
-      </c>
-      <c r="L49" t="n">
-        <v>30.05999999999997</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
-        <v>30.39500000000002</v>
-      </c>
-      <c r="N49" t="n">
-        <v>29.76000000000001</v>
-      </c>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2794,28 +2374,12 @@
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="J50" t="n">
-        <v>17.30000000000001</v>
-      </c>
-      <c r="K50" t="n">
-        <v>33.33333333333345</v>
-      </c>
-      <c r="L50" t="n">
-        <v>29.97999999999997</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
-        <v>30.44500000000001</v>
-      </c>
-      <c r="N50" t="n">
-        <v>29.82000000000001</v>
-      </c>
-      <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2845,28 +2409,12 @@
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>1.399999999999999</v>
-      </c>
-      <c r="J51" t="n">
-        <v>17.40000000000001</v>
-      </c>
-      <c r="K51" t="n">
-        <v>15.78947368421055</v>
-      </c>
-      <c r="L51" t="n">
-        <v>30.03999999999997</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
-        <v>30.42000000000002</v>
-      </c>
-      <c r="N51" t="n">
-        <v>29.88666666666667</v>
-      </c>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2896,28 +2444,12 @@
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>0.7999999999999972</v>
-      </c>
-      <c r="J52" t="n">
-        <v>18.00000000000001</v>
-      </c>
-      <c r="K52" t="n">
-        <v>-21.73913043478257</v>
-      </c>
-      <c r="L52" t="n">
-        <v>30.00999999999997</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
-        <v>30.35500000000001</v>
-      </c>
-      <c r="N52" t="n">
-        <v>29.92333333333334</v>
-      </c>
-      <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2947,28 +2479,12 @@
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>1.199999999999999</v>
-      </c>
-      <c r="J53" t="n">
-        <v>18.40000000000002</v>
-      </c>
-      <c r="K53" t="n">
-        <v>-27.2727272727271</v>
-      </c>
-      <c r="L53" t="n">
-        <v>29.99999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
-        <v>30.31000000000001</v>
-      </c>
-      <c r="N53" t="n">
-        <v>29.96</v>
-      </c>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2998,28 +2514,12 @@
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>1.199999999999999</v>
-      </c>
-      <c r="J54" t="n">
-        <v>18.40000000000002</v>
-      </c>
-      <c r="K54" t="n">
-        <v>-5.882352941176324</v>
-      </c>
-      <c r="L54" t="n">
-        <v>29.93999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
-        <v>30.25000000000001</v>
-      </c>
-      <c r="N54" t="n">
-        <v>30.01000000000001</v>
-      </c>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3049,28 +2549,12 @@
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>1.299999999999997</v>
-      </c>
-      <c r="J55" t="n">
-        <v>18.50000000000001</v>
-      </c>
-      <c r="K55" t="n">
-        <v>-5.882352941176544</v>
-      </c>
-      <c r="L55" t="n">
-        <v>29.93999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
-        <v>30.20000000000001</v>
-      </c>
-      <c r="N55" t="n">
-        <v>30.07333333333334</v>
-      </c>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3100,28 +2584,12 @@
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>1.299999999999997</v>
-      </c>
-      <c r="J56" t="n">
-        <v>18.50000000000001</v>
-      </c>
-      <c r="K56" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L56" t="n">
-        <v>29.92999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
-        <v>30.16</v>
-      </c>
-      <c r="N56" t="n">
-        <v>30.12333333333334</v>
-      </c>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3151,28 +2619,12 @@
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>1.099999999999998</v>
-      </c>
-      <c r="J57" t="n">
-        <v>18.70000000000001</v>
-      </c>
-      <c r="K57" t="n">
-        <v>-29.41176470588231</v>
-      </c>
-      <c r="L57" t="n">
-        <v>29.87999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
-        <v>30.09</v>
-      </c>
-      <c r="N57" t="n">
-        <v>30.16333333333334</v>
-      </c>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3202,28 +2654,12 @@
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>1.099999999999998</v>
-      </c>
-      <c r="J58" t="n">
-        <v>18.70000000000001</v>
-      </c>
-      <c r="K58" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L58" t="n">
-        <v>29.82999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
-        <v>29.995</v>
-      </c>
-      <c r="N58" t="n">
-        <v>30.18333333333334</v>
-      </c>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3253,28 +2689,12 @@
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>0.7999999999999972</v>
-      </c>
-      <c r="J59" t="n">
-        <v>19.00000000000001</v>
-      </c>
-      <c r="K59" t="n">
-        <v>-41.17647058823539</v>
-      </c>
-      <c r="L59" t="n">
-        <v>29.76999999999997</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
-        <v>29.915</v>
-      </c>
-      <c r="N59" t="n">
-        <v>30.18666666666667</v>
-      </c>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3304,28 +2724,12 @@
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>0.3999999999999986</v>
-      </c>
-      <c r="J60" t="n">
-        <v>19.40000000000001</v>
-      </c>
-      <c r="K60" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L60" t="n">
-        <v>29.65999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
-        <v>29.82</v>
-      </c>
-      <c r="N60" t="n">
-        <v>30.18333333333334</v>
-      </c>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3355,28 +2759,12 @@
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>0.6999999999999993</v>
-      </c>
-      <c r="J61" t="n">
-        <v>19.70000000000001</v>
-      </c>
-      <c r="K61" t="n">
-        <v>-5.882352941176348</v>
-      </c>
-      <c r="L61" t="n">
-        <v>29.58999999999997</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
-        <v>29.815</v>
-      </c>
-      <c r="N61" t="n">
-        <v>30.14333333333334</v>
-      </c>
-      <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3406,28 +2794,12 @@
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>-0.2000000000000028</v>
-      </c>
-      <c r="J62" t="n">
-        <v>20.60000000000002</v>
-      </c>
-      <c r="K62" t="n">
-        <v>-63.63636363636375</v>
-      </c>
-      <c r="L62" t="n">
-        <v>29.48999999999997</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
-        <v>29.75</v>
-      </c>
-      <c r="N62" t="n">
-        <v>30.06666666666667</v>
-      </c>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3457,28 +2829,12 @@
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>-0.1000000000000014</v>
-      </c>
-      <c r="J63" t="n">
-        <v>20.70000000000002</v>
-      </c>
-      <c r="K63" t="n">
-        <v>-56.5217391304348</v>
-      </c>
-      <c r="L63" t="n">
-        <v>29.35999999999997</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
-        <v>29.68</v>
-      </c>
-      <c r="N63" t="n">
-        <v>29.99333333333334</v>
-      </c>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3508,28 +2864,12 @@
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J64" t="n">
-        <v>21.00000000000002</v>
-      </c>
-      <c r="K64" t="n">
-        <v>-43.99999999999985</v>
-      </c>
-      <c r="L64" t="n">
-        <v>29.25999999999997</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="N64" t="n">
-        <v>29.92</v>
-      </c>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3559,28 +2899,12 @@
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>0.09999999999999787</v>
-      </c>
-      <c r="J65" t="n">
-        <v>21.10000000000002</v>
-      </c>
-      <c r="K65" t="n">
-        <v>-46.15384615384604</v>
-      </c>
-      <c r="L65" t="n">
-        <v>29.13999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
-        <v>29.54</v>
-      </c>
-      <c r="N65" t="n">
-        <v>29.84666666666667</v>
-      </c>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3610,28 +2934,12 @@
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>-0.1000000000000014</v>
-      </c>
-      <c r="J66" t="n">
-        <v>21.30000000000002</v>
-      </c>
-      <c r="K66" t="n">
-        <v>-46.15384615384604</v>
-      </c>
-      <c r="L66" t="n">
-        <v>28.99999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
-        <v>29.465</v>
-      </c>
-      <c r="N66" t="n">
-        <v>29.77333333333333</v>
-      </c>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3661,28 +2969,12 @@
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>-0.1000000000000014</v>
-      </c>
-      <c r="J67" t="n">
-        <v>21.30000000000002</v>
-      </c>
-      <c r="K67" t="n">
-        <v>-46.15384615384604</v>
-      </c>
-      <c r="L67" t="n">
-        <v>28.87999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
-        <v>29.38</v>
-      </c>
-      <c r="N67" t="n">
-        <v>29.68666666666667</v>
-      </c>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3712,28 +3004,12 @@
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J68" t="n">
-        <v>21.60000000000002</v>
-      </c>
-      <c r="K68" t="n">
-        <v>-23.07692307692295</v>
-      </c>
-      <c r="L68" t="n">
-        <v>28.78999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
-        <v>29.31</v>
-      </c>
-      <c r="N68" t="n">
-        <v>29.59333333333333</v>
-      </c>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3763,28 +3039,12 @@
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J69" t="n">
-        <v>21.60000000000002</v>
-      </c>
-      <c r="K69" t="n">
-        <v>-9.090909090909033</v>
-      </c>
-      <c r="L69" t="n">
-        <v>28.72999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
-        <v>29.24999999999999</v>
-      </c>
-      <c r="N69" t="n">
-        <v>29.52</v>
-      </c>
-      <c r="O69" t="inlineStr"/>
-      <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3814,28 +3074,12 @@
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>0.3999999999999986</v>
-      </c>
-      <c r="J70" t="n">
-        <v>21.80000000000002</v>
-      </c>
-      <c r="K70" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L70" t="n">
-        <v>28.72999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
-        <v>29.19499999999999</v>
-      </c>
-      <c r="N70" t="n">
-        <v>29.45666666666666</v>
-      </c>
-      <c r="O70" t="inlineStr"/>
-      <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3865,28 +3109,12 @@
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>-0.1000000000000014</v>
-      </c>
-      <c r="J71" t="n">
-        <v>22.30000000000002</v>
-      </c>
-      <c r="K71" t="n">
-        <v>5.882352941176544</v>
-      </c>
-      <c r="L71" t="n">
-        <v>28.64999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
-        <v>29.11999999999999</v>
-      </c>
-      <c r="N71" t="n">
-        <v>29.42666666666667</v>
-      </c>
-      <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3916,28 +3144,12 @@
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>-0.2000000000000028</v>
-      </c>
-      <c r="J72" t="n">
-        <v>22.40000000000002</v>
-      </c>
-      <c r="K72" t="n">
-        <v>-5.882352941176544</v>
-      </c>
-      <c r="L72" t="n">
-        <v>28.64999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
-        <v>29.06999999999999</v>
-      </c>
-      <c r="N72" t="n">
-        <v>29.38333333333333</v>
-      </c>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3967,28 +3179,12 @@
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>0.09999999999999787</v>
-      </c>
-      <c r="J73" t="n">
-        <v>22.70000000000002</v>
-      </c>
-      <c r="K73" t="n">
-        <v>-5.882352941176544</v>
-      </c>
-      <c r="L73" t="n">
-        <v>28.66999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
-        <v>29.015</v>
-      </c>
-      <c r="N73" t="n">
-        <v>29.34333333333333</v>
-      </c>
-      <c r="O73" t="inlineStr"/>
-      <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4020,26 +3216,10 @@
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>22.80000000000002</v>
-      </c>
-      <c r="K74" t="n">
-        <v>-5.882352941176348</v>
-      </c>
-      <c r="L74" t="n">
-        <v>28.64999999999998</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
-        <v>28.955</v>
-      </c>
-      <c r="N74" t="n">
-        <v>29.28333333333333</v>
-      </c>
-      <c r="O74" t="inlineStr"/>
-      <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4069,28 +3249,12 @@
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>-0.3000000000000007</v>
-      </c>
-      <c r="J75" t="n">
-        <v>23.10000000000002</v>
-      </c>
-      <c r="K75" t="n">
-        <v>-11.11111111111107</v>
-      </c>
-      <c r="L75" t="n">
-        <v>28.60999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
-        <v>28.875</v>
-      </c>
-      <c r="N75" t="n">
-        <v>29.23</v>
-      </c>
-      <c r="O75" t="inlineStr"/>
-      <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
-      <c r="S75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4120,28 +3284,12 @@
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>-0.2000000000000028</v>
-      </c>
-      <c r="J76" t="n">
-        <v>23.20000000000002</v>
-      </c>
-      <c r="K76" t="n">
-        <v>-5.263157894736921</v>
-      </c>
-      <c r="L76" t="n">
-        <v>28.59999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="N76" t="n">
-        <v>29.17666666666667</v>
-      </c>
-      <c r="O76" t="inlineStr"/>
-      <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr"/>
-      <c r="S76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4173,26 +3321,10 @@
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>23.40000000000002</v>
-      </c>
-      <c r="K77" t="n">
-        <v>-11.11111111111107</v>
-      </c>
-      <c r="L77" t="n">
-        <v>28.60999999999999</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
-        <v>28.745</v>
-      </c>
-      <c r="N77" t="n">
-        <v>29.12333333333333</v>
-      </c>
-      <c r="O77" t="inlineStr"/>
-      <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
-      <c r="S77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4224,26 +3356,10 @@
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>23.40000000000002</v>
-      </c>
-      <c r="K78" t="n">
-        <v>-11.11111111111107</v>
-      </c>
-      <c r="L78" t="n">
-        <v>28.58999999999999</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
-        <v>28.69</v>
-      </c>
-      <c r="N78" t="n">
-        <v>29.07</v>
-      </c>
-      <c r="O78" t="inlineStr"/>
-      <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr"/>
-      <c r="S78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4273,28 +3389,12 @@
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>0.09999999999999787</v>
-      </c>
-      <c r="J79" t="n">
-        <v>23.50000000000002</v>
-      </c>
-      <c r="K79" t="n">
-        <v>-17.64705882352946</v>
-      </c>
-      <c r="L79" t="n">
-        <v>28.57999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
-        <v>28.655</v>
-      </c>
-      <c r="N79" t="n">
-        <v>29.02666666666666</v>
-      </c>
-      <c r="O79" t="inlineStr"/>
-      <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr"/>
-      <c r="S79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4324,28 +3424,12 @@
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>0.09999999999999787</v>
-      </c>
-      <c r="J80" t="n">
-        <v>23.50000000000002</v>
-      </c>
-      <c r="K80" t="n">
-        <v>16.66666666666662</v>
-      </c>
-      <c r="L80" t="n">
-        <v>28.54999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
-        <v>28.64</v>
-      </c>
-      <c r="N80" t="n">
-        <v>28.98</v>
-      </c>
-      <c r="O80" t="inlineStr"/>
-      <c r="P80" t="inlineStr"/>
-      <c r="Q80" t="inlineStr"/>
-      <c r="R80" t="inlineStr"/>
-      <c r="S80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4375,28 +3459,12 @@
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>0.2999999999999972</v>
-      </c>
-      <c r="J81" t="n">
-        <v>23.70000000000002</v>
-      </c>
-      <c r="K81" t="n">
-        <v>38.46153846153855</v>
-      </c>
-      <c r="L81" t="n">
-        <v>28.58999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
-        <v>28.62</v>
-      </c>
-      <c r="N81" t="n">
-        <v>28.94333333333333</v>
-      </c>
-      <c r="O81" t="inlineStr"/>
-      <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr"/>
-      <c r="S81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4426,28 +3494,12 @@
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>0.2999999999999972</v>
-      </c>
-      <c r="J82" t="n">
-        <v>23.70000000000002</v>
-      </c>
-      <c r="K82" t="n">
-        <v>20</v>
-      </c>
-      <c r="L82" t="n">
-        <v>28.63999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
-        <v>28.645</v>
-      </c>
-      <c r="N82" t="n">
-        <v>28.92666666666667</v>
-      </c>
-      <c r="O82" t="inlineStr"/>
-      <c r="P82" t="inlineStr"/>
-      <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr"/>
-      <c r="S82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4477,28 +3529,12 @@
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>0.09999999999999787</v>
-      </c>
-      <c r="J83" t="n">
-        <v>23.90000000000002</v>
-      </c>
-      <c r="K83" t="n">
-        <v>9.090909090908914</v>
-      </c>
-      <c r="L83" t="n">
-        <v>28.63999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
-        <v>28.65500000000001</v>
-      </c>
-      <c r="N83" t="n">
-        <v>28.89</v>
-      </c>
-      <c r="O83" t="inlineStr"/>
-      <c r="P83" t="inlineStr"/>
-      <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr"/>
-      <c r="S83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4528,28 +3564,12 @@
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>0.3999999999999986</v>
-      </c>
-      <c r="J84" t="n">
-        <v>24.20000000000002</v>
-      </c>
-      <c r="K84" t="n">
-        <v>63.63636363636369</v>
-      </c>
-      <c r="L84" t="n">
-        <v>28.67999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
-        <v>28.66500000000001</v>
-      </c>
-      <c r="N84" t="n">
-        <v>28.86333333333334</v>
-      </c>
-      <c r="O84" t="inlineStr"/>
-      <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr"/>
-      <c r="R84" t="inlineStr"/>
-      <c r="S84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4579,28 +3599,12 @@
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>-0.3000000000000007</v>
-      </c>
-      <c r="J85" t="n">
-        <v>24.90000000000002</v>
-      </c>
-      <c r="K85" t="n">
-        <v>-5.882352941176348</v>
-      </c>
-      <c r="L85" t="n">
-        <v>28.67999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
-        <v>28.645</v>
-      </c>
-      <c r="N85" t="n">
-        <v>28.81</v>
-      </c>
-      <c r="O85" t="inlineStr"/>
-      <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="inlineStr"/>
-      <c r="S85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4630,28 +3634,12 @@
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>-0.3000000000000007</v>
-      </c>
-      <c r="J86" t="n">
-        <v>24.90000000000002</v>
-      </c>
-      <c r="K86" t="n">
-        <v>-20.0000000000001</v>
-      </c>
-      <c r="L86" t="n">
-        <v>28.66999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
-        <v>28.635</v>
-      </c>
-      <c r="N86" t="n">
-        <v>28.75666666666667</v>
-      </c>
-      <c r="O86" t="inlineStr"/>
-      <c r="P86" t="inlineStr"/>
-      <c r="Q86" t="inlineStr"/>
-      <c r="R86" t="inlineStr"/>
-      <c r="S86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4681,28 +3669,12 @@
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>-0.1000000000000014</v>
-      </c>
-      <c r="J87" t="n">
-        <v>25.10000000000002</v>
-      </c>
-      <c r="K87" t="n">
-        <v>-5.882352941176569</v>
-      </c>
-      <c r="L87" t="n">
-        <v>28.65999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
-        <v>28.635</v>
-      </c>
-      <c r="N87" t="n">
-        <v>28.71666666666667</v>
-      </c>
-      <c r="O87" t="inlineStr"/>
-      <c r="P87" t="inlineStr"/>
-      <c r="Q87" t="inlineStr"/>
-      <c r="R87" t="inlineStr"/>
-      <c r="S87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4734,26 +3706,10 @@
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>25.20000000000002</v>
-      </c>
-      <c r="K88" t="n">
-        <v>-5.882352941176348</v>
-      </c>
-      <c r="L88" t="n">
-        <v>28.65999999999998</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
-        <v>28.62500000000001</v>
-      </c>
-      <c r="N88" t="n">
-        <v>28.68</v>
-      </c>
-      <c r="O88" t="inlineStr"/>
-      <c r="P88" t="inlineStr"/>
-      <c r="Q88" t="inlineStr"/>
-      <c r="R88" t="inlineStr"/>
-      <c r="S88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4785,26 +3741,10 @@
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>25.20000000000002</v>
-      </c>
-      <c r="K89" t="n">
-        <v>-5.882352941176348</v>
-      </c>
-      <c r="L89" t="n">
-        <v>28.64999999999998</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
-        <v>28.61500000000001</v>
-      </c>
-      <c r="N89" t="n">
-        <v>28.65333333333333</v>
-      </c>
-      <c r="O89" t="inlineStr"/>
-      <c r="P89" t="inlineStr"/>
-      <c r="Q89" t="inlineStr"/>
-      <c r="R89" t="inlineStr"/>
-      <c r="S89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4834,28 +3774,12 @@
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>0.2999999999999972</v>
-      </c>
-      <c r="J90" t="n">
-        <v>25.50000000000001</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0</v>
-      </c>
-      <c r="L90" t="n">
-        <v>28.66999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
-        <v>28.61000000000001</v>
-      </c>
-      <c r="N90" t="n">
-        <v>28.65</v>
-      </c>
-      <c r="O90" t="inlineStr"/>
-      <c r="P90" t="inlineStr"/>
-      <c r="Q90" t="inlineStr"/>
-      <c r="R90" t="inlineStr"/>
-      <c r="S90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4887,26 +3811,10 @@
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>25.80000000000001</v>
-      </c>
-      <c r="K91" t="n">
-        <v>-14.28571428571419</v>
-      </c>
-      <c r="L91" t="n">
-        <v>28.63999999999999</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
-        <v>28.61500000000001</v>
-      </c>
-      <c r="N91" t="n">
-        <v>28.62666666666667</v>
-      </c>
-      <c r="O91" t="inlineStr"/>
-      <c r="P91" t="inlineStr"/>
-      <c r="Q91" t="inlineStr"/>
-      <c r="R91" t="inlineStr"/>
-      <c r="S91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4936,28 +3844,12 @@
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>-0.1000000000000014</v>
-      </c>
-      <c r="J92" t="n">
-        <v>25.90000000000001</v>
-      </c>
-      <c r="K92" t="n">
-        <v>-9.999999999999982</v>
-      </c>
-      <c r="L92" t="n">
-        <v>28.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
-        <v>28.62000000000001</v>
-      </c>
-      <c r="N92" t="n">
-        <v>28.63</v>
-      </c>
-      <c r="O92" t="inlineStr"/>
-      <c r="P92" t="inlineStr"/>
-      <c r="Q92" t="inlineStr"/>
-      <c r="R92" t="inlineStr"/>
-      <c r="S92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4989,26 +3881,10 @@
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>26.00000000000001</v>
-      </c>
-      <c r="K93" t="n">
-        <v>-22.22222222222218</v>
-      </c>
-      <c r="L93" t="n">
-        <v>28.58999999999999</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
-        <v>28.61500000000001</v>
-      </c>
-      <c r="N93" t="n">
-        <v>28.63333333333334</v>
-      </c>
-      <c r="O93" t="inlineStr"/>
-      <c r="P93" t="inlineStr"/>
-      <c r="Q93" t="inlineStr"/>
-      <c r="R93" t="inlineStr"/>
-      <c r="S93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5038,28 +3914,12 @@
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>-0.2000000000000028</v>
-      </c>
-      <c r="J94" t="n">
-        <v>26.20000000000002</v>
-      </c>
-      <c r="K94" t="n">
-        <v>7.692307692307525</v>
-      </c>
-      <c r="L94" t="n">
-        <v>28.52999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
-        <v>28.60500000000001</v>
-      </c>
-      <c r="N94" t="n">
-        <v>28.62</v>
-      </c>
-      <c r="O94" t="inlineStr"/>
-      <c r="P94" t="inlineStr"/>
-      <c r="Q94" t="inlineStr"/>
-      <c r="R94" t="inlineStr"/>
-      <c r="S94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5089,28 +3949,12 @@
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J95" t="n">
-        <v>26.60000000000002</v>
-      </c>
-      <c r="K95" t="n">
-        <v>29.41176470588231</v>
-      </c>
-      <c r="L95" t="n">
-        <v>28.57999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
-        <v>28.63000000000001</v>
-      </c>
-      <c r="N95" t="n">
-        <v>28.62333333333333</v>
-      </c>
-      <c r="O95" t="inlineStr"/>
-      <c r="P95" t="inlineStr"/>
-      <c r="Q95" t="inlineStr"/>
-      <c r="R95" t="inlineStr"/>
-      <c r="S95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5140,28 +3984,12 @@
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>0.2999999999999972</v>
-      </c>
-      <c r="J96" t="n">
-        <v>26.70000000000002</v>
-      </c>
-      <c r="K96" t="n">
-        <v>24.99999999999989</v>
-      </c>
-      <c r="L96" t="n">
-        <v>28.63999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
-        <v>28.65500000000001</v>
-      </c>
-      <c r="N96" t="n">
-        <v>28.63666666666667</v>
-      </c>
-      <c r="O96" t="inlineStr"/>
-      <c r="P96" t="inlineStr"/>
-      <c r="Q96" t="inlineStr"/>
-      <c r="R96" t="inlineStr"/>
-      <c r="S96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5191,28 +4019,12 @@
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>0.09999999999999787</v>
-      </c>
-      <c r="J97" t="n">
-        <v>26.90000000000002</v>
-      </c>
-      <c r="K97" t="n">
-        <v>5.882352941176348</v>
-      </c>
-      <c r="L97" t="n">
-        <v>28.65999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
-        <v>28.66000000000001</v>
-      </c>
-      <c r="N97" t="n">
-        <v>28.64333333333333</v>
-      </c>
-      <c r="O97" t="inlineStr"/>
-      <c r="P97" t="inlineStr"/>
-      <c r="Q97" t="inlineStr"/>
-      <c r="R97" t="inlineStr"/>
-      <c r="S97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5242,28 +4054,12 @@
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>0.2999999999999972</v>
-      </c>
-      <c r="J98" t="n">
-        <v>27.10000000000002</v>
-      </c>
-      <c r="K98" t="n">
-        <v>15.78947368421039</v>
-      </c>
-      <c r="L98" t="n">
-        <v>28.68999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
-        <v>28.675</v>
-      </c>
-      <c r="N98" t="n">
-        <v>28.64666666666667</v>
-      </c>
-      <c r="O98" t="inlineStr"/>
-      <c r="P98" t="inlineStr"/>
-      <c r="Q98" t="inlineStr"/>
-      <c r="R98" t="inlineStr"/>
-      <c r="S98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5293,28 +4089,12 @@
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>0.09999999999999787</v>
-      </c>
-      <c r="J99" t="n">
-        <v>27.30000000000001</v>
-      </c>
-      <c r="K99" t="n">
-        <v>-11.11111111111107</v>
-      </c>
-      <c r="L99" t="n">
-        <v>28.69999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
-        <v>28.675</v>
-      </c>
-      <c r="N99" t="n">
-        <v>28.64333333333334</v>
-      </c>
-      <c r="O99" t="inlineStr"/>
-      <c r="P99" t="inlineStr"/>
-      <c r="Q99" t="inlineStr"/>
-      <c r="R99" t="inlineStr"/>
-      <c r="S99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5344,28 +4124,12 @@
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>-0.2000000000000028</v>
-      </c>
-      <c r="J100" t="n">
-        <v>27.60000000000002</v>
-      </c>
-      <c r="K100" t="n">
-        <v>-11.11111111111124</v>
-      </c>
-      <c r="L100" t="n">
-        <v>28.64999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
-        <v>28.66</v>
-      </c>
-      <c r="N100" t="n">
-        <v>28.62333333333334</v>
-      </c>
-      <c r="O100" t="inlineStr"/>
-      <c r="P100" t="inlineStr"/>
-      <c r="Q100" t="inlineStr"/>
-      <c r="R100" t="inlineStr"/>
-      <c r="S100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5395,28 +4159,12 @@
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>0.09999999999999787</v>
-      </c>
-      <c r="J101" t="n">
-        <v>27.90000000000002</v>
-      </c>
-      <c r="K101" t="n">
-        <v>9.999999999999947</v>
-      </c>
-      <c r="L101" t="n">
-        <v>28.65999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
-        <v>28.65000000000001</v>
-      </c>
-      <c r="N101" t="n">
-        <v>28.63000000000001</v>
-      </c>
-      <c r="O101" t="inlineStr"/>
-      <c r="P101" t="inlineStr"/>
-      <c r="Q101" t="inlineStr"/>
-      <c r="R101" t="inlineStr"/>
-      <c r="S101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5446,28 +4194,12 @@
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>-0.1000000000000014</v>
-      </c>
-      <c r="J102" t="n">
-        <v>28.10000000000002</v>
-      </c>
-      <c r="K102" t="n">
-        <v>-4.761904761904826</v>
-      </c>
-      <c r="L102" t="n">
-        <v>28.65999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
-        <v>28.63000000000001</v>
-      </c>
-      <c r="N102" t="n">
-        <v>28.63333333333334</v>
-      </c>
-      <c r="O102" t="inlineStr"/>
-      <c r="P102" t="inlineStr"/>
-      <c r="Q102" t="inlineStr"/>
-      <c r="R102" t="inlineStr"/>
-      <c r="S102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5497,28 +4229,12 @@
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>0.09999999999999787</v>
-      </c>
-      <c r="J103" t="n">
-        <v>28.30000000000001</v>
-      </c>
-      <c r="K103" t="n">
-        <v>14.28571428571433</v>
-      </c>
-      <c r="L103" t="n">
-        <v>28.66999999999997</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
-        <v>28.63000000000001</v>
-      </c>
-      <c r="N103" t="n">
-        <v>28.63333333333334</v>
-      </c>
-      <c r="O103" t="inlineStr"/>
-      <c r="P103" t="inlineStr"/>
-      <c r="Q103" t="inlineStr"/>
-      <c r="R103" t="inlineStr"/>
-      <c r="S103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5550,26 +4266,10 @@
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>28.40000000000001</v>
-      </c>
-      <c r="K104" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L104" t="n">
-        <v>28.68999999999998</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
-        <v>28.61000000000001</v>
-      </c>
-      <c r="N104" t="n">
-        <v>28.63333333333334</v>
-      </c>
-      <c r="O104" t="inlineStr"/>
-      <c r="P104" t="inlineStr"/>
-      <c r="Q104" t="inlineStr"/>
-      <c r="R104" t="inlineStr"/>
-      <c r="S104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5601,26 +4301,10 @@
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>28.40000000000001</v>
-      </c>
-      <c r="K105" t="n">
-        <v>-17.64705882352929</v>
-      </c>
-      <c r="L105" t="n">
-        <v>28.66999999999998</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
-        <v>28.62500000000001</v>
-      </c>
-      <c r="N105" t="n">
-        <v>28.64333333333334</v>
-      </c>
-      <c r="O105" t="inlineStr"/>
-      <c r="P105" t="inlineStr"/>
-      <c r="Q105" t="inlineStr"/>
-      <c r="R105" t="inlineStr"/>
-      <c r="S105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5650,28 +4334,12 @@
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>0.09999999999999787</v>
-      </c>
-      <c r="J106" t="n">
-        <v>28.50000000000001</v>
-      </c>
-      <c r="K106" t="n">
-        <v>0</v>
-      </c>
-      <c r="L106" t="n">
-        <v>28.64999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
-        <v>28.64500000000002</v>
-      </c>
-      <c r="N106" t="n">
-        <v>28.65333333333335</v>
-      </c>
-      <c r="O106" t="inlineStr"/>
-      <c r="P106" t="inlineStr"/>
-      <c r="Q106" t="inlineStr"/>
-      <c r="R106" t="inlineStr"/>
-      <c r="S106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5703,26 +4371,10 @@
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>28.60000000000001</v>
-      </c>
-      <c r="K107" t="n">
-        <v>-19.9999999999999</v>
-      </c>
-      <c r="L107" t="n">
-        <v>28.63999999999998</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
-        <v>28.65000000000002</v>
-      </c>
-      <c r="N107" t="n">
-        <v>28.65333333333335</v>
-      </c>
-      <c r="O107" t="inlineStr"/>
-      <c r="P107" t="inlineStr"/>
-      <c r="Q107" t="inlineStr"/>
-      <c r="R107" t="inlineStr"/>
-      <c r="S107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5752,28 +4404,12 @@
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>-0.3000000000000007</v>
-      </c>
-      <c r="J108" t="n">
-        <v>28.90000000000001</v>
-      </c>
-      <c r="K108" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L108" t="n">
-        <v>28.57999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
-        <v>28.63500000000001</v>
-      </c>
-      <c r="N108" t="n">
-        <v>28.64333333333334</v>
-      </c>
-      <c r="O108" t="inlineStr"/>
-      <c r="P108" t="inlineStr"/>
-      <c r="Q108" t="inlineStr"/>
-      <c r="R108" t="inlineStr"/>
-      <c r="S108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5805,26 +4441,10 @@
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>29.20000000000001</v>
-      </c>
-      <c r="K109" t="n">
-        <v>12.50000000000022</v>
-      </c>
-      <c r="L109" t="n">
-        <v>28.56999999999999</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
-        <v>28.63500000000001</v>
-      </c>
-      <c r="N109" t="n">
-        <v>28.64000000000001</v>
-      </c>
-      <c r="O109" t="inlineStr"/>
-      <c r="P109" t="inlineStr"/>
-      <c r="Q109" t="inlineStr"/>
-      <c r="R109" t="inlineStr"/>
-      <c r="S109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5856,26 +4476,10 @@
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>29.20000000000001</v>
-      </c>
-      <c r="K110" t="n">
-        <v>-7.692307692307566</v>
-      </c>
-      <c r="L110" t="n">
-        <v>28.58999999999999</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
-        <v>28.62000000000002</v>
-      </c>
-      <c r="N110" t="n">
-        <v>28.63666666666667</v>
-      </c>
-      <c r="O110" t="inlineStr"/>
-      <c r="P110" t="inlineStr"/>
-      <c r="Q110" t="inlineStr"/>
-      <c r="R110" t="inlineStr"/>
-      <c r="S110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5905,28 +4509,12 @@
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>-0.2000000000000028</v>
-      </c>
-      <c r="J111" t="n">
-        <v>29.40000000000001</v>
-      </c>
-      <c r="K111" t="n">
-        <v>-7.692307692307819</v>
-      </c>
-      <c r="L111" t="n">
-        <v>28.55999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
-        <v>28.61000000000001</v>
-      </c>
-      <c r="N111" t="n">
-        <v>28.62000000000001</v>
-      </c>
-      <c r="O111" t="inlineStr"/>
-      <c r="P111" t="inlineStr"/>
-      <c r="Q111" t="inlineStr"/>
-      <c r="R111" t="inlineStr"/>
-      <c r="S111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5956,28 +4544,12 @@
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>-0.2000000000000028</v>
-      </c>
-      <c r="J112" t="n">
-        <v>29.40000000000001</v>
-      </c>
-      <c r="K112" t="n">
-        <v>-27.27272727272739</v>
-      </c>
-      <c r="L112" t="n">
-        <v>28.54999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
-        <v>28.60500000000001</v>
-      </c>
-      <c r="N112" t="n">
-        <v>28.60333333333334</v>
-      </c>
-      <c r="O112" t="inlineStr"/>
-      <c r="P112" t="inlineStr"/>
-      <c r="Q112" t="inlineStr"/>
-      <c r="R112" t="inlineStr"/>
-      <c r="S112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6009,26 +4581,10 @@
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>29.60000000000002</v>
-      </c>
-      <c r="K113" t="n">
-        <v>0</v>
-      </c>
-      <c r="L113" t="n">
-        <v>28.53999999999999</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
-        <v>28.60500000000001</v>
-      </c>
-      <c r="N113" t="n">
-        <v>28.60000000000001</v>
-      </c>
-      <c r="O113" t="inlineStr"/>
-      <c r="P113" t="inlineStr"/>
-      <c r="Q113" t="inlineStr"/>
-      <c r="R113" t="inlineStr"/>
-      <c r="S113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6058,28 +4614,12 @@
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>-0.3000000000000007</v>
-      </c>
-      <c r="J114" t="n">
-        <v>29.90000000000002</v>
-      </c>
-      <c r="K114" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L114" t="n">
-        <v>28.50999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
-        <v>28.60000000000001</v>
-      </c>
-      <c r="N114" t="n">
-        <v>28.57666666666667</v>
-      </c>
-      <c r="O114" t="inlineStr"/>
-      <c r="P114" t="inlineStr"/>
-      <c r="Q114" t="inlineStr"/>
-      <c r="R114" t="inlineStr"/>
-      <c r="S114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6109,28 +4649,12 @@
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>-0.1000000000000014</v>
-      </c>
-      <c r="J115" t="n">
-        <v>30.10000000000002</v>
-      </c>
-      <c r="K115" t="n">
-        <v>-12.49999999999992</v>
-      </c>
-      <c r="L115" t="n">
-        <v>28.49999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
-        <v>28.58500000000002</v>
-      </c>
-      <c r="N115" t="n">
-        <v>28.58333333333334</v>
-      </c>
-      <c r="O115" t="inlineStr"/>
-      <c r="P115" t="inlineStr"/>
-      <c r="Q115" t="inlineStr"/>
-      <c r="R115" t="inlineStr"/>
-      <c r="S115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6160,28 +4684,12 @@
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>-0.1000000000000014</v>
-      </c>
-      <c r="J116" t="n">
-        <v>30.10000000000002</v>
-      </c>
-      <c r="K116" t="n">
-        <v>-6.66666666666673</v>
-      </c>
-      <c r="L116" t="n">
-        <v>28.47999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
-        <v>28.56500000000002</v>
-      </c>
-      <c r="N116" t="n">
-        <v>28.59000000000001</v>
-      </c>
-      <c r="O116" t="inlineStr"/>
-      <c r="P116" t="inlineStr"/>
-      <c r="Q116" t="inlineStr"/>
-      <c r="R116" t="inlineStr"/>
-      <c r="S116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6211,28 +4719,12 @@
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>-0.1000000000000014</v>
-      </c>
-      <c r="J117" t="n">
-        <v>30.10000000000002</v>
-      </c>
-      <c r="K117" t="n">
-        <v>16.66666666666652</v>
-      </c>
-      <c r="L117" t="n">
-        <v>28.46999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
-        <v>28.55500000000001</v>
-      </c>
-      <c r="N117" t="n">
-        <v>28.59000000000001</v>
-      </c>
-      <c r="O117" t="inlineStr"/>
-      <c r="P117" t="inlineStr"/>
-      <c r="Q117" t="inlineStr"/>
-      <c r="R117" t="inlineStr"/>
-      <c r="S117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6262,28 +4754,12 @@
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>-0.1000000000000014</v>
-      </c>
-      <c r="J118" t="n">
-        <v>30.10000000000002</v>
-      </c>
-      <c r="K118" t="n">
-        <v>-11.1111111111112</v>
-      </c>
-      <c r="L118" t="n">
-        <v>28.48999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
-        <v>28.53500000000001</v>
-      </c>
-      <c r="N118" t="n">
-        <v>28.58666666666668</v>
-      </c>
-      <c r="O118" t="inlineStr"/>
-      <c r="P118" t="inlineStr"/>
-      <c r="Q118" t="inlineStr"/>
-      <c r="R118" t="inlineStr"/>
-      <c r="S118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6313,28 +4789,12 @@
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>-0.3000000000000007</v>
-      </c>
-      <c r="J119" t="n">
-        <v>30.30000000000001</v>
-      </c>
-      <c r="K119" t="n">
-        <v>-27.27272727272722</v>
-      </c>
-      <c r="L119" t="n">
-        <v>28.45999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
-        <v>28.51500000000001</v>
-      </c>
-      <c r="N119" t="n">
-        <v>28.57666666666667</v>
-      </c>
-      <c r="O119" t="inlineStr"/>
-      <c r="P119" t="inlineStr"/>
-      <c r="Q119" t="inlineStr"/>
-      <c r="R119" t="inlineStr"/>
-      <c r="S119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6364,28 +4824,12 @@
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>-0.1000000000000014</v>
-      </c>
-      <c r="J120" t="n">
-        <v>30.50000000000001</v>
-      </c>
-      <c r="K120" t="n">
-        <v>9.090909090909207</v>
-      </c>
-      <c r="L120" t="n">
-        <v>28.44999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
-        <v>28.52000000000001</v>
-      </c>
-      <c r="N120" t="n">
-        <v>28.56333333333334</v>
-      </c>
-      <c r="O120" t="inlineStr"/>
-      <c r="P120" t="inlineStr"/>
-      <c r="Q120" t="inlineStr"/>
-      <c r="R120" t="inlineStr"/>
-      <c r="S120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6415,28 +4859,12 @@
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>-0.1000000000000014</v>
-      </c>
-      <c r="J121" t="n">
-        <v>30.50000000000001</v>
-      </c>
-      <c r="K121" t="n">
-        <v>9.090909090909207</v>
-      </c>
-      <c r="L121" t="n">
-        <v>28.45999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
-        <v>28.51000000000001</v>
-      </c>
-      <c r="N121" t="n">
-        <v>28.56000000000001</v>
-      </c>
-      <c r="O121" t="inlineStr"/>
-      <c r="P121" t="inlineStr"/>
-      <c r="Q121" t="inlineStr"/>
-      <c r="R121" t="inlineStr"/>
-      <c r="S121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6466,28 +4894,12 @@
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>-0.1000000000000014</v>
-      </c>
-      <c r="J122" t="n">
-        <v>30.50000000000001</v>
-      </c>
-      <c r="K122" t="n">
-        <v>-11.11111111111129</v>
-      </c>
-      <c r="L122" t="n">
-        <v>28.46999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
-        <v>28.51000000000001</v>
-      </c>
-      <c r="N122" t="n">
-        <v>28.56000000000001</v>
-      </c>
-      <c r="O122" t="inlineStr"/>
-      <c r="P122" t="inlineStr"/>
-      <c r="Q122" t="inlineStr"/>
-      <c r="R122" t="inlineStr"/>
-      <c r="S122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6519,26 +4931,10 @@
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
-        <v>30.60000000000002</v>
-      </c>
-      <c r="K123" t="n">
-        <v>42.857142857143</v>
-      </c>
-      <c r="L123" t="n">
-        <v>28.46999999999999</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
-        <v>28.50500000000001</v>
-      </c>
-      <c r="N123" t="n">
-        <v>28.56000000000001</v>
-      </c>
-      <c r="O123" t="inlineStr"/>
-      <c r="P123" t="inlineStr"/>
-      <c r="Q123" t="inlineStr"/>
-      <c r="R123" t="inlineStr"/>
-      <c r="S123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6568,28 +4964,12 @@
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>0.3999999999999986</v>
-      </c>
-      <c r="J124" t="n">
-        <v>31.00000000000001</v>
-      </c>
-      <c r="K124" t="n">
-        <v>55.55555555555565</v>
-      </c>
-      <c r="L124" t="n">
-        <v>28.53999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
-        <v>28.52500000000001</v>
-      </c>
-      <c r="N124" t="n">
-        <v>28.58000000000001</v>
-      </c>
-      <c r="O124" t="inlineStr"/>
-      <c r="P124" t="inlineStr"/>
-      <c r="Q124" t="inlineStr"/>
-      <c r="R124" t="inlineStr"/>
-      <c r="S124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6619,28 +4999,12 @@
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>0.5999999999999979</v>
-      </c>
-      <c r="J125" t="n">
-        <v>31.20000000000001</v>
-      </c>
-      <c r="K125" t="n">
-        <v>63.63636363636369</v>
-      </c>
-      <c r="L125" t="n">
-        <v>28.60999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
-        <v>28.55500000000001</v>
-      </c>
-      <c r="N125" t="n">
-        <v>28.59333333333334</v>
-      </c>
-      <c r="O125" t="inlineStr"/>
-      <c r="P125" t="inlineStr"/>
-      <c r="Q125" t="inlineStr"/>
-      <c r="R125" t="inlineStr"/>
-      <c r="S125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6670,28 +5034,12 @@
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J126" t="n">
-        <v>31.30000000000001</v>
-      </c>
-      <c r="K126" t="n">
-        <v>50.0000000000003</v>
-      </c>
-      <c r="L126" t="n">
-        <v>28.66999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
-        <v>28.57500000000001</v>
-      </c>
-      <c r="N126" t="n">
-        <v>28.60000000000001</v>
-      </c>
-      <c r="O126" t="inlineStr"/>
-      <c r="P126" t="inlineStr"/>
-      <c r="Q126" t="inlineStr"/>
-      <c r="R126" t="inlineStr"/>
-      <c r="S126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6721,28 +5069,12 @@
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J127" t="n">
-        <v>31.30000000000001</v>
-      </c>
-      <c r="K127" t="n">
-        <v>50.0000000000003</v>
-      </c>
-      <c r="L127" t="n">
-        <v>28.72999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="N127" t="n">
-        <v>28.61333333333334</v>
-      </c>
-      <c r="O127" t="inlineStr"/>
-      <c r="P127" t="inlineStr"/>
-      <c r="Q127" t="inlineStr"/>
-      <c r="R127" t="inlineStr"/>
-      <c r="S127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6772,28 +5104,12 @@
         <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>0.3999999999999986</v>
-      </c>
-      <c r="J128" t="n">
-        <v>31.40000000000001</v>
-      </c>
-      <c r="K128" t="n">
-        <v>63.63636363636369</v>
-      </c>
-      <c r="L128" t="n">
-        <v>28.77999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
-        <v>28.63500000000001</v>
-      </c>
-      <c r="N128" t="n">
-        <v>28.61666666666668</v>
-      </c>
-      <c r="O128" t="inlineStr"/>
-      <c r="P128" t="inlineStr"/>
-      <c r="Q128" t="inlineStr"/>
-      <c r="R128" t="inlineStr"/>
-      <c r="S128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6823,28 +5139,12 @@
         <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>-0.1000000000000014</v>
-      </c>
-      <c r="J129" t="n">
-        <v>31.90000000000001</v>
-      </c>
-      <c r="K129" t="n">
-        <v>0</v>
-      </c>
-      <c r="L129" t="n">
-        <v>28.79999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
-        <v>28.63000000000001</v>
-      </c>
-      <c r="N129" t="n">
-        <v>28.61000000000001</v>
-      </c>
-      <c r="O129" t="inlineStr"/>
-      <c r="P129" t="inlineStr"/>
-      <c r="Q129" t="inlineStr"/>
-      <c r="R129" t="inlineStr"/>
-      <c r="S129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6874,28 +5174,12 @@
         <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>0.3999999999999986</v>
-      </c>
-      <c r="J130" t="n">
-        <v>32.40000000000001</v>
-      </c>
-      <c r="K130" t="n">
-        <v>26.31578947368423</v>
-      </c>
-      <c r="L130" t="n">
-        <v>28.84999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
-        <v>28.65000000000001</v>
-      </c>
-      <c r="N130" t="n">
-        <v>28.63000000000001</v>
-      </c>
-      <c r="O130" t="inlineStr"/>
-      <c r="P130" t="inlineStr"/>
-      <c r="Q130" t="inlineStr"/>
-      <c r="R130" t="inlineStr"/>
-      <c r="S130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6925,1099 +5209,12 @@
         <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>0.3999999999999986</v>
-      </c>
-      <c r="J131" t="n">
-        <v>32.40000000000001</v>
-      </c>
-      <c r="K131" t="n">
-        <v>26.31578947368423</v>
-      </c>
-      <c r="L131" t="n">
-        <v>28.89999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
-        <v>28.68000000000001</v>
-      </c>
-      <c r="N131" t="n">
-        <v>28.64000000000001</v>
-      </c>
-      <c r="O131" t="inlineStr"/>
-      <c r="P131" t="inlineStr"/>
-      <c r="Q131" t="inlineStr"/>
-      <c r="R131" t="inlineStr"/>
-      <c r="S131" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="C132" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="D132" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="E132" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="F132" t="n">
-        <v>33</v>
-      </c>
-      <c r="G132" t="n">
-        <v>28.64999999999999</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0.6999999999999993</v>
-      </c>
-      <c r="J132" t="n">
-        <v>32.70000000000002</v>
-      </c>
-      <c r="K132" t="n">
-        <v>33.33333333333328</v>
-      </c>
-      <c r="L132" t="n">
-        <v>28.97999999999999</v>
-      </c>
-      <c r="M132" t="n">
-        <v>28.725</v>
-      </c>
-      <c r="N132" t="n">
-        <v>28.66666666666667</v>
-      </c>
-      <c r="O132" t="inlineStr"/>
-      <c r="P132" t="inlineStr"/>
-      <c r="Q132" t="inlineStr"/>
-      <c r="R132" t="inlineStr"/>
-      <c r="S132" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="C133" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="D133" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="E133" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="F133" t="n">
-        <v>88534.2971</v>
-      </c>
-      <c r="G133" t="n">
-        <v>28.64833333333332</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="n">
-        <v>33.40000000000002</v>
-      </c>
-      <c r="K133" t="n">
-        <v>-16.66666666666657</v>
-      </c>
-      <c r="L133" t="n">
-        <v>28.97999999999999</v>
-      </c>
-      <c r="M133" t="n">
-        <v>28.725</v>
-      </c>
-      <c r="N133" t="n">
-        <v>28.66333333333334</v>
-      </c>
-      <c r="O133" t="inlineStr"/>
-      <c r="P133" t="inlineStr"/>
-      <c r="Q133" t="inlineStr"/>
-      <c r="R133" t="inlineStr"/>
-      <c r="S133" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="C134" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="D134" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="E134" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="F134" t="n">
-        <v>3199.1245</v>
-      </c>
-      <c r="G134" t="n">
-        <v>28.64999999999999</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0.09999999999999787</v>
-      </c>
-      <c r="J134" t="n">
-        <v>33.50000000000001</v>
-      </c>
-      <c r="K134" t="n">
-        <v>-21.7391304347826</v>
-      </c>
-      <c r="L134" t="n">
-        <v>28.94999999999999</v>
-      </c>
-      <c r="M134" t="n">
-        <v>28.74500000000001</v>
-      </c>
-      <c r="N134" t="n">
-        <v>28.66666666666667</v>
-      </c>
-      <c r="O134" t="inlineStr"/>
-      <c r="P134" t="inlineStr"/>
-      <c r="Q134" t="inlineStr"/>
-      <c r="R134" t="inlineStr"/>
-      <c r="S134" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="C135" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="D135" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="E135" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="F135" t="n">
-        <v>54.4686</v>
-      </c>
-      <c r="G135" t="n">
-        <v>28.65666666666666</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0.09999999999999787</v>
-      </c>
-      <c r="J135" t="n">
-        <v>33.50000000000001</v>
-      </c>
-      <c r="K135" t="n">
-        <v>-18.18181818181825</v>
-      </c>
-      <c r="L135" t="n">
-        <v>28.89999999999999</v>
-      </c>
-      <c r="M135" t="n">
-        <v>28.75500000000001</v>
-      </c>
-      <c r="N135" t="n">
-        <v>28.67000000000001</v>
-      </c>
-      <c r="O135" t="inlineStr"/>
-      <c r="P135" t="inlineStr"/>
-      <c r="Q135" t="inlineStr"/>
-      <c r="R135" t="inlineStr"/>
-      <c r="S135" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="C136" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="D136" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="E136" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="F136" t="n">
-        <v>4250.5827</v>
-      </c>
-      <c r="G136" t="n">
-        <v>28.66166666666666</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0.09999999999999787</v>
-      </c>
-      <c r="J136" t="n">
-        <v>33.50000000000001</v>
-      </c>
-      <c r="K136" t="n">
-        <v>-18.18181818181825</v>
-      </c>
-      <c r="L136" t="n">
-        <v>28.85999999999999</v>
-      </c>
-      <c r="M136" t="n">
-        <v>28.76500000000001</v>
-      </c>
-      <c r="N136" t="n">
-        <v>28.67000000000001</v>
-      </c>
-      <c r="O136" t="inlineStr"/>
-      <c r="P136" t="inlineStr"/>
-      <c r="Q136" t="inlineStr"/>
-      <c r="R136" t="inlineStr"/>
-      <c r="S136" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="C137" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="D137" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="E137" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="F137" t="n">
-        <v>11</v>
-      </c>
-      <c r="G137" t="n">
-        <v>28.66999999999999</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J137" t="n">
-        <v>33.90000000000002</v>
-      </c>
-      <c r="K137" t="n">
-        <v>4.000000000000045</v>
-      </c>
-      <c r="L137" t="n">
-        <v>28.85999999999999</v>
-      </c>
-      <c r="M137" t="n">
-        <v>28.79500000000002</v>
-      </c>
-      <c r="N137" t="n">
-        <v>28.68666666666667</v>
-      </c>
-      <c r="O137" t="inlineStr"/>
-      <c r="P137" t="inlineStr"/>
-      <c r="Q137" t="inlineStr"/>
-      <c r="R137" t="inlineStr"/>
-      <c r="S137" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="C138" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="D138" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="E138" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="F138" t="n">
-        <v>31610.0671</v>
-      </c>
-      <c r="G138" t="n">
-        <v>28.66833333333333</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>-0.1000000000000014</v>
-      </c>
-      <c r="J138" t="n">
-        <v>34.50000000000002</v>
-      </c>
-      <c r="K138" t="n">
-        <v>0</v>
-      </c>
-      <c r="L138" t="n">
-        <v>28.80999999999998</v>
-      </c>
-      <c r="M138" t="n">
-        <v>28.79500000000002</v>
-      </c>
-      <c r="N138" t="n">
-        <v>28.69333333333334</v>
-      </c>
-      <c r="O138" t="inlineStr"/>
-      <c r="P138" t="inlineStr"/>
-      <c r="Q138" t="inlineStr"/>
-      <c r="R138" t="inlineStr"/>
-      <c r="S138" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="C139" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="D139" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="E139" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="F139" t="n">
-        <v>107.9649</v>
-      </c>
-      <c r="G139" t="n">
-        <v>28.665</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>-0.1000000000000014</v>
-      </c>
-      <c r="J139" t="n">
-        <v>34.50000000000002</v>
-      </c>
-      <c r="K139" t="n">
-        <v>-23.80952380952371</v>
-      </c>
-      <c r="L139" t="n">
-        <v>28.80999999999998</v>
-      </c>
-      <c r="M139" t="n">
-        <v>28.80500000000002</v>
-      </c>
-      <c r="N139" t="n">
-        <v>28.69000000000001</v>
-      </c>
-      <c r="O139" t="inlineStr"/>
-      <c r="P139" t="inlineStr"/>
-      <c r="Q139" t="inlineStr"/>
-      <c r="R139" t="inlineStr"/>
-      <c r="S139" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>28.2</v>
-      </c>
-      <c r="C140" t="n">
-        <v>28.2</v>
-      </c>
-      <c r="D140" t="n">
-        <v>28.2</v>
-      </c>
-      <c r="E140" t="n">
-        <v>28.2</v>
-      </c>
-      <c r="F140" t="n">
-        <v>51394.4285</v>
-      </c>
-      <c r="G140" t="n">
-        <v>28.65666666666666</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>-0.4000000000000021</v>
-      </c>
-      <c r="J140" t="n">
-        <v>34.80000000000003</v>
-      </c>
-      <c r="K140" t="n">
-        <v>-33.33333333333319</v>
-      </c>
-      <c r="L140" t="n">
-        <v>28.72999999999998</v>
-      </c>
-      <c r="M140" t="n">
-        <v>28.79000000000002</v>
-      </c>
-      <c r="N140" t="n">
-        <v>28.67666666666668</v>
-      </c>
-      <c r="O140" t="inlineStr"/>
-      <c r="P140" t="inlineStr"/>
-      <c r="Q140" t="inlineStr"/>
-      <c r="R140" t="inlineStr"/>
-      <c r="S140" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="C141" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="D141" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="E141" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="F141" t="n">
-        <v>11</v>
-      </c>
-      <c r="G141" t="n">
-        <v>28.64999999999999</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>-0.1000000000000014</v>
-      </c>
-      <c r="J141" t="n">
-        <v>35.10000000000002</v>
-      </c>
-      <c r="K141" t="n">
-        <v>-33.33333333333328</v>
-      </c>
-      <c r="L141" t="n">
-        <v>28.67999999999999</v>
-      </c>
-      <c r="M141" t="n">
-        <v>28.79000000000002</v>
-      </c>
-      <c r="N141" t="n">
-        <v>28.68000000000001</v>
-      </c>
-      <c r="O141" t="inlineStr"/>
-      <c r="P141" t="inlineStr"/>
-      <c r="Q141" t="inlineStr"/>
-      <c r="R141" t="inlineStr"/>
-      <c r="S141" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>28.2</v>
-      </c>
-      <c r="C142" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="D142" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="E142" t="n">
-        <v>28.2</v>
-      </c>
-      <c r="F142" t="n">
-        <v>3458.2758</v>
-      </c>
-      <c r="G142" t="n">
-        <v>28.64333333333332</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>-0.1000000000000014</v>
-      </c>
-      <c r="J142" t="n">
-        <v>35.10000000000002</v>
-      </c>
-      <c r="K142" t="n">
-        <v>-5.882352941176544</v>
-      </c>
-      <c r="L142" t="n">
-        <v>28.59999999999998</v>
-      </c>
-      <c r="M142" t="n">
-        <v>28.79000000000002</v>
-      </c>
-      <c r="N142" t="n">
-        <v>28.68333333333334</v>
-      </c>
-      <c r="O142" t="inlineStr"/>
-      <c r="P142" t="inlineStr"/>
-      <c r="Q142" t="inlineStr"/>
-      <c r="R142" t="inlineStr"/>
-      <c r="S142" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>28.2</v>
-      </c>
-      <c r="C143" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="D143" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="E143" t="n">
-        <v>28</v>
-      </c>
-      <c r="F143" t="n">
-        <v>223869.7317</v>
-      </c>
-      <c r="G143" t="n">
-        <v>28.63999999999999</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>-0.1000000000000014</v>
-      </c>
-      <c r="J143" t="n">
-        <v>35.10000000000002</v>
-      </c>
-      <c r="K143" t="n">
-        <v>-12.49999999999989</v>
-      </c>
-      <c r="L143" t="n">
-        <v>28.58999999999998</v>
-      </c>
-      <c r="M143" t="n">
-        <v>28.78500000000002</v>
-      </c>
-      <c r="N143" t="n">
-        <v>28.68000000000001</v>
-      </c>
-      <c r="O143" t="inlineStr"/>
-      <c r="P143" t="inlineStr"/>
-      <c r="Q143" t="inlineStr"/>
-      <c r="R143" t="inlineStr"/>
-      <c r="S143" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>28.2</v>
-      </c>
-      <c r="C144" t="n">
-        <v>28.1</v>
-      </c>
-      <c r="D144" t="n">
-        <v>28.2</v>
-      </c>
-      <c r="E144" t="n">
-        <v>28.1</v>
-      </c>
-      <c r="F144" t="n">
-        <v>22380.6917</v>
-      </c>
-      <c r="G144" t="n">
-        <v>28.62499999999999</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="J144" t="n">
-        <v>35.50000000000002</v>
-      </c>
-      <c r="K144" t="n">
-        <v>-29.99999999999979</v>
-      </c>
-      <c r="L144" t="n">
-        <v>28.52999999999998</v>
-      </c>
-      <c r="M144" t="n">
-        <v>28.74000000000002</v>
-      </c>
-      <c r="N144" t="n">
-        <v>28.67333333333335</v>
-      </c>
-      <c r="O144" t="inlineStr"/>
-      <c r="P144" t="inlineStr"/>
-      <c r="Q144" t="inlineStr"/>
-      <c r="R144" t="inlineStr"/>
-      <c r="S144" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="C145" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="D145" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="E145" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="F145" t="n">
-        <v>10</v>
-      </c>
-      <c r="G145" t="n">
-        <v>28.62833333333332</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>-0.1000000000000014</v>
-      </c>
-      <c r="J145" t="n">
-        <v>35.90000000000002</v>
-      </c>
-      <c r="K145" t="n">
-        <v>-8.333333333333284</v>
-      </c>
-      <c r="L145" t="n">
-        <v>28.50999999999998</v>
-      </c>
-      <c r="M145" t="n">
-        <v>28.70500000000002</v>
-      </c>
-      <c r="N145" t="n">
-        <v>28.67333333333335</v>
-      </c>
-      <c r="O145" t="inlineStr"/>
-      <c r="P145" t="inlineStr"/>
-      <c r="Q145" t="inlineStr"/>
-      <c r="R145" t="inlineStr"/>
-      <c r="S145" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="C146" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="D146" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="E146" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="F146" t="n">
-        <v>7284.2933</v>
-      </c>
-      <c r="G146" t="n">
-        <v>28.63166666666666</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>-0.1000000000000014</v>
-      </c>
-      <c r="J146" t="n">
-        <v>35.90000000000002</v>
-      </c>
-      <c r="K146" t="n">
-        <v>-30.00000000000007</v>
-      </c>
-      <c r="L146" t="n">
-        <v>28.48999999999999</v>
-      </c>
-      <c r="M146" t="n">
-        <v>28.67500000000002</v>
-      </c>
-      <c r="N146" t="n">
-        <v>28.67333333333335</v>
-      </c>
-      <c r="O146" t="inlineStr"/>
-      <c r="P146" t="inlineStr"/>
-      <c r="Q146" t="inlineStr"/>
-      <c r="R146" t="inlineStr"/>
-      <c r="S146" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>28.2</v>
-      </c>
-      <c r="C147" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="D147" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="E147" t="n">
-        <v>28.2</v>
-      </c>
-      <c r="F147" t="n">
-        <v>32</v>
-      </c>
-      <c r="G147" t="n">
-        <v>28.63166666666666</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>-0.1000000000000014</v>
-      </c>
-      <c r="J147" t="n">
-        <v>35.90000000000002</v>
-      </c>
-      <c r="K147" t="n">
-        <v>0</v>
-      </c>
-      <c r="L147" t="n">
-        <v>28.42999999999999</v>
-      </c>
-      <c r="M147" t="n">
-        <v>28.64500000000002</v>
-      </c>
-      <c r="N147" t="n">
-        <v>28.67333333333335</v>
-      </c>
-      <c r="O147" t="inlineStr"/>
-      <c r="P147" t="inlineStr"/>
-      <c r="Q147" t="inlineStr"/>
-      <c r="R147" t="inlineStr"/>
-      <c r="S147" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>28.2</v>
-      </c>
-      <c r="C148" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="D148" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="E148" t="n">
-        <v>28</v>
-      </c>
-      <c r="F148" t="n">
-        <v>137048.8068</v>
-      </c>
-      <c r="G148" t="n">
-        <v>28.62999999999999</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>-0.1000000000000014</v>
-      </c>
-      <c r="J148" t="n">
-        <v>35.90000000000002</v>
-      </c>
-      <c r="K148" t="n">
-        <v>0</v>
-      </c>
-      <c r="L148" t="n">
-        <v>28.42999999999999</v>
-      </c>
-      <c r="M148" t="n">
-        <v>28.62000000000002</v>
-      </c>
-      <c r="N148" t="n">
-        <v>28.67333333333335</v>
-      </c>
-      <c r="O148" t="inlineStr"/>
-      <c r="P148" t="inlineStr"/>
-      <c r="Q148" t="inlineStr"/>
-      <c r="R148" t="inlineStr"/>
-      <c r="S148" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>28</v>
-      </c>
-      <c r="C149" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="D149" t="n">
-        <v>28</v>
-      </c>
-      <c r="E149" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="F149" t="n">
-        <v>512840.4961</v>
-      </c>
-      <c r="G149" t="n">
-        <v>28.61166666666666</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>-1.100000000000001</v>
-      </c>
-      <c r="J149" t="n">
-        <v>36.90000000000002</v>
-      </c>
-      <c r="K149" t="n">
-        <v>-33.33333333333339</v>
-      </c>
-      <c r="L149" t="n">
-        <v>28.32999999999998</v>
-      </c>
-      <c r="M149" t="n">
-        <v>28.57000000000001</v>
-      </c>
-      <c r="N149" t="n">
-        <v>28.64666666666668</v>
-      </c>
-      <c r="O149" t="inlineStr"/>
-      <c r="P149" t="inlineStr"/>
-      <c r="Q149" t="inlineStr"/>
-      <c r="R149" t="inlineStr"/>
-      <c r="S149" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>28.2</v>
-      </c>
-      <c r="C150" t="n">
-        <v>28.2</v>
-      </c>
-      <c r="D150" t="n">
-        <v>28.2</v>
-      </c>
-      <c r="E150" t="n">
-        <v>28.2</v>
-      </c>
-      <c r="F150" t="n">
-        <v>10</v>
-      </c>
-      <c r="G150" t="n">
-        <v>28.59999999999999</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>-0.4000000000000021</v>
-      </c>
-      <c r="J150" t="n">
-        <v>37.60000000000002</v>
-      </c>
-      <c r="K150" t="n">
-        <v>-12.00000000000003</v>
-      </c>
-      <c r="L150" t="n">
-        <v>28.32999999999998</v>
-      </c>
-      <c r="M150" t="n">
-        <v>28.53000000000002</v>
-      </c>
-      <c r="N150" t="n">
-        <v>28.63666666666668</v>
-      </c>
-      <c r="O150" t="inlineStr"/>
-      <c r="P150" t="inlineStr"/>
-      <c r="Q150" t="inlineStr"/>
-      <c r="R150" t="inlineStr"/>
-      <c r="S150" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="C151" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="D151" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="E151" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="F151" t="n">
-        <v>196187.9127</v>
-      </c>
-      <c r="G151" t="n">
-        <v>28.57666666666666</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>-1.400000000000002</v>
-      </c>
-      <c r="J151" t="n">
-        <v>38.60000000000002</v>
-      </c>
-      <c r="K151" t="n">
-        <v>-37.14285714285716</v>
-      </c>
-      <c r="L151" t="n">
-        <v>28.19999999999998</v>
-      </c>
-      <c r="M151" t="n">
-        <v>28.44000000000002</v>
-      </c>
-      <c r="N151" t="n">
-        <v>28.59333333333335</v>
-      </c>
-      <c r="O151" t="inlineStr"/>
-      <c r="P151" t="inlineStr"/>
-      <c r="Q151" t="inlineStr"/>
-      <c r="R151" t="inlineStr"/>
-      <c r="S151" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="C152" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="D152" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="E152" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="F152" t="n">
-        <v>91814.67389999999</v>
-      </c>
-      <c r="G152" t="n">
-        <v>28.56166666666666</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J152" t="n">
-        <v>39.00000000000003</v>
-      </c>
-      <c r="K152" t="n">
-        <v>-23.07692307692301</v>
-      </c>
-      <c r="L152" t="n">
-        <v>28.10999999999999</v>
-      </c>
-      <c r="M152" t="n">
-        <v>28.35500000000003</v>
-      </c>
-      <c r="N152" t="n">
-        <v>28.56333333333335</v>
-      </c>
-      <c r="O152" t="inlineStr"/>
-      <c r="P152" t="inlineStr"/>
-      <c r="Q152" t="inlineStr"/>
-      <c r="R152" t="inlineStr"/>
-      <c r="S152" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-11-02 BackTest CHR.xlsx
+++ b/BackTest/2019-11-02 BackTest CHR.xlsx
@@ -451,17 +451,13 @@
         <v>27.72999999999999</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="K2" t="n">
-        <v>28.6</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
@@ -490,22 +486,14 @@
         <v>27.74999999999999</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="K3" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -533,22 +521,14 @@
         <v>27.77499999999998</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="K4" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -576,22 +556,14 @@
         <v>27.80333333333332</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="K5" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -619,22 +591,14 @@
         <v>27.82833333333332</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="K6" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -668,14 +632,8 @@
         <v>0</v>
       </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -709,14 +667,8 @@
         <v>0</v>
       </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -750,14 +702,8 @@
         <v>0</v>
       </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -785,22 +731,14 @@
         <v>27.89499999999998</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="K10" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -834,14 +772,8 @@
         <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -869,22 +801,14 @@
         <v>27.91833333333331</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="K12" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -912,22 +836,14 @@
         <v>27.92666666666664</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="K13" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -955,22 +871,14 @@
         <v>27.94166666666665</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>28</v>
-      </c>
-      <c r="K14" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -1004,14 +912,8 @@
         <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1039,22 +941,14 @@
         <v>27.94333333333332</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="K16" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1082,22 +976,14 @@
         <v>27.94666666666665</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="K17" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1125,22 +1011,14 @@
         <v>27.96666666666665</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>28</v>
-      </c>
-      <c r="K18" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1168,22 +1046,14 @@
         <v>27.97166666666665</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>28</v>
-      </c>
-      <c r="K19" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1211,22 +1081,14 @@
         <v>27.98166666666665</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="K20" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1254,22 +1116,14 @@
         <v>27.98833333333332</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>28</v>
-      </c>
-      <c r="K21" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1297,22 +1151,14 @@
         <v>28.00333333333332</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>28</v>
-      </c>
-      <c r="K22" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1340,22 +1186,14 @@
         <v>28.02166666666665</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="K23" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1383,22 +1221,14 @@
         <v>28.03833333333332</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="K24" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1426,22 +1256,14 @@
         <v>28.04999999999999</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>28</v>
-      </c>
-      <c r="K25" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1469,22 +1291,14 @@
         <v>28.06999999999999</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="K26" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1512,22 +1326,14 @@
         <v>28.09166666666665</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="K27" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1555,22 +1361,14 @@
         <v>28.11666666666665</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K28" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1598,22 +1396,14 @@
         <v>28.14499999999999</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K29" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1647,14 +1437,8 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1688,14 +1472,8 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1729,14 +1507,8 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1770,14 +1542,8 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1811,16 +1577,10 @@
         <v>1</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
-        <v>1.078916083916084</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -3386,13 +3146,17 @@
         <v>29.39333333333334</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="K79" t="n">
+        <v>28.6</v>
+      </c>
       <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
@@ -3427,8 +3191,14 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3462,8 +3232,14 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-11-02 BackTest CHR.xlsx
+++ b/BackTest/2019-11-02 BackTest CHR.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M131"/>
+  <dimension ref="A1:M132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,7 +433,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>28.6</v>
+        <v>28.5</v>
       </c>
       <c r="C2" t="n">
         <v>28.6</v>
@@ -442,13 +442,13 @@
         <v>28.6</v>
       </c>
       <c r="E2" t="n">
-        <v>28.6</v>
+        <v>28.5</v>
       </c>
       <c r="F2" t="n">
-        <v>45003.5077</v>
+        <v>53087.9369</v>
       </c>
       <c r="G2" t="n">
-        <v>27.72999999999999</v>
+        <v>27.70833333333332</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -480,10 +480,10 @@
         <v>28.6</v>
       </c>
       <c r="F3" t="n">
-        <v>30386.3873</v>
+        <v>45003.5077</v>
       </c>
       <c r="G3" t="n">
-        <v>27.74999999999999</v>
+        <v>27.72999999999999</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -506,19 +506,19 @@
         <v>28.6</v>
       </c>
       <c r="C4" t="n">
-        <v>28.7</v>
+        <v>28.6</v>
       </c>
       <c r="D4" t="n">
-        <v>28.7</v>
+        <v>28.6</v>
       </c>
       <c r="E4" t="n">
         <v>28.6</v>
       </c>
       <c r="F4" t="n">
-        <v>11263.2025</v>
+        <v>30386.3873</v>
       </c>
       <c r="G4" t="n">
-        <v>27.77499999999998</v>
+        <v>27.74999999999999</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>28.8</v>
+        <v>28.6</v>
       </c>
       <c r="C5" t="n">
-        <v>29.3</v>
+        <v>28.7</v>
       </c>
       <c r="D5" t="n">
-        <v>29.3</v>
+        <v>28.7</v>
       </c>
       <c r="E5" t="n">
-        <v>28.8</v>
+        <v>28.6</v>
       </c>
       <c r="F5" t="n">
-        <v>117186.7508</v>
+        <v>11263.2025</v>
       </c>
       <c r="G5" t="n">
-        <v>27.80333333333332</v>
+        <v>27.77499999999998</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,7 +573,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>29.3</v>
+        <v>28.8</v>
       </c>
       <c r="C6" t="n">
         <v>29.3</v>
@@ -582,13 +582,13 @@
         <v>29.3</v>
       </c>
       <c r="E6" t="n">
-        <v>28.1</v>
+        <v>28.8</v>
       </c>
       <c r="F6" t="n">
-        <v>131574.8852</v>
+        <v>117186.7508</v>
       </c>
       <c r="G6" t="n">
-        <v>27.82833333333332</v>
+        <v>27.80333333333332</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>29</v>
+        <v>29.3</v>
       </c>
       <c r="C7" t="n">
-        <v>29.1</v>
+        <v>29.3</v>
       </c>
       <c r="D7" t="n">
-        <v>29.1</v>
+        <v>29.3</v>
       </c>
       <c r="E7" t="n">
-        <v>29</v>
+        <v>28.1</v>
       </c>
       <c r="F7" t="n">
-        <v>50000</v>
+        <v>131574.8852</v>
       </c>
       <c r="G7" t="n">
-        <v>27.86166666666665</v>
+        <v>27.82833333333332</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,19 +643,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>27.8</v>
+        <v>29</v>
       </c>
       <c r="C8" t="n">
-        <v>27.6</v>
+        <v>29.1</v>
       </c>
       <c r="D8" t="n">
-        <v>27.8</v>
+        <v>29.1</v>
       </c>
       <c r="E8" t="n">
-        <v>27.6</v>
+        <v>29</v>
       </c>
       <c r="F8" t="n">
-        <v>15766.667</v>
+        <v>50000</v>
       </c>
       <c r="G8" t="n">
         <v>27.86166666666665</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>28.6</v>
+        <v>27.8</v>
       </c>
       <c r="C9" t="n">
-        <v>28.6</v>
+        <v>27.6</v>
       </c>
       <c r="D9" t="n">
-        <v>28.6</v>
+        <v>27.8</v>
       </c>
       <c r="E9" t="n">
-        <v>28.6</v>
+        <v>27.6</v>
       </c>
       <c r="F9" t="n">
-        <v>10</v>
+        <v>15766.667</v>
       </c>
       <c r="G9" t="n">
-        <v>27.88499999999998</v>
+        <v>27.86166666666665</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>27.8</v>
+        <v>28.6</v>
       </c>
       <c r="C10" t="n">
-        <v>27.8</v>
+        <v>28.6</v>
       </c>
       <c r="D10" t="n">
-        <v>27.8</v>
+        <v>28.6</v>
       </c>
       <c r="E10" t="n">
-        <v>27.8</v>
+        <v>28.6</v>
       </c>
       <c r="F10" t="n">
-        <v>11892.2615</v>
+        <v>10</v>
       </c>
       <c r="G10" t="n">
-        <v>27.89499999999998</v>
+        <v>27.88499999999998</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -760,10 +760,10 @@
         <v>27.8</v>
       </c>
       <c r="F11" t="n">
-        <v>18891.9151</v>
+        <v>11892.2615</v>
       </c>
       <c r="G11" t="n">
-        <v>27.90499999999998</v>
+        <v>27.89499999999998</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>28.6</v>
+        <v>27.8</v>
       </c>
       <c r="C12" t="n">
-        <v>28.6</v>
+        <v>27.8</v>
       </c>
       <c r="D12" t="n">
-        <v>28.6</v>
+        <v>27.8</v>
       </c>
       <c r="E12" t="n">
-        <v>28.6</v>
+        <v>27.8</v>
       </c>
       <c r="F12" t="n">
-        <v>20</v>
+        <v>18891.9151</v>
       </c>
       <c r="G12" t="n">
-        <v>27.91833333333331</v>
+        <v>27.90499999999998</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>28.6</v>
       </c>
       <c r="C13" t="n">
-        <v>28.5</v>
+        <v>28.6</v>
       </c>
       <c r="D13" t="n">
         <v>28.6</v>
       </c>
       <c r="E13" t="n">
-        <v>28.5</v>
+        <v>28.6</v>
       </c>
       <c r="F13" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="G13" t="n">
-        <v>27.92666666666664</v>
+        <v>27.91833333333331</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>28</v>
+        <v>28.6</v>
       </c>
       <c r="C14" t="n">
-        <v>28</v>
+        <v>28.5</v>
       </c>
       <c r="D14" t="n">
-        <v>28</v>
+        <v>28.6</v>
       </c>
       <c r="E14" t="n">
-        <v>28</v>
+        <v>28.5</v>
       </c>
       <c r="F14" t="n">
-        <v>42.7856</v>
+        <v>45</v>
       </c>
       <c r="G14" t="n">
-        <v>27.94166666666665</v>
+        <v>27.92666666666664</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>27.6</v>
+        <v>28</v>
       </c>
       <c r="C15" t="n">
-        <v>27.9</v>
+        <v>28</v>
       </c>
       <c r="D15" t="n">
-        <v>27.9</v>
+        <v>28</v>
       </c>
       <c r="E15" t="n">
-        <v>27.5</v>
+        <v>28</v>
       </c>
       <c r="F15" t="n">
-        <v>102973.0884</v>
+        <v>42.7856</v>
       </c>
       <c r="G15" t="n">
-        <v>27.94333333333332</v>
+        <v>27.94166666666665</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,7 +923,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="C16" t="n">
         <v>27.9</v>
@@ -932,10 +932,10 @@
         <v>27.9</v>
       </c>
       <c r="E16" t="n">
-        <v>27.2</v>
+        <v>27.5</v>
       </c>
       <c r="F16" t="n">
-        <v>53107.9369</v>
+        <v>102973.0884</v>
       </c>
       <c r="G16" t="n">
         <v>27.94333333333332</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="C17" t="n">
         <v>27.9</v>
       </c>
-      <c r="C17" t="n">
-        <v>28</v>
-      </c>
       <c r="D17" t="n">
-        <v>28</v>
+        <v>27.9</v>
       </c>
       <c r="E17" t="n">
-        <v>27.9</v>
+        <v>27.2</v>
       </c>
       <c r="F17" t="n">
-        <v>51394.4285</v>
+        <v>53107.9369</v>
       </c>
       <c r="G17" t="n">
-        <v>27.94666666666665</v>
+        <v>27.94333333333332</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="C18" t="n">
         <v>28</v>
       </c>
-      <c r="C18" t="n">
-        <v>28.3</v>
-      </c>
       <c r="D18" t="n">
-        <v>28.3</v>
+        <v>28</v>
       </c>
       <c r="E18" t="n">
-        <v>28</v>
+        <v>27.9</v>
       </c>
       <c r="F18" t="n">
-        <v>7337.9707</v>
+        <v>51394.4285</v>
       </c>
       <c r="G18" t="n">
-        <v>27.96666666666665</v>
+        <v>27.94666666666665</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1031,19 +1031,19 @@
         <v>28</v>
       </c>
       <c r="C19" t="n">
-        <v>28</v>
+        <v>28.3</v>
       </c>
       <c r="D19" t="n">
-        <v>28</v>
+        <v>28.3</v>
       </c>
       <c r="E19" t="n">
         <v>28</v>
       </c>
       <c r="F19" t="n">
-        <v>16.5167</v>
+        <v>7337.9707</v>
       </c>
       <c r="G19" t="n">
-        <v>27.97166666666665</v>
+        <v>27.96666666666665</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>28.3</v>
+        <v>28</v>
       </c>
       <c r="C20" t="n">
-        <v>28.3</v>
+        <v>28</v>
       </c>
       <c r="D20" t="n">
-        <v>28.3</v>
+        <v>28</v>
       </c>
       <c r="E20" t="n">
-        <v>28.3</v>
+        <v>28</v>
       </c>
       <c r="F20" t="n">
-        <v>10</v>
+        <v>16.5167</v>
       </c>
       <c r="G20" t="n">
-        <v>27.98166666666665</v>
+        <v>27.97166666666665</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>28</v>
+        <v>28.3</v>
       </c>
       <c r="C21" t="n">
-        <v>28</v>
+        <v>28.3</v>
       </c>
       <c r="D21" t="n">
-        <v>28</v>
+        <v>28.3</v>
       </c>
       <c r="E21" t="n">
-        <v>28</v>
+        <v>28.3</v>
       </c>
       <c r="F21" t="n">
-        <v>89.4054</v>
+        <v>10</v>
       </c>
       <c r="G21" t="n">
-        <v>27.98833333333332</v>
+        <v>27.98166666666665</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1136,19 +1136,19 @@
         <v>28</v>
       </c>
       <c r="C22" t="n">
-        <v>28.3</v>
+        <v>28</v>
       </c>
       <c r="D22" t="n">
-        <v>28.3</v>
+        <v>28</v>
       </c>
       <c r="E22" t="n">
         <v>28</v>
       </c>
       <c r="F22" t="n">
-        <v>22968.1978</v>
+        <v>89.4054</v>
       </c>
       <c r="G22" t="n">
-        <v>28.00333333333332</v>
+        <v>27.98833333333332</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
+        <v>28</v>
+      </c>
+      <c r="C23" t="n">
         <v>28.3</v>
       </c>
-      <c r="C23" t="n">
-        <v>28.7</v>
-      </c>
       <c r="D23" t="n">
-        <v>28.7</v>
+        <v>28.3</v>
       </c>
       <c r="E23" t="n">
-        <v>28.3</v>
+        <v>28</v>
       </c>
       <c r="F23" t="n">
-        <v>5825.3761</v>
+        <v>22968.1978</v>
       </c>
       <c r="G23" t="n">
-        <v>28.02166666666665</v>
+        <v>28.00333333333332</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1206,19 +1206,19 @@
         <v>28.3</v>
       </c>
       <c r="C24" t="n">
-        <v>28.3</v>
+        <v>28.7</v>
       </c>
       <c r="D24" t="n">
-        <v>28.3</v>
+        <v>28.7</v>
       </c>
       <c r="E24" t="n">
         <v>28.3</v>
       </c>
       <c r="F24" t="n">
-        <v>193.1751</v>
+        <v>5825.3761</v>
       </c>
       <c r="G24" t="n">
-        <v>28.03833333333332</v>
+        <v>28.02166666666665</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>28</v>
+        <v>28.3</v>
       </c>
       <c r="C25" t="n">
-        <v>28</v>
+        <v>28.3</v>
       </c>
       <c r="D25" t="n">
-        <v>28</v>
+        <v>28.3</v>
       </c>
       <c r="E25" t="n">
-        <v>28</v>
+        <v>28.3</v>
       </c>
       <c r="F25" t="n">
-        <v>400</v>
+        <v>193.1751</v>
       </c>
       <c r="G25" t="n">
-        <v>28.04999999999999</v>
+        <v>28.03833333333332</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>28.4</v>
+        <v>28</v>
       </c>
       <c r="C26" t="n">
-        <v>28.4</v>
+        <v>28</v>
       </c>
       <c r="D26" t="n">
-        <v>28.4</v>
+        <v>28</v>
       </c>
       <c r="E26" t="n">
-        <v>28.4</v>
+        <v>28</v>
       </c>
       <c r="F26" t="n">
-        <v>11</v>
+        <v>400</v>
       </c>
       <c r="G26" t="n">
-        <v>28.06999999999999</v>
+        <v>28.04999999999999</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1311,19 +1311,19 @@
         <v>28.4</v>
       </c>
       <c r="C27" t="n">
-        <v>28.5</v>
+        <v>28.4</v>
       </c>
       <c r="D27" t="n">
-        <v>28.5</v>
+        <v>28.4</v>
       </c>
       <c r="E27" t="n">
         <v>28.4</v>
       </c>
       <c r="F27" t="n">
-        <v>23215.9475</v>
+        <v>11</v>
       </c>
       <c r="G27" t="n">
-        <v>28.09166666666665</v>
+        <v>28.06999999999999</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>28.7</v>
+        <v>28.4</v>
       </c>
       <c r="C28" t="n">
-        <v>29.1</v>
+        <v>28.5</v>
       </c>
       <c r="D28" t="n">
-        <v>29.1</v>
+        <v>28.5</v>
       </c>
       <c r="E28" t="n">
-        <v>28.7</v>
+        <v>28.4</v>
       </c>
       <c r="F28" t="n">
-        <v>43215.9078</v>
+        <v>23215.9475</v>
       </c>
       <c r="G28" t="n">
-        <v>28.11666666666665</v>
+        <v>28.09166666666665</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="C29" t="n">
         <v>29.1</v>
       </c>
-      <c r="C29" t="n">
-        <v>29.3</v>
-      </c>
       <c r="D29" t="n">
-        <v>29.3</v>
+        <v>29.1</v>
       </c>
       <c r="E29" t="n">
-        <v>29.1</v>
+        <v>28.7</v>
       </c>
       <c r="F29" t="n">
-        <v>62543.8747</v>
+        <v>43215.9078</v>
       </c>
       <c r="G29" t="n">
-        <v>28.14499999999999</v>
+        <v>28.11666666666665</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,10 +1413,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="C30" t="n">
         <v>29.3</v>
-      </c>
-      <c r="C30" t="n">
-        <v>29.1</v>
       </c>
       <c r="D30" t="n">
         <v>29.3</v>
@@ -1425,10 +1425,10 @@
         <v>29.1</v>
       </c>
       <c r="F30" t="n">
-        <v>32956.21124948</v>
+        <v>62543.8747</v>
       </c>
       <c r="G30" t="n">
-        <v>28.17499999999999</v>
+        <v>28.14499999999999</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="C31" t="n">
         <v>29.1</v>
       </c>
-      <c r="C31" t="n">
-        <v>30.5</v>
-      </c>
       <c r="D31" t="n">
-        <v>30.5</v>
+        <v>29.3</v>
       </c>
       <c r="E31" t="n">
         <v>29.1</v>
       </c>
       <c r="F31" t="n">
-        <v>481769.9357726</v>
+        <v>32956.21124948</v>
       </c>
       <c r="G31" t="n">
-        <v>28.22333333333332</v>
+        <v>28.17499999999999</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="C32" t="n">
         <v>30.5</v>
       </c>
-      <c r="C32" t="n">
-        <v>30.7</v>
-      </c>
       <c r="D32" t="n">
-        <v>30.7</v>
+        <v>30.5</v>
       </c>
       <c r="E32" t="n">
-        <v>30.5</v>
+        <v>29.1</v>
       </c>
       <c r="F32" t="n">
-        <v>40665.3827</v>
+        <v>481769.9357726</v>
       </c>
       <c r="G32" t="n">
-        <v>28.28333333333332</v>
+        <v>28.22333333333332</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,7 +1518,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>30.7</v>
+        <v>30.5</v>
       </c>
       <c r="C33" t="n">
         <v>30.7</v>
@@ -1527,13 +1527,13 @@
         <v>30.7</v>
       </c>
       <c r="E33" t="n">
-        <v>30.7</v>
+        <v>30.5</v>
       </c>
       <c r="F33" t="n">
-        <v>32414.1367</v>
+        <v>40665.3827</v>
       </c>
       <c r="G33" t="n">
-        <v>28.33499999999999</v>
+        <v>28.28333333333332</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1556,19 +1556,19 @@
         <v>30.7</v>
       </c>
       <c r="C34" t="n">
-        <v>31</v>
+        <v>30.7</v>
       </c>
       <c r="D34" t="n">
-        <v>31</v>
+        <v>30.7</v>
       </c>
       <c r="E34" t="n">
         <v>30.7</v>
       </c>
       <c r="F34" t="n">
-        <v>68204.2294</v>
+        <v>32414.1367</v>
       </c>
       <c r="G34" t="n">
-        <v>28.40166666666666</v>
+        <v>28.33499999999999</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,28 +1588,28 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>30.2</v>
+        <v>30.7</v>
       </c>
       <c r="C35" t="n">
-        <v>30.9</v>
+        <v>31</v>
       </c>
       <c r="D35" t="n">
-        <v>30.9</v>
+        <v>31</v>
       </c>
       <c r="E35" t="n">
-        <v>29.7</v>
+        <v>30.7</v>
       </c>
       <c r="F35" t="n">
-        <v>118213.2916</v>
+        <v>68204.2294</v>
       </c>
       <c r="G35" t="n">
-        <v>28.45333333333333</v>
+        <v>28.40166666666666</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
@@ -1623,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>30.3</v>
+        <v>30.2</v>
       </c>
       <c r="C36" t="n">
-        <v>30.7</v>
+        <v>30.9</v>
       </c>
       <c r="D36" t="n">
         <v>30.9</v>
       </c>
       <c r="E36" t="n">
-        <v>30.2</v>
+        <v>29.7</v>
       </c>
       <c r="F36" t="n">
-        <v>207087.4001</v>
+        <v>118213.2916</v>
       </c>
       <c r="G36" t="n">
-        <v>28.50333333333333</v>
+        <v>28.45333333333333</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="C37" t="n">
         <v>30.7</v>
       </c>
-      <c r="C37" t="n">
-        <v>31.1</v>
-      </c>
       <c r="D37" t="n">
-        <v>31.1</v>
+        <v>30.9</v>
       </c>
       <c r="E37" t="n">
-        <v>30.7</v>
+        <v>30.2</v>
       </c>
       <c r="F37" t="n">
-        <v>232776.4981274</v>
+        <v>207087.4001</v>
       </c>
       <c r="G37" t="n">
-        <v>28.55666666666666</v>
+        <v>28.50333333333333</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>30.8</v>
+        <v>30.7</v>
       </c>
       <c r="C38" t="n">
-        <v>31.6</v>
+        <v>31.1</v>
       </c>
       <c r="D38" t="n">
-        <v>31.6</v>
+        <v>31.1</v>
       </c>
       <c r="E38" t="n">
-        <v>30.8</v>
+        <v>30.7</v>
       </c>
       <c r="F38" t="n">
-        <v>262604.0144</v>
+        <v>232776.4981274</v>
       </c>
       <c r="G38" t="n">
-        <v>28.61833333333332</v>
+        <v>28.55666666666666</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>31.5</v>
+        <v>30.8</v>
       </c>
       <c r="C39" t="n">
-        <v>31</v>
+        <v>31.6</v>
       </c>
       <c r="D39" t="n">
-        <v>31.5</v>
+        <v>31.6</v>
       </c>
       <c r="E39" t="n">
         <v>30.8</v>
       </c>
       <c r="F39" t="n">
-        <v>6262</v>
+        <v>262604.0144</v>
       </c>
       <c r="G39" t="n">
-        <v>28.66833333333332</v>
+        <v>28.61833333333332</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>31.4</v>
+        <v>31.5</v>
       </c>
       <c r="C40" t="n">
-        <v>30.9</v>
+        <v>31</v>
       </c>
       <c r="D40" t="n">
-        <v>31.4</v>
+        <v>31.5</v>
       </c>
       <c r="E40" t="n">
-        <v>29.1</v>
+        <v>30.8</v>
       </c>
       <c r="F40" t="n">
-        <v>77471.5368</v>
+        <v>6262</v>
       </c>
       <c r="G40" t="n">
-        <v>28.71666666666665</v>
+        <v>28.66833333333332</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>29.9</v>
+        <v>31.4</v>
       </c>
       <c r="C41" t="n">
-        <v>29.4</v>
+        <v>30.9</v>
       </c>
       <c r="D41" t="n">
-        <v>29.9</v>
+        <v>31.4</v>
       </c>
       <c r="E41" t="n">
-        <v>29.4</v>
+        <v>29.1</v>
       </c>
       <c r="F41" t="n">
-        <v>678.896</v>
+        <v>77471.5368</v>
       </c>
       <c r="G41" t="n">
-        <v>28.73999999999999</v>
+        <v>28.71666666666665</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>29.2</v>
+        <v>29.9</v>
       </c>
       <c r="C42" t="n">
-        <v>29.7</v>
+        <v>29.4</v>
       </c>
       <c r="D42" t="n">
-        <v>29.8</v>
+        <v>29.9</v>
       </c>
       <c r="E42" t="n">
-        <v>28.9</v>
+        <v>29.4</v>
       </c>
       <c r="F42" t="n">
-        <v>60814.0869</v>
+        <v>678.896</v>
       </c>
       <c r="G42" t="n">
-        <v>28.76833333333332</v>
+        <v>28.73999999999999</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,22 +1868,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>29.5</v>
+        <v>29.2</v>
       </c>
       <c r="C43" t="n">
-        <v>29.9</v>
+        <v>29.7</v>
       </c>
       <c r="D43" t="n">
-        <v>29.9</v>
+        <v>29.8</v>
       </c>
       <c r="E43" t="n">
-        <v>29.4</v>
+        <v>28.9</v>
       </c>
       <c r="F43" t="n">
-        <v>44331.3169</v>
+        <v>60814.0869</v>
       </c>
       <c r="G43" t="n">
-        <v>28.79666666666666</v>
+        <v>28.76833333333332</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>30</v>
+        <v>29.5</v>
       </c>
       <c r="C44" t="n">
-        <v>30.4</v>
+        <v>29.9</v>
       </c>
       <c r="D44" t="n">
-        <v>30.9</v>
+        <v>29.9</v>
       </c>
       <c r="E44" t="n">
-        <v>29.9</v>
+        <v>29.4</v>
       </c>
       <c r="F44" t="n">
-        <v>73404.53711003</v>
+        <v>44331.3169</v>
       </c>
       <c r="G44" t="n">
-        <v>28.83499999999999</v>
+        <v>28.79666666666666</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,22 +1938,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>30.5</v>
+        <v>30</v>
       </c>
       <c r="C45" t="n">
-        <v>29.9</v>
+        <v>30.4</v>
       </c>
       <c r="D45" t="n">
-        <v>30.5</v>
+        <v>30.9</v>
       </c>
       <c r="E45" t="n">
         <v>29.9</v>
       </c>
       <c r="F45" t="n">
-        <v>20131.4204</v>
+        <v>73404.53711003</v>
       </c>
       <c r="G45" t="n">
-        <v>28.87666666666666</v>
+        <v>28.83499999999999</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>29.6</v>
+        <v>30.5</v>
       </c>
       <c r="C46" t="n">
-        <v>30</v>
+        <v>29.9</v>
       </c>
       <c r="D46" t="n">
         <v>30.5</v>
       </c>
       <c r="E46" t="n">
-        <v>29.4</v>
+        <v>29.9</v>
       </c>
       <c r="F46" t="n">
-        <v>175285.3056</v>
+        <v>20131.4204</v>
       </c>
       <c r="G46" t="n">
-        <v>28.91166666666666</v>
+        <v>28.87666666666666</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>30.2</v>
+        <v>29.6</v>
       </c>
       <c r="C47" t="n">
-        <v>30.2</v>
+        <v>30</v>
       </c>
       <c r="D47" t="n">
-        <v>30.2</v>
+        <v>30.5</v>
       </c>
       <c r="E47" t="n">
-        <v>30.2</v>
+        <v>29.4</v>
       </c>
       <c r="F47" t="n">
-        <v>10</v>
+        <v>175285.3056</v>
       </c>
       <c r="G47" t="n">
-        <v>28.95999999999999</v>
+        <v>28.91166666666666</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,7 +2043,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>30.1</v>
+        <v>30.2</v>
       </c>
       <c r="C48" t="n">
         <v>30.2</v>
@@ -2052,13 +2052,13 @@
         <v>30.2</v>
       </c>
       <c r="E48" t="n">
-        <v>30</v>
+        <v>30.2</v>
       </c>
       <c r="F48" t="n">
-        <v>93648.9347</v>
+        <v>10</v>
       </c>
       <c r="G48" t="n">
-        <v>28.985</v>
+        <v>28.95999999999999</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,22 +2078,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="C49" t="n">
-        <v>30</v>
+        <v>30.2</v>
       </c>
       <c r="D49" t="n">
-        <v>30</v>
+        <v>30.2</v>
       </c>
       <c r="E49" t="n">
         <v>30</v>
       </c>
       <c r="F49" t="n">
-        <v>605.6179</v>
+        <v>93648.9347</v>
       </c>
       <c r="G49" t="n">
-        <v>29.00833333333333</v>
+        <v>28.985</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,22 +2113,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>29.9</v>
+        <v>30</v>
       </c>
       <c r="C50" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="D50" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="E50" t="n">
-        <v>29.5</v>
+        <v>30</v>
       </c>
       <c r="F50" t="n">
-        <v>4794.2606</v>
+        <v>605.6179</v>
       </c>
       <c r="G50" t="n">
-        <v>29.03333333333333</v>
+        <v>29.00833333333333</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,22 +2148,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>30</v>
+        <v>29.9</v>
       </c>
       <c r="C51" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="D51" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="E51" t="n">
-        <v>30</v>
+        <v>29.5</v>
       </c>
       <c r="F51" t="n">
-        <v>20872.7666</v>
+        <v>4794.2606</v>
       </c>
       <c r="G51" t="n">
-        <v>29.05833333333333</v>
+        <v>29.03333333333333</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,22 +2183,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>29.5</v>
+        <v>30</v>
       </c>
       <c r="C52" t="n">
-        <v>29.4</v>
+        <v>30</v>
       </c>
       <c r="D52" t="n">
-        <v>29.5</v>
+        <v>30</v>
       </c>
       <c r="E52" t="n">
-        <v>29.4</v>
+        <v>30</v>
       </c>
       <c r="F52" t="n">
-        <v>15771.722</v>
+        <v>20872.7666</v>
       </c>
       <c r="G52" t="n">
-        <v>29.07</v>
+        <v>29.05833333333333</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,22 +2218,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>29.9</v>
+        <v>29.5</v>
       </c>
       <c r="C53" t="n">
-        <v>29.8</v>
+        <v>29.4</v>
       </c>
       <c r="D53" t="n">
-        <v>29.9</v>
+        <v>29.5</v>
       </c>
       <c r="E53" t="n">
         <v>29.4</v>
       </c>
       <c r="F53" t="n">
-        <v>29915.8197</v>
+        <v>15771.722</v>
       </c>
       <c r="G53" t="n">
-        <v>29.10166666666666</v>
+        <v>29.07</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,22 +2253,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>29.8</v>
+        <v>29.9</v>
       </c>
       <c r="C54" t="n">
         <v>29.8</v>
       </c>
       <c r="D54" t="n">
-        <v>29.8</v>
+        <v>29.9</v>
       </c>
       <c r="E54" t="n">
-        <v>29.8</v>
+        <v>29.4</v>
       </c>
       <c r="F54" t="n">
-        <v>6347.5428</v>
+        <v>29915.8197</v>
       </c>
       <c r="G54" t="n">
-        <v>29.13</v>
+        <v>29.10166666666666</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2291,19 +2291,19 @@
         <v>29.8</v>
       </c>
       <c r="C55" t="n">
-        <v>29.9</v>
+        <v>29.8</v>
       </c>
       <c r="D55" t="n">
-        <v>29.9</v>
+        <v>29.8</v>
       </c>
       <c r="E55" t="n">
-        <v>29.4</v>
+        <v>29.8</v>
       </c>
       <c r="F55" t="n">
-        <v>139983.2478</v>
+        <v>6347.5428</v>
       </c>
       <c r="G55" t="n">
-        <v>29.17</v>
+        <v>29.13</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2323,7 +2323,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>29.9</v>
+        <v>29.8</v>
       </c>
       <c r="C56" t="n">
         <v>29.9</v>
@@ -2332,13 +2332,13 @@
         <v>29.9</v>
       </c>
       <c r="E56" t="n">
-        <v>29.9</v>
+        <v>29.4</v>
       </c>
       <c r="F56" t="n">
-        <v>3344.48160535</v>
+        <v>139983.2478</v>
       </c>
       <c r="G56" t="n">
-        <v>29.215</v>
+        <v>29.17</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2358,22 +2358,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>29.7</v>
+        <v>29.9</v>
       </c>
       <c r="C57" t="n">
-        <v>29.7</v>
+        <v>29.9</v>
       </c>
       <c r="D57" t="n">
-        <v>29.7</v>
+        <v>29.9</v>
       </c>
       <c r="E57" t="n">
-        <v>29.7</v>
+        <v>29.9</v>
       </c>
       <c r="F57" t="n">
-        <v>11</v>
+        <v>3344.48160535</v>
       </c>
       <c r="G57" t="n">
-        <v>29.24333333333333</v>
+        <v>29.215</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2402,13 +2402,13 @@
         <v>29.7</v>
       </c>
       <c r="E58" t="n">
-        <v>29.4</v>
+        <v>29.7</v>
       </c>
       <c r="F58" t="n">
-        <v>31113.5763</v>
+        <v>11</v>
       </c>
       <c r="G58" t="n">
-        <v>29.28333333333333</v>
+        <v>29.24333333333333</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2428,22 +2428,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>29.2</v>
+        <v>29.7</v>
       </c>
       <c r="C59" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="D59" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="E59" t="n">
         <v>29.4</v>
       </c>
-      <c r="D59" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="E59" t="n">
-        <v>28.6</v>
-      </c>
       <c r="F59" t="n">
-        <v>123990.6555</v>
+        <v>31113.5763</v>
       </c>
       <c r="G59" t="n">
-        <v>29.30333333333333</v>
+        <v>29.28333333333333</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2463,22 +2463,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>28.7</v>
+        <v>29.2</v>
       </c>
       <c r="C60" t="n">
-        <v>29</v>
+        <v>29.4</v>
       </c>
       <c r="D60" t="n">
-        <v>29</v>
+        <v>29.4</v>
       </c>
       <c r="E60" t="n">
-        <v>28.7</v>
+        <v>28.6</v>
       </c>
       <c r="F60" t="n">
-        <v>53453.1604</v>
+        <v>123990.6555</v>
       </c>
       <c r="G60" t="n">
-        <v>29.31166666666667</v>
+        <v>29.30333333333333</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2498,22 +2498,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>29.3</v>
+        <v>28.7</v>
       </c>
       <c r="C61" t="n">
-        <v>29.3</v>
+        <v>29</v>
       </c>
       <c r="D61" t="n">
-        <v>29.3</v>
+        <v>29</v>
       </c>
       <c r="E61" t="n">
-        <v>28.5</v>
+        <v>28.7</v>
       </c>
       <c r="F61" t="n">
-        <v>113320.3682</v>
+        <v>53453.1604</v>
       </c>
       <c r="G61" t="n">
-        <v>29.32333333333333</v>
+        <v>29.31166666666667</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2533,22 +2533,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>28.6</v>
+        <v>29.3</v>
       </c>
       <c r="C62" t="n">
-        <v>28.4</v>
+        <v>29.3</v>
       </c>
       <c r="D62" t="n">
-        <v>28.6</v>
+        <v>29.3</v>
       </c>
       <c r="E62" t="n">
-        <v>28.4</v>
+        <v>28.5</v>
       </c>
       <c r="F62" t="n">
-        <v>75012.9644</v>
+        <v>113320.3682</v>
       </c>
       <c r="G62" t="n">
-        <v>29.32</v>
+        <v>29.32333333333333</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2568,22 +2568,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>28.5</v>
+        <v>28.6</v>
       </c>
       <c r="C63" t="n">
-        <v>28.5</v>
+        <v>28.4</v>
       </c>
       <c r="D63" t="n">
-        <v>28.7</v>
+        <v>28.6</v>
       </c>
       <c r="E63" t="n">
-        <v>28.5</v>
+        <v>28.4</v>
       </c>
       <c r="F63" t="n">
-        <v>19757.4676</v>
+        <v>75012.9644</v>
       </c>
       <c r="G63" t="n">
-        <v>29.31833333333334</v>
+        <v>29.32</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="C64" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="D64" t="n">
         <v>28.7</v>
       </c>
-      <c r="C64" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="D64" t="n">
-        <v>28.8</v>
-      </c>
       <c r="E64" t="n">
-        <v>28.7</v>
+        <v>28.5</v>
       </c>
       <c r="F64" t="n">
-        <v>20</v>
+        <v>19757.4676</v>
       </c>
       <c r="G64" t="n">
-        <v>29.32</v>
+        <v>29.31833333333334</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2638,31 +2638,35 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>28.5</v>
+        <v>28.7</v>
       </c>
       <c r="C65" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="D65" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="E65" t="n">
         <v>28.7</v>
       </c>
-      <c r="D65" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="E65" t="n">
-        <v>28.5</v>
-      </c>
       <c r="F65" t="n">
-        <v>21825.0431</v>
+        <v>20</v>
       </c>
       <c r="G65" t="n">
-        <v>29.31000000000001</v>
+        <v>29.32</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="K65" t="n">
+        <v>28.5</v>
+      </c>
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
@@ -2676,19 +2680,19 @@
         <v>28.5</v>
       </c>
       <c r="C66" t="n">
-        <v>28.5</v>
+        <v>28.7</v>
       </c>
       <c r="D66" t="n">
-        <v>28.5</v>
+        <v>28.7</v>
       </c>
       <c r="E66" t="n">
         <v>28.5</v>
       </c>
       <c r="F66" t="n">
-        <v>17604.7463</v>
+        <v>21825.0431</v>
       </c>
       <c r="G66" t="n">
-        <v>29.29666666666667</v>
+        <v>29.31000000000001</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2697,8 +2701,14 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2720,10 +2730,10 @@
         <v>28.5</v>
       </c>
       <c r="F67" t="n">
-        <v>3562.2835</v>
+        <v>17604.7463</v>
       </c>
       <c r="G67" t="n">
-        <v>29.28666666666668</v>
+        <v>29.29666666666667</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2732,8 +2742,14 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2743,22 +2759,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>28.6</v>
+        <v>28.5</v>
       </c>
       <c r="C68" t="n">
-        <v>28.8</v>
+        <v>28.5</v>
       </c>
       <c r="D68" t="n">
-        <v>28.8</v>
+        <v>28.5</v>
       </c>
       <c r="E68" t="n">
-        <v>28.6</v>
+        <v>28.5</v>
       </c>
       <c r="F68" t="n">
-        <v>86391.94439999999</v>
+        <v>3562.2835</v>
       </c>
       <c r="G68" t="n">
-        <v>29.30666666666668</v>
+        <v>29.28666666666668</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2767,8 +2783,14 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2778,7 +2800,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>28.8</v>
+        <v>28.6</v>
       </c>
       <c r="C69" t="n">
         <v>28.8</v>
@@ -2787,13 +2809,13 @@
         <v>28.8</v>
       </c>
       <c r="E69" t="n">
-        <v>28.8</v>
+        <v>28.6</v>
       </c>
       <c r="F69" t="n">
-        <v>24200.1388</v>
+        <v>86391.94439999999</v>
       </c>
       <c r="G69" t="n">
-        <v>29.31000000000001</v>
+        <v>29.30666666666668</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2802,8 +2824,14 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2816,19 +2844,19 @@
         <v>28.8</v>
       </c>
       <c r="C70" t="n">
-        <v>29</v>
+        <v>28.8</v>
       </c>
       <c r="D70" t="n">
-        <v>29</v>
+        <v>28.8</v>
       </c>
       <c r="E70" t="n">
         <v>28.8</v>
       </c>
       <c r="F70" t="n">
-        <v>65007.0162</v>
+        <v>24200.1388</v>
       </c>
       <c r="G70" t="n">
-        <v>29.33000000000001</v>
+        <v>29.31000000000001</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2837,8 +2865,14 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2851,19 +2885,19 @@
         <v>28.8</v>
       </c>
       <c r="C71" t="n">
-        <v>28.5</v>
+        <v>29</v>
       </c>
       <c r="D71" t="n">
+        <v>29</v>
+      </c>
+      <c r="E71" t="n">
         <v>28.8</v>
       </c>
-      <c r="E71" t="n">
-        <v>28.5</v>
-      </c>
       <c r="F71" t="n">
-        <v>68418.7372</v>
+        <v>65007.0162</v>
       </c>
       <c r="G71" t="n">
-        <v>29.34166666666668</v>
+        <v>29.33000000000001</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2872,8 +2906,14 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -2883,22 +2923,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>28.4</v>
+        <v>28.8</v>
       </c>
       <c r="C72" t="n">
-        <v>28.4</v>
+        <v>28.5</v>
       </c>
       <c r="D72" t="n">
-        <v>28.4</v>
+        <v>28.8</v>
       </c>
       <c r="E72" t="n">
-        <v>28.4</v>
+        <v>28.5</v>
       </c>
       <c r="F72" t="n">
-        <v>45408.2704</v>
+        <v>68418.7372</v>
       </c>
       <c r="G72" t="n">
-        <v>29.33833333333335</v>
+        <v>29.34166666666668</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2907,8 +2947,14 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -2918,22 +2964,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>28.7</v>
+        <v>28.4</v>
       </c>
       <c r="C73" t="n">
-        <v>28.7</v>
+        <v>28.4</v>
       </c>
       <c r="D73" t="n">
-        <v>28.7</v>
+        <v>28.4</v>
       </c>
       <c r="E73" t="n">
-        <v>28.7</v>
+        <v>28.4</v>
       </c>
       <c r="F73" t="n">
-        <v>10</v>
+        <v>45408.2704</v>
       </c>
       <c r="G73" t="n">
-        <v>29.34166666666668</v>
+        <v>29.33833333333335</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2942,8 +2988,14 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -2953,22 +3005,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>28.3</v>
+        <v>28.7</v>
       </c>
       <c r="C74" t="n">
-        <v>28.6</v>
+        <v>28.7</v>
       </c>
       <c r="D74" t="n">
-        <v>28.6</v>
+        <v>28.7</v>
       </c>
       <c r="E74" t="n">
-        <v>28.3</v>
+        <v>28.7</v>
       </c>
       <c r="F74" t="n">
-        <v>42067.3375</v>
+        <v>10</v>
       </c>
       <c r="G74" t="n">
-        <v>29.35166666666668</v>
+        <v>29.34166666666668</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2977,8 +3029,14 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -2988,22 +3046,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>28.4</v>
+        <v>28.3</v>
       </c>
       <c r="C75" t="n">
-        <v>28.3</v>
+        <v>28.6</v>
       </c>
       <c r="D75" t="n">
-        <v>28.4</v>
+        <v>28.6</v>
       </c>
       <c r="E75" t="n">
         <v>28.3</v>
       </c>
       <c r="F75" t="n">
-        <v>1656.4626</v>
+        <v>42067.3375</v>
       </c>
       <c r="G75" t="n">
-        <v>29.35833333333334</v>
+        <v>29.35166666666668</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3012,8 +3070,14 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3026,19 +3090,19 @@
         <v>28.4</v>
       </c>
       <c r="C76" t="n">
-        <v>28.4</v>
+        <v>28.3</v>
       </c>
       <c r="D76" t="n">
         <v>28.4</v>
       </c>
       <c r="E76" t="n">
-        <v>28.4</v>
+        <v>28.3</v>
       </c>
       <c r="F76" t="n">
-        <v>11</v>
+        <v>1656.4626</v>
       </c>
       <c r="G76" t="n">
-        <v>29.36666666666668</v>
+        <v>29.35833333333334</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3047,8 +3111,14 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3058,22 +3128,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>28.3</v>
+        <v>28.4</v>
       </c>
       <c r="C77" t="n">
-        <v>28.6</v>
+        <v>28.4</v>
       </c>
       <c r="D77" t="n">
-        <v>28.6</v>
+        <v>28.4</v>
       </c>
       <c r="E77" t="n">
-        <v>28.3</v>
+        <v>28.4</v>
       </c>
       <c r="F77" t="n">
-        <v>17945.3715</v>
+        <v>11</v>
       </c>
       <c r="G77" t="n">
-        <v>29.37666666666668</v>
+        <v>29.36666666666668</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3082,8 +3152,14 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3093,7 +3169,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>28.6</v>
+        <v>28.3</v>
       </c>
       <c r="C78" t="n">
         <v>28.6</v>
@@ -3102,13 +3178,13 @@
         <v>28.6</v>
       </c>
       <c r="E78" t="n">
-        <v>28.6</v>
+        <v>28.3</v>
       </c>
       <c r="F78" t="n">
-        <v>6954.8851</v>
+        <v>17945.3715</v>
       </c>
       <c r="G78" t="n">
-        <v>29.38166666666667</v>
+        <v>29.37666666666668</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3117,8 +3193,14 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3128,36 +3210,38 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>28.7</v>
+        <v>28.6</v>
       </c>
       <c r="C79" t="n">
-        <v>28.7</v>
+        <v>28.6</v>
       </c>
       <c r="D79" t="n">
-        <v>28.7</v>
+        <v>28.6</v>
       </c>
       <c r="E79" t="n">
-        <v>28.7</v>
+        <v>28.6</v>
       </c>
       <c r="F79" t="n">
-        <v>11</v>
+        <v>6954.8851</v>
       </c>
       <c r="G79" t="n">
-        <v>29.39333333333334</v>
+        <v>29.38166666666667</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>28.6</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="L79" t="inlineStr"/>
+        <v>28.5</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3179,10 +3263,10 @@
         <v>28.7</v>
       </c>
       <c r="F80" t="n">
-        <v>40884.425</v>
+        <v>11</v>
       </c>
       <c r="G80" t="n">
-        <v>29.40000000000001</v>
+        <v>29.39333333333334</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3192,11 +3276,11 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="n">
-        <v>28.6</v>
+        <v>28.5</v>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M80" t="n">
@@ -3211,19 +3295,19 @@
         <v>28.7</v>
       </c>
       <c r="C81" t="n">
-        <v>28.9</v>
+        <v>28.7</v>
       </c>
       <c r="D81" t="n">
-        <v>28.9</v>
+        <v>28.7</v>
       </c>
       <c r="E81" t="n">
         <v>28.7</v>
       </c>
       <c r="F81" t="n">
-        <v>33171.6892</v>
+        <v>40884.425</v>
       </c>
       <c r="G81" t="n">
-        <v>29.41500000000001</v>
+        <v>29.40000000000001</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3233,11 +3317,11 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="n">
-        <v>28.6</v>
+        <v>28.5</v>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M81" t="n">
@@ -3249,7 +3333,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>28.9</v>
+        <v>28.7</v>
       </c>
       <c r="C82" t="n">
         <v>28.9</v>
@@ -3258,13 +3342,13 @@
         <v>28.9</v>
       </c>
       <c r="E82" t="n">
-        <v>28.9</v>
+        <v>28.7</v>
       </c>
       <c r="F82" t="n">
-        <v>11135.8153</v>
+        <v>33171.6892</v>
       </c>
       <c r="G82" t="n">
-        <v>29.42500000000001</v>
+        <v>29.41500000000001</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3273,8 +3357,14 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3284,19 +3374,19 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>28.8</v>
+        <v>28.9</v>
       </c>
       <c r="C83" t="n">
-        <v>28.7</v>
+        <v>28.9</v>
       </c>
       <c r="D83" t="n">
-        <v>28.8</v>
+        <v>28.9</v>
       </c>
       <c r="E83" t="n">
-        <v>28.7</v>
+        <v>28.9</v>
       </c>
       <c r="F83" t="n">
-        <v>49274.0577</v>
+        <v>11135.8153</v>
       </c>
       <c r="G83" t="n">
         <v>29.42500000000001</v>
@@ -3308,8 +3398,14 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3319,22 +3415,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>29</v>
+        <v>28.8</v>
       </c>
       <c r="C84" t="n">
-        <v>29</v>
+        <v>28.7</v>
       </c>
       <c r="D84" t="n">
-        <v>29</v>
+        <v>28.8</v>
       </c>
       <c r="E84" t="n">
-        <v>29</v>
+        <v>28.7</v>
       </c>
       <c r="F84" t="n">
-        <v>10</v>
+        <v>49274.0577</v>
       </c>
       <c r="G84" t="n">
-        <v>29.43666666666668</v>
+        <v>29.42500000000001</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3343,8 +3439,14 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3354,22 +3456,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>28.7</v>
+        <v>29</v>
       </c>
       <c r="C85" t="n">
-        <v>28.3</v>
+        <v>29</v>
       </c>
       <c r="D85" t="n">
-        <v>28.7</v>
+        <v>29</v>
       </c>
       <c r="E85" t="n">
-        <v>28.3</v>
+        <v>29</v>
       </c>
       <c r="F85" t="n">
-        <v>27265.1397</v>
+        <v>10</v>
       </c>
       <c r="G85" t="n">
-        <v>29.44166666666668</v>
+        <v>29.43666666666668</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3378,8 +3480,14 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3389,22 +3497,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>28.3</v>
+        <v>28.7</v>
       </c>
       <c r="C86" t="n">
         <v>28.3</v>
       </c>
       <c r="D86" t="n">
-        <v>28.3</v>
+        <v>28.7</v>
       </c>
       <c r="E86" t="n">
         <v>28.3</v>
       </c>
       <c r="F86" t="n">
-        <v>14849.8078</v>
+        <v>27265.1397</v>
       </c>
       <c r="G86" t="n">
-        <v>29.44000000000001</v>
+        <v>29.44166666666668</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3413,8 +3521,14 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3424,19 +3538,19 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>28.5</v>
+        <v>28.3</v>
       </c>
       <c r="C87" t="n">
-        <v>28.5</v>
+        <v>28.3</v>
       </c>
       <c r="D87" t="n">
-        <v>28.5</v>
+        <v>28.3</v>
       </c>
       <c r="E87" t="n">
-        <v>28.5</v>
+        <v>28.3</v>
       </c>
       <c r="F87" t="n">
-        <v>9000</v>
+        <v>14849.8078</v>
       </c>
       <c r="G87" t="n">
         <v>29.44000000000001</v>
@@ -3448,8 +3562,14 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3462,19 +3582,19 @@
         <v>28.5</v>
       </c>
       <c r="C88" t="n">
-        <v>28.6</v>
+        <v>28.5</v>
       </c>
       <c r="D88" t="n">
-        <v>28.6</v>
+        <v>28.5</v>
       </c>
       <c r="E88" t="n">
         <v>28.5</v>
       </c>
       <c r="F88" t="n">
-        <v>23318.8709</v>
+        <v>9000</v>
       </c>
       <c r="G88" t="n">
-        <v>29.43166666666668</v>
+        <v>29.44000000000001</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3483,8 +3603,14 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3494,7 +3620,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>28.6</v>
+        <v>28.5</v>
       </c>
       <c r="C89" t="n">
         <v>28.6</v>
@@ -3503,13 +3629,13 @@
         <v>28.6</v>
       </c>
       <c r="E89" t="n">
-        <v>28.6</v>
+        <v>28.5</v>
       </c>
       <c r="F89" t="n">
-        <v>4148.559</v>
+        <v>23318.8709</v>
       </c>
       <c r="G89" t="n">
-        <v>29.42000000000001</v>
+        <v>29.43166666666668</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3518,8 +3644,14 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3529,22 +3661,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>28.9</v>
+        <v>28.6</v>
       </c>
       <c r="C90" t="n">
-        <v>28.9</v>
+        <v>28.6</v>
       </c>
       <c r="D90" t="n">
-        <v>28.9</v>
+        <v>28.6</v>
       </c>
       <c r="E90" t="n">
-        <v>28.9</v>
+        <v>28.6</v>
       </c>
       <c r="F90" t="n">
-        <v>10</v>
+        <v>4148.559</v>
       </c>
       <c r="G90" t="n">
-        <v>29.41666666666668</v>
+        <v>29.42000000000001</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3553,8 +3685,14 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3564,22 +3702,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>28.7</v>
+        <v>28.9</v>
       </c>
       <c r="C91" t="n">
-        <v>28.6</v>
+        <v>28.9</v>
       </c>
       <c r="D91" t="n">
-        <v>28.7</v>
+        <v>28.9</v>
       </c>
       <c r="E91" t="n">
-        <v>28.6</v>
+        <v>28.9</v>
       </c>
       <c r="F91" t="n">
-        <v>24567.7166</v>
+        <v>10</v>
       </c>
       <c r="G91" t="n">
-        <v>29.38500000000001</v>
+        <v>29.41666666666668</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3588,8 +3726,14 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3599,22 +3743,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>28.6</v>
+        <v>28.7</v>
       </c>
       <c r="C92" t="n">
-        <v>28.5</v>
+        <v>28.6</v>
       </c>
       <c r="D92" t="n">
-        <v>28.6</v>
+        <v>28.7</v>
       </c>
       <c r="E92" t="n">
-        <v>28.5</v>
+        <v>28.6</v>
       </c>
       <c r="F92" t="n">
-        <v>31266.8779</v>
+        <v>24567.7166</v>
       </c>
       <c r="G92" t="n">
-        <v>29.34833333333335</v>
+        <v>29.38500000000001</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3623,8 +3767,14 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3634,22 +3784,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>28.5</v>
+        <v>28.6</v>
       </c>
       <c r="C93" t="n">
-        <v>28.6</v>
+        <v>28.5</v>
       </c>
       <c r="D93" t="n">
         <v>28.6</v>
       </c>
       <c r="E93" t="n">
-        <v>28.4</v>
+        <v>28.5</v>
       </c>
       <c r="F93" t="n">
-        <v>26646.2172</v>
+        <v>31266.8779</v>
       </c>
       <c r="G93" t="n">
-        <v>29.31333333333334</v>
+        <v>29.34833333333335</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3658,8 +3808,14 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3669,22 +3825,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>28.4</v>
+        <v>28.5</v>
       </c>
       <c r="C94" t="n">
-        <v>28.4</v>
+        <v>28.6</v>
       </c>
       <c r="D94" t="n">
-        <v>28.4</v>
+        <v>28.6</v>
       </c>
       <c r="E94" t="n">
         <v>28.4</v>
       </c>
       <c r="F94" t="n">
-        <v>13116.8173</v>
+        <v>26646.2172</v>
       </c>
       <c r="G94" t="n">
-        <v>29.27000000000001</v>
+        <v>29.31333333333334</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3693,8 +3849,14 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3704,22 +3866,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>28.8</v>
+        <v>28.4</v>
       </c>
       <c r="C95" t="n">
-        <v>28.8</v>
+        <v>28.4</v>
       </c>
       <c r="D95" t="n">
-        <v>28.8</v>
+        <v>28.4</v>
       </c>
       <c r="E95" t="n">
-        <v>28.8</v>
+        <v>28.4</v>
       </c>
       <c r="F95" t="n">
-        <v>10</v>
+        <v>13116.8173</v>
       </c>
       <c r="G95" t="n">
-        <v>29.23500000000001</v>
+        <v>29.27000000000001</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3728,8 +3890,14 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3742,19 +3910,19 @@
         <v>28.8</v>
       </c>
       <c r="C96" t="n">
-        <v>28.9</v>
+        <v>28.8</v>
       </c>
       <c r="D96" t="n">
-        <v>28.9</v>
+        <v>28.8</v>
       </c>
       <c r="E96" t="n">
         <v>28.8</v>
       </c>
       <c r="F96" t="n">
-        <v>19207.6274</v>
+        <v>10</v>
       </c>
       <c r="G96" t="n">
-        <v>29.20500000000001</v>
+        <v>29.23500000000001</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3763,8 +3931,14 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3777,19 +3951,19 @@
         <v>28.8</v>
       </c>
       <c r="C97" t="n">
-        <v>28.7</v>
+        <v>28.9</v>
       </c>
       <c r="D97" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="E97" t="n">
         <v>28.8</v>
       </c>
-      <c r="E97" t="n">
-        <v>28.7</v>
-      </c>
       <c r="F97" t="n">
-        <v>6137.0619</v>
+        <v>19207.6274</v>
       </c>
       <c r="G97" t="n">
-        <v>29.16500000000001</v>
+        <v>29.20500000000001</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3798,8 +3972,14 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3809,22 +3989,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>28.9</v>
+        <v>28.8</v>
       </c>
       <c r="C98" t="n">
-        <v>28.9</v>
+        <v>28.7</v>
       </c>
       <c r="D98" t="n">
-        <v>28.9</v>
+        <v>28.8</v>
       </c>
       <c r="E98" t="n">
-        <v>28.9</v>
+        <v>28.7</v>
       </c>
       <c r="F98" t="n">
-        <v>10</v>
+        <v>6137.0619</v>
       </c>
       <c r="G98" t="n">
-        <v>29.12000000000002</v>
+        <v>29.16500000000001</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3833,8 +4013,14 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -3844,22 +4030,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>28.7</v>
+        <v>28.9</v>
       </c>
       <c r="C99" t="n">
-        <v>28.7</v>
+        <v>28.9</v>
       </c>
       <c r="D99" t="n">
-        <v>28.7</v>
+        <v>28.9</v>
       </c>
       <c r="E99" t="n">
-        <v>28.7</v>
+        <v>28.9</v>
       </c>
       <c r="F99" t="n">
-        <v>9994.4566</v>
+        <v>10</v>
       </c>
       <c r="G99" t="n">
-        <v>29.08166666666668</v>
+        <v>29.12000000000002</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3868,8 +4054,14 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -3879,22 +4071,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>28.6</v>
+        <v>28.7</v>
       </c>
       <c r="C100" t="n">
-        <v>28.4</v>
+        <v>28.7</v>
       </c>
       <c r="D100" t="n">
-        <v>28.6</v>
+        <v>28.7</v>
       </c>
       <c r="E100" t="n">
-        <v>28.4</v>
+        <v>28.7</v>
       </c>
       <c r="F100" t="n">
-        <v>157286.3835</v>
+        <v>9994.4566</v>
       </c>
       <c r="G100" t="n">
-        <v>29.04000000000002</v>
+        <v>29.08166666666668</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3903,8 +4095,14 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -3914,22 +4112,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>28.7</v>
+        <v>28.6</v>
       </c>
       <c r="C101" t="n">
-        <v>28.7</v>
+        <v>28.4</v>
       </c>
       <c r="D101" t="n">
-        <v>28.7</v>
+        <v>28.6</v>
       </c>
       <c r="E101" t="n">
-        <v>28.7</v>
+        <v>28.4</v>
       </c>
       <c r="F101" t="n">
-        <v>10</v>
+        <v>157286.3835</v>
       </c>
       <c r="G101" t="n">
-        <v>29.02833333333335</v>
+        <v>29.04000000000002</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3938,8 +4136,14 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -3949,22 +4153,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>28.5</v>
+        <v>28.7</v>
       </c>
       <c r="C102" t="n">
-        <v>28.5</v>
+        <v>28.7</v>
       </c>
       <c r="D102" t="n">
-        <v>28.5</v>
+        <v>28.7</v>
       </c>
       <c r="E102" t="n">
-        <v>28.5</v>
+        <v>28.7</v>
       </c>
       <c r="F102" t="n">
-        <v>38584.1642</v>
+        <v>10</v>
       </c>
       <c r="G102" t="n">
-        <v>29.00833333333335</v>
+        <v>29.02833333333335</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3973,8 +4177,14 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -3984,22 +4194,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>28.7</v>
+        <v>28.5</v>
       </c>
       <c r="C103" t="n">
-        <v>28.7</v>
+        <v>28.5</v>
       </c>
       <c r="D103" t="n">
-        <v>28.7</v>
+        <v>28.5</v>
       </c>
       <c r="E103" t="n">
-        <v>28.7</v>
+        <v>28.5</v>
       </c>
       <c r="F103" t="n">
-        <v>10</v>
+        <v>38584.1642</v>
       </c>
       <c r="G103" t="n">
-        <v>28.98833333333335</v>
+        <v>29.00833333333335</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4008,8 +4218,14 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4019,22 +4235,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>28.5</v>
+        <v>28.7</v>
       </c>
       <c r="C104" t="n">
-        <v>28.6</v>
+        <v>28.7</v>
       </c>
       <c r="D104" t="n">
-        <v>28.6</v>
+        <v>28.7</v>
       </c>
       <c r="E104" t="n">
-        <v>28.3</v>
+        <v>28.7</v>
       </c>
       <c r="F104" t="n">
-        <v>96606.9611</v>
+        <v>10</v>
       </c>
       <c r="G104" t="n">
-        <v>28.95833333333335</v>
+        <v>28.98833333333335</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4043,8 +4259,14 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4054,7 +4276,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>28.6</v>
+        <v>28.5</v>
       </c>
       <c r="C105" t="n">
         <v>28.6</v>
@@ -4063,13 +4285,13 @@
         <v>28.6</v>
       </c>
       <c r="E105" t="n">
-        <v>28.6</v>
+        <v>28.3</v>
       </c>
       <c r="F105" t="n">
-        <v>6285.8838</v>
+        <v>96606.9611</v>
       </c>
       <c r="G105" t="n">
-        <v>28.93666666666667</v>
+        <v>28.95833333333335</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4078,8 +4300,14 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4089,22 +4317,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>28.7</v>
+        <v>28.6</v>
       </c>
       <c r="C106" t="n">
-        <v>28.7</v>
+        <v>28.6</v>
       </c>
       <c r="D106" t="n">
-        <v>28.7</v>
+        <v>28.6</v>
       </c>
       <c r="E106" t="n">
-        <v>28.7</v>
+        <v>28.6</v>
       </c>
       <c r="F106" t="n">
-        <v>10</v>
+        <v>6285.8838</v>
       </c>
       <c r="G106" t="n">
-        <v>28.91500000000001</v>
+        <v>28.93666666666667</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4113,8 +4341,14 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4124,22 +4358,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>28.6</v>
+        <v>28.7</v>
       </c>
       <c r="C107" t="n">
-        <v>28.6</v>
+        <v>28.7</v>
       </c>
       <c r="D107" t="n">
-        <v>28.6</v>
+        <v>28.7</v>
       </c>
       <c r="E107" t="n">
-        <v>28.6</v>
+        <v>28.7</v>
       </c>
       <c r="F107" t="n">
-        <v>4995.5845</v>
+        <v>10</v>
       </c>
       <c r="G107" t="n">
-        <v>28.88833333333334</v>
+        <v>28.91500000000001</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4148,8 +4382,14 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4162,19 +4402,19 @@
         <v>28.6</v>
       </c>
       <c r="C108" t="n">
-        <v>28.3</v>
+        <v>28.6</v>
       </c>
       <c r="D108" t="n">
         <v>28.6</v>
       </c>
       <c r="E108" t="n">
-        <v>28.3</v>
+        <v>28.6</v>
       </c>
       <c r="F108" t="n">
-        <v>41236.07</v>
+        <v>4995.5845</v>
       </c>
       <c r="G108" t="n">
-        <v>28.85666666666667</v>
+        <v>28.88833333333334</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4183,8 +4423,14 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4197,19 +4443,19 @@
         <v>28.6</v>
       </c>
       <c r="C109" t="n">
-        <v>28.6</v>
+        <v>28.3</v>
       </c>
       <c r="D109" t="n">
         <v>28.6</v>
       </c>
       <c r="E109" t="n">
-        <v>28.6</v>
+        <v>28.3</v>
       </c>
       <c r="F109" t="n">
-        <v>30</v>
+        <v>41236.07</v>
       </c>
       <c r="G109" t="n">
-        <v>28.83333333333334</v>
+        <v>28.85666666666667</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4218,8 +4464,14 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4229,7 +4481,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>28.4</v>
+        <v>28.6</v>
       </c>
       <c r="C110" t="n">
         <v>28.6</v>
@@ -4238,13 +4490,13 @@
         <v>28.6</v>
       </c>
       <c r="E110" t="n">
-        <v>28.4</v>
+        <v>28.6</v>
       </c>
       <c r="F110" t="n">
-        <v>26501.3315</v>
+        <v>30</v>
       </c>
       <c r="G110" t="n">
-        <v>28.80833333333334</v>
+        <v>28.83333333333334</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4253,8 +4505,14 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4267,19 +4525,19 @@
         <v>28.4</v>
       </c>
       <c r="C111" t="n">
-        <v>28.4</v>
+        <v>28.6</v>
       </c>
       <c r="D111" t="n">
-        <v>28.4</v>
+        <v>28.6</v>
       </c>
       <c r="E111" t="n">
         <v>28.4</v>
       </c>
       <c r="F111" t="n">
-        <v>535.4866</v>
+        <v>26501.3315</v>
       </c>
       <c r="G111" t="n">
-        <v>28.78166666666667</v>
+        <v>28.80833333333334</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4288,8 +4546,14 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4311,10 +4575,10 @@
         <v>28.4</v>
       </c>
       <c r="F112" t="n">
-        <v>19679.6801</v>
+        <v>535.4866</v>
       </c>
       <c r="G112" t="n">
-        <v>28.765</v>
+        <v>28.78166666666667</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4323,8 +4587,14 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4334,22 +4604,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>28.5</v>
+        <v>28.4</v>
       </c>
       <c r="C113" t="n">
-        <v>28.6</v>
+        <v>28.4</v>
       </c>
       <c r="D113" t="n">
-        <v>28.6</v>
+        <v>28.4</v>
       </c>
       <c r="E113" t="n">
         <v>28.4</v>
       </c>
       <c r="F113" t="n">
-        <v>59300.735</v>
+        <v>19679.6801</v>
       </c>
       <c r="G113" t="n">
-        <v>28.745</v>
+        <v>28.765</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4358,8 +4628,14 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4369,22 +4645,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="C114" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="D114" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="E114" t="n">
         <v>28.4</v>
       </c>
-      <c r="C114" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="D114" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="E114" t="n">
-        <v>28.3</v>
-      </c>
       <c r="F114" t="n">
-        <v>25245.9127</v>
+        <v>59300.735</v>
       </c>
       <c r="G114" t="n">
-        <v>28.72000000000001</v>
+        <v>28.745</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4393,8 +4669,14 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4404,22 +4686,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>28.5</v>
+        <v>28.4</v>
       </c>
       <c r="C115" t="n">
-        <v>28.5</v>
+        <v>28.3</v>
       </c>
       <c r="D115" t="n">
-        <v>28.5</v>
+        <v>28.4</v>
       </c>
       <c r="E115" t="n">
-        <v>28.5</v>
+        <v>28.3</v>
       </c>
       <c r="F115" t="n">
-        <v>84.8034</v>
+        <v>25245.9127</v>
       </c>
       <c r="G115" t="n">
-        <v>28.69666666666667</v>
+        <v>28.72000000000001</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4428,8 +4710,14 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4439,7 +4727,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>28.3</v>
+        <v>28.5</v>
       </c>
       <c r="C116" t="n">
         <v>28.5</v>
@@ -4448,13 +4736,13 @@
         <v>28.5</v>
       </c>
       <c r="E116" t="n">
-        <v>28.3</v>
+        <v>28.5</v>
       </c>
       <c r="F116" t="n">
-        <v>1600.106</v>
+        <v>84.8034</v>
       </c>
       <c r="G116" t="n">
-        <v>28.67333333333334</v>
+        <v>28.69666666666667</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4463,8 +4751,14 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4474,7 +4768,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>28.5</v>
+        <v>28.3</v>
       </c>
       <c r="C117" t="n">
         <v>28.5</v>
@@ -4483,13 +4777,13 @@
         <v>28.5</v>
       </c>
       <c r="E117" t="n">
-        <v>28.5</v>
+        <v>28.3</v>
       </c>
       <c r="F117" t="n">
-        <v>10</v>
+        <v>1600.106</v>
       </c>
       <c r="G117" t="n">
-        <v>28.65333333333333</v>
+        <v>28.67333333333334</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4498,8 +4792,14 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4509,7 +4809,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>28.4</v>
+        <v>28.5</v>
       </c>
       <c r="C118" t="n">
         <v>28.5</v>
@@ -4518,13 +4818,13 @@
         <v>28.5</v>
       </c>
       <c r="E118" t="n">
-        <v>28.3</v>
+        <v>28.5</v>
       </c>
       <c r="F118" t="n">
-        <v>20876.5047</v>
+        <v>10</v>
       </c>
       <c r="G118" t="n">
-        <v>28.63333333333333</v>
+        <v>28.65333333333333</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4533,8 +4833,14 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4544,22 +4850,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>28.3</v>
+        <v>28.4</v>
       </c>
       <c r="C119" t="n">
-        <v>28.3</v>
+        <v>28.5</v>
       </c>
       <c r="D119" t="n">
-        <v>28.3</v>
+        <v>28.5</v>
       </c>
       <c r="E119" t="n">
         <v>28.3</v>
       </c>
       <c r="F119" t="n">
-        <v>24139.6384</v>
+        <v>20876.5047</v>
       </c>
       <c r="G119" t="n">
-        <v>28.615</v>
+        <v>28.63333333333333</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4568,8 +4874,14 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4579,22 +4891,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>28.5</v>
+        <v>28.3</v>
       </c>
       <c r="C120" t="n">
-        <v>28.5</v>
+        <v>28.3</v>
       </c>
       <c r="D120" t="n">
-        <v>28.5</v>
+        <v>28.3</v>
       </c>
       <c r="E120" t="n">
-        <v>28.5</v>
+        <v>28.3</v>
       </c>
       <c r="F120" t="n">
-        <v>10</v>
+        <v>24139.6384</v>
       </c>
       <c r="G120" t="n">
-        <v>28.60666666666667</v>
+        <v>28.615</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4603,8 +4915,14 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4614,7 +4932,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>28.3</v>
+        <v>28.5</v>
       </c>
       <c r="C121" t="n">
         <v>28.5</v>
@@ -4623,13 +4941,13 @@
         <v>28.5</v>
       </c>
       <c r="E121" t="n">
-        <v>28.3</v>
+        <v>28.5</v>
       </c>
       <c r="F121" t="n">
-        <v>20.7609</v>
+        <v>10</v>
       </c>
       <c r="G121" t="n">
-        <v>28.59333333333333</v>
+        <v>28.60666666666667</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4638,8 +4956,14 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4649,7 +4973,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>28.4</v>
+        <v>28.3</v>
       </c>
       <c r="C122" t="n">
         <v>28.5</v>
@@ -4658,13 +4982,13 @@
         <v>28.5</v>
       </c>
       <c r="E122" t="n">
-        <v>28.4</v>
+        <v>28.3</v>
       </c>
       <c r="F122" t="n">
-        <v>20</v>
+        <v>20.7609</v>
       </c>
       <c r="G122" t="n">
-        <v>28.595</v>
+        <v>28.59333333333333</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4673,8 +4997,14 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4684,22 +5014,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>28.5</v>
+        <v>28.4</v>
       </c>
       <c r="C123" t="n">
-        <v>28.6</v>
+        <v>28.5</v>
       </c>
       <c r="D123" t="n">
-        <v>28.7</v>
+        <v>28.5</v>
       </c>
       <c r="E123" t="n">
-        <v>28.5</v>
+        <v>28.4</v>
       </c>
       <c r="F123" t="n">
-        <v>32686.0298</v>
+        <v>20</v>
       </c>
       <c r="G123" t="n">
-        <v>28.59666666666666</v>
+        <v>28.595</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4708,8 +5038,14 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -4719,22 +5055,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>28.8</v>
+        <v>28.5</v>
       </c>
       <c r="C124" t="n">
-        <v>29</v>
+        <v>28.6</v>
       </c>
       <c r="D124" t="n">
-        <v>29</v>
+        <v>28.7</v>
       </c>
       <c r="E124" t="n">
-        <v>28.8</v>
+        <v>28.5</v>
       </c>
       <c r="F124" t="n">
-        <v>42860.1649</v>
+        <v>32686.0298</v>
       </c>
       <c r="G124" t="n">
-        <v>28.6</v>
+        <v>28.59666666666666</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4743,8 +5079,14 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -4754,22 +5096,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>29.1</v>
+        <v>28.8</v>
       </c>
       <c r="C125" t="n">
-        <v>29.2</v>
+        <v>29</v>
       </c>
       <c r="D125" t="n">
-        <v>29.2</v>
+        <v>29</v>
       </c>
       <c r="E125" t="n">
-        <v>29.1</v>
+        <v>28.8</v>
       </c>
       <c r="F125" t="n">
-        <v>30573.0687</v>
+        <v>42860.1649</v>
       </c>
       <c r="G125" t="n">
-        <v>28.60833333333333</v>
+        <v>28.6</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4778,8 +5120,14 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -4789,10 +5137,10 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="C126" t="n">
         <v>29.2</v>
-      </c>
-      <c r="C126" t="n">
-        <v>29.1</v>
       </c>
       <c r="D126" t="n">
         <v>29.2</v>
@@ -4801,10 +5149,10 @@
         <v>29.1</v>
       </c>
       <c r="F126" t="n">
-        <v>75139.72040000001</v>
+        <v>30573.0687</v>
       </c>
       <c r="G126" t="n">
-        <v>28.61833333333333</v>
+        <v>28.60833333333333</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4813,8 +5161,14 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -4824,22 +5178,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="C127" t="n">
         <v>29.1</v>
       </c>
       <c r="D127" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="E127" t="n">
         <v>29.1</v>
       </c>
       <c r="F127" t="n">
-        <v>6193.567</v>
+        <v>75139.72040000001</v>
       </c>
       <c r="G127" t="n">
-        <v>28.62833333333333</v>
+        <v>28.61833333333333</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4848,8 +5202,14 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -4859,22 +5219,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>28.9</v>
+        <v>29.1</v>
       </c>
       <c r="C128" t="n">
-        <v>29</v>
+        <v>29.1</v>
       </c>
       <c r="D128" t="n">
-        <v>29</v>
+        <v>29.1</v>
       </c>
       <c r="E128" t="n">
-        <v>28.4</v>
+        <v>29.1</v>
       </c>
       <c r="F128" t="n">
-        <v>84935.41439999999</v>
+        <v>6193.567</v>
       </c>
       <c r="G128" t="n">
-        <v>28.63166666666666</v>
+        <v>28.62833333333333</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4883,8 +5243,14 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -4894,22 +5260,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>28.6</v>
+        <v>28.9</v>
       </c>
       <c r="C129" t="n">
-        <v>28.5</v>
+        <v>29</v>
       </c>
       <c r="D129" t="n">
-        <v>28.6</v>
+        <v>29</v>
       </c>
       <c r="E129" t="n">
-        <v>28.5</v>
+        <v>28.4</v>
       </c>
       <c r="F129" t="n">
-        <v>30502.7288</v>
+        <v>84935.41439999999</v>
       </c>
       <c r="G129" t="n">
-        <v>28.62666666666666</v>
+        <v>28.63166666666666</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4918,8 +5284,14 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -4929,19 +5301,19 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>28.5</v>
+        <v>28.6</v>
       </c>
       <c r="C130" t="n">
-        <v>29</v>
+        <v>28.5</v>
       </c>
       <c r="D130" t="n">
-        <v>29</v>
+        <v>28.6</v>
       </c>
       <c r="E130" t="n">
         <v>28.5</v>
       </c>
       <c r="F130" t="n">
-        <v>121</v>
+        <v>30502.7288</v>
       </c>
       <c r="G130" t="n">
         <v>28.62666666666666</v>
@@ -4953,8 +5325,14 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -4964,7 +5342,7 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>29</v>
+        <v>28.5</v>
       </c>
       <c r="C131" t="n">
         <v>29</v>
@@ -4973,24 +5351,71 @@
         <v>29</v>
       </c>
       <c r="E131" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="F131" t="n">
+        <v>121</v>
+      </c>
+      <c r="G131" t="n">
+        <v>28.62666666666666</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
         <v>29</v>
       </c>
-      <c r="F131" t="n">
+      <c r="C132" t="n">
+        <v>29</v>
+      </c>
+      <c r="D132" t="n">
+        <v>29</v>
+      </c>
+      <c r="E132" t="n">
+        <v>29</v>
+      </c>
+      <c r="F132" t="n">
         <v>3448.27586206</v>
       </c>
-      <c r="G131" t="n">
+      <c r="G132" t="n">
         <v>28.63499999999999</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-11-02 BackTest CHR.xlsx
+++ b/BackTest/2019-11-02 BackTest CHR.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M132"/>
+  <dimension ref="A1:N142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>53087.9369</v>
       </c>
       <c r="G2" t="n">
+        <v>28.11333333333333</v>
+      </c>
+      <c r="H2" t="n">
         <v>27.70833333333332</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,25 @@
         <v>45003.5077</v>
       </c>
       <c r="G3" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="H3" t="n">
         <v>27.72999999999999</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="L3" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +533,29 @@
         <v>30386.3873</v>
       </c>
       <c r="G4" t="n">
+        <v>28.19333333333334</v>
+      </c>
+      <c r="H4" t="n">
         <v>27.74999999999999</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="L4" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +579,27 @@
         <v>11263.2025</v>
       </c>
       <c r="G5" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="H5" t="n">
         <v>27.77499999999998</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="L5" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +623,27 @@
         <v>117186.7508</v>
       </c>
       <c r="G6" t="n">
+        <v>28.24666666666667</v>
+      </c>
+      <c r="H6" t="n">
         <v>27.80333333333332</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="L6" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +667,27 @@
         <v>131574.8852</v>
       </c>
       <c r="G7" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="H7" t="n">
         <v>27.82833333333332</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="L7" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +711,27 @@
         <v>50000</v>
       </c>
       <c r="G8" t="n">
+        <v>28.32666666666667</v>
+      </c>
+      <c r="H8" t="n">
         <v>27.86166666666665</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="L8" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +755,27 @@
         <v>15766.667</v>
       </c>
       <c r="G9" t="n">
+        <v>28.30666666666667</v>
+      </c>
+      <c r="H9" t="n">
         <v>27.86166666666665</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="L9" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +799,27 @@
         <v>10</v>
       </c>
       <c r="G10" t="n">
+        <v>28.34000000000001</v>
+      </c>
+      <c r="H10" t="n">
         <v>27.88499999999998</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="L10" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +843,27 @@
         <v>11892.2615</v>
       </c>
       <c r="G11" t="n">
+        <v>28.36000000000001</v>
+      </c>
+      <c r="H11" t="n">
         <v>27.89499999999998</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="L11" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +887,27 @@
         <v>18891.9151</v>
       </c>
       <c r="G12" t="n">
+        <v>28.40000000000001</v>
+      </c>
+      <c r="H12" t="n">
         <v>27.90499999999998</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="L12" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +931,29 @@
         <v>20</v>
       </c>
       <c r="G13" t="n">
+        <v>28.44000000000001</v>
+      </c>
+      <c r="H13" t="n">
         <v>27.91833333333331</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="L13" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +977,29 @@
         <v>45</v>
       </c>
       <c r="G14" t="n">
+        <v>28.52000000000001</v>
+      </c>
+      <c r="H14" t="n">
         <v>27.92666666666664</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="L14" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +1023,29 @@
         <v>42.7856</v>
       </c>
       <c r="G15" t="n">
+        <v>28.50666666666667</v>
+      </c>
+      <c r="H15" t="n">
         <v>27.94166666666665</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="L15" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +1069,29 @@
         <v>102973.0884</v>
       </c>
       <c r="G16" t="n">
+        <v>28.46666666666668</v>
+      </c>
+      <c r="H16" t="n">
         <v>27.94333333333332</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>28</v>
+      </c>
+      <c r="L16" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1115,29 @@
         <v>53107.9369</v>
       </c>
       <c r="G17" t="n">
+        <v>28.42000000000001</v>
+      </c>
+      <c r="H17" t="n">
         <v>27.94333333333332</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="L17" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1161,29 @@
         <v>51394.4285</v>
       </c>
       <c r="G18" t="n">
+        <v>28.38</v>
+      </c>
+      <c r="H18" t="n">
         <v>27.94666666666665</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="L18" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1207,29 @@
         <v>7337.9707</v>
       </c>
       <c r="G19" t="n">
+        <v>28.36</v>
+      </c>
+      <c r="H19" t="n">
         <v>27.96666666666665</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>28</v>
+      </c>
+      <c r="L19" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1253,29 @@
         <v>16.5167</v>
       </c>
       <c r="G20" t="n">
+        <v>28.31333333333334</v>
+      </c>
+      <c r="H20" t="n">
         <v>27.97166666666665</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="L20" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1299,29 @@
         <v>10</v>
       </c>
       <c r="G21" t="n">
+        <v>28.24666666666667</v>
+      </c>
+      <c r="H21" t="n">
         <v>27.98166666666665</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>28</v>
+      </c>
+      <c r="L21" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1345,27 @@
         <v>89.4054</v>
       </c>
       <c r="G22" t="n">
+        <v>28.16</v>
+      </c>
+      <c r="H22" t="n">
         <v>27.98833333333332</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="L22" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1389,27 @@
         <v>22968.1978</v>
       </c>
       <c r="G23" t="n">
+        <v>28.10666666666667</v>
+      </c>
+      <c r="H23" t="n">
         <v>28.00333333333332</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="L23" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1433,27 @@
         <v>5825.3761</v>
       </c>
       <c r="G24" t="n">
+        <v>28.18</v>
+      </c>
+      <c r="H24" t="n">
         <v>28.02166666666665</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="L24" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1477,27 @@
         <v>193.1751</v>
       </c>
       <c r="G25" t="n">
+        <v>28.16</v>
+      </c>
+      <c r="H25" t="n">
         <v>28.03833333333332</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="L25" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1521,27 @@
         <v>400</v>
       </c>
       <c r="G26" t="n">
+        <v>28.17333333333333</v>
+      </c>
+      <c r="H26" t="n">
         <v>28.04999999999999</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="L26" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1565,27 @@
         <v>11</v>
       </c>
       <c r="G27" t="n">
+        <v>28.21333333333333</v>
+      </c>
+      <c r="H27" t="n">
         <v>28.06999999999999</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="L27" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1609,27 @@
         <v>23215.9475</v>
       </c>
       <c r="G28" t="n">
+        <v>28.20666666666666</v>
+      </c>
+      <c r="H28" t="n">
         <v>28.09166666666665</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="L28" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1653,27 @@
         <v>43215.9078</v>
       </c>
       <c r="G29" t="n">
+        <v>28.24666666666666</v>
+      </c>
+      <c r="H29" t="n">
         <v>28.11666666666665</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="L29" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1697,27 @@
         <v>62543.8747</v>
       </c>
       <c r="G30" t="n">
+        <v>28.33333333333333</v>
+      </c>
+      <c r="H30" t="n">
         <v>28.14499999999999</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="L30" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1741,27 @@
         <v>32956.21124948</v>
       </c>
       <c r="G31" t="n">
+        <v>28.41333333333333</v>
+      </c>
+      <c r="H31" t="n">
         <v>28.17499999999999</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="L31" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1785,27 @@
         <v>481769.9357726</v>
       </c>
       <c r="G32" t="n">
+        <v>28.58666666666667</v>
+      </c>
+      <c r="H32" t="n">
         <v>28.22333333333332</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="L32" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1829,27 @@
         <v>40665.3827</v>
       </c>
       <c r="G33" t="n">
+        <v>28.76666666666667</v>
+      </c>
+      <c r="H33" t="n">
         <v>28.28333333333332</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="L33" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1873,27 @@
         <v>32414.1367</v>
       </c>
       <c r="G34" t="n">
+        <v>28.92666666666667</v>
+      </c>
+      <c r="H34" t="n">
         <v>28.33499999999999</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
-        <v>1</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="L34" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1917,27 @@
         <v>68204.2294</v>
       </c>
       <c r="G35" t="n">
+        <v>29.12666666666667</v>
+      </c>
+      <c r="H35" t="n">
         <v>28.40166666666666</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
-        <v>1</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="L35" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1961,27 @@
         <v>118213.2916</v>
       </c>
       <c r="G36" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="H36" t="n">
         <v>28.45333333333333</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="L36" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +2005,27 @@
         <v>207087.4001</v>
       </c>
       <c r="G37" t="n">
+        <v>29.48</v>
+      </c>
+      <c r="H37" t="n">
         <v>28.50333333333333</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="L37" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +2049,27 @@
         <v>232776.4981274</v>
       </c>
       <c r="G38" t="n">
+        <v>29.66666666666666</v>
+      </c>
+      <c r="H38" t="n">
         <v>28.55666666666666</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="L38" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +2093,27 @@
         <v>262604.0144</v>
       </c>
       <c r="G39" t="n">
+        <v>29.86</v>
+      </c>
+      <c r="H39" t="n">
         <v>28.61833333333332</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="L39" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +2137,27 @@
         <v>6262</v>
       </c>
       <c r="G40" t="n">
+        <v>30.04</v>
+      </c>
+      <c r="H40" t="n">
         <v>28.66833333333332</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="L40" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +2181,27 @@
         <v>77471.5368</v>
       </c>
       <c r="G41" t="n">
+        <v>30.23333333333333</v>
+      </c>
+      <c r="H41" t="n">
         <v>28.71666666666665</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="L41" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,19 +2225,28 @@
         <v>678.896</v>
       </c>
       <c r="G42" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="H42" t="n">
         <v>28.73999999999999</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>1</v>
+      </c>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
+      <c r="L42" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
+        <v>1.022972027972028</v>
       </c>
     </row>
     <row r="43">
@@ -1883,18 +2269,21 @@
         <v>60814.0869</v>
       </c>
       <c r="G43" t="n">
+        <v>30.38</v>
+      </c>
+      <c r="H43" t="n">
         <v>28.76833333333332</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2307,21 @@
         <v>44331.3169</v>
       </c>
       <c r="G44" t="n">
+        <v>30.43333333333333</v>
+      </c>
+      <c r="H44" t="n">
         <v>28.79666666666666</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2345,21 @@
         <v>73404.53711003</v>
       </c>
       <c r="G45" t="n">
+        <v>30.50666666666666</v>
+      </c>
+      <c r="H45" t="n">
         <v>28.83499999999999</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2383,21 @@
         <v>20131.4204</v>
       </c>
       <c r="G46" t="n">
+        <v>30.55999999999999</v>
+      </c>
+      <c r="H46" t="n">
         <v>28.87666666666666</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2421,21 @@
         <v>175285.3056</v>
       </c>
       <c r="G47" t="n">
+        <v>30.52666666666665</v>
+      </c>
+      <c r="H47" t="n">
         <v>28.91166666666666</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2459,21 @@
         <v>10</v>
       </c>
       <c r="G48" t="n">
+        <v>30.49333333333332</v>
+      </c>
+      <c r="H48" t="n">
         <v>28.95999999999999</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>1</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2497,21 @@
         <v>93648.9347</v>
       </c>
       <c r="G49" t="n">
+        <v>30.45999999999999</v>
+      </c>
+      <c r="H49" t="n">
         <v>28.985</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>1</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2535,21 @@
         <v>605.6179</v>
       </c>
       <c r="G50" t="n">
+        <v>30.39333333333332</v>
+      </c>
+      <c r="H50" t="n">
         <v>29.00833333333333</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>1</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2573,21 @@
         <v>4794.2606</v>
       </c>
       <c r="G51" t="n">
+        <v>30.33999999999999</v>
+      </c>
+      <c r="H51" t="n">
         <v>29.03333333333333</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>1</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2611,21 @@
         <v>20872.7666</v>
       </c>
       <c r="G52" t="n">
+        <v>30.29333333333333</v>
+      </c>
+      <c r="H52" t="n">
         <v>29.05833333333333</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>1</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2649,21 @@
         <v>15771.722</v>
       </c>
       <c r="G53" t="n">
+        <v>30.17999999999999</v>
+      </c>
+      <c r="H53" t="n">
         <v>29.07</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>1</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2687,21 @@
         <v>29915.8197</v>
       </c>
       <c r="G54" t="n">
+        <v>30.05999999999999</v>
+      </c>
+      <c r="H54" t="n">
         <v>29.10166666666666</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>1</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2725,21 @@
         <v>6347.5428</v>
       </c>
       <c r="G55" t="n">
+        <v>29.97999999999999</v>
+      </c>
+      <c r="H55" t="n">
         <v>29.13</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>1</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2763,21 @@
         <v>139983.2478</v>
       </c>
       <c r="G56" t="n">
+        <v>29.91333333333332</v>
+      </c>
+      <c r="H56" t="n">
         <v>29.17</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>1</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2801,21 @@
         <v>3344.48160535</v>
       </c>
       <c r="G57" t="n">
+        <v>29.94666666666665</v>
+      </c>
+      <c r="H57" t="n">
         <v>29.215</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>1</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2839,21 @@
         <v>11</v>
       </c>
       <c r="G58" t="n">
+        <v>29.94666666666665</v>
+      </c>
+      <c r="H58" t="n">
         <v>29.24333333333333</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>1</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2877,21 @@
         <v>31113.5763</v>
       </c>
       <c r="G59" t="n">
+        <v>29.93333333333332</v>
+      </c>
+      <c r="H59" t="n">
         <v>29.28333333333333</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>1</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2915,21 @@
         <v>123990.6555</v>
       </c>
       <c r="G60" t="n">
+        <v>29.86666666666666</v>
+      </c>
+      <c r="H60" t="n">
         <v>29.30333333333333</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>1</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2953,21 @@
         <v>53453.1604</v>
       </c>
       <c r="G61" t="n">
+        <v>29.80666666666666</v>
+      </c>
+      <c r="H61" t="n">
         <v>29.31166666666667</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +2991,21 @@
         <v>113320.3682</v>
       </c>
       <c r="G62" t="n">
+        <v>29.75999999999999</v>
+      </c>
+      <c r="H62" t="n">
         <v>29.32333333333333</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>1</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +3029,21 @@
         <v>75012.9644</v>
       </c>
       <c r="G63" t="n">
+        <v>29.63999999999999</v>
+      </c>
+      <c r="H63" t="n">
         <v>29.32</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +3067,21 @@
         <v>19757.4676</v>
       </c>
       <c r="G64" t="n">
+        <v>29.52666666666666</v>
+      </c>
+      <c r="H64" t="n">
         <v>29.31833333333334</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,22 +3105,21 @@
         <v>20</v>
       </c>
       <c r="G65" t="n">
+        <v>29.44666666666666</v>
+      </c>
+      <c r="H65" t="n">
         <v>29.32</v>
       </c>
-      <c r="H65" t="n">
-        <v>1</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="K65" t="n">
-        <v>28.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2692,24 +3143,21 @@
         <v>21825.0431</v>
       </c>
       <c r="G66" t="n">
+        <v>29.35333333333332</v>
+      </c>
+      <c r="H66" t="n">
         <v>29.31000000000001</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2733,24 +3181,21 @@
         <v>17604.7463</v>
       </c>
       <c r="G67" t="n">
+        <v>29.25333333333332</v>
+      </c>
+      <c r="H67" t="n">
         <v>29.29666666666667</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2774,24 +3219,21 @@
         <v>3562.2835</v>
       </c>
       <c r="G68" t="n">
+        <v>29.19333333333332</v>
+      </c>
+      <c r="H68" t="n">
         <v>29.28666666666668</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2815,24 +3257,21 @@
         <v>86391.94439999999</v>
       </c>
       <c r="G69" t="n">
+        <v>29.12666666666666</v>
+      </c>
+      <c r="H69" t="n">
         <v>29.30666666666668</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2856,24 +3295,21 @@
         <v>24200.1388</v>
       </c>
       <c r="G70" t="n">
+        <v>29.05999999999999</v>
+      </c>
+      <c r="H70" t="n">
         <v>29.31000000000001</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2897,24 +3333,21 @@
         <v>65007.0162</v>
       </c>
       <c r="G71" t="n">
+        <v>28.99999999999999</v>
+      </c>
+      <c r="H71" t="n">
         <v>29.33000000000001</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2938,24 +3371,21 @@
         <v>68418.7372</v>
       </c>
       <c r="G72" t="n">
+        <v>28.90666666666666</v>
+      </c>
+      <c r="H72" t="n">
         <v>29.34166666666668</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2979,24 +3409,21 @@
         <v>45408.2704</v>
       </c>
       <c r="G73" t="n">
+        <v>28.81999999999999</v>
+      </c>
+      <c r="H73" t="n">
         <v>29.33833333333335</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3020,24 +3447,21 @@
         <v>10</v>
       </c>
       <c r="G74" t="n">
+        <v>28.75333333333333</v>
+      </c>
+      <c r="H74" t="n">
         <v>29.34166666666668</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3061,24 +3485,21 @@
         <v>42067.3375</v>
       </c>
       <c r="G75" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="H75" t="n">
         <v>29.35166666666668</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3102,24 +3523,21 @@
         <v>1656.4626</v>
       </c>
       <c r="G76" t="n">
+        <v>28.65333333333333</v>
+      </c>
+      <c r="H76" t="n">
         <v>29.35833333333334</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3143,24 +3561,21 @@
         <v>11</v>
       </c>
       <c r="G77" t="n">
+        <v>28.59333333333333</v>
+      </c>
+      <c r="H77" t="n">
         <v>29.36666666666668</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3184,24 +3599,21 @@
         <v>17945.3715</v>
       </c>
       <c r="G78" t="n">
+        <v>28.60666666666667</v>
+      </c>
+      <c r="H78" t="n">
         <v>29.37666666666668</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3225,24 +3637,21 @@
         <v>6954.8851</v>
       </c>
       <c r="G79" t="n">
+        <v>28.61333333333333</v>
+      </c>
+      <c r="H79" t="n">
         <v>29.38166666666667</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3266,24 +3675,21 @@
         <v>11</v>
       </c>
       <c r="G80" t="n">
+        <v>28.60666666666667</v>
+      </c>
+      <c r="H80" t="n">
         <v>29.39333333333334</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3307,24 +3713,21 @@
         <v>40884.425</v>
       </c>
       <c r="G81" t="n">
+        <v>28.60666666666667</v>
+      </c>
+      <c r="H81" t="n">
         <v>29.40000000000001</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3348,24 +3751,21 @@
         <v>33171.6892</v>
       </c>
       <c r="G82" t="n">
+        <v>28.63333333333333</v>
+      </c>
+      <c r="H82" t="n">
         <v>29.41500000000001</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3389,24 +3789,21 @@
         <v>11135.8153</v>
       </c>
       <c r="G83" t="n">
+        <v>28.65999999999999</v>
+      </c>
+      <c r="H83" t="n">
         <v>29.42500000000001</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3430,24 +3827,21 @@
         <v>49274.0577</v>
       </c>
       <c r="G84" t="n">
+        <v>28.65333333333333</v>
+      </c>
+      <c r="H84" t="n">
         <v>29.42500000000001</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3471,24 +3865,21 @@
         <v>10</v>
       </c>
       <c r="G85" t="n">
+        <v>28.66666666666666</v>
+      </c>
+      <c r="H85" t="n">
         <v>29.43666666666668</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3512,24 +3903,21 @@
         <v>27265.1397</v>
       </c>
       <c r="G86" t="n">
+        <v>28.61999999999999</v>
+      </c>
+      <c r="H86" t="n">
         <v>29.44166666666668</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3553,24 +3941,21 @@
         <v>14849.8078</v>
       </c>
       <c r="G87" t="n">
+        <v>28.60666666666666</v>
+      </c>
+      <c r="H87" t="n">
         <v>29.44000000000001</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3594,24 +3979,21 @@
         <v>9000</v>
       </c>
       <c r="G88" t="n">
+        <v>28.61333333333333</v>
+      </c>
+      <c r="H88" t="n">
         <v>29.44000000000001</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3635,24 +4017,21 @@
         <v>23318.8709</v>
       </c>
       <c r="G89" t="n">
+        <v>28.60666666666667</v>
+      </c>
+      <c r="H89" t="n">
         <v>29.43166666666668</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3676,24 +4055,21 @@
         <v>4148.559</v>
       </c>
       <c r="G90" t="n">
+        <v>28.60666666666667</v>
+      </c>
+      <c r="H90" t="n">
         <v>29.42000000000001</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3717,24 +4093,21 @@
         <v>10</v>
       </c>
       <c r="G91" t="n">
+        <v>28.64666666666666</v>
+      </c>
+      <c r="H91" t="n">
         <v>29.41666666666668</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3758,24 +4131,21 @@
         <v>24567.7166</v>
       </c>
       <c r="G92" t="n">
+        <v>28.66</v>
+      </c>
+      <c r="H92" t="n">
         <v>29.38500000000001</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3799,24 +4169,21 @@
         <v>31266.8779</v>
       </c>
       <c r="G93" t="n">
+        <v>28.65333333333333</v>
+      </c>
+      <c r="H93" t="n">
         <v>29.34833333333335</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3840,24 +4207,21 @@
         <v>26646.2172</v>
       </c>
       <c r="G94" t="n">
+        <v>28.65333333333333</v>
+      </c>
+      <c r="H94" t="n">
         <v>29.31333333333334</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3881,24 +4245,21 @@
         <v>13116.8173</v>
       </c>
       <c r="G95" t="n">
+        <v>28.63333333333333</v>
+      </c>
+      <c r="H95" t="n">
         <v>29.27000000000001</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3922,24 +4283,21 @@
         <v>10</v>
       </c>
       <c r="G96" t="n">
+        <v>28.64</v>
+      </c>
+      <c r="H96" t="n">
         <v>29.23500000000001</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3963,24 +4321,21 @@
         <v>19207.6274</v>
       </c>
       <c r="G97" t="n">
+        <v>28.64</v>
+      </c>
+      <c r="H97" t="n">
         <v>29.20500000000001</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4004,24 +4359,21 @@
         <v>6137.0619</v>
       </c>
       <c r="G98" t="n">
+        <v>28.62666666666667</v>
+      </c>
+      <c r="H98" t="n">
         <v>29.16500000000001</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4045,24 +4397,21 @@
         <v>10</v>
       </c>
       <c r="G99" t="n">
+        <v>28.64</v>
+      </c>
+      <c r="H99" t="n">
         <v>29.12000000000002</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4086,24 +4435,21 @@
         <v>9994.4566</v>
       </c>
       <c r="G100" t="n">
+        <v>28.62</v>
+      </c>
+      <c r="H100" t="n">
         <v>29.08166666666668</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4127,24 +4473,21 @@
         <v>157286.3835</v>
       </c>
       <c r="G101" t="n">
+        <v>28.62666666666666</v>
+      </c>
+      <c r="H101" t="n">
         <v>29.04000000000002</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4168,24 +4511,21 @@
         <v>10</v>
       </c>
       <c r="G102" t="n">
+        <v>28.65333333333333</v>
+      </c>
+      <c r="H102" t="n">
         <v>29.02833333333335</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4209,24 +4549,21 @@
         <v>38584.1642</v>
       </c>
       <c r="G103" t="n">
+        <v>28.65333333333333</v>
+      </c>
+      <c r="H103" t="n">
         <v>29.00833333333335</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4250,24 +4587,21 @@
         <v>10</v>
       </c>
       <c r="G104" t="n">
+        <v>28.65999999999999</v>
+      </c>
+      <c r="H104" t="n">
         <v>28.98833333333335</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4291,24 +4625,21 @@
         <v>96606.9611</v>
       </c>
       <c r="G105" t="n">
+        <v>28.65999999999999</v>
+      </c>
+      <c r="H105" t="n">
         <v>28.95833333333335</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4332,24 +4663,21 @@
         <v>6285.8838</v>
       </c>
       <c r="G106" t="n">
+        <v>28.63999999999999</v>
+      </c>
+      <c r="H106" t="n">
         <v>28.93666666666667</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4373,24 +4701,21 @@
         <v>10</v>
       </c>
       <c r="G107" t="n">
+        <v>28.64666666666666</v>
+      </c>
+      <c r="H107" t="n">
         <v>28.91500000000001</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4414,24 +4739,21 @@
         <v>4995.5845</v>
       </c>
       <c r="G108" t="n">
+        <v>28.65333333333333</v>
+      </c>
+      <c r="H108" t="n">
         <v>28.88833333333334</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4455,24 +4777,21 @@
         <v>41236.07</v>
       </c>
       <c r="G109" t="n">
+        <v>28.63333333333333</v>
+      </c>
+      <c r="H109" t="n">
         <v>28.85666666666667</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4496,24 +4815,21 @@
         <v>30</v>
       </c>
       <c r="G110" t="n">
+        <v>28.64666666666666</v>
+      </c>
+      <c r="H110" t="n">
         <v>28.83333333333334</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4537,24 +4853,21 @@
         <v>26501.3315</v>
       </c>
       <c r="G111" t="n">
+        <v>28.63333333333333</v>
+      </c>
+      <c r="H111" t="n">
         <v>28.80833333333334</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4578,24 +4891,21 @@
         <v>535.4866</v>
       </c>
       <c r="G112" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="H112" t="n">
         <v>28.78166666666667</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4619,24 +4929,21 @@
         <v>19679.6801</v>
       </c>
       <c r="G113" t="n">
+        <v>28.57999999999999</v>
+      </c>
+      <c r="H113" t="n">
         <v>28.765</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4660,24 +4967,21 @@
         <v>59300.735</v>
       </c>
       <c r="G114" t="n">
+        <v>28.56</v>
+      </c>
+      <c r="H114" t="n">
         <v>28.745</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4701,24 +5005,21 @@
         <v>25245.9127</v>
       </c>
       <c r="G115" t="n">
+        <v>28.53333333333333</v>
+      </c>
+      <c r="H115" t="n">
         <v>28.72000000000001</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4742,24 +5043,21 @@
         <v>84.8034</v>
       </c>
       <c r="G116" t="n">
+        <v>28.54</v>
+      </c>
+      <c r="H116" t="n">
         <v>28.69666666666667</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4783,24 +5081,21 @@
         <v>1600.106</v>
       </c>
       <c r="G117" t="n">
+        <v>28.52666666666667</v>
+      </c>
+      <c r="H117" t="n">
         <v>28.67333333333334</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4824,24 +5119,21 @@
         <v>10</v>
       </c>
       <c r="G118" t="n">
+        <v>28.52666666666667</v>
+      </c>
+      <c r="H118" t="n">
         <v>28.65333333333333</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4865,24 +5157,21 @@
         <v>20876.5047</v>
       </c>
       <c r="G119" t="n">
+        <v>28.51333333333334</v>
+      </c>
+      <c r="H119" t="n">
         <v>28.63333333333333</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4906,24 +5195,21 @@
         <v>24139.6384</v>
       </c>
       <c r="G120" t="n">
+        <v>28.49333333333334</v>
+      </c>
+      <c r="H120" t="n">
         <v>28.615</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4947,24 +5233,21 @@
         <v>10</v>
       </c>
       <c r="G121" t="n">
+        <v>28.48666666666667</v>
+      </c>
+      <c r="H121" t="n">
         <v>28.60666666666667</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4988,24 +5271,21 @@
         <v>20.7609</v>
       </c>
       <c r="G122" t="n">
+        <v>28.47333333333334</v>
+      </c>
+      <c r="H122" t="n">
         <v>28.59333333333333</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5029,24 +5309,21 @@
         <v>20</v>
       </c>
       <c r="G123" t="n">
+        <v>28.46666666666667</v>
+      </c>
+      <c r="H123" t="n">
         <v>28.595</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5070,24 +5347,21 @@
         <v>32686.0298</v>
       </c>
       <c r="G124" t="n">
+        <v>28.48666666666667</v>
+      </c>
+      <c r="H124" t="n">
         <v>28.59666666666666</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5111,24 +5385,21 @@
         <v>42860.1649</v>
       </c>
       <c r="G125" t="n">
-        <v>28.6</v>
+        <v>28.51333333333333</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>28.6</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5152,24 +5423,21 @@
         <v>30573.0687</v>
       </c>
       <c r="G126" t="n">
+        <v>28.55333333333333</v>
+      </c>
+      <c r="H126" t="n">
         <v>28.60833333333333</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5193,24 +5461,21 @@
         <v>75139.72040000001</v>
       </c>
       <c r="G127" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="H127" t="n">
         <v>28.61833333333333</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5234,24 +5499,21 @@
         <v>6193.567</v>
       </c>
       <c r="G128" t="n">
+        <v>28.64666666666667</v>
+      </c>
+      <c r="H128" t="n">
         <v>28.62833333333333</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5275,24 +5537,21 @@
         <v>84935.41439999999</v>
       </c>
       <c r="G129" t="n">
+        <v>28.67333333333334</v>
+      </c>
+      <c r="H129" t="n">
         <v>28.63166666666666</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5316,24 +5575,21 @@
         <v>30502.7288</v>
       </c>
       <c r="G130" t="n">
+        <v>28.68666666666667</v>
+      </c>
+      <c r="H130" t="n">
         <v>28.62666666666666</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5357,24 +5613,21 @@
         <v>121</v>
       </c>
       <c r="G131" t="n">
+        <v>28.72</v>
+      </c>
+      <c r="H131" t="n">
         <v>28.62666666666666</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5398,24 +5651,401 @@
         <v>3448.27586206</v>
       </c>
       <c r="G132" t="n">
+        <v>28.75333333333333</v>
+      </c>
+      <c r="H132" t="n">
         <v>28.63499999999999</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="C133" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="D133" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="E133" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="F133" t="n">
+        <v>33</v>
+      </c>
+      <c r="G133" t="n">
+        <v>28.80666666666667</v>
+      </c>
+      <c r="H133" t="n">
+        <v>28.64999999999999</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="C134" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="D134" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="E134" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="F134" t="n">
+        <v>88534.2971</v>
+      </c>
+      <c r="G134" t="n">
+        <v>28.81333333333334</v>
+      </c>
+      <c r="H134" t="n">
+        <v>28.64833333333332</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="C135" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="D135" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="E135" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="F135" t="n">
+        <v>3199.1245</v>
+      </c>
+      <c r="G135" t="n">
+        <v>28.84</v>
+      </c>
+      <c r="H135" t="n">
+        <v>28.64999999999999</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="C136" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="D136" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="E136" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="F136" t="n">
+        <v>54.4686</v>
+      </c>
+      <c r="G136" t="n">
+        <v>28.85333333333334</v>
+      </c>
+      <c r="H136" t="n">
+        <v>28.65666666666666</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="C137" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="D137" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="E137" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="F137" t="n">
+        <v>4250.5827</v>
+      </c>
+      <c r="G137" t="n">
+        <v>28.86666666666667</v>
+      </c>
+      <c r="H137" t="n">
+        <v>28.66166666666666</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="C138" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="D138" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="E138" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="F138" t="n">
+        <v>11</v>
+      </c>
+      <c r="G138" t="n">
+        <v>28.90666666666667</v>
+      </c>
+      <c r="H138" t="n">
+        <v>28.66999999999999</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="C139" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="D139" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="E139" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="F139" t="n">
+        <v>31610.0671</v>
+      </c>
+      <c r="G139" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="H139" t="n">
+        <v>28.66833333333333</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="C140" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="D140" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="E140" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="F140" t="n">
+        <v>107.9649</v>
+      </c>
+      <c r="G140" t="n">
+        <v>28.86666666666667</v>
+      </c>
+      <c r="H140" t="n">
+        <v>28.665</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="C141" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="D141" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="E141" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="F141" t="n">
+        <v>51394.4285</v>
+      </c>
+      <c r="G141" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="H141" t="n">
+        <v>28.65666666666666</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="C142" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="D142" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="E142" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="F142" t="n">
+        <v>11</v>
+      </c>
+      <c r="G142" t="n">
+        <v>28.76</v>
+      </c>
+      <c r="H142" t="n">
+        <v>28.64999999999999</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-11-02 BackTest CHR.xlsx
+++ b/BackTest/2019-11-02 BackTest CHR.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N142"/>
+  <dimension ref="A1:M171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,40 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>MA60</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>28.5</v>
+        <v>27.1</v>
       </c>
       <c r="C2" t="n">
-        <v>28.6</v>
+        <v>27.1</v>
       </c>
       <c r="D2" t="n">
-        <v>28.6</v>
+        <v>27.1</v>
       </c>
       <c r="E2" t="n">
-        <v>28.5</v>
+        <v>27.1</v>
       </c>
       <c r="F2" t="n">
-        <v>53087.9369</v>
+        <v>3480</v>
       </c>
       <c r="G2" t="n">
-        <v>28.11333333333333</v>
+        <v>62451.25042728</v>
       </c>
       <c r="H2" t="n">
-        <v>27.70833333333332</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,40 +468,33 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>28.6</v>
+        <v>27.6</v>
       </c>
       <c r="C3" t="n">
-        <v>28.6</v>
+        <v>27.6</v>
       </c>
       <c r="D3" t="n">
-        <v>28.6</v>
+        <v>27.6</v>
       </c>
       <c r="E3" t="n">
-        <v>28.6</v>
+        <v>27.6</v>
       </c>
       <c r="F3" t="n">
-        <v>45003.5077</v>
+        <v>11</v>
       </c>
       <c r="G3" t="n">
-        <v>28.2</v>
+        <v>62462.25042728</v>
       </c>
       <c r="H3" t="n">
-        <v>27.72999999999999</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="L3" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,44 +503,33 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>28.6</v>
+        <v>27.1</v>
       </c>
       <c r="C4" t="n">
-        <v>28.6</v>
+        <v>27</v>
       </c>
       <c r="D4" t="n">
-        <v>28.6</v>
+        <v>27.1</v>
       </c>
       <c r="E4" t="n">
-        <v>28.6</v>
+        <v>27</v>
       </c>
       <c r="F4" t="n">
-        <v>30386.3873</v>
+        <v>45266.088</v>
       </c>
       <c r="G4" t="n">
-        <v>28.19333333333334</v>
+        <v>17196.16242728</v>
       </c>
       <c r="H4" t="n">
-        <v>27.74999999999999</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="L4" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -564,42 +538,33 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>28.6</v>
+        <v>27.6</v>
       </c>
       <c r="C5" t="n">
-        <v>28.7</v>
+        <v>27.8</v>
       </c>
       <c r="D5" t="n">
-        <v>28.7</v>
+        <v>27.8</v>
       </c>
       <c r="E5" t="n">
-        <v>28.6</v>
+        <v>27.6</v>
       </c>
       <c r="F5" t="n">
-        <v>11263.2025</v>
+        <v>345.0359</v>
       </c>
       <c r="G5" t="n">
-        <v>28.2</v>
+        <v>17541.19832728</v>
       </c>
       <c r="H5" t="n">
-        <v>27.77499999999998</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="N5" t="n">
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -608,42 +573,33 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>28.8</v>
+        <v>27.7</v>
       </c>
       <c r="C6" t="n">
-        <v>29.3</v>
+        <v>27.7</v>
       </c>
       <c r="D6" t="n">
-        <v>29.3</v>
+        <v>27.7</v>
       </c>
       <c r="E6" t="n">
-        <v>28.8</v>
+        <v>27.7</v>
       </c>
       <c r="F6" t="n">
-        <v>117186.7508</v>
+        <v>125.7761</v>
       </c>
       <c r="G6" t="n">
-        <v>28.24666666666667</v>
+        <v>17415.42222728</v>
       </c>
       <c r="H6" t="n">
-        <v>27.80333333333332</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N6" t="n">
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -652,42 +608,33 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>29.3</v>
+        <v>27.6</v>
       </c>
       <c r="C7" t="n">
-        <v>29.3</v>
+        <v>27.9</v>
       </c>
       <c r="D7" t="n">
-        <v>29.3</v>
+        <v>27.9</v>
       </c>
       <c r="E7" t="n">
-        <v>28.1</v>
+        <v>27.6</v>
       </c>
       <c r="F7" t="n">
-        <v>131574.8852</v>
+        <v>49387.0792</v>
       </c>
       <c r="G7" t="n">
-        <v>28.3</v>
+        <v>66802.50142727999</v>
       </c>
       <c r="H7" t="n">
-        <v>27.82833333333332</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N7" t="n">
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -696,42 +643,33 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>29</v>
+        <v>27.9</v>
       </c>
       <c r="C8" t="n">
-        <v>29.1</v>
+        <v>27.9</v>
       </c>
       <c r="D8" t="n">
-        <v>29.1</v>
+        <v>27.9</v>
       </c>
       <c r="E8" t="n">
-        <v>29</v>
+        <v>27.9</v>
       </c>
       <c r="F8" t="n">
-        <v>50000</v>
+        <v>28119.8453</v>
       </c>
       <c r="G8" t="n">
-        <v>28.32666666666667</v>
+        <v>66802.50142727999</v>
       </c>
       <c r="H8" t="n">
-        <v>27.86166666666665</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N8" t="n">
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -740,42 +678,37 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>27.8</v>
+        <v>28</v>
       </c>
       <c r="C9" t="n">
-        <v>27.6</v>
+        <v>28</v>
       </c>
       <c r="D9" t="n">
-        <v>27.8</v>
+        <v>28</v>
       </c>
       <c r="E9" t="n">
-        <v>27.6</v>
+        <v>28</v>
       </c>
       <c r="F9" t="n">
-        <v>15766.667</v>
+        <v>10</v>
       </c>
       <c r="G9" t="n">
-        <v>28.30666666666667</v>
+        <v>66812.50142727999</v>
       </c>
       <c r="H9" t="n">
-        <v>27.86166666666665</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N9" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="K9" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -784,42 +717,39 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>28.6</v>
+        <v>28</v>
       </c>
       <c r="C10" t="n">
-        <v>28.6</v>
+        <v>28</v>
       </c>
       <c r="D10" t="n">
-        <v>28.6</v>
+        <v>28</v>
       </c>
       <c r="E10" t="n">
-        <v>28.6</v>
+        <v>28</v>
       </c>
       <c r="F10" t="n">
-        <v>10</v>
+        <v>6578.9285</v>
       </c>
       <c r="G10" t="n">
-        <v>28.34000000000001</v>
+        <v>66812.50142727999</v>
       </c>
       <c r="H10" t="n">
-        <v>27.88499999999998</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N10" t="n">
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -828,42 +758,39 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>27.8</v>
+        <v>27.4</v>
       </c>
       <c r="C11" t="n">
-        <v>27.8</v>
+        <v>28</v>
       </c>
       <c r="D11" t="n">
-        <v>27.8</v>
+        <v>28</v>
       </c>
       <c r="E11" t="n">
-        <v>27.8</v>
+        <v>27.4</v>
       </c>
       <c r="F11" t="n">
-        <v>11892.2615</v>
+        <v>3162.02</v>
       </c>
       <c r="G11" t="n">
-        <v>28.36000000000001</v>
+        <v>66812.50142727999</v>
       </c>
       <c r="H11" t="n">
-        <v>27.89499999999998</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N11" t="n">
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -872,42 +799,39 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>27.8</v>
+        <v>27.4</v>
       </c>
       <c r="C12" t="n">
-        <v>27.8</v>
+        <v>28</v>
       </c>
       <c r="D12" t="n">
-        <v>27.8</v>
+        <v>28</v>
       </c>
       <c r="E12" t="n">
-        <v>27.8</v>
+        <v>27.4</v>
       </c>
       <c r="F12" t="n">
-        <v>18891.9151</v>
+        <v>192.4817</v>
       </c>
       <c r="G12" t="n">
-        <v>28.40000000000001</v>
+        <v>66812.50142727999</v>
       </c>
       <c r="H12" t="n">
-        <v>27.90499999999998</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N12" t="n">
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -916,44 +840,39 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>28.6</v>
+        <v>28</v>
       </c>
       <c r="C13" t="n">
-        <v>28.6</v>
+        <v>28.2</v>
       </c>
       <c r="D13" t="n">
-        <v>28.6</v>
+        <v>28.2</v>
       </c>
       <c r="E13" t="n">
-        <v>28.6</v>
+        <v>28</v>
       </c>
       <c r="F13" t="n">
-        <v>20</v>
+        <v>75413.1914</v>
       </c>
       <c r="G13" t="n">
-        <v>28.44000000000001</v>
+        <v>142225.69282728</v>
       </c>
       <c r="H13" t="n">
-        <v>27.91833333333331</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="L13" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N13" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -962,44 +881,39 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>28.6</v>
+        <v>27.7</v>
       </c>
       <c r="C14" t="n">
-        <v>28.5</v>
+        <v>28.1</v>
       </c>
       <c r="D14" t="n">
-        <v>28.6</v>
+        <v>28.1</v>
       </c>
       <c r="E14" t="n">
-        <v>28.5</v>
+        <v>27.2</v>
       </c>
       <c r="F14" t="n">
-        <v>45</v>
+        <v>13249.485</v>
       </c>
       <c r="G14" t="n">
-        <v>28.52000000000001</v>
+        <v>128976.20782728</v>
       </c>
       <c r="H14" t="n">
-        <v>27.92666666666664</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="L14" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N14" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,44 +922,39 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>28</v>
+        <v>27.4</v>
       </c>
       <c r="C15" t="n">
-        <v>28</v>
+        <v>27.4</v>
       </c>
       <c r="D15" t="n">
-        <v>28</v>
+        <v>27.4</v>
       </c>
       <c r="E15" t="n">
-        <v>28</v>
+        <v>27.4</v>
       </c>
       <c r="F15" t="n">
-        <v>42.7856</v>
+        <v>7827.4097</v>
       </c>
       <c r="G15" t="n">
-        <v>28.50666666666667</v>
+        <v>121148.79812728</v>
       </c>
       <c r="H15" t="n">
-        <v>27.94166666666665</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="L15" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N15" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1054,7 +963,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>27.6</v>
+        <v>27.9</v>
       </c>
       <c r="C16" t="n">
         <v>27.9</v>
@@ -1063,35 +972,30 @@
         <v>27.9</v>
       </c>
       <c r="E16" t="n">
-        <v>27.5</v>
+        <v>27.9</v>
       </c>
       <c r="F16" t="n">
-        <v>102973.0884</v>
+        <v>101.4301</v>
       </c>
       <c r="G16" t="n">
-        <v>28.46666666666668</v>
+        <v>121250.22822728</v>
       </c>
       <c r="H16" t="n">
-        <v>27.94333333333332</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="n">
-        <v>28</v>
-      </c>
-      <c r="L16" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N16" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1100,44 +1004,39 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="C17" t="n">
-        <v>27.9</v>
+        <v>27.3</v>
       </c>
       <c r="D17" t="n">
-        <v>27.9</v>
+        <v>27.3</v>
       </c>
       <c r="E17" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="F17" t="n">
-        <v>53107.9369</v>
+        <v>40695.6085</v>
       </c>
       <c r="G17" t="n">
-        <v>28.42000000000001</v>
+        <v>80554.61972727996</v>
       </c>
       <c r="H17" t="n">
-        <v>27.94333333333332</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="n">
         <v>27.9</v>
       </c>
-      <c r="L17" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N17" t="n">
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1149,41 +1048,36 @@
         <v>27.9</v>
       </c>
       <c r="C18" t="n">
-        <v>28</v>
+        <v>28.7</v>
       </c>
       <c r="D18" t="n">
-        <v>28</v>
+        <v>28.7</v>
       </c>
       <c r="E18" t="n">
         <v>27.9</v>
       </c>
       <c r="F18" t="n">
-        <v>51394.4285</v>
+        <v>11372.8575</v>
       </c>
       <c r="G18" t="n">
-        <v>28.38</v>
+        <v>91927.47722727996</v>
       </c>
       <c r="H18" t="n">
-        <v>27.94666666666665</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="n">
         <v>27.9</v>
       </c>
-      <c r="L18" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N18" t="n">
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1192,44 +1086,39 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>28</v>
+        <v>28.6</v>
       </c>
       <c r="C19" t="n">
-        <v>28.3</v>
+        <v>28.6</v>
       </c>
       <c r="D19" t="n">
-        <v>28.3</v>
+        <v>28.6</v>
       </c>
       <c r="E19" t="n">
-        <v>28</v>
+        <v>28.6</v>
       </c>
       <c r="F19" t="n">
-        <v>7337.9707</v>
+        <v>22540.0642</v>
       </c>
       <c r="G19" t="n">
-        <v>28.36</v>
+        <v>69387.41302727995</v>
       </c>
       <c r="H19" t="n">
-        <v>27.96666666666665</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="n">
-        <v>28</v>
-      </c>
-      <c r="L19" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N19" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1238,44 +1127,39 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>28</v>
+        <v>28.6</v>
       </c>
       <c r="C20" t="n">
-        <v>28</v>
+        <v>28.6</v>
       </c>
       <c r="D20" t="n">
-        <v>28</v>
+        <v>28.6</v>
       </c>
       <c r="E20" t="n">
-        <v>28</v>
+        <v>28.6</v>
       </c>
       <c r="F20" t="n">
-        <v>16.5167</v>
+        <v>26717.9987</v>
       </c>
       <c r="G20" t="n">
-        <v>28.31333333333334</v>
+        <v>69387.41302727995</v>
       </c>
       <c r="H20" t="n">
-        <v>27.97166666666665</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="L20" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N20" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1284,44 +1168,39 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>28.3</v>
+        <v>28.6</v>
       </c>
       <c r="C21" t="n">
-        <v>28.3</v>
+        <v>28.5</v>
       </c>
       <c r="D21" t="n">
-        <v>28.3</v>
+        <v>28.6</v>
       </c>
       <c r="E21" t="n">
-        <v>28.3</v>
+        <v>28.5</v>
       </c>
       <c r="F21" t="n">
-        <v>10</v>
+        <v>22018.6013</v>
       </c>
       <c r="G21" t="n">
-        <v>28.24666666666667</v>
+        <v>47368.81172727996</v>
       </c>
       <c r="H21" t="n">
-        <v>27.98166666666665</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="n">
-        <v>28</v>
-      </c>
-      <c r="L21" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N21" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1330,42 +1209,39 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>28</v>
+        <v>28.7</v>
       </c>
       <c r="C22" t="n">
-        <v>28</v>
+        <v>28.7</v>
       </c>
       <c r="D22" t="n">
-        <v>28</v>
+        <v>28.7</v>
       </c>
       <c r="E22" t="n">
-        <v>28</v>
+        <v>28.7</v>
       </c>
       <c r="F22" t="n">
-        <v>89.4054</v>
+        <v>11</v>
       </c>
       <c r="G22" t="n">
-        <v>28.16</v>
+        <v>47379.81172727996</v>
       </c>
       <c r="H22" t="n">
-        <v>27.98833333333332</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N22" t="n">
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1374,42 +1250,39 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>28</v>
+        <v>28.1</v>
       </c>
       <c r="C23" t="n">
-        <v>28.3</v>
+        <v>27.9</v>
       </c>
       <c r="D23" t="n">
-        <v>28.3</v>
+        <v>28.1</v>
       </c>
       <c r="E23" t="n">
-        <v>28</v>
+        <v>27.9</v>
       </c>
       <c r="F23" t="n">
-        <v>22968.1978</v>
+        <v>1065.7689</v>
       </c>
       <c r="G23" t="n">
-        <v>28.10666666666667</v>
+        <v>46314.04282727995</v>
       </c>
       <c r="H23" t="n">
-        <v>28.00333333333332</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N23" t="n">
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1418,42 +1291,39 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>28.3</v>
+        <v>28.1</v>
       </c>
       <c r="C24" t="n">
-        <v>28.7</v>
+        <v>28.1</v>
       </c>
       <c r="D24" t="n">
-        <v>28.7</v>
+        <v>28.1</v>
       </c>
       <c r="E24" t="n">
-        <v>28.3</v>
+        <v>28.1</v>
       </c>
       <c r="F24" t="n">
-        <v>5825.3761</v>
+        <v>10</v>
       </c>
       <c r="G24" t="n">
-        <v>28.18</v>
+        <v>46324.04282727995</v>
       </c>
       <c r="H24" t="n">
-        <v>28.02166666666665</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N24" t="n">
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1462,42 +1332,39 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>28.3</v>
+        <v>27.4</v>
       </c>
       <c r="C25" t="n">
-        <v>28.3</v>
+        <v>27.5</v>
       </c>
       <c r="D25" t="n">
-        <v>28.3</v>
+        <v>27.5</v>
       </c>
       <c r="E25" t="n">
-        <v>28.3</v>
+        <v>27.4</v>
       </c>
       <c r="F25" t="n">
-        <v>193.1751</v>
+        <v>9354.8089</v>
       </c>
       <c r="G25" t="n">
-        <v>28.16</v>
+        <v>36969.23392727996</v>
       </c>
       <c r="H25" t="n">
-        <v>28.03833333333332</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N25" t="n">
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1506,42 +1373,39 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>28</v>
+        <v>27.3</v>
       </c>
       <c r="C26" t="n">
-        <v>28</v>
+        <v>27.2</v>
       </c>
       <c r="D26" t="n">
-        <v>28</v>
+        <v>27.3</v>
       </c>
       <c r="E26" t="n">
-        <v>28</v>
+        <v>27.2</v>
       </c>
       <c r="F26" t="n">
-        <v>400</v>
+        <v>49123.9452</v>
       </c>
       <c r="G26" t="n">
-        <v>28.17333333333333</v>
+        <v>-12154.71127272004</v>
       </c>
       <c r="H26" t="n">
-        <v>28.04999999999999</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N26" t="n">
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1550,42 +1414,39 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>28.4</v>
+        <v>28</v>
       </c>
       <c r="C27" t="n">
-        <v>28.4</v>
+        <v>28</v>
       </c>
       <c r="D27" t="n">
-        <v>28.4</v>
+        <v>28</v>
       </c>
       <c r="E27" t="n">
-        <v>28.4</v>
+        <v>28</v>
       </c>
       <c r="F27" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G27" t="n">
-        <v>28.21333333333333</v>
+        <v>-12144.71127272004</v>
       </c>
       <c r="H27" t="n">
-        <v>28.06999999999999</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N27" t="n">
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1594,42 +1455,39 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>28.4</v>
+        <v>27.3</v>
       </c>
       <c r="C28" t="n">
-        <v>28.5</v>
+        <v>27.3</v>
       </c>
       <c r="D28" t="n">
-        <v>28.5</v>
+        <v>27.3</v>
       </c>
       <c r="E28" t="n">
-        <v>28.4</v>
+        <v>27.3</v>
       </c>
       <c r="F28" t="n">
-        <v>23215.9475</v>
+        <v>21.6139</v>
       </c>
       <c r="G28" t="n">
-        <v>28.20666666666666</v>
+        <v>-12166.32517272004</v>
       </c>
       <c r="H28" t="n">
-        <v>28.09166666666665</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N28" t="n">
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,42 +1496,39 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>28.7</v>
+        <v>28</v>
       </c>
       <c r="C29" t="n">
-        <v>29.1</v>
+        <v>28.2</v>
       </c>
       <c r="D29" t="n">
-        <v>29.1</v>
+        <v>28.2</v>
       </c>
       <c r="E29" t="n">
-        <v>28.7</v>
+        <v>28</v>
       </c>
       <c r="F29" t="n">
-        <v>43215.9078</v>
+        <v>23899.6497</v>
       </c>
       <c r="G29" t="n">
-        <v>28.24666666666666</v>
+        <v>11733.32452727996</v>
       </c>
       <c r="H29" t="n">
-        <v>28.11666666666665</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N29" t="n">
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1682,42 +1537,41 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>29.1</v>
+        <v>28.4</v>
       </c>
       <c r="C30" t="n">
-        <v>29.3</v>
+        <v>28.5</v>
       </c>
       <c r="D30" t="n">
-        <v>29.3</v>
+        <v>28.5</v>
       </c>
       <c r="E30" t="n">
-        <v>29.1</v>
+        <v>28.4</v>
       </c>
       <c r="F30" t="n">
-        <v>62543.8747</v>
+        <v>452</v>
       </c>
       <c r="G30" t="n">
-        <v>28.33333333333333</v>
+        <v>12185.32452727996</v>
       </c>
       <c r="H30" t="n">
-        <v>28.14499999999999</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N30" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="K30" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1726,42 +1580,39 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>29.3</v>
+        <v>28.5</v>
       </c>
       <c r="C31" t="n">
-        <v>29.1</v>
+        <v>28.6</v>
       </c>
       <c r="D31" t="n">
-        <v>29.3</v>
+        <v>28.6</v>
       </c>
       <c r="E31" t="n">
-        <v>29.1</v>
+        <v>28.5</v>
       </c>
       <c r="F31" t="n">
-        <v>32956.21124948</v>
+        <v>53087.9369</v>
       </c>
       <c r="G31" t="n">
-        <v>28.41333333333333</v>
+        <v>65273.26142727995</v>
       </c>
       <c r="H31" t="n">
-        <v>28.17499999999999</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N31" t="n">
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1770,42 +1621,39 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>29.1</v>
+        <v>28.6</v>
       </c>
       <c r="C32" t="n">
-        <v>30.5</v>
+        <v>28.6</v>
       </c>
       <c r="D32" t="n">
-        <v>30.5</v>
+        <v>28.6</v>
       </c>
       <c r="E32" t="n">
-        <v>29.1</v>
+        <v>28.6</v>
       </c>
       <c r="F32" t="n">
-        <v>481769.9357726</v>
+        <v>45003.5077</v>
       </c>
       <c r="G32" t="n">
-        <v>28.58666666666667</v>
+        <v>65273.26142727995</v>
       </c>
       <c r="H32" t="n">
-        <v>28.22333333333332</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N32" t="n">
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1814,42 +1662,39 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>30.5</v>
+        <v>28.6</v>
       </c>
       <c r="C33" t="n">
-        <v>30.7</v>
+        <v>28.6</v>
       </c>
       <c r="D33" t="n">
-        <v>30.7</v>
+        <v>28.6</v>
       </c>
       <c r="E33" t="n">
-        <v>30.5</v>
+        <v>28.6</v>
       </c>
       <c r="F33" t="n">
-        <v>40665.3827</v>
+        <v>30386.3873</v>
       </c>
       <c r="G33" t="n">
-        <v>28.76666666666667</v>
+        <v>65273.26142727995</v>
       </c>
       <c r="H33" t="n">
-        <v>28.28333333333332</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N33" t="n">
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1858,42 +1703,39 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>30.7</v>
+        <v>28.6</v>
       </c>
       <c r="C34" t="n">
-        <v>30.7</v>
+        <v>28.7</v>
       </c>
       <c r="D34" t="n">
-        <v>30.7</v>
+        <v>28.7</v>
       </c>
       <c r="E34" t="n">
-        <v>30.7</v>
+        <v>28.6</v>
       </c>
       <c r="F34" t="n">
-        <v>32414.1367</v>
+        <v>11263.2025</v>
       </c>
       <c r="G34" t="n">
-        <v>28.92666666666667</v>
+        <v>76536.46392727995</v>
       </c>
       <c r="H34" t="n">
-        <v>28.33499999999999</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N34" t="n">
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1902,42 +1744,39 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>30.7</v>
+        <v>28.8</v>
       </c>
       <c r="C35" t="n">
-        <v>31</v>
+        <v>29.3</v>
       </c>
       <c r="D35" t="n">
-        <v>31</v>
+        <v>29.3</v>
       </c>
       <c r="E35" t="n">
-        <v>30.7</v>
+        <v>28.8</v>
       </c>
       <c r="F35" t="n">
-        <v>68204.2294</v>
+        <v>117186.7508</v>
       </c>
       <c r="G35" t="n">
-        <v>29.12666666666667</v>
+        <v>193723.21472728</v>
       </c>
       <c r="H35" t="n">
-        <v>28.40166666666666</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N35" t="n">
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1946,42 +1785,39 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>30.2</v>
+        <v>29.3</v>
       </c>
       <c r="C36" t="n">
-        <v>30.9</v>
+        <v>29.3</v>
       </c>
       <c r="D36" t="n">
-        <v>30.9</v>
+        <v>29.3</v>
       </c>
       <c r="E36" t="n">
-        <v>29.7</v>
+        <v>28.1</v>
       </c>
       <c r="F36" t="n">
-        <v>118213.2916</v>
+        <v>131574.8852</v>
       </c>
       <c r="G36" t="n">
-        <v>29.3</v>
+        <v>193723.21472728</v>
       </c>
       <c r="H36" t="n">
-        <v>28.45333333333333</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N36" t="n">
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1990,42 +1826,39 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>30.3</v>
+        <v>29</v>
       </c>
       <c r="C37" t="n">
-        <v>30.7</v>
+        <v>29.1</v>
       </c>
       <c r="D37" t="n">
-        <v>30.9</v>
+        <v>29.1</v>
       </c>
       <c r="E37" t="n">
-        <v>30.2</v>
+        <v>29</v>
       </c>
       <c r="F37" t="n">
-        <v>207087.4001</v>
+        <v>50000</v>
       </c>
       <c r="G37" t="n">
-        <v>29.48</v>
+        <v>143723.21472728</v>
       </c>
       <c r="H37" t="n">
-        <v>28.50333333333333</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N37" t="n">
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2034,42 +1867,39 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>30.7</v>
+        <v>27.8</v>
       </c>
       <c r="C38" t="n">
-        <v>31.1</v>
+        <v>27.6</v>
       </c>
       <c r="D38" t="n">
-        <v>31.1</v>
+        <v>27.8</v>
       </c>
       <c r="E38" t="n">
-        <v>30.7</v>
+        <v>27.6</v>
       </c>
       <c r="F38" t="n">
-        <v>232776.4981274</v>
+        <v>15766.667</v>
       </c>
       <c r="G38" t="n">
-        <v>29.66666666666666</v>
+        <v>127956.54772728</v>
       </c>
       <c r="H38" t="n">
-        <v>28.55666666666666</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N38" t="n">
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2078,42 +1908,39 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>30.8</v>
+        <v>28.6</v>
       </c>
       <c r="C39" t="n">
-        <v>31.6</v>
+        <v>28.6</v>
       </c>
       <c r="D39" t="n">
-        <v>31.6</v>
+        <v>28.6</v>
       </c>
       <c r="E39" t="n">
-        <v>30.8</v>
+        <v>28.6</v>
       </c>
       <c r="F39" t="n">
-        <v>262604.0144</v>
+        <v>10</v>
       </c>
       <c r="G39" t="n">
-        <v>29.86</v>
+        <v>127966.54772728</v>
       </c>
       <c r="H39" t="n">
-        <v>28.61833333333332</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N39" t="n">
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2122,42 +1949,39 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>31.5</v>
+        <v>27.8</v>
       </c>
       <c r="C40" t="n">
-        <v>31</v>
+        <v>27.8</v>
       </c>
       <c r="D40" t="n">
-        <v>31.5</v>
+        <v>27.8</v>
       </c>
       <c r="E40" t="n">
-        <v>30.8</v>
+        <v>27.8</v>
       </c>
       <c r="F40" t="n">
-        <v>6262</v>
+        <v>11892.2615</v>
       </c>
       <c r="G40" t="n">
-        <v>30.04</v>
+        <v>116074.28622728</v>
       </c>
       <c r="H40" t="n">
-        <v>28.66833333333332</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N40" t="n">
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2166,42 +1990,39 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>31.4</v>
+        <v>27.8</v>
       </c>
       <c r="C41" t="n">
-        <v>30.9</v>
+        <v>27.8</v>
       </c>
       <c r="D41" t="n">
-        <v>31.4</v>
+        <v>27.8</v>
       </c>
       <c r="E41" t="n">
-        <v>29.1</v>
+        <v>27.8</v>
       </c>
       <c r="F41" t="n">
-        <v>77471.5368</v>
+        <v>18891.9151</v>
       </c>
       <c r="G41" t="n">
-        <v>30.23333333333333</v>
+        <v>116074.28622728</v>
       </c>
       <c r="H41" t="n">
-        <v>28.71666666666665</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N41" t="n">
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2210,43 +2031,42 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>29.9</v>
+        <v>28.6</v>
       </c>
       <c r="C42" t="n">
-        <v>29.4</v>
+        <v>28.6</v>
       </c>
       <c r="D42" t="n">
-        <v>29.9</v>
+        <v>28.6</v>
       </c>
       <c r="E42" t="n">
-        <v>29.4</v>
+        <v>28.6</v>
       </c>
       <c r="F42" t="n">
-        <v>678.896</v>
+        <v>20</v>
       </c>
       <c r="G42" t="n">
-        <v>30.3</v>
+        <v>116094.28622728</v>
       </c>
       <c r="H42" t="n">
-        <v>28.73999999999999</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>1</v>
-      </c>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="N42" t="n">
-        <v>1.022972027972028</v>
+        <v>27.8</v>
+      </c>
+      <c r="K42" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M42" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -2254,36 +2074,39 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>29.2</v>
+        <v>28.6</v>
       </c>
       <c r="C43" t="n">
-        <v>29.7</v>
+        <v>28.5</v>
       </c>
       <c r="D43" t="n">
-        <v>29.8</v>
+        <v>28.6</v>
       </c>
       <c r="E43" t="n">
-        <v>28.9</v>
+        <v>28.5</v>
       </c>
       <c r="F43" t="n">
-        <v>60814.0869</v>
+        <v>45</v>
       </c>
       <c r="G43" t="n">
-        <v>30.38</v>
+        <v>116049.28622728</v>
       </c>
       <c r="H43" t="n">
-        <v>28.76833333333332</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="n">
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2292,36 +2115,39 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>29.5</v>
+        <v>28</v>
       </c>
       <c r="C44" t="n">
-        <v>29.9</v>
+        <v>28</v>
       </c>
       <c r="D44" t="n">
-        <v>29.9</v>
+        <v>28</v>
       </c>
       <c r="E44" t="n">
-        <v>29.4</v>
+        <v>28</v>
       </c>
       <c r="F44" t="n">
-        <v>44331.3169</v>
+        <v>42.7856</v>
       </c>
       <c r="G44" t="n">
-        <v>30.43333333333333</v>
+        <v>116006.50062728</v>
       </c>
       <c r="H44" t="n">
-        <v>28.79666666666666</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="n">
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2330,36 +2156,39 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>30</v>
+        <v>27.6</v>
       </c>
       <c r="C45" t="n">
-        <v>30.4</v>
+        <v>27.9</v>
       </c>
       <c r="D45" t="n">
-        <v>30.9</v>
+        <v>27.9</v>
       </c>
       <c r="E45" t="n">
-        <v>29.9</v>
+        <v>27.5</v>
       </c>
       <c r="F45" t="n">
-        <v>73404.53711003</v>
+        <v>102973.0884</v>
       </c>
       <c r="G45" t="n">
-        <v>30.50666666666666</v>
+        <v>13033.41222727996</v>
       </c>
       <c r="H45" t="n">
-        <v>28.83499999999999</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="n">
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2368,36 +2197,39 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>30.5</v>
+        <v>27.5</v>
       </c>
       <c r="C46" t="n">
-        <v>29.9</v>
+        <v>27.9</v>
       </c>
       <c r="D46" t="n">
-        <v>30.5</v>
+        <v>27.9</v>
       </c>
       <c r="E46" t="n">
-        <v>29.9</v>
+        <v>27.2</v>
       </c>
       <c r="F46" t="n">
-        <v>20131.4204</v>
+        <v>53107.9369</v>
       </c>
       <c r="G46" t="n">
-        <v>30.55999999999999</v>
+        <v>13033.41222727996</v>
       </c>
       <c r="H46" t="n">
-        <v>28.87666666666666</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="n">
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2406,36 +2238,39 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>29.6</v>
+        <v>27.9</v>
       </c>
       <c r="C47" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D47" t="n">
-        <v>30.5</v>
+        <v>28</v>
       </c>
       <c r="E47" t="n">
-        <v>29.4</v>
+        <v>27.9</v>
       </c>
       <c r="F47" t="n">
-        <v>175285.3056</v>
+        <v>51394.4285</v>
       </c>
       <c r="G47" t="n">
-        <v>30.52666666666665</v>
+        <v>64427.84072727996</v>
       </c>
       <c r="H47" t="n">
-        <v>28.91166666666666</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="n">
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2444,36 +2279,39 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>30.2</v>
+        <v>28</v>
       </c>
       <c r="C48" t="n">
-        <v>30.2</v>
+        <v>28.3</v>
       </c>
       <c r="D48" t="n">
-        <v>30.2</v>
+        <v>28.3</v>
       </c>
       <c r="E48" t="n">
-        <v>30.2</v>
+        <v>28</v>
       </c>
       <c r="F48" t="n">
-        <v>10</v>
+        <v>7337.9707</v>
       </c>
       <c r="G48" t="n">
-        <v>30.49333333333332</v>
+        <v>71765.81142727996</v>
       </c>
       <c r="H48" t="n">
-        <v>28.95999999999999</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>1</v>
-      </c>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="n">
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2482,36 +2320,39 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>30.1</v>
+        <v>28</v>
       </c>
       <c r="C49" t="n">
-        <v>30.2</v>
+        <v>28</v>
       </c>
       <c r="D49" t="n">
-        <v>30.2</v>
+        <v>28</v>
       </c>
       <c r="E49" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F49" t="n">
-        <v>93648.9347</v>
+        <v>16.5167</v>
       </c>
       <c r="G49" t="n">
-        <v>30.45999999999999</v>
+        <v>71749.29472727996</v>
       </c>
       <c r="H49" t="n">
-        <v>28.985</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>1</v>
-      </c>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="n">
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2520,36 +2361,39 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>30</v>
+        <v>28.3</v>
       </c>
       <c r="C50" t="n">
-        <v>30</v>
+        <v>28.3</v>
       </c>
       <c r="D50" t="n">
-        <v>30</v>
+        <v>28.3</v>
       </c>
       <c r="E50" t="n">
-        <v>30</v>
+        <v>28.3</v>
       </c>
       <c r="F50" t="n">
-        <v>605.6179</v>
+        <v>10</v>
       </c>
       <c r="G50" t="n">
-        <v>30.39333333333332</v>
+        <v>71759.29472727996</v>
       </c>
       <c r="H50" t="n">
-        <v>29.00833333333333</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>1</v>
-      </c>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="n">
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2558,36 +2402,39 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>29.9</v>
+        <v>28</v>
       </c>
       <c r="C51" t="n">
-        <v>30.1</v>
+        <v>28</v>
       </c>
       <c r="D51" t="n">
-        <v>30.1</v>
+        <v>28</v>
       </c>
       <c r="E51" t="n">
-        <v>29.5</v>
+        <v>28</v>
       </c>
       <c r="F51" t="n">
-        <v>4794.2606</v>
+        <v>89.4054</v>
       </c>
       <c r="G51" t="n">
-        <v>30.33999999999999</v>
+        <v>71669.88932727996</v>
       </c>
       <c r="H51" t="n">
-        <v>29.03333333333333</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>1</v>
-      </c>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="n">
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2596,36 +2443,39 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C52" t="n">
-        <v>30</v>
+        <v>28.3</v>
       </c>
       <c r="D52" t="n">
-        <v>30</v>
+        <v>28.3</v>
       </c>
       <c r="E52" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F52" t="n">
-        <v>20872.7666</v>
+        <v>22968.1978</v>
       </c>
       <c r="G52" t="n">
-        <v>30.29333333333333</v>
+        <v>94638.08712727996</v>
       </c>
       <c r="H52" t="n">
-        <v>29.05833333333333</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>1</v>
-      </c>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="n">
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2634,36 +2484,39 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>29.5</v>
+        <v>28.3</v>
       </c>
       <c r="C53" t="n">
-        <v>29.4</v>
+        <v>28.7</v>
       </c>
       <c r="D53" t="n">
-        <v>29.5</v>
+        <v>28.7</v>
       </c>
       <c r="E53" t="n">
-        <v>29.4</v>
+        <v>28.3</v>
       </c>
       <c r="F53" t="n">
-        <v>15771.722</v>
+        <v>5825.3761</v>
       </c>
       <c r="G53" t="n">
-        <v>30.17999999999999</v>
+        <v>100463.4632272799</v>
       </c>
       <c r="H53" t="n">
-        <v>29.07</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>1</v>
-      </c>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="n">
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2672,36 +2525,39 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>29.9</v>
+        <v>28.3</v>
       </c>
       <c r="C54" t="n">
-        <v>29.8</v>
+        <v>28.3</v>
       </c>
       <c r="D54" t="n">
-        <v>29.9</v>
+        <v>28.3</v>
       </c>
       <c r="E54" t="n">
-        <v>29.4</v>
+        <v>28.3</v>
       </c>
       <c r="F54" t="n">
-        <v>29915.8197</v>
+        <v>193.1751</v>
       </c>
       <c r="G54" t="n">
-        <v>30.05999999999999</v>
+        <v>100270.28812728</v>
       </c>
       <c r="H54" t="n">
-        <v>29.10166666666666</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>1</v>
-      </c>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="n">
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2710,36 +2566,39 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>29.8</v>
+        <v>28</v>
       </c>
       <c r="C55" t="n">
-        <v>29.8</v>
+        <v>28</v>
       </c>
       <c r="D55" t="n">
-        <v>29.8</v>
+        <v>28</v>
       </c>
       <c r="E55" t="n">
-        <v>29.8</v>
+        <v>28</v>
       </c>
       <c r="F55" t="n">
-        <v>6347.5428</v>
+        <v>400</v>
       </c>
       <c r="G55" t="n">
-        <v>29.97999999999999</v>
+        <v>99870.28812727996</v>
       </c>
       <c r="H55" t="n">
-        <v>29.13</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>1</v>
-      </c>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="n">
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2748,36 +2607,39 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>29.8</v>
+        <v>28.4</v>
       </c>
       <c r="C56" t="n">
-        <v>29.9</v>
+        <v>28.4</v>
       </c>
       <c r="D56" t="n">
-        <v>29.9</v>
+        <v>28.4</v>
       </c>
       <c r="E56" t="n">
-        <v>29.4</v>
+        <v>28.4</v>
       </c>
       <c r="F56" t="n">
-        <v>139983.2478</v>
+        <v>11</v>
       </c>
       <c r="G56" t="n">
-        <v>29.91333333333332</v>
+        <v>99881.28812727996</v>
       </c>
       <c r="H56" t="n">
-        <v>29.17</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>1</v>
-      </c>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="n">
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2786,36 +2648,39 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>29.9</v>
+        <v>28.4</v>
       </c>
       <c r="C57" t="n">
-        <v>29.9</v>
+        <v>28.5</v>
       </c>
       <c r="D57" t="n">
-        <v>29.9</v>
+        <v>28.5</v>
       </c>
       <c r="E57" t="n">
-        <v>29.9</v>
+        <v>28.4</v>
       </c>
       <c r="F57" t="n">
-        <v>3344.48160535</v>
+        <v>23215.9475</v>
       </c>
       <c r="G57" t="n">
-        <v>29.94666666666665</v>
+        <v>123097.23562728</v>
       </c>
       <c r="H57" t="n">
-        <v>29.215</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>1</v>
-      </c>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="n">
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2824,36 +2689,39 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>29.7</v>
+        <v>28.7</v>
       </c>
       <c r="C58" t="n">
-        <v>29.7</v>
+        <v>29.1</v>
       </c>
       <c r="D58" t="n">
-        <v>29.7</v>
+        <v>29.1</v>
       </c>
       <c r="E58" t="n">
-        <v>29.7</v>
+        <v>28.7</v>
       </c>
       <c r="F58" t="n">
-        <v>11</v>
+        <v>43215.9078</v>
       </c>
       <c r="G58" t="n">
-        <v>29.94666666666665</v>
+        <v>166313.14342728</v>
       </c>
       <c r="H58" t="n">
-        <v>29.24333333333333</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>1</v>
-      </c>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="n">
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2862,36 +2730,39 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>29.7</v>
+        <v>29.1</v>
       </c>
       <c r="C59" t="n">
-        <v>29.7</v>
+        <v>29.3</v>
       </c>
       <c r="D59" t="n">
-        <v>29.7</v>
+        <v>29.3</v>
       </c>
       <c r="E59" t="n">
-        <v>29.4</v>
+        <v>29.1</v>
       </c>
       <c r="F59" t="n">
-        <v>31113.5763</v>
+        <v>62543.8747</v>
       </c>
       <c r="G59" t="n">
-        <v>29.93333333333332</v>
+        <v>228857.0181272799</v>
       </c>
       <c r="H59" t="n">
-        <v>29.28333333333333</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>1</v>
-      </c>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="n">
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2900,36 +2771,39 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="C60" t="n">
-        <v>29.4</v>
+        <v>29.1</v>
       </c>
       <c r="D60" t="n">
-        <v>29.4</v>
+        <v>29.3</v>
       </c>
       <c r="E60" t="n">
-        <v>28.6</v>
+        <v>29.1</v>
       </c>
       <c r="F60" t="n">
-        <v>123990.6555</v>
+        <v>32956.21124948</v>
       </c>
       <c r="G60" t="n">
-        <v>29.86666666666666</v>
+        <v>195900.8068777999</v>
       </c>
       <c r="H60" t="n">
-        <v>29.30333333333333</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>1</v>
-      </c>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="n">
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2938,36 +2812,39 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>28.7</v>
+        <v>29.1</v>
       </c>
       <c r="C61" t="n">
-        <v>29</v>
+        <v>30.5</v>
       </c>
       <c r="D61" t="n">
-        <v>29</v>
+        <v>30.5</v>
       </c>
       <c r="E61" t="n">
-        <v>28.7</v>
+        <v>29.1</v>
       </c>
       <c r="F61" t="n">
-        <v>53453.1604</v>
+        <v>481769.9357726</v>
       </c>
       <c r="G61" t="n">
-        <v>29.80666666666666</v>
+        <v>677670.7426503999</v>
       </c>
       <c r="H61" t="n">
-        <v>29.31166666666667</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="n">
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2976,36 +2853,39 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>29.3</v>
+        <v>30.5</v>
       </c>
       <c r="C62" t="n">
-        <v>29.3</v>
+        <v>30.7</v>
       </c>
       <c r="D62" t="n">
-        <v>29.3</v>
+        <v>30.7</v>
       </c>
       <c r="E62" t="n">
-        <v>28.5</v>
+        <v>30.5</v>
       </c>
       <c r="F62" t="n">
-        <v>113320.3682</v>
+        <v>40665.3827</v>
       </c>
       <c r="G62" t="n">
-        <v>29.75999999999999</v>
+        <v>718336.1253503999</v>
       </c>
       <c r="H62" t="n">
-        <v>29.32333333333333</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>1</v>
-      </c>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="n">
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3014,36 +2894,39 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>28.6</v>
+        <v>30.7</v>
       </c>
       <c r="C63" t="n">
-        <v>28.4</v>
+        <v>30.7</v>
       </c>
       <c r="D63" t="n">
-        <v>28.6</v>
+        <v>30.7</v>
       </c>
       <c r="E63" t="n">
-        <v>28.4</v>
+        <v>30.7</v>
       </c>
       <c r="F63" t="n">
-        <v>75012.9644</v>
+        <v>32414.1367</v>
       </c>
       <c r="G63" t="n">
-        <v>29.63999999999999</v>
+        <v>718336.1253503999</v>
       </c>
       <c r="H63" t="n">
-        <v>29.32</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="n">
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3052,36 +2935,39 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>28.5</v>
+        <v>30.7</v>
       </c>
       <c r="C64" t="n">
-        <v>28.5</v>
+        <v>31</v>
       </c>
       <c r="D64" t="n">
-        <v>28.7</v>
+        <v>31</v>
       </c>
       <c r="E64" t="n">
-        <v>28.5</v>
+        <v>30.7</v>
       </c>
       <c r="F64" t="n">
-        <v>19757.4676</v>
+        <v>68204.2294</v>
       </c>
       <c r="G64" t="n">
-        <v>29.52666666666666</v>
+        <v>786540.3547503998</v>
       </c>
       <c r="H64" t="n">
-        <v>29.31833333333334</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="n">
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3090,36 +2976,39 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>28.7</v>
+        <v>30.2</v>
       </c>
       <c r="C65" t="n">
-        <v>28.8</v>
+        <v>30.9</v>
       </c>
       <c r="D65" t="n">
-        <v>28.8</v>
+        <v>30.9</v>
       </c>
       <c r="E65" t="n">
-        <v>28.7</v>
+        <v>29.7</v>
       </c>
       <c r="F65" t="n">
-        <v>20</v>
+        <v>118213.2916</v>
       </c>
       <c r="G65" t="n">
-        <v>29.44666666666666</v>
+        <v>668327.0631503998</v>
       </c>
       <c r="H65" t="n">
-        <v>29.32</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>0</v>
-      </c>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="n">
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3128,36 +3017,39 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>28.5</v>
+        <v>30.3</v>
       </c>
       <c r="C66" t="n">
-        <v>28.7</v>
+        <v>30.7</v>
       </c>
       <c r="D66" t="n">
-        <v>28.7</v>
+        <v>30.9</v>
       </c>
       <c r="E66" t="n">
-        <v>28.5</v>
+        <v>30.2</v>
       </c>
       <c r="F66" t="n">
-        <v>21825.0431</v>
+        <v>207087.4001</v>
       </c>
       <c r="G66" t="n">
-        <v>29.35333333333332</v>
+        <v>461239.6630503999</v>
       </c>
       <c r="H66" t="n">
-        <v>29.31000000000001</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>0</v>
-      </c>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="n">
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3166,36 +3058,39 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>28.5</v>
+        <v>30.7</v>
       </c>
       <c r="C67" t="n">
-        <v>28.5</v>
+        <v>31.1</v>
       </c>
       <c r="D67" t="n">
-        <v>28.5</v>
+        <v>31.1</v>
       </c>
       <c r="E67" t="n">
-        <v>28.5</v>
+        <v>30.7</v>
       </c>
       <c r="F67" t="n">
-        <v>17604.7463</v>
+        <v>232776.4981274</v>
       </c>
       <c r="G67" t="n">
-        <v>29.25333333333332</v>
+        <v>694016.1611777998</v>
       </c>
       <c r="H67" t="n">
-        <v>29.29666666666667</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>0</v>
-      </c>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="n">
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3204,36 +3099,39 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>28.5</v>
+        <v>30.8</v>
       </c>
       <c r="C68" t="n">
-        <v>28.5</v>
+        <v>31.6</v>
       </c>
       <c r="D68" t="n">
-        <v>28.5</v>
+        <v>31.6</v>
       </c>
       <c r="E68" t="n">
-        <v>28.5</v>
+        <v>30.8</v>
       </c>
       <c r="F68" t="n">
-        <v>3562.2835</v>
+        <v>262604.0144</v>
       </c>
       <c r="G68" t="n">
-        <v>29.19333333333332</v>
+        <v>956620.1755777998</v>
       </c>
       <c r="H68" t="n">
-        <v>29.28666666666668</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>0</v>
-      </c>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="n">
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3242,36 +3140,39 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>28.6</v>
+        <v>31.5</v>
       </c>
       <c r="C69" t="n">
-        <v>28.8</v>
+        <v>31</v>
       </c>
       <c r="D69" t="n">
-        <v>28.8</v>
+        <v>31.5</v>
       </c>
       <c r="E69" t="n">
-        <v>28.6</v>
+        <v>30.8</v>
       </c>
       <c r="F69" t="n">
-        <v>86391.94439999999</v>
+        <v>6262</v>
       </c>
       <c r="G69" t="n">
-        <v>29.12666666666666</v>
+        <v>950358.1755777998</v>
       </c>
       <c r="H69" t="n">
-        <v>29.30666666666668</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="n">
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3280,36 +3181,39 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>28.8</v>
+        <v>31.4</v>
       </c>
       <c r="C70" t="n">
-        <v>28.8</v>
+        <v>30.9</v>
       </c>
       <c r="D70" t="n">
-        <v>28.8</v>
+        <v>31.4</v>
       </c>
       <c r="E70" t="n">
-        <v>28.8</v>
+        <v>29.1</v>
       </c>
       <c r="F70" t="n">
-        <v>24200.1388</v>
+        <v>77471.5368</v>
       </c>
       <c r="G70" t="n">
-        <v>29.05999999999999</v>
+        <v>872886.6387777998</v>
       </c>
       <c r="H70" t="n">
-        <v>29.31000000000001</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>0</v>
-      </c>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="n">
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3318,36 +3222,39 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>28.8</v>
+        <v>29.9</v>
       </c>
       <c r="C71" t="n">
-        <v>29</v>
+        <v>29.4</v>
       </c>
       <c r="D71" t="n">
-        <v>29</v>
+        <v>29.9</v>
       </c>
       <c r="E71" t="n">
-        <v>28.8</v>
+        <v>29.4</v>
       </c>
       <c r="F71" t="n">
-        <v>65007.0162</v>
+        <v>678.896</v>
       </c>
       <c r="G71" t="n">
-        <v>28.99999999999999</v>
+        <v>872207.7427777998</v>
       </c>
       <c r="H71" t="n">
-        <v>29.33000000000001</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>0</v>
-      </c>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="n">
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3356,36 +3263,39 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>28.8</v>
+        <v>29.2</v>
       </c>
       <c r="C72" t="n">
-        <v>28.5</v>
+        <v>29.7</v>
       </c>
       <c r="D72" t="n">
-        <v>28.8</v>
+        <v>29.8</v>
       </c>
       <c r="E72" t="n">
-        <v>28.5</v>
+        <v>28.9</v>
       </c>
       <c r="F72" t="n">
-        <v>68418.7372</v>
+        <v>60814.0869</v>
       </c>
       <c r="G72" t="n">
-        <v>28.90666666666666</v>
+        <v>933021.8296777998</v>
       </c>
       <c r="H72" t="n">
-        <v>29.34166666666668</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>0</v>
-      </c>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="n">
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3394,36 +3304,39 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>28.4</v>
+        <v>29.5</v>
       </c>
       <c r="C73" t="n">
-        <v>28.4</v>
+        <v>29.9</v>
       </c>
       <c r="D73" t="n">
-        <v>28.4</v>
+        <v>29.9</v>
       </c>
       <c r="E73" t="n">
-        <v>28.4</v>
+        <v>29.4</v>
       </c>
       <c r="F73" t="n">
-        <v>45408.2704</v>
+        <v>44331.3169</v>
       </c>
       <c r="G73" t="n">
-        <v>28.81999999999999</v>
+        <v>977353.1465777998</v>
       </c>
       <c r="H73" t="n">
-        <v>29.33833333333335</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="n">
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3432,36 +3345,39 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>28.7</v>
+        <v>30</v>
       </c>
       <c r="C74" t="n">
-        <v>28.7</v>
+        <v>30.4</v>
       </c>
       <c r="D74" t="n">
-        <v>28.7</v>
+        <v>30.9</v>
       </c>
       <c r="E74" t="n">
-        <v>28.7</v>
+        <v>29.9</v>
       </c>
       <c r="F74" t="n">
-        <v>10</v>
+        <v>73404.53711003</v>
       </c>
       <c r="G74" t="n">
-        <v>28.75333333333333</v>
+        <v>1050757.68368783</v>
       </c>
       <c r="H74" t="n">
-        <v>29.34166666666668</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>0</v>
-      </c>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="n">
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3470,36 +3386,39 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>28.3</v>
+        <v>30.5</v>
       </c>
       <c r="C75" t="n">
-        <v>28.6</v>
+        <v>29.9</v>
       </c>
       <c r="D75" t="n">
-        <v>28.6</v>
+        <v>30.5</v>
       </c>
       <c r="E75" t="n">
-        <v>28.3</v>
+        <v>29.9</v>
       </c>
       <c r="F75" t="n">
-        <v>42067.3375</v>
+        <v>20131.4204</v>
       </c>
       <c r="G75" t="n">
-        <v>28.7</v>
+        <v>1030626.26328783</v>
       </c>
       <c r="H75" t="n">
-        <v>29.35166666666668</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>0</v>
-      </c>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="n">
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3508,36 +3427,39 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>28.4</v>
+        <v>29.6</v>
       </c>
       <c r="C76" t="n">
-        <v>28.3</v>
+        <v>30</v>
       </c>
       <c r="D76" t="n">
-        <v>28.4</v>
+        <v>30.5</v>
       </c>
       <c r="E76" t="n">
-        <v>28.3</v>
+        <v>29.4</v>
       </c>
       <c r="F76" t="n">
-        <v>1656.4626</v>
+        <v>175285.3056</v>
       </c>
       <c r="G76" t="n">
-        <v>28.65333333333333</v>
+        <v>1205911.56888783</v>
       </c>
       <c r="H76" t="n">
-        <v>29.35833333333334</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>0</v>
-      </c>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="n">
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3546,36 +3468,39 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>28.4</v>
+        <v>30.2</v>
       </c>
       <c r="C77" t="n">
-        <v>28.4</v>
+        <v>30.2</v>
       </c>
       <c r="D77" t="n">
-        <v>28.4</v>
+        <v>30.2</v>
       </c>
       <c r="E77" t="n">
-        <v>28.4</v>
+        <v>30.2</v>
       </c>
       <c r="F77" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G77" t="n">
-        <v>28.59333333333333</v>
+        <v>1205921.56888783</v>
       </c>
       <c r="H77" t="n">
-        <v>29.36666666666668</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>0</v>
-      </c>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="n">
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3584,36 +3509,39 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>28.3</v>
+        <v>30.1</v>
       </c>
       <c r="C78" t="n">
-        <v>28.6</v>
+        <v>30.2</v>
       </c>
       <c r="D78" t="n">
-        <v>28.6</v>
+        <v>30.2</v>
       </c>
       <c r="E78" t="n">
-        <v>28.3</v>
+        <v>30</v>
       </c>
       <c r="F78" t="n">
-        <v>17945.3715</v>
+        <v>93648.9347</v>
       </c>
       <c r="G78" t="n">
-        <v>28.60666666666667</v>
+        <v>1205921.56888783</v>
       </c>
       <c r="H78" t="n">
-        <v>29.37666666666668</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>0</v>
-      </c>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
-      <c r="N78" t="n">
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3622,36 +3550,39 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>28.6</v>
+        <v>30</v>
       </c>
       <c r="C79" t="n">
-        <v>28.6</v>
+        <v>30</v>
       </c>
       <c r="D79" t="n">
-        <v>28.6</v>
+        <v>30</v>
       </c>
       <c r="E79" t="n">
-        <v>28.6</v>
+        <v>30</v>
       </c>
       <c r="F79" t="n">
-        <v>6954.8851</v>
+        <v>605.6179</v>
       </c>
       <c r="G79" t="n">
-        <v>28.61333333333333</v>
+        <v>1205315.95098783</v>
       </c>
       <c r="H79" t="n">
-        <v>29.38166666666667</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>0</v>
-      </c>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" t="n">
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3660,36 +3591,39 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>28.7</v>
+        <v>29.9</v>
       </c>
       <c r="C80" t="n">
-        <v>28.7</v>
+        <v>30.1</v>
       </c>
       <c r="D80" t="n">
-        <v>28.7</v>
+        <v>30.1</v>
       </c>
       <c r="E80" t="n">
-        <v>28.7</v>
+        <v>29.5</v>
       </c>
       <c r="F80" t="n">
-        <v>11</v>
+        <v>4794.2606</v>
       </c>
       <c r="G80" t="n">
-        <v>28.60666666666667</v>
+        <v>1210110.21158783</v>
       </c>
       <c r="H80" t="n">
-        <v>29.39333333333334</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>0</v>
-      </c>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="n">
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3698,36 +3632,39 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>28.7</v>
+        <v>30</v>
       </c>
       <c r="C81" t="n">
-        <v>28.7</v>
+        <v>30</v>
       </c>
       <c r="D81" t="n">
-        <v>28.7</v>
+        <v>30</v>
       </c>
       <c r="E81" t="n">
-        <v>28.7</v>
+        <v>30</v>
       </c>
       <c r="F81" t="n">
-        <v>40884.425</v>
+        <v>20872.7666</v>
       </c>
       <c r="G81" t="n">
-        <v>28.60666666666667</v>
+        <v>1189237.44498783</v>
       </c>
       <c r="H81" t="n">
-        <v>29.40000000000001</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>0</v>
-      </c>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
-      <c r="N81" t="n">
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3736,36 +3673,39 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>28.7</v>
+        <v>29.5</v>
       </c>
       <c r="C82" t="n">
-        <v>28.9</v>
+        <v>29.4</v>
       </c>
       <c r="D82" t="n">
-        <v>28.9</v>
+        <v>29.5</v>
       </c>
       <c r="E82" t="n">
-        <v>28.7</v>
+        <v>29.4</v>
       </c>
       <c r="F82" t="n">
-        <v>33171.6892</v>
+        <v>15771.722</v>
       </c>
       <c r="G82" t="n">
-        <v>28.63333333333333</v>
+        <v>1173465.72298783</v>
       </c>
       <c r="H82" t="n">
-        <v>29.41500000000001</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>0</v>
-      </c>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="n">
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3774,36 +3714,39 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>28.9</v>
+        <v>29.9</v>
       </c>
       <c r="C83" t="n">
-        <v>28.9</v>
+        <v>29.8</v>
       </c>
       <c r="D83" t="n">
-        <v>28.9</v>
+        <v>29.9</v>
       </c>
       <c r="E83" t="n">
-        <v>28.9</v>
+        <v>29.4</v>
       </c>
       <c r="F83" t="n">
-        <v>11135.8153</v>
+        <v>29915.8197</v>
       </c>
       <c r="G83" t="n">
-        <v>28.65999999999999</v>
+        <v>1203381.54268783</v>
       </c>
       <c r="H83" t="n">
-        <v>29.42500000000001</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>0</v>
-      </c>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
-      <c r="N83" t="n">
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3812,36 +3755,39 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>28.8</v>
+        <v>29.8</v>
       </c>
       <c r="C84" t="n">
-        <v>28.7</v>
+        <v>29.8</v>
       </c>
       <c r="D84" t="n">
-        <v>28.8</v>
+        <v>29.8</v>
       </c>
       <c r="E84" t="n">
-        <v>28.7</v>
+        <v>29.8</v>
       </c>
       <c r="F84" t="n">
-        <v>49274.0577</v>
+        <v>6347.5428</v>
       </c>
       <c r="G84" t="n">
-        <v>28.65333333333333</v>
+        <v>1203381.54268783</v>
       </c>
       <c r="H84" t="n">
-        <v>29.42500000000001</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>0</v>
-      </c>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
-      <c r="N84" t="n">
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3850,36 +3796,39 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>29</v>
+        <v>29.8</v>
       </c>
       <c r="C85" t="n">
-        <v>29</v>
+        <v>29.9</v>
       </c>
       <c r="D85" t="n">
-        <v>29</v>
+        <v>29.9</v>
       </c>
       <c r="E85" t="n">
-        <v>29</v>
+        <v>29.4</v>
       </c>
       <c r="F85" t="n">
-        <v>10</v>
+        <v>139983.2478</v>
       </c>
       <c r="G85" t="n">
-        <v>28.66666666666666</v>
+        <v>1343364.79048783</v>
       </c>
       <c r="H85" t="n">
-        <v>29.43666666666668</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>0</v>
-      </c>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
-      <c r="N85" t="n">
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3888,36 +3837,39 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>28.7</v>
+        <v>29.9</v>
       </c>
       <c r="C86" t="n">
-        <v>28.3</v>
+        <v>29.9</v>
       </c>
       <c r="D86" t="n">
-        <v>28.7</v>
+        <v>29.9</v>
       </c>
       <c r="E86" t="n">
-        <v>28.3</v>
+        <v>29.9</v>
       </c>
       <c r="F86" t="n">
-        <v>27265.1397</v>
+        <v>3344.48160535</v>
       </c>
       <c r="G86" t="n">
-        <v>28.61999999999999</v>
+        <v>1343364.79048783</v>
       </c>
       <c r="H86" t="n">
-        <v>29.44166666666668</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>0</v>
-      </c>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
-      <c r="N86" t="n">
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3926,36 +3878,39 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>28.3</v>
+        <v>29.7</v>
       </c>
       <c r="C87" t="n">
-        <v>28.3</v>
+        <v>29.7</v>
       </c>
       <c r="D87" t="n">
-        <v>28.3</v>
+        <v>29.7</v>
       </c>
       <c r="E87" t="n">
-        <v>28.3</v>
+        <v>29.7</v>
       </c>
       <c r="F87" t="n">
-        <v>14849.8078</v>
+        <v>11</v>
       </c>
       <c r="G87" t="n">
-        <v>28.60666666666666</v>
+        <v>1343353.79048783</v>
       </c>
       <c r="H87" t="n">
-        <v>29.44000000000001</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>0</v>
-      </c>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
-      <c r="N87" t="n">
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3964,36 +3919,39 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>28.5</v>
+        <v>29.7</v>
       </c>
       <c r="C88" t="n">
-        <v>28.5</v>
+        <v>29.7</v>
       </c>
       <c r="D88" t="n">
-        <v>28.5</v>
+        <v>29.7</v>
       </c>
       <c r="E88" t="n">
-        <v>28.5</v>
+        <v>29.4</v>
       </c>
       <c r="F88" t="n">
-        <v>9000</v>
+        <v>31113.5763</v>
       </c>
       <c r="G88" t="n">
-        <v>28.61333333333333</v>
+        <v>1343353.79048783</v>
       </c>
       <c r="H88" t="n">
-        <v>29.44000000000001</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>0</v>
-      </c>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="n">
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4002,36 +3960,39 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>28.5</v>
+        <v>29.2</v>
       </c>
       <c r="C89" t="n">
-        <v>28.6</v>
+        <v>29.4</v>
       </c>
       <c r="D89" t="n">
-        <v>28.6</v>
+        <v>29.4</v>
       </c>
       <c r="E89" t="n">
-        <v>28.5</v>
+        <v>28.6</v>
       </c>
       <c r="F89" t="n">
-        <v>23318.8709</v>
+        <v>123990.6555</v>
       </c>
       <c r="G89" t="n">
-        <v>28.60666666666667</v>
+        <v>1219363.13498783</v>
       </c>
       <c r="H89" t="n">
-        <v>29.43166666666668</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>0</v>
-      </c>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
-      <c r="N89" t="n">
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4040,36 +4001,39 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>28.6</v>
+        <v>28.7</v>
       </c>
       <c r="C90" t="n">
-        <v>28.6</v>
+        <v>29</v>
       </c>
       <c r="D90" t="n">
-        <v>28.6</v>
+        <v>29</v>
       </c>
       <c r="E90" t="n">
-        <v>28.6</v>
+        <v>28.7</v>
       </c>
       <c r="F90" t="n">
-        <v>4148.559</v>
+        <v>53453.1604</v>
       </c>
       <c r="G90" t="n">
-        <v>28.60666666666667</v>
+        <v>1165909.97458783</v>
       </c>
       <c r="H90" t="n">
-        <v>29.42000000000001</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>0</v>
-      </c>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr"/>
-      <c r="N90" t="n">
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4078,36 +4042,39 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>28.9</v>
+        <v>29.3</v>
       </c>
       <c r="C91" t="n">
-        <v>28.9</v>
+        <v>29.3</v>
       </c>
       <c r="D91" t="n">
-        <v>28.9</v>
+        <v>29.3</v>
       </c>
       <c r="E91" t="n">
-        <v>28.9</v>
+        <v>28.5</v>
       </c>
       <c r="F91" t="n">
-        <v>10</v>
+        <v>113320.3682</v>
       </c>
       <c r="G91" t="n">
-        <v>28.64666666666666</v>
+        <v>1279230.34278783</v>
       </c>
       <c r="H91" t="n">
-        <v>29.41666666666668</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>0</v>
-      </c>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr"/>
-      <c r="N91" t="n">
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4116,36 +4083,39 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>28.7</v>
+        <v>28.6</v>
       </c>
       <c r="C92" t="n">
-        <v>28.6</v>
+        <v>28.4</v>
       </c>
       <c r="D92" t="n">
-        <v>28.7</v>
+        <v>28.6</v>
       </c>
       <c r="E92" t="n">
-        <v>28.6</v>
+        <v>28.4</v>
       </c>
       <c r="F92" t="n">
-        <v>24567.7166</v>
+        <v>75012.9644</v>
       </c>
       <c r="G92" t="n">
-        <v>28.66</v>
+        <v>1204217.37838783</v>
       </c>
       <c r="H92" t="n">
-        <v>29.38500000000001</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>0</v>
-      </c>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr"/>
-      <c r="N92" t="n">
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4154,36 +4124,39 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>28.6</v>
+        <v>28.5</v>
       </c>
       <c r="C93" t="n">
         <v>28.5</v>
       </c>
       <c r="D93" t="n">
-        <v>28.6</v>
+        <v>28.7</v>
       </c>
       <c r="E93" t="n">
         <v>28.5</v>
       </c>
       <c r="F93" t="n">
-        <v>31266.8779</v>
+        <v>19757.4676</v>
       </c>
       <c r="G93" t="n">
-        <v>28.65333333333333</v>
+        <v>1223974.84598783</v>
       </c>
       <c r="H93" t="n">
-        <v>29.34833333333335</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>0</v>
-      </c>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr"/>
-      <c r="N93" t="n">
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4192,36 +4165,39 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>28.5</v>
+        <v>28.7</v>
       </c>
       <c r="C94" t="n">
-        <v>28.6</v>
+        <v>28.8</v>
       </c>
       <c r="D94" t="n">
-        <v>28.6</v>
+        <v>28.8</v>
       </c>
       <c r="E94" t="n">
-        <v>28.4</v>
+        <v>28.7</v>
       </c>
       <c r="F94" t="n">
-        <v>26646.2172</v>
+        <v>20</v>
       </c>
       <c r="G94" t="n">
-        <v>28.65333333333333</v>
+        <v>1223994.84598783</v>
       </c>
       <c r="H94" t="n">
-        <v>29.31333333333334</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>0</v>
-      </c>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr"/>
-      <c r="N94" t="n">
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4230,36 +4206,39 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>28.4</v>
+        <v>28.5</v>
       </c>
       <c r="C95" t="n">
-        <v>28.4</v>
+        <v>28.7</v>
       </c>
       <c r="D95" t="n">
-        <v>28.4</v>
+        <v>28.7</v>
       </c>
       <c r="E95" t="n">
-        <v>28.4</v>
+        <v>28.5</v>
       </c>
       <c r="F95" t="n">
-        <v>13116.8173</v>
+        <v>21825.0431</v>
       </c>
       <c r="G95" t="n">
-        <v>28.63333333333333</v>
+        <v>1202169.80288783</v>
       </c>
       <c r="H95" t="n">
-        <v>29.27000000000001</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>0</v>
-      </c>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr"/>
-      <c r="N95" t="n">
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4268,36 +4247,39 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>28.8</v>
+        <v>28.5</v>
       </c>
       <c r="C96" t="n">
-        <v>28.8</v>
+        <v>28.5</v>
       </c>
       <c r="D96" t="n">
-        <v>28.8</v>
+        <v>28.5</v>
       </c>
       <c r="E96" t="n">
-        <v>28.8</v>
+        <v>28.5</v>
       </c>
       <c r="F96" t="n">
-        <v>10</v>
+        <v>17604.7463</v>
       </c>
       <c r="G96" t="n">
-        <v>28.64</v>
+        <v>1184565.05658783</v>
       </c>
       <c r="H96" t="n">
-        <v>29.23500000000001</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>0</v>
-      </c>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr"/>
-      <c r="N96" t="n">
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4306,36 +4288,39 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>28.8</v>
+        <v>28.5</v>
       </c>
       <c r="C97" t="n">
-        <v>28.9</v>
+        <v>28.5</v>
       </c>
       <c r="D97" t="n">
-        <v>28.9</v>
+        <v>28.5</v>
       </c>
       <c r="E97" t="n">
-        <v>28.8</v>
+        <v>28.5</v>
       </c>
       <c r="F97" t="n">
-        <v>19207.6274</v>
+        <v>3562.2835</v>
       </c>
       <c r="G97" t="n">
-        <v>28.64</v>
+        <v>1184565.05658783</v>
       </c>
       <c r="H97" t="n">
-        <v>29.20500000000001</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>0</v>
-      </c>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr"/>
-      <c r="N97" t="n">
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4344,36 +4329,39 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="C98" t="n">
         <v>28.8</v>
-      </c>
-      <c r="C98" t="n">
-        <v>28.7</v>
       </c>
       <c r="D98" t="n">
         <v>28.8</v>
       </c>
       <c r="E98" t="n">
-        <v>28.7</v>
+        <v>28.6</v>
       </c>
       <c r="F98" t="n">
-        <v>6137.0619</v>
+        <v>86391.94439999999</v>
       </c>
       <c r="G98" t="n">
-        <v>28.62666666666667</v>
+        <v>1270957.00098783</v>
       </c>
       <c r="H98" t="n">
-        <v>29.16500000000001</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>0</v>
-      </c>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr"/>
-      <c r="N98" t="n">
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4382,36 +4370,39 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>28.9</v>
+        <v>28.8</v>
       </c>
       <c r="C99" t="n">
-        <v>28.9</v>
+        <v>28.8</v>
       </c>
       <c r="D99" t="n">
-        <v>28.9</v>
+        <v>28.8</v>
       </c>
       <c r="E99" t="n">
-        <v>28.9</v>
+        <v>28.8</v>
       </c>
       <c r="F99" t="n">
-        <v>10</v>
+        <v>24200.1388</v>
       </c>
       <c r="G99" t="n">
-        <v>28.64</v>
+        <v>1270957.00098783</v>
       </c>
       <c r="H99" t="n">
-        <v>29.12000000000002</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>0</v>
-      </c>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr"/>
-      <c r="N99" t="n">
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4420,36 +4411,39 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>28.7</v>
+        <v>28.8</v>
       </c>
       <c r="C100" t="n">
-        <v>28.7</v>
+        <v>29</v>
       </c>
       <c r="D100" t="n">
-        <v>28.7</v>
+        <v>29</v>
       </c>
       <c r="E100" t="n">
-        <v>28.7</v>
+        <v>28.8</v>
       </c>
       <c r="F100" t="n">
-        <v>9994.4566</v>
+        <v>65007.0162</v>
       </c>
       <c r="G100" t="n">
-        <v>28.62</v>
+        <v>1335964.01718783</v>
       </c>
       <c r="H100" t="n">
-        <v>29.08166666666668</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>0</v>
-      </c>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr"/>
-      <c r="N100" t="n">
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4458,36 +4452,39 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>28.6</v>
+        <v>28.8</v>
       </c>
       <c r="C101" t="n">
-        <v>28.4</v>
+        <v>28.5</v>
       </c>
       <c r="D101" t="n">
-        <v>28.6</v>
+        <v>28.8</v>
       </c>
       <c r="E101" t="n">
-        <v>28.4</v>
+        <v>28.5</v>
       </c>
       <c r="F101" t="n">
-        <v>157286.3835</v>
+        <v>68418.7372</v>
       </c>
       <c r="G101" t="n">
-        <v>28.62666666666666</v>
+        <v>1267545.27998783</v>
       </c>
       <c r="H101" t="n">
-        <v>29.04000000000002</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>0</v>
-      </c>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr"/>
-      <c r="N101" t="n">
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4496,36 +4493,39 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>28.7</v>
+        <v>28.4</v>
       </c>
       <c r="C102" t="n">
-        <v>28.7</v>
+        <v>28.4</v>
       </c>
       <c r="D102" t="n">
-        <v>28.7</v>
+        <v>28.4</v>
       </c>
       <c r="E102" t="n">
-        <v>28.7</v>
+        <v>28.4</v>
       </c>
       <c r="F102" t="n">
-        <v>10</v>
+        <v>45408.2704</v>
       </c>
       <c r="G102" t="n">
-        <v>28.65333333333333</v>
+        <v>1222137.00958783</v>
       </c>
       <c r="H102" t="n">
-        <v>29.02833333333335</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>0</v>
-      </c>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr"/>
-      <c r="N102" t="n">
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4534,36 +4534,39 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>28.5</v>
+        <v>28.7</v>
       </c>
       <c r="C103" t="n">
-        <v>28.5</v>
+        <v>28.7</v>
       </c>
       <c r="D103" t="n">
-        <v>28.5</v>
+        <v>28.7</v>
       </c>
       <c r="E103" t="n">
-        <v>28.5</v>
+        <v>28.7</v>
       </c>
       <c r="F103" t="n">
-        <v>38584.1642</v>
+        <v>10</v>
       </c>
       <c r="G103" t="n">
-        <v>28.65333333333333</v>
+        <v>1222147.00958783</v>
       </c>
       <c r="H103" t="n">
-        <v>29.00833333333335</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>0</v>
-      </c>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr"/>
-      <c r="N103" t="n">
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4572,36 +4575,39 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>28.7</v>
+        <v>28.3</v>
       </c>
       <c r="C104" t="n">
-        <v>28.7</v>
+        <v>28.6</v>
       </c>
       <c r="D104" t="n">
-        <v>28.7</v>
+        <v>28.6</v>
       </c>
       <c r="E104" t="n">
-        <v>28.7</v>
+        <v>28.3</v>
       </c>
       <c r="F104" t="n">
-        <v>10</v>
+        <v>42067.3375</v>
       </c>
       <c r="G104" t="n">
-        <v>28.65999999999999</v>
+        <v>1180079.67208783</v>
       </c>
       <c r="H104" t="n">
-        <v>28.98833333333335</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>0</v>
-      </c>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr"/>
-      <c r="N104" t="n">
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4610,36 +4616,39 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>28.5</v>
+        <v>28.4</v>
       </c>
       <c r="C105" t="n">
-        <v>28.6</v>
+        <v>28.3</v>
       </c>
       <c r="D105" t="n">
-        <v>28.6</v>
+        <v>28.4</v>
       </c>
       <c r="E105" t="n">
         <v>28.3</v>
       </c>
       <c r="F105" t="n">
-        <v>96606.9611</v>
+        <v>1656.4626</v>
       </c>
       <c r="G105" t="n">
-        <v>28.65999999999999</v>
+        <v>1178423.20948783</v>
       </c>
       <c r="H105" t="n">
-        <v>28.95833333333335</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>0</v>
-      </c>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr"/>
-      <c r="N105" t="n">
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4648,36 +4657,39 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>28.6</v>
+        <v>28.4</v>
       </c>
       <c r="C106" t="n">
-        <v>28.6</v>
+        <v>28.4</v>
       </c>
       <c r="D106" t="n">
-        <v>28.6</v>
+        <v>28.4</v>
       </c>
       <c r="E106" t="n">
-        <v>28.6</v>
+        <v>28.4</v>
       </c>
       <c r="F106" t="n">
-        <v>6285.8838</v>
+        <v>11</v>
       </c>
       <c r="G106" t="n">
-        <v>28.63999999999999</v>
+        <v>1178434.20948783</v>
       </c>
       <c r="H106" t="n">
-        <v>28.93666666666667</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>0</v>
-      </c>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr"/>
-      <c r="N106" t="n">
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4686,36 +4698,39 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>28.7</v>
+        <v>28.3</v>
       </c>
       <c r="C107" t="n">
-        <v>28.7</v>
+        <v>28.6</v>
       </c>
       <c r="D107" t="n">
-        <v>28.7</v>
+        <v>28.6</v>
       </c>
       <c r="E107" t="n">
-        <v>28.7</v>
+        <v>28.3</v>
       </c>
       <c r="F107" t="n">
-        <v>10</v>
+        <v>17945.3715</v>
       </c>
       <c r="G107" t="n">
-        <v>28.64666666666666</v>
+        <v>1196379.58098783</v>
       </c>
       <c r="H107" t="n">
-        <v>28.91500000000001</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>0</v>
-      </c>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr"/>
-      <c r="N107" t="n">
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4736,24 +4751,27 @@
         <v>28.6</v>
       </c>
       <c r="F108" t="n">
-        <v>4995.5845</v>
+        <v>6954.8851</v>
       </c>
       <c r="G108" t="n">
-        <v>28.65333333333333</v>
+        <v>1196379.58098783</v>
       </c>
       <c r="H108" t="n">
-        <v>28.88833333333334</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>0</v>
-      </c>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr"/>
-      <c r="N108" t="n">
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4762,36 +4780,39 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>28.6</v>
+        <v>28.7</v>
       </c>
       <c r="C109" t="n">
-        <v>28.3</v>
+        <v>28.7</v>
       </c>
       <c r="D109" t="n">
-        <v>28.6</v>
+        <v>28.7</v>
       </c>
       <c r="E109" t="n">
-        <v>28.3</v>
+        <v>28.7</v>
       </c>
       <c r="F109" t="n">
-        <v>41236.07</v>
+        <v>11</v>
       </c>
       <c r="G109" t="n">
-        <v>28.63333333333333</v>
+        <v>1196390.58098783</v>
       </c>
       <c r="H109" t="n">
-        <v>28.85666666666667</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>0</v>
-      </c>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="inlineStr"/>
-      <c r="N109" t="n">
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4800,36 +4821,39 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>28.6</v>
+        <v>28.7</v>
       </c>
       <c r="C110" t="n">
-        <v>28.6</v>
+        <v>28.7</v>
       </c>
       <c r="D110" t="n">
-        <v>28.6</v>
+        <v>28.7</v>
       </c>
       <c r="E110" t="n">
-        <v>28.6</v>
+        <v>28.7</v>
       </c>
       <c r="F110" t="n">
-        <v>30</v>
+        <v>40884.425</v>
       </c>
       <c r="G110" t="n">
-        <v>28.64666666666666</v>
+        <v>1196390.58098783</v>
       </c>
       <c r="H110" t="n">
-        <v>28.83333333333334</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>0</v>
-      </c>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="inlineStr"/>
-      <c r="N110" t="n">
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4838,36 +4862,39 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>28.4</v>
+        <v>28.7</v>
       </c>
       <c r="C111" t="n">
-        <v>28.6</v>
+        <v>28.9</v>
       </c>
       <c r="D111" t="n">
-        <v>28.6</v>
+        <v>28.9</v>
       </c>
       <c r="E111" t="n">
-        <v>28.4</v>
+        <v>28.7</v>
       </c>
       <c r="F111" t="n">
-        <v>26501.3315</v>
+        <v>33171.6892</v>
       </c>
       <c r="G111" t="n">
-        <v>28.63333333333333</v>
+        <v>1229562.27018783</v>
       </c>
       <c r="H111" t="n">
-        <v>28.80833333333334</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>0</v>
-      </c>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="inlineStr"/>
-      <c r="N111" t="n">
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4876,36 +4903,39 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>28.4</v>
+        <v>28.9</v>
       </c>
       <c r="C112" t="n">
-        <v>28.4</v>
+        <v>28.9</v>
       </c>
       <c r="D112" t="n">
-        <v>28.4</v>
+        <v>28.9</v>
       </c>
       <c r="E112" t="n">
-        <v>28.4</v>
+        <v>28.9</v>
       </c>
       <c r="F112" t="n">
-        <v>535.4866</v>
+        <v>11135.8153</v>
       </c>
       <c r="G112" t="n">
-        <v>28.6</v>
+        <v>1229562.27018783</v>
       </c>
       <c r="H112" t="n">
-        <v>28.78166666666667</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>0</v>
-      </c>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="inlineStr"/>
-      <c r="N112" t="n">
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4914,37 +4944,40 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>28.4</v>
+        <v>28.8</v>
       </c>
       <c r="C113" t="n">
-        <v>28.4</v>
+        <v>28.7</v>
       </c>
       <c r="D113" t="n">
-        <v>28.4</v>
+        <v>28.8</v>
       </c>
       <c r="E113" t="n">
-        <v>28.4</v>
+        <v>28.7</v>
       </c>
       <c r="F113" t="n">
-        <v>19679.6801</v>
+        <v>49274.0577</v>
       </c>
       <c r="G113" t="n">
-        <v>28.57999999999999</v>
+        <v>1180288.21248783</v>
       </c>
       <c r="H113" t="n">
-        <v>28.765</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="n">
-        <v>0</v>
-      </c>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="inlineStr"/>
-      <c r="N113" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
+        <v>1.023673835125448</v>
       </c>
     </row>
     <row r="114">
@@ -4952,36 +4985,33 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>28.5</v>
+        <v>29</v>
       </c>
       <c r="C114" t="n">
-        <v>28.6</v>
+        <v>29</v>
       </c>
       <c r="D114" t="n">
-        <v>28.6</v>
+        <v>29</v>
       </c>
       <c r="E114" t="n">
-        <v>28.4</v>
+        <v>29</v>
       </c>
       <c r="F114" t="n">
-        <v>59300.735</v>
+        <v>10</v>
       </c>
       <c r="G114" t="n">
-        <v>28.56</v>
+        <v>1180298.21248783</v>
       </c>
       <c r="H114" t="n">
-        <v>28.745</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>0</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="inlineStr"/>
-      <c r="N114" t="n">
+      <c r="M114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4990,36 +5020,33 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>28.4</v>
+        <v>28.7</v>
       </c>
       <c r="C115" t="n">
         <v>28.3</v>
       </c>
       <c r="D115" t="n">
-        <v>28.4</v>
+        <v>28.7</v>
       </c>
       <c r="E115" t="n">
         <v>28.3</v>
       </c>
       <c r="F115" t="n">
-        <v>25245.9127</v>
+        <v>27265.1397</v>
       </c>
       <c r="G115" t="n">
-        <v>28.53333333333333</v>
+        <v>1153033.07278783</v>
       </c>
       <c r="H115" t="n">
-        <v>28.72000000000001</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="inlineStr"/>
-      <c r="N115" t="n">
+      <c r="M115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5028,36 +5055,33 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>28.5</v>
+        <v>28.3</v>
       </c>
       <c r="C116" t="n">
-        <v>28.5</v>
+        <v>28.3</v>
       </c>
       <c r="D116" t="n">
-        <v>28.5</v>
+        <v>28.3</v>
       </c>
       <c r="E116" t="n">
-        <v>28.5</v>
+        <v>28.3</v>
       </c>
       <c r="F116" t="n">
-        <v>84.8034</v>
+        <v>14849.8078</v>
       </c>
       <c r="G116" t="n">
-        <v>28.54</v>
+        <v>1153033.07278783</v>
       </c>
       <c r="H116" t="n">
-        <v>28.69666666666667</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="inlineStr"/>
-      <c r="N116" t="n">
+      <c r="M116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5066,7 +5090,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>28.3</v>
+        <v>28.5</v>
       </c>
       <c r="C117" t="n">
         <v>28.5</v>
@@ -5075,27 +5099,24 @@
         <v>28.5</v>
       </c>
       <c r="E117" t="n">
-        <v>28.3</v>
+        <v>28.5</v>
       </c>
       <c r="F117" t="n">
-        <v>1600.106</v>
+        <v>9000</v>
       </c>
       <c r="G117" t="n">
-        <v>28.52666666666667</v>
+        <v>1162033.07278783</v>
       </c>
       <c r="H117" t="n">
-        <v>28.67333333333334</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
-      <c r="N117" t="n">
+      <c r="M117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5107,33 +5128,30 @@
         <v>28.5</v>
       </c>
       <c r="C118" t="n">
-        <v>28.5</v>
+        <v>28.6</v>
       </c>
       <c r="D118" t="n">
-        <v>28.5</v>
+        <v>28.6</v>
       </c>
       <c r="E118" t="n">
         <v>28.5</v>
       </c>
       <c r="F118" t="n">
-        <v>10</v>
+        <v>23318.8709</v>
       </c>
       <c r="G118" t="n">
-        <v>28.52666666666667</v>
+        <v>1185351.94368783</v>
       </c>
       <c r="H118" t="n">
-        <v>28.65333333333333</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="inlineStr"/>
-      <c r="N118" t="n">
+      <c r="M118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5142,36 +5160,33 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>28.4</v>
+        <v>28.6</v>
       </c>
       <c r="C119" t="n">
-        <v>28.5</v>
+        <v>28.6</v>
       </c>
       <c r="D119" t="n">
-        <v>28.5</v>
+        <v>28.6</v>
       </c>
       <c r="E119" t="n">
-        <v>28.3</v>
+        <v>28.6</v>
       </c>
       <c r="F119" t="n">
-        <v>20876.5047</v>
+        <v>4148.559</v>
       </c>
       <c r="G119" t="n">
-        <v>28.51333333333334</v>
+        <v>1185351.94368783</v>
       </c>
       <c r="H119" t="n">
-        <v>28.63333333333333</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="inlineStr"/>
-      <c r="N119" t="n">
+      <c r="M119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5180,36 +5195,33 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>28.3</v>
+        <v>28.9</v>
       </c>
       <c r="C120" t="n">
-        <v>28.3</v>
+        <v>28.9</v>
       </c>
       <c r="D120" t="n">
-        <v>28.3</v>
+        <v>28.9</v>
       </c>
       <c r="E120" t="n">
-        <v>28.3</v>
+        <v>28.9</v>
       </c>
       <c r="F120" t="n">
-        <v>24139.6384</v>
+        <v>10</v>
       </c>
       <c r="G120" t="n">
-        <v>28.49333333333334</v>
+        <v>1185361.94368783</v>
       </c>
       <c r="H120" t="n">
-        <v>28.615</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>0</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="inlineStr"/>
-      <c r="N120" t="n">
+      <c r="M120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5218,36 +5230,33 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>28.5</v>
+        <v>28.7</v>
       </c>
       <c r="C121" t="n">
-        <v>28.5</v>
+        <v>28.6</v>
       </c>
       <c r="D121" t="n">
-        <v>28.5</v>
+        <v>28.7</v>
       </c>
       <c r="E121" t="n">
-        <v>28.5</v>
+        <v>28.6</v>
       </c>
       <c r="F121" t="n">
-        <v>10</v>
+        <v>24567.7166</v>
       </c>
       <c r="G121" t="n">
-        <v>28.48666666666667</v>
+        <v>1160794.22708783</v>
       </c>
       <c r="H121" t="n">
-        <v>28.60666666666667</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="inlineStr"/>
-      <c r="N121" t="n">
+      <c r="M121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5256,36 +5265,33 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>28.3</v>
+        <v>28.6</v>
       </c>
       <c r="C122" t="n">
         <v>28.5</v>
       </c>
       <c r="D122" t="n">
-        <v>28.5</v>
+        <v>28.6</v>
       </c>
       <c r="E122" t="n">
-        <v>28.3</v>
+        <v>28.5</v>
       </c>
       <c r="F122" t="n">
-        <v>20.7609</v>
+        <v>31266.8779</v>
       </c>
       <c r="G122" t="n">
-        <v>28.47333333333334</v>
+        <v>1129527.34918783</v>
       </c>
       <c r="H122" t="n">
-        <v>28.59333333333333</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="inlineStr"/>
-      <c r="N122" t="n">
+      <c r="M122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5294,36 +5300,33 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>28.4</v>
+        <v>28.5</v>
       </c>
       <c r="C123" t="n">
-        <v>28.5</v>
+        <v>28.6</v>
       </c>
       <c r="D123" t="n">
-        <v>28.5</v>
+        <v>28.6</v>
       </c>
       <c r="E123" t="n">
         <v>28.4</v>
       </c>
       <c r="F123" t="n">
-        <v>20</v>
+        <v>26646.2172</v>
       </c>
       <c r="G123" t="n">
-        <v>28.46666666666667</v>
+        <v>1156173.56638783</v>
       </c>
       <c r="H123" t="n">
-        <v>28.595</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
-        <v>0</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="inlineStr"/>
-      <c r="N123" t="n">
+      <c r="M123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5332,36 +5335,33 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>28.5</v>
+        <v>28.4</v>
       </c>
       <c r="C124" t="n">
-        <v>28.6</v>
+        <v>28.4</v>
       </c>
       <c r="D124" t="n">
-        <v>28.7</v>
+        <v>28.4</v>
       </c>
       <c r="E124" t="n">
-        <v>28.5</v>
+        <v>28.4</v>
       </c>
       <c r="F124" t="n">
-        <v>32686.0298</v>
+        <v>13116.8173</v>
       </c>
       <c r="G124" t="n">
-        <v>28.48666666666667</v>
+        <v>1143056.74908783</v>
       </c>
       <c r="H124" t="n">
-        <v>28.59666666666666</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
-        <v>0</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="inlineStr"/>
-      <c r="N124" t="n">
+      <c r="M124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5373,33 +5373,30 @@
         <v>28.8</v>
       </c>
       <c r="C125" t="n">
-        <v>29</v>
+        <v>28.8</v>
       </c>
       <c r="D125" t="n">
-        <v>29</v>
+        <v>28.8</v>
       </c>
       <c r="E125" t="n">
         <v>28.8</v>
       </c>
       <c r="F125" t="n">
-        <v>42860.1649</v>
+        <v>10</v>
       </c>
       <c r="G125" t="n">
-        <v>28.51333333333333</v>
+        <v>1143066.74908783</v>
       </c>
       <c r="H125" t="n">
-        <v>28.6</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="n">
-        <v>0</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="inlineStr"/>
-      <c r="N125" t="n">
+      <c r="M125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5408,36 +5405,33 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>29.1</v>
+        <v>28.8</v>
       </c>
       <c r="C126" t="n">
-        <v>29.2</v>
+        <v>28.9</v>
       </c>
       <c r="D126" t="n">
-        <v>29.2</v>
+        <v>28.9</v>
       </c>
       <c r="E126" t="n">
-        <v>29.1</v>
+        <v>28.8</v>
       </c>
       <c r="F126" t="n">
-        <v>30573.0687</v>
+        <v>19207.6274</v>
       </c>
       <c r="G126" t="n">
-        <v>28.55333333333333</v>
+        <v>1162274.37648783</v>
       </c>
       <c r="H126" t="n">
-        <v>28.60833333333333</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
-        <v>0</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="inlineStr"/>
-      <c r="N126" t="n">
+      <c r="M126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5446,36 +5440,33 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>29.2</v>
+        <v>28.8</v>
       </c>
       <c r="C127" t="n">
-        <v>29.1</v>
+        <v>28.7</v>
       </c>
       <c r="D127" t="n">
-        <v>29.2</v>
+        <v>28.8</v>
       </c>
       <c r="E127" t="n">
-        <v>29.1</v>
+        <v>28.7</v>
       </c>
       <c r="F127" t="n">
-        <v>75139.72040000001</v>
+        <v>6137.0619</v>
       </c>
       <c r="G127" t="n">
-        <v>28.6</v>
+        <v>1156137.31458783</v>
       </c>
       <c r="H127" t="n">
-        <v>28.61833333333333</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="inlineStr"/>
-      <c r="N127" t="n">
+      <c r="M127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5484,36 +5475,33 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>29.1</v>
+        <v>28.9</v>
       </c>
       <c r="C128" t="n">
-        <v>29.1</v>
+        <v>28.9</v>
       </c>
       <c r="D128" t="n">
-        <v>29.1</v>
+        <v>28.9</v>
       </c>
       <c r="E128" t="n">
-        <v>29.1</v>
+        <v>28.9</v>
       </c>
       <c r="F128" t="n">
-        <v>6193.567</v>
+        <v>10</v>
       </c>
       <c r="G128" t="n">
-        <v>28.64666666666667</v>
+        <v>1156147.31458783</v>
       </c>
       <c r="H128" t="n">
-        <v>28.62833333333333</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="inlineStr"/>
-      <c r="N128" t="n">
+      <c r="M128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5522,36 +5510,33 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>28.9</v>
+        <v>28.7</v>
       </c>
       <c r="C129" t="n">
-        <v>29</v>
+        <v>28.7</v>
       </c>
       <c r="D129" t="n">
-        <v>29</v>
+        <v>28.7</v>
       </c>
       <c r="E129" t="n">
-        <v>28.4</v>
+        <v>28.7</v>
       </c>
       <c r="F129" t="n">
-        <v>84935.41439999999</v>
+        <v>9994.4566</v>
       </c>
       <c r="G129" t="n">
-        <v>28.67333333333334</v>
+        <v>1146152.85798783</v>
       </c>
       <c r="H129" t="n">
-        <v>28.63166666666666</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="inlineStr"/>
-      <c r="N129" t="n">
+      <c r="M129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5563,33 +5548,30 @@
         <v>28.6</v>
       </c>
       <c r="C130" t="n">
-        <v>28.5</v>
+        <v>28.4</v>
       </c>
       <c r="D130" t="n">
         <v>28.6</v>
       </c>
       <c r="E130" t="n">
-        <v>28.5</v>
+        <v>28.4</v>
       </c>
       <c r="F130" t="n">
-        <v>30502.7288</v>
+        <v>157286.3835</v>
       </c>
       <c r="G130" t="n">
-        <v>28.68666666666667</v>
+        <v>988866.4744878304</v>
       </c>
       <c r="H130" t="n">
-        <v>28.62666666666666</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="inlineStr"/>
-      <c r="N130" t="n">
+      <c r="M130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5598,36 +5580,33 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>28.5</v>
+        <v>28.7</v>
       </c>
       <c r="C131" t="n">
-        <v>29</v>
+        <v>28.7</v>
       </c>
       <c r="D131" t="n">
-        <v>29</v>
+        <v>28.7</v>
       </c>
       <c r="E131" t="n">
-        <v>28.5</v>
+        <v>28.7</v>
       </c>
       <c r="F131" t="n">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="G131" t="n">
-        <v>28.72</v>
+        <v>988876.4744878304</v>
       </c>
       <c r="H131" t="n">
-        <v>28.62666666666666</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="n">
-        <v>0</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="inlineStr"/>
-      <c r="N131" t="n">
+      <c r="M131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5636,36 +5615,33 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>29</v>
+        <v>28.5</v>
       </c>
       <c r="C132" t="n">
-        <v>29</v>
+        <v>28.5</v>
       </c>
       <c r="D132" t="n">
-        <v>29</v>
+        <v>28.5</v>
       </c>
       <c r="E132" t="n">
-        <v>29</v>
+        <v>28.5</v>
       </c>
       <c r="F132" t="n">
-        <v>3448.27586206</v>
+        <v>38584.1642</v>
       </c>
       <c r="G132" t="n">
-        <v>28.75333333333333</v>
+        <v>950292.3102878304</v>
       </c>
       <c r="H132" t="n">
-        <v>28.63499999999999</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="n">
-        <v>0</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="inlineStr"/>
-      <c r="N132" t="n">
+      <c r="M132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5674,36 +5650,33 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>29.1</v>
+        <v>28.7</v>
       </c>
       <c r="C133" t="n">
-        <v>29.3</v>
+        <v>28.7</v>
       </c>
       <c r="D133" t="n">
-        <v>29.3</v>
+        <v>28.7</v>
       </c>
       <c r="E133" t="n">
-        <v>29.1</v>
+        <v>28.7</v>
       </c>
       <c r="F133" t="n">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="G133" t="n">
-        <v>28.80666666666667</v>
+        <v>950302.3102878304</v>
       </c>
       <c r="H133" t="n">
-        <v>28.64999999999999</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="n">
-        <v>0</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="inlineStr"/>
-      <c r="N133" t="n">
+      <c r="M133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5712,36 +5685,33 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>28.9</v>
+        <v>28.5</v>
       </c>
       <c r="C134" t="n">
         <v>28.6</v>
       </c>
       <c r="D134" t="n">
-        <v>28.9</v>
+        <v>28.6</v>
       </c>
       <c r="E134" t="n">
-        <v>28.6</v>
+        <v>28.3</v>
       </c>
       <c r="F134" t="n">
-        <v>88534.2971</v>
+        <v>96606.9611</v>
       </c>
       <c r="G134" t="n">
-        <v>28.81333333333334</v>
+        <v>853695.3491878305</v>
       </c>
       <c r="H134" t="n">
-        <v>28.64833333333332</v>
+        <v>0</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="n">
-        <v>0</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="inlineStr"/>
-      <c r="N134" t="n">
+      <c r="M134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5750,36 +5720,33 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>28.7</v>
+        <v>28.6</v>
       </c>
       <c r="C135" t="n">
-        <v>28.7</v>
+        <v>28.6</v>
       </c>
       <c r="D135" t="n">
-        <v>28.7</v>
+        <v>28.6</v>
       </c>
       <c r="E135" t="n">
-        <v>28.7</v>
+        <v>28.6</v>
       </c>
       <c r="F135" t="n">
-        <v>3199.1245</v>
+        <v>6285.8838</v>
       </c>
       <c r="G135" t="n">
-        <v>28.84</v>
+        <v>853695.3491878305</v>
       </c>
       <c r="H135" t="n">
-        <v>28.64999999999999</v>
+        <v>0</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="n">
-        <v>0</v>
-      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="inlineStr"/>
-      <c r="N135" t="n">
+      <c r="M135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5800,24 +5767,21 @@
         <v>28.7</v>
       </c>
       <c r="F136" t="n">
-        <v>54.4686</v>
+        <v>10</v>
       </c>
       <c r="G136" t="n">
-        <v>28.85333333333334</v>
+        <v>853705.3491878305</v>
       </c>
       <c r="H136" t="n">
-        <v>28.65666666666666</v>
+        <v>0</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="n">
-        <v>0</v>
-      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="inlineStr"/>
-      <c r="N136" t="n">
+      <c r="M136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5826,36 +5790,33 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>28.8</v>
+        <v>28.6</v>
       </c>
       <c r="C137" t="n">
-        <v>28.7</v>
+        <v>28.6</v>
       </c>
       <c r="D137" t="n">
-        <v>29.1</v>
+        <v>28.6</v>
       </c>
       <c r="E137" t="n">
-        <v>28.7</v>
+        <v>28.6</v>
       </c>
       <c r="F137" t="n">
-        <v>4250.5827</v>
+        <v>4995.5845</v>
       </c>
       <c r="G137" t="n">
-        <v>28.86666666666667</v>
+        <v>848709.7646878305</v>
       </c>
       <c r="H137" t="n">
-        <v>28.66166666666666</v>
+        <v>0</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="n">
-        <v>0</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="inlineStr"/>
-      <c r="N137" t="n">
+      <c r="M137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5864,36 +5825,33 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>29.1</v>
+        <v>28.6</v>
       </c>
       <c r="C138" t="n">
-        <v>29.1</v>
+        <v>28.3</v>
       </c>
       <c r="D138" t="n">
-        <v>29.1</v>
+        <v>28.6</v>
       </c>
       <c r="E138" t="n">
-        <v>29.1</v>
+        <v>28.3</v>
       </c>
       <c r="F138" t="n">
-        <v>11</v>
+        <v>41236.07</v>
       </c>
       <c r="G138" t="n">
-        <v>28.90666666666667</v>
+        <v>807473.6946878305</v>
       </c>
       <c r="H138" t="n">
-        <v>28.66999999999999</v>
+        <v>0</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="n">
-        <v>0</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
-      <c r="M138" t="inlineStr"/>
-      <c r="N138" t="n">
+      <c r="M138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5905,33 +5863,30 @@
         <v>28.6</v>
       </c>
       <c r="C139" t="n">
-        <v>28.5</v>
+        <v>28.6</v>
       </c>
       <c r="D139" t="n">
         <v>28.6</v>
       </c>
       <c r="E139" t="n">
-        <v>28.5</v>
+        <v>28.6</v>
       </c>
       <c r="F139" t="n">
-        <v>31610.0671</v>
+        <v>30</v>
       </c>
       <c r="G139" t="n">
-        <v>28.9</v>
+        <v>807503.6946878305</v>
       </c>
       <c r="H139" t="n">
-        <v>28.66833333333333</v>
+        <v>0</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="n">
-        <v>0</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
-      <c r="M139" t="inlineStr"/>
-      <c r="N139" t="n">
+      <c r="M139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5940,36 +5895,33 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>28.5</v>
+        <v>28.4</v>
       </c>
       <c r="C140" t="n">
-        <v>28.5</v>
+        <v>28.6</v>
       </c>
       <c r="D140" t="n">
-        <v>28.5</v>
+        <v>28.6</v>
       </c>
       <c r="E140" t="n">
-        <v>28.5</v>
+        <v>28.4</v>
       </c>
       <c r="F140" t="n">
-        <v>107.9649</v>
+        <v>26501.3315</v>
       </c>
       <c r="G140" t="n">
-        <v>28.86666666666667</v>
+        <v>807503.6946878305</v>
       </c>
       <c r="H140" t="n">
-        <v>28.665</v>
+        <v>0</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="n">
-        <v>0</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
-      <c r="M140" t="inlineStr"/>
-      <c r="N140" t="n">
+      <c r="M140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5978,36 +5930,33 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>28.2</v>
+        <v>28.4</v>
       </c>
       <c r="C141" t="n">
-        <v>28.2</v>
+        <v>28.4</v>
       </c>
       <c r="D141" t="n">
-        <v>28.2</v>
+        <v>28.4</v>
       </c>
       <c r="E141" t="n">
-        <v>28.2</v>
+        <v>28.4</v>
       </c>
       <c r="F141" t="n">
-        <v>51394.4285</v>
+        <v>535.4866</v>
       </c>
       <c r="G141" t="n">
-        <v>28.8</v>
+        <v>806968.2080878306</v>
       </c>
       <c r="H141" t="n">
-        <v>28.65666666666666</v>
+        <v>0</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="n">
-        <v>0</v>
-      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
-      <c r="M141" t="inlineStr"/>
-      <c r="N141" t="n">
+      <c r="M141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6016,36 +5965,1048 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>28.5</v>
+        <v>28.4</v>
       </c>
       <c r="C142" t="n">
-        <v>28.5</v>
+        <v>28.4</v>
       </c>
       <c r="D142" t="n">
-        <v>28.5</v>
+        <v>28.4</v>
       </c>
       <c r="E142" t="n">
-        <v>28.5</v>
+        <v>28.4</v>
       </c>
       <c r="F142" t="n">
-        <v>11</v>
+        <v>19679.6801</v>
       </c>
       <c r="G142" t="n">
-        <v>28.76</v>
+        <v>806968.2080878306</v>
       </c>
       <c r="H142" t="n">
-        <v>28.64999999999999</v>
+        <v>0</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="n">
-        <v>0</v>
-      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
-      <c r="M142" t="inlineStr"/>
-      <c r="N142" t="n">
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="C143" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="D143" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="E143" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="F143" t="n">
+        <v>59300.735</v>
+      </c>
+      <c r="G143" t="n">
+        <v>866268.9430878306</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="C144" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="D144" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="E144" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="F144" t="n">
+        <v>25245.9127</v>
+      </c>
+      <c r="G144" t="n">
+        <v>841023.0303878306</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="C145" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="D145" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="E145" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="F145" t="n">
+        <v>84.8034</v>
+      </c>
+      <c r="G145" t="n">
+        <v>841107.8337878305</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="C146" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="D146" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="E146" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="F146" t="n">
+        <v>1600.106</v>
+      </c>
+      <c r="G146" t="n">
+        <v>841107.8337878305</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="C147" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="D147" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="E147" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="F147" t="n">
+        <v>10</v>
+      </c>
+      <c r="G147" t="n">
+        <v>841107.8337878305</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="C148" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="D148" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="E148" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="F148" t="n">
+        <v>20876.5047</v>
+      </c>
+      <c r="G148" t="n">
+        <v>841107.8337878305</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="C149" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="D149" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="E149" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="F149" t="n">
+        <v>24139.6384</v>
+      </c>
+      <c r="G149" t="n">
+        <v>816968.1953878305</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="C150" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="D150" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="E150" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="F150" t="n">
+        <v>10</v>
+      </c>
+      <c r="G150" t="n">
+        <v>816978.1953878305</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="C151" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="D151" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="E151" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="F151" t="n">
+        <v>20.7609</v>
+      </c>
+      <c r="G151" t="n">
+        <v>816978.1953878305</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="C152" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="D152" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="E152" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="F152" t="n">
+        <v>20</v>
+      </c>
+      <c r="G152" t="n">
+        <v>816978.1953878305</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="C153" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="D153" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="E153" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="F153" t="n">
+        <v>32686.0298</v>
+      </c>
+      <c r="G153" t="n">
+        <v>849664.2251878305</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="C154" t="n">
+        <v>29</v>
+      </c>
+      <c r="D154" t="n">
+        <v>29</v>
+      </c>
+      <c r="E154" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="F154" t="n">
+        <v>42860.1649</v>
+      </c>
+      <c r="G154" t="n">
+        <v>892524.3900878305</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="C155" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="D155" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="E155" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="F155" t="n">
+        <v>30573.0687</v>
+      </c>
+      <c r="G155" t="n">
+        <v>923097.4587878304</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="C156" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="D156" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="E156" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="F156" t="n">
+        <v>75139.72040000001</v>
+      </c>
+      <c r="G156" t="n">
+        <v>847957.7383878304</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="C157" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="D157" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="E157" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="F157" t="n">
+        <v>6193.567</v>
+      </c>
+      <c r="G157" t="n">
+        <v>847957.7383878304</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="C158" t="n">
+        <v>29</v>
+      </c>
+      <c r="D158" t="n">
+        <v>29</v>
+      </c>
+      <c r="E158" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="F158" t="n">
+        <v>84935.41439999999</v>
+      </c>
+      <c r="G158" t="n">
+        <v>763022.3239878304</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="C159" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="D159" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="E159" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="F159" t="n">
+        <v>30502.7288</v>
+      </c>
+      <c r="G159" t="n">
+        <v>732519.5951878304</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="C160" t="n">
+        <v>29</v>
+      </c>
+      <c r="D160" t="n">
+        <v>29</v>
+      </c>
+      <c r="E160" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="F160" t="n">
+        <v>121</v>
+      </c>
+      <c r="G160" t="n">
+        <v>732640.5951878304</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>29</v>
+      </c>
+      <c r="C161" t="n">
+        <v>29</v>
+      </c>
+      <c r="D161" t="n">
+        <v>29</v>
+      </c>
+      <c r="E161" t="n">
+        <v>29</v>
+      </c>
+      <c r="F161" t="n">
+        <v>3448.27586206</v>
+      </c>
+      <c r="G161" t="n">
+        <v>732640.5951878304</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="C162" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="D162" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="E162" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="F162" t="n">
+        <v>33</v>
+      </c>
+      <c r="G162" t="n">
+        <v>732673.5951878304</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="C163" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="D163" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="E163" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="F163" t="n">
+        <v>88534.2971</v>
+      </c>
+      <c r="G163" t="n">
+        <v>644139.2980878304</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="C164" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="D164" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="E164" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="F164" t="n">
+        <v>3199.1245</v>
+      </c>
+      <c r="G164" t="n">
+        <v>647338.4225878305</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="C165" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="D165" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="E165" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="F165" t="n">
+        <v>54.4686</v>
+      </c>
+      <c r="G165" t="n">
+        <v>647338.4225878305</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="C166" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="D166" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="E166" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="F166" t="n">
+        <v>4250.5827</v>
+      </c>
+      <c r="G166" t="n">
+        <v>647338.4225878305</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="C167" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="D167" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="E167" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="F167" t="n">
+        <v>11</v>
+      </c>
+      <c r="G167" t="n">
+        <v>647349.4225878305</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="C168" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="D168" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="E168" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="F168" t="n">
+        <v>31610.0671</v>
+      </c>
+      <c r="G168" t="n">
+        <v>615739.3554878305</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="C169" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="D169" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="E169" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="F169" t="n">
+        <v>107.9649</v>
+      </c>
+      <c r="G169" t="n">
+        <v>615739.3554878305</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="C170" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="D170" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="E170" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="F170" t="n">
+        <v>51394.4285</v>
+      </c>
+      <c r="G170" t="n">
+        <v>564344.9269878304</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="C171" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="D171" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="E171" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="F171" t="n">
+        <v>11</v>
+      </c>
+      <c r="G171" t="n">
+        <v>564355.9269878304</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-11-02 BackTest CHR.xlsx
+++ b/BackTest/2019-11-02 BackTest CHR.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M171"/>
+  <dimension ref="A1:N129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,31 +427,36 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>27.1</v>
+        <v>28</v>
       </c>
       <c r="C2" t="n">
-        <v>27.1</v>
+        <v>28</v>
       </c>
       <c r="D2" t="n">
-        <v>27.1</v>
+        <v>28</v>
       </c>
       <c r="E2" t="n">
-        <v>27.1</v>
+        <v>28</v>
       </c>
       <c r="F2" t="n">
-        <v>3480</v>
+        <v>42.7856</v>
       </c>
       <c r="G2" t="n">
-        <v>62451.25042728</v>
+        <v>116006.50062728</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -462,6 +467,7 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -471,207 +477,249 @@
         <v>27.6</v>
       </c>
       <c r="C3" t="n">
-        <v>27.6</v>
+        <v>27.9</v>
       </c>
       <c r="D3" t="n">
-        <v>27.6</v>
+        <v>27.9</v>
       </c>
       <c r="E3" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="F3" t="n">
-        <v>11</v>
+        <v>102973.0884</v>
       </c>
       <c r="G3" t="n">
-        <v>62462.25042728</v>
+        <v>13033.41222727996</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>28</v>
+      </c>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>27.1</v>
+        <v>27.5</v>
       </c>
       <c r="C4" t="n">
-        <v>27</v>
+        <v>27.9</v>
       </c>
       <c r="D4" t="n">
-        <v>27.1</v>
+        <v>27.9</v>
       </c>
       <c r="E4" t="n">
-        <v>27</v>
+        <v>27.2</v>
       </c>
       <c r="F4" t="n">
-        <v>45266.088</v>
+        <v>53107.9369</v>
       </c>
       <c r="G4" t="n">
-        <v>17196.16242728</v>
+        <v>13033.41222727996</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>27.9</v>
+      </c>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>27.6</v>
+        <v>27.9</v>
       </c>
       <c r="C5" t="n">
-        <v>27.8</v>
+        <v>28</v>
       </c>
       <c r="D5" t="n">
-        <v>27.8</v>
+        <v>28</v>
       </c>
       <c r="E5" t="n">
-        <v>27.6</v>
+        <v>27.9</v>
       </c>
       <c r="F5" t="n">
-        <v>345.0359</v>
+        <v>51394.4285</v>
       </c>
       <c r="G5" t="n">
-        <v>17541.19832728</v>
+        <v>64427.84072727996</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>27.9</v>
+      </c>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>27.7</v>
+        <v>28</v>
       </c>
       <c r="C6" t="n">
-        <v>27.7</v>
+        <v>28.3</v>
       </c>
       <c r="D6" t="n">
-        <v>27.7</v>
+        <v>28.3</v>
       </c>
       <c r="E6" t="n">
-        <v>27.7</v>
+        <v>28</v>
       </c>
       <c r="F6" t="n">
-        <v>125.7761</v>
+        <v>7337.9707</v>
       </c>
       <c r="G6" t="n">
-        <v>17415.42222728</v>
+        <v>71765.81142727996</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>28</v>
+      </c>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>27.6</v>
+        <v>28</v>
       </c>
       <c r="C7" t="n">
-        <v>27.9</v>
+        <v>28</v>
       </c>
       <c r="D7" t="n">
-        <v>27.9</v>
+        <v>28</v>
       </c>
       <c r="E7" t="n">
-        <v>27.6</v>
+        <v>28</v>
       </c>
       <c r="F7" t="n">
-        <v>49387.0792</v>
+        <v>16.5167</v>
       </c>
       <c r="G7" t="n">
-        <v>66802.50142727999</v>
+        <v>71749.29472727996</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>28.3</v>
+      </c>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>27.9</v>
+        <v>28.3</v>
       </c>
       <c r="C8" t="n">
-        <v>27.9</v>
+        <v>28.3</v>
       </c>
       <c r="D8" t="n">
-        <v>27.9</v>
+        <v>28.3</v>
       </c>
       <c r="E8" t="n">
-        <v>27.9</v>
+        <v>28.3</v>
       </c>
       <c r="F8" t="n">
-        <v>28119.8453</v>
+        <v>10</v>
       </c>
       <c r="G8" t="n">
-        <v>66802.50142727999</v>
+        <v>71759.29472727996</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>28</v>
+      </c>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -690,10 +738,10 @@
         <v>28</v>
       </c>
       <c r="F9" t="n">
-        <v>10</v>
+        <v>89.4054</v>
       </c>
       <c r="G9" t="n">
-        <v>66812.50142727999</v>
+        <v>71669.88932727996</v>
       </c>
       <c r="H9" t="n">
         <v>1</v>
@@ -702,15 +750,18 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="K9" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="L9" t="inlineStr"/>
+        <v>28.3</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -720,101 +771,103 @@
         <v>28</v>
       </c>
       <c r="C10" t="n">
-        <v>28</v>
+        <v>28.3</v>
       </c>
       <c r="D10" t="n">
-        <v>28</v>
+        <v>28.3</v>
       </c>
       <c r="E10" t="n">
         <v>28</v>
       </c>
       <c r="F10" t="n">
-        <v>6578.9285</v>
+        <v>22968.1978</v>
       </c>
       <c r="G10" t="n">
-        <v>66812.50142727999</v>
+        <v>94638.08712727996</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="n">
-        <v>27.9</v>
-      </c>
+      <c r="J10" t="n">
+        <v>28</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>27.4</v>
+        <v>28.3</v>
       </c>
       <c r="C11" t="n">
-        <v>28</v>
+        <v>28.7</v>
       </c>
       <c r="D11" t="n">
-        <v>28</v>
+        <v>28.7</v>
       </c>
       <c r="E11" t="n">
-        <v>27.4</v>
+        <v>28.3</v>
       </c>
       <c r="F11" t="n">
-        <v>3162.02</v>
+        <v>5825.3761</v>
       </c>
       <c r="G11" t="n">
-        <v>66812.50142727999</v>
+        <v>100463.4632272799</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="n">
-        <v>27.9</v>
-      </c>
+      <c r="J11" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>27.4</v>
+        <v>28.3</v>
       </c>
       <c r="C12" t="n">
-        <v>28</v>
+        <v>28.3</v>
       </c>
       <c r="D12" t="n">
-        <v>28</v>
+        <v>28.3</v>
       </c>
       <c r="E12" t="n">
-        <v>27.4</v>
+        <v>28.3</v>
       </c>
       <c r="F12" t="n">
-        <v>192.4817</v>
+        <v>193.1751</v>
       </c>
       <c r="G12" t="n">
-        <v>66812.50142727999</v>
+        <v>100270.28812728</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -823,9 +876,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="n">
-        <v>27.9</v>
-      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -834,6 +885,7 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -843,30 +895,30 @@
         <v>28</v>
       </c>
       <c r="C13" t="n">
-        <v>28.2</v>
+        <v>28</v>
       </c>
       <c r="D13" t="n">
-        <v>28.2</v>
+        <v>28</v>
       </c>
       <c r="E13" t="n">
         <v>28</v>
       </c>
       <c r="F13" t="n">
-        <v>75413.1914</v>
+        <v>400</v>
       </c>
       <c r="G13" t="n">
-        <v>142225.69282728</v>
+        <v>99870.28812727996</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
-        <v>27.9</v>
-      </c>
+      <c r="J13" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -875,39 +927,40 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>27.7</v>
+        <v>28.4</v>
       </c>
       <c r="C14" t="n">
-        <v>28.1</v>
+        <v>28.4</v>
       </c>
       <c r="D14" t="n">
-        <v>28.1</v>
+        <v>28.4</v>
       </c>
       <c r="E14" t="n">
-        <v>27.2</v>
+        <v>28.4</v>
       </c>
       <c r="F14" t="n">
-        <v>13249.485</v>
+        <v>11</v>
       </c>
       <c r="G14" t="n">
-        <v>128976.20782728</v>
+        <v>99881.28812727996</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>27.9</v>
-      </c>
+      <c r="J14" t="n">
+        <v>28</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -916,39 +969,40 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>27.4</v>
+        <v>28.4</v>
       </c>
       <c r="C15" t="n">
-        <v>27.4</v>
+        <v>28.5</v>
       </c>
       <c r="D15" t="n">
-        <v>27.4</v>
+        <v>28.5</v>
       </c>
       <c r="E15" t="n">
-        <v>27.4</v>
+        <v>28.4</v>
       </c>
       <c r="F15" t="n">
-        <v>7827.4097</v>
+        <v>23215.9475</v>
       </c>
       <c r="G15" t="n">
-        <v>121148.79812728</v>
+        <v>123097.23562728</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>27.9</v>
-      </c>
+      <c r="J15" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -957,39 +1011,40 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>27.9</v>
+        <v>28.7</v>
       </c>
       <c r="C16" t="n">
-        <v>27.9</v>
+        <v>29.1</v>
       </c>
       <c r="D16" t="n">
-        <v>27.9</v>
+        <v>29.1</v>
       </c>
       <c r="E16" t="n">
-        <v>27.9</v>
+        <v>28.7</v>
       </c>
       <c r="F16" t="n">
-        <v>101.4301</v>
+        <v>43215.9078</v>
       </c>
       <c r="G16" t="n">
-        <v>121250.22822728</v>
+        <v>166313.14342728</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>27.9</v>
-      </c>
+      <c r="J16" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -998,28 +1053,29 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>27.3</v>
+        <v>29.1</v>
       </c>
       <c r="C17" t="n">
-        <v>27.3</v>
+        <v>29.3</v>
       </c>
       <c r="D17" t="n">
-        <v>27.3</v>
+        <v>29.3</v>
       </c>
       <c r="E17" t="n">
-        <v>27.3</v>
+        <v>29.1</v>
       </c>
       <c r="F17" t="n">
-        <v>40695.6085</v>
+        <v>62543.8747</v>
       </c>
       <c r="G17" t="n">
-        <v>80554.61972727996</v>
+        <v>228857.0181272799</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1028,9 +1084,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>27.9</v>
-      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1039,28 +1093,29 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>27.9</v>
+        <v>29.3</v>
       </c>
       <c r="C18" t="n">
-        <v>28.7</v>
+        <v>29.1</v>
       </c>
       <c r="D18" t="n">
-        <v>28.7</v>
+        <v>29.3</v>
       </c>
       <c r="E18" t="n">
-        <v>27.9</v>
+        <v>29.1</v>
       </c>
       <c r="F18" t="n">
-        <v>11372.8575</v>
+        <v>32956.21124948</v>
       </c>
       <c r="G18" t="n">
-        <v>91927.47722727996</v>
+        <v>195900.8068777999</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1069,9 +1124,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>27.9</v>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1080,28 +1133,29 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>28.6</v>
+        <v>29.1</v>
       </c>
       <c r="C19" t="n">
-        <v>28.6</v>
+        <v>30.5</v>
       </c>
       <c r="D19" t="n">
-        <v>28.6</v>
+        <v>30.5</v>
       </c>
       <c r="E19" t="n">
-        <v>28.6</v>
+        <v>29.1</v>
       </c>
       <c r="F19" t="n">
-        <v>22540.0642</v>
+        <v>481769.9357726</v>
       </c>
       <c r="G19" t="n">
-        <v>69387.41302727995</v>
+        <v>677670.7426503999</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1110,9 +1164,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>27.9</v>
-      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1121,28 +1173,29 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>28.6</v>
+        <v>30.5</v>
       </c>
       <c r="C20" t="n">
-        <v>28.6</v>
+        <v>30.7</v>
       </c>
       <c r="D20" t="n">
-        <v>28.6</v>
+        <v>30.7</v>
       </c>
       <c r="E20" t="n">
-        <v>28.6</v>
+        <v>30.5</v>
       </c>
       <c r="F20" t="n">
-        <v>26717.9987</v>
+        <v>40665.3827</v>
       </c>
       <c r="G20" t="n">
-        <v>69387.41302727995</v>
+        <v>718336.1253503999</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1151,9 +1204,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>27.9</v>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1162,28 +1213,29 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>28.6</v>
+        <v>30.7</v>
       </c>
       <c r="C21" t="n">
-        <v>28.5</v>
+        <v>30.7</v>
       </c>
       <c r="D21" t="n">
-        <v>28.6</v>
+        <v>30.7</v>
       </c>
       <c r="E21" t="n">
-        <v>28.5</v>
+        <v>30.7</v>
       </c>
       <c r="F21" t="n">
-        <v>22018.6013</v>
+        <v>32414.1367</v>
       </c>
       <c r="G21" t="n">
-        <v>47368.81172727996</v>
+        <v>718336.1253503999</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1192,9 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>27.9</v>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1203,28 +1253,29 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>28.7</v>
+        <v>30.7</v>
       </c>
       <c r="C22" t="n">
-        <v>28.7</v>
+        <v>31</v>
       </c>
       <c r="D22" t="n">
-        <v>28.7</v>
+        <v>31</v>
       </c>
       <c r="E22" t="n">
-        <v>28.7</v>
+        <v>30.7</v>
       </c>
       <c r="F22" t="n">
-        <v>11</v>
+        <v>68204.2294</v>
       </c>
       <c r="G22" t="n">
-        <v>47379.81172727996</v>
+        <v>786540.3547503998</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1233,9 +1284,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>27.9</v>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1244,28 +1293,29 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>28.1</v>
+        <v>30.2</v>
       </c>
       <c r="C23" t="n">
-        <v>27.9</v>
+        <v>30.9</v>
       </c>
       <c r="D23" t="n">
-        <v>28.1</v>
+        <v>30.9</v>
       </c>
       <c r="E23" t="n">
-        <v>27.9</v>
+        <v>29.7</v>
       </c>
       <c r="F23" t="n">
-        <v>1065.7689</v>
+        <v>118213.2916</v>
       </c>
       <c r="G23" t="n">
-        <v>46314.04282727995</v>
+        <v>668327.0631503998</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1274,9 +1324,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>27.9</v>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1285,28 +1333,29 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>28.1</v>
+        <v>30.3</v>
       </c>
       <c r="C24" t="n">
-        <v>28.1</v>
+        <v>30.7</v>
       </c>
       <c r="D24" t="n">
-        <v>28.1</v>
+        <v>30.9</v>
       </c>
       <c r="E24" t="n">
-        <v>28.1</v>
+        <v>30.2</v>
       </c>
       <c r="F24" t="n">
-        <v>10</v>
+        <v>207087.4001</v>
       </c>
       <c r="G24" t="n">
-        <v>46324.04282727995</v>
+        <v>461239.6630503999</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1315,9 +1364,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>27.9</v>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1326,28 +1373,29 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>27.4</v>
+        <v>30.7</v>
       </c>
       <c r="C25" t="n">
-        <v>27.5</v>
+        <v>31.1</v>
       </c>
       <c r="D25" t="n">
-        <v>27.5</v>
+        <v>31.1</v>
       </c>
       <c r="E25" t="n">
-        <v>27.4</v>
+        <v>30.7</v>
       </c>
       <c r="F25" t="n">
-        <v>9354.8089</v>
+        <v>232776.4981274</v>
       </c>
       <c r="G25" t="n">
-        <v>36969.23392727996</v>
+        <v>694016.1611777998</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1356,9 +1404,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>27.9</v>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1367,28 +1413,29 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>27.3</v>
+        <v>30.8</v>
       </c>
       <c r="C26" t="n">
-        <v>27.2</v>
+        <v>31.6</v>
       </c>
       <c r="D26" t="n">
-        <v>27.3</v>
+        <v>31.6</v>
       </c>
       <c r="E26" t="n">
-        <v>27.2</v>
+        <v>30.8</v>
       </c>
       <c r="F26" t="n">
-        <v>49123.9452</v>
+        <v>262604.0144</v>
       </c>
       <c r="G26" t="n">
-        <v>-12154.71127272004</v>
+        <v>956620.1755777998</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1397,9 +1444,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>27.9</v>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1408,28 +1453,29 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>28</v>
+        <v>31.5</v>
       </c>
       <c r="C27" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D27" t="n">
-        <v>28</v>
+        <v>31.5</v>
       </c>
       <c r="E27" t="n">
-        <v>28</v>
+        <v>30.8</v>
       </c>
       <c r="F27" t="n">
-        <v>10</v>
+        <v>6262</v>
       </c>
       <c r="G27" t="n">
-        <v>-12144.71127272004</v>
+        <v>950358.1755777998</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1438,9 +1484,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>27.9</v>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1449,28 +1493,29 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>27.3</v>
+        <v>31.4</v>
       </c>
       <c r="C28" t="n">
-        <v>27.3</v>
+        <v>30.9</v>
       </c>
       <c r="D28" t="n">
-        <v>27.3</v>
+        <v>31.4</v>
       </c>
       <c r="E28" t="n">
-        <v>27.3</v>
+        <v>29.1</v>
       </c>
       <c r="F28" t="n">
-        <v>21.6139</v>
+        <v>77471.5368</v>
       </c>
       <c r="G28" t="n">
-        <v>-12166.32517272004</v>
+        <v>872886.6387777998</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1479,9 +1524,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>27.9</v>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1490,28 +1533,29 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>28</v>
+        <v>29.9</v>
       </c>
       <c r="C29" t="n">
-        <v>28.2</v>
+        <v>29.4</v>
       </c>
       <c r="D29" t="n">
-        <v>28.2</v>
+        <v>29.9</v>
       </c>
       <c r="E29" t="n">
-        <v>28</v>
+        <v>29.4</v>
       </c>
       <c r="F29" t="n">
-        <v>23899.6497</v>
+        <v>678.896</v>
       </c>
       <c r="G29" t="n">
-        <v>11733.32452727996</v>
+        <v>872207.7427777998</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1520,9 +1564,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>27.9</v>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1531,41 +1573,38 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>28.4</v>
+        <v>29.2</v>
       </c>
       <c r="C30" t="n">
-        <v>28.5</v>
+        <v>29.7</v>
       </c>
       <c r="D30" t="n">
-        <v>28.5</v>
+        <v>29.8</v>
       </c>
       <c r="E30" t="n">
-        <v>28.4</v>
+        <v>28.9</v>
       </c>
       <c r="F30" t="n">
-        <v>452</v>
+        <v>60814.0869</v>
       </c>
       <c r="G30" t="n">
-        <v>12185.32452727996</v>
+        <v>933021.8296777998</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>28.2</v>
-      </c>
-      <c r="K30" t="n">
-        <v>27.9</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1574,28 +1613,29 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>28.5</v>
+        <v>29.5</v>
       </c>
       <c r="C31" t="n">
-        <v>28.6</v>
+        <v>29.9</v>
       </c>
       <c r="D31" t="n">
-        <v>28.6</v>
+        <v>29.9</v>
       </c>
       <c r="E31" t="n">
-        <v>28.5</v>
+        <v>29.4</v>
       </c>
       <c r="F31" t="n">
-        <v>53087.9369</v>
+        <v>44331.3169</v>
       </c>
       <c r="G31" t="n">
-        <v>65273.26142727995</v>
+        <v>977353.1465777998</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1604,9 +1644,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>27.9</v>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1615,28 +1653,29 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>28.6</v>
+        <v>30</v>
       </c>
       <c r="C32" t="n">
-        <v>28.6</v>
+        <v>30.4</v>
       </c>
       <c r="D32" t="n">
-        <v>28.6</v>
+        <v>30.9</v>
       </c>
       <c r="E32" t="n">
-        <v>28.6</v>
+        <v>29.9</v>
       </c>
       <c r="F32" t="n">
-        <v>45003.5077</v>
+        <v>73404.53711003</v>
       </c>
       <c r="G32" t="n">
-        <v>65273.26142727995</v>
+        <v>1050757.68368783</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1645,9 +1684,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>27.9</v>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1656,28 +1693,29 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>28.6</v>
+        <v>30.5</v>
       </c>
       <c r="C33" t="n">
-        <v>28.6</v>
+        <v>29.9</v>
       </c>
       <c r="D33" t="n">
-        <v>28.6</v>
+        <v>30.5</v>
       </c>
       <c r="E33" t="n">
-        <v>28.6</v>
+        <v>29.9</v>
       </c>
       <c r="F33" t="n">
-        <v>30386.3873</v>
+        <v>20131.4204</v>
       </c>
       <c r="G33" t="n">
-        <v>65273.26142727995</v>
+        <v>1030626.26328783</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1686,9 +1724,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>27.9</v>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1697,28 +1733,29 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>28.6</v>
+        <v>29.6</v>
       </c>
       <c r="C34" t="n">
-        <v>28.7</v>
+        <v>30</v>
       </c>
       <c r="D34" t="n">
-        <v>28.7</v>
+        <v>30.5</v>
       </c>
       <c r="E34" t="n">
-        <v>28.6</v>
+        <v>29.4</v>
       </c>
       <c r="F34" t="n">
-        <v>11263.2025</v>
+        <v>175285.3056</v>
       </c>
       <c r="G34" t="n">
-        <v>76536.46392727995</v>
+        <v>1205911.56888783</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1727,9 +1764,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>27.9</v>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1738,28 +1773,29 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>28.8</v>
+        <v>30.2</v>
       </c>
       <c r="C35" t="n">
-        <v>29.3</v>
+        <v>30.2</v>
       </c>
       <c r="D35" t="n">
-        <v>29.3</v>
+        <v>30.2</v>
       </c>
       <c r="E35" t="n">
-        <v>28.8</v>
+        <v>30.2</v>
       </c>
       <c r="F35" t="n">
-        <v>117186.7508</v>
+        <v>10</v>
       </c>
       <c r="G35" t="n">
-        <v>193723.21472728</v>
+        <v>1205921.56888783</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1768,9 +1804,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>27.9</v>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1779,28 +1813,29 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>29.3</v>
+        <v>30.1</v>
       </c>
       <c r="C36" t="n">
-        <v>29.3</v>
+        <v>30.2</v>
       </c>
       <c r="D36" t="n">
-        <v>29.3</v>
+        <v>30.2</v>
       </c>
       <c r="E36" t="n">
-        <v>28.1</v>
+        <v>30</v>
       </c>
       <c r="F36" t="n">
-        <v>131574.8852</v>
+        <v>93648.9347</v>
       </c>
       <c r="G36" t="n">
-        <v>193723.21472728</v>
+        <v>1205921.56888783</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1809,9 +1844,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>27.9</v>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1820,28 +1853,29 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C37" t="n">
-        <v>29.1</v>
+        <v>30</v>
       </c>
       <c r="D37" t="n">
-        <v>29.1</v>
+        <v>30</v>
       </c>
       <c r="E37" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F37" t="n">
-        <v>50000</v>
+        <v>605.6179</v>
       </c>
       <c r="G37" t="n">
-        <v>143723.21472728</v>
+        <v>1205315.95098783</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1850,9 +1884,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>27.9</v>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1861,28 +1893,29 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>27.8</v>
+        <v>29.9</v>
       </c>
       <c r="C38" t="n">
-        <v>27.6</v>
+        <v>30.1</v>
       </c>
       <c r="D38" t="n">
-        <v>27.8</v>
+        <v>30.1</v>
       </c>
       <c r="E38" t="n">
-        <v>27.6</v>
+        <v>29.5</v>
       </c>
       <c r="F38" t="n">
-        <v>15766.667</v>
+        <v>4794.2606</v>
       </c>
       <c r="G38" t="n">
-        <v>127956.54772728</v>
+        <v>1210110.21158783</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1891,9 +1924,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>27.9</v>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1902,28 +1933,29 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>28.6</v>
+        <v>30</v>
       </c>
       <c r="C39" t="n">
-        <v>28.6</v>
+        <v>30</v>
       </c>
       <c r="D39" t="n">
-        <v>28.6</v>
+        <v>30</v>
       </c>
       <c r="E39" t="n">
-        <v>28.6</v>
+        <v>30</v>
       </c>
       <c r="F39" t="n">
-        <v>10</v>
+        <v>20872.7666</v>
       </c>
       <c r="G39" t="n">
-        <v>127966.54772728</v>
+        <v>1189237.44498783</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1932,9 +1964,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>27.9</v>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1943,28 +1973,29 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>27.8</v>
+        <v>29.5</v>
       </c>
       <c r="C40" t="n">
-        <v>27.8</v>
+        <v>29.4</v>
       </c>
       <c r="D40" t="n">
-        <v>27.8</v>
+        <v>29.5</v>
       </c>
       <c r="E40" t="n">
-        <v>27.8</v>
+        <v>29.4</v>
       </c>
       <c r="F40" t="n">
-        <v>11892.2615</v>
+        <v>15771.722</v>
       </c>
       <c r="G40" t="n">
-        <v>116074.28622728</v>
+        <v>1173465.72298783</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1973,9 +2004,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>27.9</v>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1984,28 +2013,29 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>27.8</v>
+        <v>29.9</v>
       </c>
       <c r="C41" t="n">
-        <v>27.8</v>
+        <v>29.8</v>
       </c>
       <c r="D41" t="n">
-        <v>27.8</v>
+        <v>29.9</v>
       </c>
       <c r="E41" t="n">
-        <v>27.8</v>
+        <v>29.4</v>
       </c>
       <c r="F41" t="n">
-        <v>18891.9151</v>
+        <v>29915.8197</v>
       </c>
       <c r="G41" t="n">
-        <v>116074.28622728</v>
+        <v>1203381.54268783</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2014,9 +2044,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>27.9</v>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2025,41 +2053,38 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>28.6</v>
+        <v>29.8</v>
       </c>
       <c r="C42" t="n">
-        <v>28.6</v>
+        <v>29.8</v>
       </c>
       <c r="D42" t="n">
-        <v>28.6</v>
+        <v>29.8</v>
       </c>
       <c r="E42" t="n">
-        <v>28.6</v>
+        <v>29.8</v>
       </c>
       <c r="F42" t="n">
-        <v>20</v>
+        <v>6347.5428</v>
       </c>
       <c r="G42" t="n">
-        <v>116094.28622728</v>
+        <v>1203381.54268783</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="K42" t="n">
-        <v>27.9</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2068,28 +2093,29 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>28.6</v>
+        <v>29.8</v>
       </c>
       <c r="C43" t="n">
-        <v>28.5</v>
+        <v>29.9</v>
       </c>
       <c r="D43" t="n">
-        <v>28.6</v>
+        <v>29.9</v>
       </c>
       <c r="E43" t="n">
-        <v>28.5</v>
+        <v>29.4</v>
       </c>
       <c r="F43" t="n">
-        <v>45</v>
+        <v>139983.2478</v>
       </c>
       <c r="G43" t="n">
-        <v>116049.28622728</v>
+        <v>1343364.79048783</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2098,9 +2124,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>27.9</v>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2109,28 +2133,29 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>28</v>
+        <v>29.9</v>
       </c>
       <c r="C44" t="n">
-        <v>28</v>
+        <v>29.9</v>
       </c>
       <c r="D44" t="n">
-        <v>28</v>
+        <v>29.9</v>
       </c>
       <c r="E44" t="n">
-        <v>28</v>
+        <v>29.9</v>
       </c>
       <c r="F44" t="n">
-        <v>42.7856</v>
+        <v>3344.48160535</v>
       </c>
       <c r="G44" t="n">
-        <v>116006.50062728</v>
+        <v>1343364.79048783</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2139,9 +2164,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>27.9</v>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2150,28 +2173,29 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>27.6</v>
+        <v>29.7</v>
       </c>
       <c r="C45" t="n">
-        <v>27.9</v>
+        <v>29.7</v>
       </c>
       <c r="D45" t="n">
-        <v>27.9</v>
+        <v>29.7</v>
       </c>
       <c r="E45" t="n">
-        <v>27.5</v>
+        <v>29.7</v>
       </c>
       <c r="F45" t="n">
-        <v>102973.0884</v>
+        <v>11</v>
       </c>
       <c r="G45" t="n">
-        <v>13033.41222727996</v>
+        <v>1343353.79048783</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2180,9 +2204,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>27.9</v>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2191,28 +2213,29 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>27.5</v>
+        <v>29.7</v>
       </c>
       <c r="C46" t="n">
-        <v>27.9</v>
+        <v>29.7</v>
       </c>
       <c r="D46" t="n">
-        <v>27.9</v>
+        <v>29.7</v>
       </c>
       <c r="E46" t="n">
-        <v>27.2</v>
+        <v>29.4</v>
       </c>
       <c r="F46" t="n">
-        <v>53107.9369</v>
+        <v>31113.5763</v>
       </c>
       <c r="G46" t="n">
-        <v>13033.41222727996</v>
+        <v>1343353.79048783</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2221,9 +2244,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>27.9</v>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2232,28 +2253,29 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>27.9</v>
+        <v>29.2</v>
       </c>
       <c r="C47" t="n">
-        <v>28</v>
+        <v>29.4</v>
       </c>
       <c r="D47" t="n">
-        <v>28</v>
+        <v>29.4</v>
       </c>
       <c r="E47" t="n">
-        <v>27.9</v>
+        <v>28.6</v>
       </c>
       <c r="F47" t="n">
-        <v>51394.4285</v>
+        <v>123990.6555</v>
       </c>
       <c r="G47" t="n">
-        <v>64427.84072727996</v>
+        <v>1219363.13498783</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2262,9 +2284,7 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>27.9</v>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2273,28 +2293,29 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>28</v>
+        <v>28.7</v>
       </c>
       <c r="C48" t="n">
-        <v>28.3</v>
+        <v>29</v>
       </c>
       <c r="D48" t="n">
-        <v>28.3</v>
+        <v>29</v>
       </c>
       <c r="E48" t="n">
-        <v>28</v>
+        <v>28.7</v>
       </c>
       <c r="F48" t="n">
-        <v>7337.9707</v>
+        <v>53453.1604</v>
       </c>
       <c r="G48" t="n">
-        <v>71765.81142727996</v>
+        <v>1165909.97458783</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2303,9 +2324,7 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>27.9</v>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2314,28 +2333,29 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>28</v>
+        <v>29.3</v>
       </c>
       <c r="C49" t="n">
-        <v>28</v>
+        <v>29.3</v>
       </c>
       <c r="D49" t="n">
-        <v>28</v>
+        <v>29.3</v>
       </c>
       <c r="E49" t="n">
-        <v>28</v>
+        <v>28.5</v>
       </c>
       <c r="F49" t="n">
-        <v>16.5167</v>
+        <v>113320.3682</v>
       </c>
       <c r="G49" t="n">
-        <v>71749.29472727996</v>
+        <v>1279230.34278783</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2344,9 +2364,7 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>27.9</v>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2355,28 +2373,29 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>28.3</v>
+        <v>28.6</v>
       </c>
       <c r="C50" t="n">
-        <v>28.3</v>
+        <v>28.4</v>
       </c>
       <c r="D50" t="n">
-        <v>28.3</v>
+        <v>28.6</v>
       </c>
       <c r="E50" t="n">
-        <v>28.3</v>
+        <v>28.4</v>
       </c>
       <c r="F50" t="n">
-        <v>10</v>
+        <v>75012.9644</v>
       </c>
       <c r="G50" t="n">
-        <v>71759.29472727996</v>
+        <v>1204217.37838783</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2385,9 +2404,7 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>27.9</v>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2396,28 +2413,29 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>28</v>
+        <v>28.5</v>
       </c>
       <c r="C51" t="n">
-        <v>28</v>
+        <v>28.5</v>
       </c>
       <c r="D51" t="n">
-        <v>28</v>
+        <v>28.7</v>
       </c>
       <c r="E51" t="n">
-        <v>28</v>
+        <v>28.5</v>
       </c>
       <c r="F51" t="n">
-        <v>89.4054</v>
+        <v>19757.4676</v>
       </c>
       <c r="G51" t="n">
-        <v>71669.88932727996</v>
+        <v>1223974.84598783</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2426,9 +2444,7 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>27.9</v>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2437,28 +2453,29 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>28</v>
+        <v>28.7</v>
       </c>
       <c r="C52" t="n">
-        <v>28.3</v>
+        <v>28.8</v>
       </c>
       <c r="D52" t="n">
-        <v>28.3</v>
+        <v>28.8</v>
       </c>
       <c r="E52" t="n">
-        <v>28</v>
+        <v>28.7</v>
       </c>
       <c r="F52" t="n">
-        <v>22968.1978</v>
+        <v>20</v>
       </c>
       <c r="G52" t="n">
-        <v>94638.08712727996</v>
+        <v>1223994.84598783</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2467,9 +2484,7 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>27.9</v>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2478,13 +2493,14 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>28.3</v>
+        <v>28.5</v>
       </c>
       <c r="C53" t="n">
         <v>28.7</v>
@@ -2493,13 +2509,13 @@
         <v>28.7</v>
       </c>
       <c r="E53" t="n">
-        <v>28.3</v>
+        <v>28.5</v>
       </c>
       <c r="F53" t="n">
-        <v>5825.3761</v>
+        <v>21825.0431</v>
       </c>
       <c r="G53" t="n">
-        <v>100463.4632272799</v>
+        <v>1202169.80288783</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2508,9 +2524,7 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>27.9</v>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2519,28 +2533,29 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>28.3</v>
+        <v>28.5</v>
       </c>
       <c r="C54" t="n">
-        <v>28.3</v>
+        <v>28.5</v>
       </c>
       <c r="D54" t="n">
-        <v>28.3</v>
+        <v>28.5</v>
       </c>
       <c r="E54" t="n">
-        <v>28.3</v>
+        <v>28.5</v>
       </c>
       <c r="F54" t="n">
-        <v>193.1751</v>
+        <v>17604.7463</v>
       </c>
       <c r="G54" t="n">
-        <v>100270.28812728</v>
+        <v>1184565.05658783</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2549,9 +2564,7 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>27.9</v>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2560,28 +2573,29 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>28</v>
+        <v>28.5</v>
       </c>
       <c r="C55" t="n">
-        <v>28</v>
+        <v>28.5</v>
       </c>
       <c r="D55" t="n">
-        <v>28</v>
+        <v>28.5</v>
       </c>
       <c r="E55" t="n">
-        <v>28</v>
+        <v>28.5</v>
       </c>
       <c r="F55" t="n">
-        <v>400</v>
+        <v>3562.2835</v>
       </c>
       <c r="G55" t="n">
-        <v>99870.28812727996</v>
+        <v>1184565.05658783</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2590,9 +2604,7 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>27.9</v>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2601,28 +2613,29 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>28.4</v>
+        <v>28.6</v>
       </c>
       <c r="C56" t="n">
-        <v>28.4</v>
+        <v>28.8</v>
       </c>
       <c r="D56" t="n">
-        <v>28.4</v>
+        <v>28.8</v>
       </c>
       <c r="E56" t="n">
-        <v>28.4</v>
+        <v>28.6</v>
       </c>
       <c r="F56" t="n">
-        <v>11</v>
+        <v>86391.94439999999</v>
       </c>
       <c r="G56" t="n">
-        <v>99881.28812727996</v>
+        <v>1270957.00098783</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2631,9 +2644,7 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>27.9</v>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2642,28 +2653,29 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>28.4</v>
+        <v>28.8</v>
       </c>
       <c r="C57" t="n">
-        <v>28.5</v>
+        <v>28.8</v>
       </c>
       <c r="D57" t="n">
-        <v>28.5</v>
+        <v>28.8</v>
       </c>
       <c r="E57" t="n">
-        <v>28.4</v>
+        <v>28.8</v>
       </c>
       <c r="F57" t="n">
-        <v>23215.9475</v>
+        <v>24200.1388</v>
       </c>
       <c r="G57" t="n">
-        <v>123097.23562728</v>
+        <v>1270957.00098783</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2672,9 +2684,7 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>27.9</v>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2683,28 +2693,29 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>28.7</v>
+        <v>28.8</v>
       </c>
       <c r="C58" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="D58" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="E58" t="n">
-        <v>28.7</v>
+        <v>28.8</v>
       </c>
       <c r="F58" t="n">
-        <v>43215.9078</v>
+        <v>65007.0162</v>
       </c>
       <c r="G58" t="n">
-        <v>166313.14342728</v>
+        <v>1335964.01718783</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2713,9 +2724,7 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>27.9</v>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2724,28 +2733,29 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>29.1</v>
+        <v>28.8</v>
       </c>
       <c r="C59" t="n">
-        <v>29.3</v>
+        <v>28.5</v>
       </c>
       <c r="D59" t="n">
-        <v>29.3</v>
+        <v>28.8</v>
       </c>
       <c r="E59" t="n">
-        <v>29.1</v>
+        <v>28.5</v>
       </c>
       <c r="F59" t="n">
-        <v>62543.8747</v>
+        <v>68418.7372</v>
       </c>
       <c r="G59" t="n">
-        <v>228857.0181272799</v>
+        <v>1267545.27998783</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2754,9 +2764,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>27.9</v>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2765,28 +2773,29 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>29.3</v>
+        <v>28.4</v>
       </c>
       <c r="C60" t="n">
-        <v>29.1</v>
+        <v>28.4</v>
       </c>
       <c r="D60" t="n">
-        <v>29.3</v>
+        <v>28.4</v>
       </c>
       <c r="E60" t="n">
-        <v>29.1</v>
+        <v>28.4</v>
       </c>
       <c r="F60" t="n">
-        <v>32956.21124948</v>
+        <v>45408.2704</v>
       </c>
       <c r="G60" t="n">
-        <v>195900.8068777999</v>
+        <v>1222137.00958783</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2795,9 +2804,7 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>27.9</v>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2806,28 +2813,29 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>29.1</v>
+        <v>28.7</v>
       </c>
       <c r="C61" t="n">
-        <v>30.5</v>
+        <v>28.7</v>
       </c>
       <c r="D61" t="n">
-        <v>30.5</v>
+        <v>28.7</v>
       </c>
       <c r="E61" t="n">
-        <v>29.1</v>
+        <v>28.7</v>
       </c>
       <c r="F61" t="n">
-        <v>481769.9357726</v>
+        <v>10</v>
       </c>
       <c r="G61" t="n">
-        <v>677670.7426503999</v>
+        <v>1222147.00958783</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2836,9 +2844,7 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>27.9</v>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2847,28 +2853,29 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>30.5</v>
+        <v>28.3</v>
       </c>
       <c r="C62" t="n">
-        <v>30.7</v>
+        <v>28.6</v>
       </c>
       <c r="D62" t="n">
-        <v>30.7</v>
+        <v>28.6</v>
       </c>
       <c r="E62" t="n">
-        <v>30.5</v>
+        <v>28.3</v>
       </c>
       <c r="F62" t="n">
-        <v>40665.3827</v>
+        <v>42067.3375</v>
       </c>
       <c r="G62" t="n">
-        <v>718336.1253503999</v>
+        <v>1180079.67208783</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2877,9 +2884,7 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>27.9</v>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2888,28 +2893,29 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>30.7</v>
+        <v>28.4</v>
       </c>
       <c r="C63" t="n">
-        <v>30.7</v>
+        <v>28.3</v>
       </c>
       <c r="D63" t="n">
-        <v>30.7</v>
+        <v>28.4</v>
       </c>
       <c r="E63" t="n">
-        <v>30.7</v>
+        <v>28.3</v>
       </c>
       <c r="F63" t="n">
-        <v>32414.1367</v>
+        <v>1656.4626</v>
       </c>
       <c r="G63" t="n">
-        <v>718336.1253503999</v>
+        <v>1178423.20948783</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2918,9 +2924,7 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>27.9</v>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2929,28 +2933,29 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>30.7</v>
+        <v>28.4</v>
       </c>
       <c r="C64" t="n">
-        <v>31</v>
+        <v>28.4</v>
       </c>
       <c r="D64" t="n">
-        <v>31</v>
+        <v>28.4</v>
       </c>
       <c r="E64" t="n">
-        <v>30.7</v>
+        <v>28.4</v>
       </c>
       <c r="F64" t="n">
-        <v>68204.2294</v>
+        <v>11</v>
       </c>
       <c r="G64" t="n">
-        <v>786540.3547503998</v>
+        <v>1178434.20948783</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2959,9 +2964,7 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>27.9</v>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2970,28 +2973,29 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>30.2</v>
+        <v>28.3</v>
       </c>
       <c r="C65" t="n">
-        <v>30.9</v>
+        <v>28.6</v>
       </c>
       <c r="D65" t="n">
-        <v>30.9</v>
+        <v>28.6</v>
       </c>
       <c r="E65" t="n">
-        <v>29.7</v>
+        <v>28.3</v>
       </c>
       <c r="F65" t="n">
-        <v>118213.2916</v>
+        <v>17945.3715</v>
       </c>
       <c r="G65" t="n">
-        <v>668327.0631503998</v>
+        <v>1196379.58098783</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -3000,9 +3004,7 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>27.9</v>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3011,28 +3013,29 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>30.3</v>
+        <v>28.6</v>
       </c>
       <c r="C66" t="n">
-        <v>30.7</v>
+        <v>28.6</v>
       </c>
       <c r="D66" t="n">
-        <v>30.9</v>
+        <v>28.6</v>
       </c>
       <c r="E66" t="n">
-        <v>30.2</v>
+        <v>28.6</v>
       </c>
       <c r="F66" t="n">
-        <v>207087.4001</v>
+        <v>6954.8851</v>
       </c>
       <c r="G66" t="n">
-        <v>461239.6630503999</v>
+        <v>1196379.58098783</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -3041,9 +3044,7 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>27.9</v>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3052,28 +3053,29 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>30.7</v>
+        <v>28.7</v>
       </c>
       <c r="C67" t="n">
-        <v>31.1</v>
+        <v>28.7</v>
       </c>
       <c r="D67" t="n">
-        <v>31.1</v>
+        <v>28.7</v>
       </c>
       <c r="E67" t="n">
-        <v>30.7</v>
+        <v>28.7</v>
       </c>
       <c r="F67" t="n">
-        <v>232776.4981274</v>
+        <v>11</v>
       </c>
       <c r="G67" t="n">
-        <v>694016.1611777998</v>
+        <v>1196390.58098783</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -3082,9 +3084,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>27.9</v>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3093,28 +3093,29 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>30.8</v>
+        <v>28.7</v>
       </c>
       <c r="C68" t="n">
-        <v>31.6</v>
+        <v>28.7</v>
       </c>
       <c r="D68" t="n">
-        <v>31.6</v>
+        <v>28.7</v>
       </c>
       <c r="E68" t="n">
-        <v>30.8</v>
+        <v>28.7</v>
       </c>
       <c r="F68" t="n">
-        <v>262604.0144</v>
+        <v>40884.425</v>
       </c>
       <c r="G68" t="n">
-        <v>956620.1755777998</v>
+        <v>1196390.58098783</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3123,9 +3124,7 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>27.9</v>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3134,28 +3133,29 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>31.5</v>
+        <v>28.7</v>
       </c>
       <c r="C69" t="n">
-        <v>31</v>
+        <v>28.9</v>
       </c>
       <c r="D69" t="n">
-        <v>31.5</v>
+        <v>28.9</v>
       </c>
       <c r="E69" t="n">
-        <v>30.8</v>
+        <v>28.7</v>
       </c>
       <c r="F69" t="n">
-        <v>6262</v>
+        <v>33171.6892</v>
       </c>
       <c r="G69" t="n">
-        <v>950358.1755777998</v>
+        <v>1229562.27018783</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3164,9 +3164,7 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>27.9</v>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3175,28 +3173,29 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>31.4</v>
+        <v>28.9</v>
       </c>
       <c r="C70" t="n">
-        <v>30.9</v>
+        <v>28.9</v>
       </c>
       <c r="D70" t="n">
-        <v>31.4</v>
+        <v>28.9</v>
       </c>
       <c r="E70" t="n">
-        <v>29.1</v>
+        <v>28.9</v>
       </c>
       <c r="F70" t="n">
-        <v>77471.5368</v>
+        <v>11135.8153</v>
       </c>
       <c r="G70" t="n">
-        <v>872886.6387777998</v>
+        <v>1229562.27018783</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3205,9 +3204,7 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>27.9</v>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3216,28 +3213,29 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>29.9</v>
+        <v>28.8</v>
       </c>
       <c r="C71" t="n">
-        <v>29.4</v>
+        <v>28.7</v>
       </c>
       <c r="D71" t="n">
-        <v>29.9</v>
+        <v>28.8</v>
       </c>
       <c r="E71" t="n">
-        <v>29.4</v>
+        <v>28.7</v>
       </c>
       <c r="F71" t="n">
-        <v>678.896</v>
+        <v>49274.0577</v>
       </c>
       <c r="G71" t="n">
-        <v>872207.7427777998</v>
+        <v>1180288.21248783</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3246,9 +3244,7 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>27.9</v>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3257,28 +3253,29 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>29.2</v>
+        <v>29</v>
       </c>
       <c r="C72" t="n">
-        <v>29.7</v>
+        <v>29</v>
       </c>
       <c r="D72" t="n">
-        <v>29.8</v>
+        <v>29</v>
       </c>
       <c r="E72" t="n">
-        <v>28.9</v>
+        <v>29</v>
       </c>
       <c r="F72" t="n">
-        <v>60814.0869</v>
+        <v>10</v>
       </c>
       <c r="G72" t="n">
-        <v>933021.8296777998</v>
+        <v>1180298.21248783</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3287,9 +3284,7 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>27.9</v>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3298,28 +3293,29 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>29.5</v>
+        <v>28.7</v>
       </c>
       <c r="C73" t="n">
-        <v>29.9</v>
+        <v>28.3</v>
       </c>
       <c r="D73" t="n">
-        <v>29.9</v>
+        <v>28.7</v>
       </c>
       <c r="E73" t="n">
-        <v>29.4</v>
+        <v>28.3</v>
       </c>
       <c r="F73" t="n">
-        <v>44331.3169</v>
+        <v>27265.1397</v>
       </c>
       <c r="G73" t="n">
-        <v>977353.1465777998</v>
+        <v>1153033.07278783</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3328,9 +3324,7 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>27.9</v>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3339,28 +3333,29 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>30</v>
+        <v>28.3</v>
       </c>
       <c r="C74" t="n">
-        <v>30.4</v>
+        <v>28.3</v>
       </c>
       <c r="D74" t="n">
-        <v>30.9</v>
+        <v>28.3</v>
       </c>
       <c r="E74" t="n">
-        <v>29.9</v>
+        <v>28.3</v>
       </c>
       <c r="F74" t="n">
-        <v>73404.53711003</v>
+        <v>14849.8078</v>
       </c>
       <c r="G74" t="n">
-        <v>1050757.68368783</v>
+        <v>1153033.07278783</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3369,9 +3364,7 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>27.9</v>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3380,28 +3373,29 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>30.5</v>
+        <v>28.5</v>
       </c>
       <c r="C75" t="n">
-        <v>29.9</v>
+        <v>28.5</v>
       </c>
       <c r="D75" t="n">
-        <v>30.5</v>
+        <v>28.5</v>
       </c>
       <c r="E75" t="n">
-        <v>29.9</v>
+        <v>28.5</v>
       </c>
       <c r="F75" t="n">
-        <v>20131.4204</v>
+        <v>9000</v>
       </c>
       <c r="G75" t="n">
-        <v>1030626.26328783</v>
+        <v>1162033.07278783</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3410,9 +3404,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>27.9</v>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3421,28 +3413,29 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>29.6</v>
+        <v>28.5</v>
       </c>
       <c r="C76" t="n">
-        <v>30</v>
+        <v>28.6</v>
       </c>
       <c r="D76" t="n">
-        <v>30.5</v>
+        <v>28.6</v>
       </c>
       <c r="E76" t="n">
-        <v>29.4</v>
+        <v>28.5</v>
       </c>
       <c r="F76" t="n">
-        <v>175285.3056</v>
+        <v>23318.8709</v>
       </c>
       <c r="G76" t="n">
-        <v>1205911.56888783</v>
+        <v>1185351.94368783</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3451,9 +3444,7 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>27.9</v>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3462,28 +3453,29 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>30.2</v>
+        <v>28.6</v>
       </c>
       <c r="C77" t="n">
-        <v>30.2</v>
+        <v>28.6</v>
       </c>
       <c r="D77" t="n">
-        <v>30.2</v>
+        <v>28.6</v>
       </c>
       <c r="E77" t="n">
-        <v>30.2</v>
+        <v>28.6</v>
       </c>
       <c r="F77" t="n">
-        <v>10</v>
+        <v>4148.559</v>
       </c>
       <c r="G77" t="n">
-        <v>1205921.56888783</v>
+        <v>1185351.94368783</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3492,9 +3484,7 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>27.9</v>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3503,28 +3493,29 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>30.1</v>
+        <v>28.9</v>
       </c>
       <c r="C78" t="n">
-        <v>30.2</v>
+        <v>28.9</v>
       </c>
       <c r="D78" t="n">
-        <v>30.2</v>
+        <v>28.9</v>
       </c>
       <c r="E78" t="n">
-        <v>30</v>
+        <v>28.9</v>
       </c>
       <c r="F78" t="n">
-        <v>93648.9347</v>
+        <v>10</v>
       </c>
       <c r="G78" t="n">
-        <v>1205921.56888783</v>
+        <v>1185361.94368783</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3533,9 +3524,7 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>27.9</v>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3544,28 +3533,29 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>30</v>
+        <v>28.7</v>
       </c>
       <c r="C79" t="n">
-        <v>30</v>
+        <v>28.6</v>
       </c>
       <c r="D79" t="n">
-        <v>30</v>
+        <v>28.7</v>
       </c>
       <c r="E79" t="n">
-        <v>30</v>
+        <v>28.6</v>
       </c>
       <c r="F79" t="n">
-        <v>605.6179</v>
+        <v>24567.7166</v>
       </c>
       <c r="G79" t="n">
-        <v>1205315.95098783</v>
+        <v>1160794.22708783</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3574,9 +3564,7 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>27.9</v>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3585,28 +3573,29 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>29.9</v>
+        <v>28.6</v>
       </c>
       <c r="C80" t="n">
-        <v>30.1</v>
+        <v>28.5</v>
       </c>
       <c r="D80" t="n">
-        <v>30.1</v>
+        <v>28.6</v>
       </c>
       <c r="E80" t="n">
-        <v>29.5</v>
+        <v>28.5</v>
       </c>
       <c r="F80" t="n">
-        <v>4794.2606</v>
+        <v>31266.8779</v>
       </c>
       <c r="G80" t="n">
-        <v>1210110.21158783</v>
+        <v>1129527.34918783</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3615,9 +3604,7 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>27.9</v>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3626,28 +3613,29 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>30</v>
+        <v>28.5</v>
       </c>
       <c r="C81" t="n">
-        <v>30</v>
+        <v>28.6</v>
       </c>
       <c r="D81" t="n">
-        <v>30</v>
+        <v>28.6</v>
       </c>
       <c r="E81" t="n">
-        <v>30</v>
+        <v>28.4</v>
       </c>
       <c r="F81" t="n">
-        <v>20872.7666</v>
+        <v>26646.2172</v>
       </c>
       <c r="G81" t="n">
-        <v>1189237.44498783</v>
+        <v>1156173.56638783</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3656,9 +3644,7 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>27.9</v>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3667,28 +3653,29 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>29.5</v>
+        <v>28.4</v>
       </c>
       <c r="C82" t="n">
-        <v>29.4</v>
+        <v>28.4</v>
       </c>
       <c r="D82" t="n">
-        <v>29.5</v>
+        <v>28.4</v>
       </c>
       <c r="E82" t="n">
-        <v>29.4</v>
+        <v>28.4</v>
       </c>
       <c r="F82" t="n">
-        <v>15771.722</v>
+        <v>13116.8173</v>
       </c>
       <c r="G82" t="n">
-        <v>1173465.72298783</v>
+        <v>1143056.74908783</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3697,9 +3684,7 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>27.9</v>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3708,28 +3693,29 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>29.9</v>
+        <v>28.8</v>
       </c>
       <c r="C83" t="n">
-        <v>29.8</v>
+        <v>28.8</v>
       </c>
       <c r="D83" t="n">
-        <v>29.9</v>
+        <v>28.8</v>
       </c>
       <c r="E83" t="n">
-        <v>29.4</v>
+        <v>28.8</v>
       </c>
       <c r="F83" t="n">
-        <v>29915.8197</v>
+        <v>10</v>
       </c>
       <c r="G83" t="n">
-        <v>1203381.54268783</v>
+        <v>1143066.74908783</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3738,9 +3724,7 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>27.9</v>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3749,28 +3733,29 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>29.8</v>
+        <v>28.8</v>
       </c>
       <c r="C84" t="n">
-        <v>29.8</v>
+        <v>28.9</v>
       </c>
       <c r="D84" t="n">
-        <v>29.8</v>
+        <v>28.9</v>
       </c>
       <c r="E84" t="n">
-        <v>29.8</v>
+        <v>28.8</v>
       </c>
       <c r="F84" t="n">
-        <v>6347.5428</v>
+        <v>19207.6274</v>
       </c>
       <c r="G84" t="n">
-        <v>1203381.54268783</v>
+        <v>1162274.37648783</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3779,9 +3764,7 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>27.9</v>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3790,28 +3773,29 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>29.8</v>
+        <v>28.8</v>
       </c>
       <c r="C85" t="n">
-        <v>29.9</v>
+        <v>28.7</v>
       </c>
       <c r="D85" t="n">
-        <v>29.9</v>
+        <v>28.8</v>
       </c>
       <c r="E85" t="n">
-        <v>29.4</v>
+        <v>28.7</v>
       </c>
       <c r="F85" t="n">
-        <v>139983.2478</v>
+        <v>6137.0619</v>
       </c>
       <c r="G85" t="n">
-        <v>1343364.79048783</v>
+        <v>1156137.31458783</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3820,9 +3804,7 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>27.9</v>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3831,28 +3813,29 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>29.9</v>
+        <v>28.9</v>
       </c>
       <c r="C86" t="n">
-        <v>29.9</v>
+        <v>28.9</v>
       </c>
       <c r="D86" t="n">
-        <v>29.9</v>
+        <v>28.9</v>
       </c>
       <c r="E86" t="n">
-        <v>29.9</v>
+        <v>28.9</v>
       </c>
       <c r="F86" t="n">
-        <v>3344.48160535</v>
+        <v>10</v>
       </c>
       <c r="G86" t="n">
-        <v>1343364.79048783</v>
+        <v>1156147.31458783</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3861,9 +3844,7 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>27.9</v>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3872,28 +3853,29 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>29.7</v>
+        <v>28.7</v>
       </c>
       <c r="C87" t="n">
-        <v>29.7</v>
+        <v>28.7</v>
       </c>
       <c r="D87" t="n">
-        <v>29.7</v>
+        <v>28.7</v>
       </c>
       <c r="E87" t="n">
-        <v>29.7</v>
+        <v>28.7</v>
       </c>
       <c r="F87" t="n">
-        <v>11</v>
+        <v>9994.4566</v>
       </c>
       <c r="G87" t="n">
-        <v>1343353.79048783</v>
+        <v>1146152.85798783</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3902,9 +3884,7 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>27.9</v>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3913,28 +3893,29 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>29.7</v>
+        <v>28.6</v>
       </c>
       <c r="C88" t="n">
-        <v>29.7</v>
+        <v>28.4</v>
       </c>
       <c r="D88" t="n">
-        <v>29.7</v>
+        <v>28.6</v>
       </c>
       <c r="E88" t="n">
-        <v>29.4</v>
+        <v>28.4</v>
       </c>
       <c r="F88" t="n">
-        <v>31113.5763</v>
+        <v>157286.3835</v>
       </c>
       <c r="G88" t="n">
-        <v>1343353.79048783</v>
+        <v>988866.4744878304</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3943,9 +3924,7 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>27.9</v>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3954,28 +3933,29 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>29.2</v>
+        <v>28.7</v>
       </c>
       <c r="C89" t="n">
-        <v>29.4</v>
+        <v>28.7</v>
       </c>
       <c r="D89" t="n">
-        <v>29.4</v>
+        <v>28.7</v>
       </c>
       <c r="E89" t="n">
-        <v>28.6</v>
+        <v>28.7</v>
       </c>
       <c r="F89" t="n">
-        <v>123990.6555</v>
+        <v>10</v>
       </c>
       <c r="G89" t="n">
-        <v>1219363.13498783</v>
+        <v>988876.4744878304</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3984,9 +3964,7 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>27.9</v>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3995,28 +3973,29 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>28.7</v>
+        <v>28.5</v>
       </c>
       <c r="C90" t="n">
-        <v>29</v>
+        <v>28.5</v>
       </c>
       <c r="D90" t="n">
-        <v>29</v>
+        <v>28.5</v>
       </c>
       <c r="E90" t="n">
-        <v>28.7</v>
+        <v>28.5</v>
       </c>
       <c r="F90" t="n">
-        <v>53453.1604</v>
+        <v>38584.1642</v>
       </c>
       <c r="G90" t="n">
-        <v>1165909.97458783</v>
+        <v>950292.3102878304</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -4025,9 +4004,7 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>27.9</v>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4036,28 +4013,29 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>29.3</v>
+        <v>28.7</v>
       </c>
       <c r="C91" t="n">
-        <v>29.3</v>
+        <v>28.7</v>
       </c>
       <c r="D91" t="n">
-        <v>29.3</v>
+        <v>28.7</v>
       </c>
       <c r="E91" t="n">
-        <v>28.5</v>
+        <v>28.7</v>
       </c>
       <c r="F91" t="n">
-        <v>113320.3682</v>
+        <v>10</v>
       </c>
       <c r="G91" t="n">
-        <v>1279230.34278783</v>
+        <v>950302.3102878304</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -4066,9 +4044,7 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>27.9</v>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4077,28 +4053,29 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="C92" t="n">
         <v>28.6</v>
-      </c>
-      <c r="C92" t="n">
-        <v>28.4</v>
       </c>
       <c r="D92" t="n">
         <v>28.6</v>
       </c>
       <c r="E92" t="n">
-        <v>28.4</v>
+        <v>28.3</v>
       </c>
       <c r="F92" t="n">
-        <v>75012.9644</v>
+        <v>96606.9611</v>
       </c>
       <c r="G92" t="n">
-        <v>1204217.37838783</v>
+        <v>853695.3491878305</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -4107,9 +4084,7 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>27.9</v>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4118,28 +4093,29 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>28.5</v>
+        <v>28.6</v>
       </c>
       <c r="C93" t="n">
-        <v>28.5</v>
+        <v>28.6</v>
       </c>
       <c r="D93" t="n">
-        <v>28.7</v>
+        <v>28.6</v>
       </c>
       <c r="E93" t="n">
-        <v>28.5</v>
+        <v>28.6</v>
       </c>
       <c r="F93" t="n">
-        <v>19757.4676</v>
+        <v>6285.8838</v>
       </c>
       <c r="G93" t="n">
-        <v>1223974.84598783</v>
+        <v>853695.3491878305</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4148,9 +4124,7 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>27.9</v>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4159,6 +4133,7 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4168,19 +4143,19 @@
         <v>28.7</v>
       </c>
       <c r="C94" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="D94" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="E94" t="n">
         <v>28.7</v>
       </c>
       <c r="F94" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G94" t="n">
-        <v>1223994.84598783</v>
+        <v>853705.3491878305</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4189,9 +4164,7 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>27.9</v>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4200,28 +4173,29 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>28.5</v>
+        <v>28.6</v>
       </c>
       <c r="C95" t="n">
-        <v>28.7</v>
+        <v>28.6</v>
       </c>
       <c r="D95" t="n">
-        <v>28.7</v>
+        <v>28.6</v>
       </c>
       <c r="E95" t="n">
-        <v>28.5</v>
+        <v>28.6</v>
       </c>
       <c r="F95" t="n">
-        <v>21825.0431</v>
+        <v>4995.5845</v>
       </c>
       <c r="G95" t="n">
-        <v>1202169.80288783</v>
+        <v>848709.7646878305</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4230,9 +4204,7 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>27.9</v>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4241,28 +4213,29 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>28.5</v>
+        <v>28.6</v>
       </c>
       <c r="C96" t="n">
-        <v>28.5</v>
+        <v>28.3</v>
       </c>
       <c r="D96" t="n">
-        <v>28.5</v>
+        <v>28.6</v>
       </c>
       <c r="E96" t="n">
-        <v>28.5</v>
+        <v>28.3</v>
       </c>
       <c r="F96" t="n">
-        <v>17604.7463</v>
+        <v>41236.07</v>
       </c>
       <c r="G96" t="n">
-        <v>1184565.05658783</v>
+        <v>807473.6946878305</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4271,9 +4244,7 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>27.9</v>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4282,28 +4253,29 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>28.5</v>
+        <v>28.6</v>
       </c>
       <c r="C97" t="n">
-        <v>28.5</v>
+        <v>28.6</v>
       </c>
       <c r="D97" t="n">
-        <v>28.5</v>
+        <v>28.6</v>
       </c>
       <c r="E97" t="n">
-        <v>28.5</v>
+        <v>28.6</v>
       </c>
       <c r="F97" t="n">
-        <v>3562.2835</v>
+        <v>30</v>
       </c>
       <c r="G97" t="n">
-        <v>1184565.05658783</v>
+        <v>807503.6946878305</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4312,9 +4284,7 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>27.9</v>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4323,28 +4293,29 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="C98" t="n">
         <v>28.6</v>
       </c>
-      <c r="C98" t="n">
-        <v>28.8</v>
-      </c>
       <c r="D98" t="n">
-        <v>28.8</v>
+        <v>28.6</v>
       </c>
       <c r="E98" t="n">
-        <v>28.6</v>
+        <v>28.4</v>
       </c>
       <c r="F98" t="n">
-        <v>86391.94439999999</v>
+        <v>26501.3315</v>
       </c>
       <c r="G98" t="n">
-        <v>1270957.00098783</v>
+        <v>807503.6946878305</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4353,9 +4324,7 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>27.9</v>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4364,28 +4333,29 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>28.8</v>
+        <v>28.4</v>
       </c>
       <c r="C99" t="n">
-        <v>28.8</v>
+        <v>28.4</v>
       </c>
       <c r="D99" t="n">
-        <v>28.8</v>
+        <v>28.4</v>
       </c>
       <c r="E99" t="n">
-        <v>28.8</v>
+        <v>28.4</v>
       </c>
       <c r="F99" t="n">
-        <v>24200.1388</v>
+        <v>535.4866</v>
       </c>
       <c r="G99" t="n">
-        <v>1270957.00098783</v>
+        <v>806968.2080878306</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4394,9 +4364,7 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>27.9</v>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4405,28 +4373,29 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>28.8</v>
+        <v>28.4</v>
       </c>
       <c r="C100" t="n">
-        <v>29</v>
+        <v>28.4</v>
       </c>
       <c r="D100" t="n">
-        <v>29</v>
+        <v>28.4</v>
       </c>
       <c r="E100" t="n">
-        <v>28.8</v>
+        <v>28.4</v>
       </c>
       <c r="F100" t="n">
-        <v>65007.0162</v>
+        <v>19679.6801</v>
       </c>
       <c r="G100" t="n">
-        <v>1335964.01718783</v>
+        <v>806968.2080878306</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4435,9 +4404,7 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>27.9</v>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4446,28 +4413,29 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>28.8</v>
+        <v>28.5</v>
       </c>
       <c r="C101" t="n">
-        <v>28.5</v>
+        <v>28.6</v>
       </c>
       <c r="D101" t="n">
-        <v>28.8</v>
+        <v>28.6</v>
       </c>
       <c r="E101" t="n">
-        <v>28.5</v>
+        <v>28.4</v>
       </c>
       <c r="F101" t="n">
-        <v>68418.7372</v>
+        <v>59300.735</v>
       </c>
       <c r="G101" t="n">
-        <v>1267545.27998783</v>
+        <v>866268.9430878306</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4476,9 +4444,7 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>27.9</v>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4487,6 +4453,7 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4496,19 +4463,19 @@
         <v>28.4</v>
       </c>
       <c r="C102" t="n">
-        <v>28.4</v>
+        <v>28.3</v>
       </c>
       <c r="D102" t="n">
         <v>28.4</v>
       </c>
       <c r="E102" t="n">
-        <v>28.4</v>
+        <v>28.3</v>
       </c>
       <c r="F102" t="n">
-        <v>45408.2704</v>
+        <v>25245.9127</v>
       </c>
       <c r="G102" t="n">
-        <v>1222137.00958783</v>
+        <v>841023.0303878306</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4517,9 +4484,7 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>27.9</v>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4528,28 +4493,29 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>28.7</v>
+        <v>28.5</v>
       </c>
       <c r="C103" t="n">
-        <v>28.7</v>
+        <v>28.5</v>
       </c>
       <c r="D103" t="n">
-        <v>28.7</v>
+        <v>28.5</v>
       </c>
       <c r="E103" t="n">
-        <v>28.7</v>
+        <v>28.5</v>
       </c>
       <c r="F103" t="n">
-        <v>10</v>
+        <v>84.8034</v>
       </c>
       <c r="G103" t="n">
-        <v>1222147.00958783</v>
+        <v>841107.8337878305</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4558,9 +4524,7 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>27.9</v>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4569,6 +4533,7 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4578,19 +4543,19 @@
         <v>28.3</v>
       </c>
       <c r="C104" t="n">
-        <v>28.6</v>
+        <v>28.5</v>
       </c>
       <c r="D104" t="n">
-        <v>28.6</v>
+        <v>28.5</v>
       </c>
       <c r="E104" t="n">
         <v>28.3</v>
       </c>
       <c r="F104" t="n">
-        <v>42067.3375</v>
+        <v>1600.106</v>
       </c>
       <c r="G104" t="n">
-        <v>1180079.67208783</v>
+        <v>841107.8337878305</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4599,9 +4564,7 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>27.9</v>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4610,28 +4573,29 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>28.4</v>
+        <v>28.5</v>
       </c>
       <c r="C105" t="n">
-        <v>28.3</v>
+        <v>28.5</v>
       </c>
       <c r="D105" t="n">
-        <v>28.4</v>
+        <v>28.5</v>
       </c>
       <c r="E105" t="n">
-        <v>28.3</v>
+        <v>28.5</v>
       </c>
       <c r="F105" t="n">
-        <v>1656.4626</v>
+        <v>10</v>
       </c>
       <c r="G105" t="n">
-        <v>1178423.20948783</v>
+        <v>841107.8337878305</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4640,9 +4604,7 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>27.9</v>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4651,6 +4613,7 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4660,19 +4623,19 @@
         <v>28.4</v>
       </c>
       <c r="C106" t="n">
-        <v>28.4</v>
+        <v>28.5</v>
       </c>
       <c r="D106" t="n">
-        <v>28.4</v>
+        <v>28.5</v>
       </c>
       <c r="E106" t="n">
-        <v>28.4</v>
+        <v>28.3</v>
       </c>
       <c r="F106" t="n">
-        <v>11</v>
+        <v>20876.5047</v>
       </c>
       <c r="G106" t="n">
-        <v>1178434.20948783</v>
+        <v>841107.8337878305</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4681,9 +4644,7 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>27.9</v>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4692,6 +4653,7 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4701,19 +4663,19 @@
         <v>28.3</v>
       </c>
       <c r="C107" t="n">
-        <v>28.6</v>
+        <v>28.3</v>
       </c>
       <c r="D107" t="n">
-        <v>28.6</v>
+        <v>28.3</v>
       </c>
       <c r="E107" t="n">
         <v>28.3</v>
       </c>
       <c r="F107" t="n">
-        <v>17945.3715</v>
+        <v>24139.6384</v>
       </c>
       <c r="G107" t="n">
-        <v>1196379.58098783</v>
+        <v>816968.1953878305</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4722,9 +4684,7 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>27.9</v>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4733,28 +4693,29 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>28.6</v>
+        <v>28.5</v>
       </c>
       <c r="C108" t="n">
-        <v>28.6</v>
+        <v>28.5</v>
       </c>
       <c r="D108" t="n">
-        <v>28.6</v>
+        <v>28.5</v>
       </c>
       <c r="E108" t="n">
-        <v>28.6</v>
+        <v>28.5</v>
       </c>
       <c r="F108" t="n">
-        <v>6954.8851</v>
+        <v>10</v>
       </c>
       <c r="G108" t="n">
-        <v>1196379.58098783</v>
+        <v>816978.1953878305</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4763,9 +4724,7 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>27.9</v>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4774,28 +4733,29 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>28.7</v>
+        <v>28.3</v>
       </c>
       <c r="C109" t="n">
-        <v>28.7</v>
+        <v>28.5</v>
       </c>
       <c r="D109" t="n">
-        <v>28.7</v>
+        <v>28.5</v>
       </c>
       <c r="E109" t="n">
-        <v>28.7</v>
+        <v>28.3</v>
       </c>
       <c r="F109" t="n">
-        <v>11</v>
+        <v>20.7609</v>
       </c>
       <c r="G109" t="n">
-        <v>1196390.58098783</v>
+        <v>816978.1953878305</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4804,9 +4764,7 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>27.9</v>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4815,28 +4773,29 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>28.7</v>
+        <v>28.4</v>
       </c>
       <c r="C110" t="n">
-        <v>28.7</v>
+        <v>28.5</v>
       </c>
       <c r="D110" t="n">
-        <v>28.7</v>
+        <v>28.5</v>
       </c>
       <c r="E110" t="n">
-        <v>28.7</v>
+        <v>28.4</v>
       </c>
       <c r="F110" t="n">
-        <v>40884.425</v>
+        <v>20</v>
       </c>
       <c r="G110" t="n">
-        <v>1196390.58098783</v>
+        <v>816978.1953878305</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4845,9 +4804,7 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>27.9</v>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4856,28 +4813,29 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>28.7</v>
+        <v>28.5</v>
       </c>
       <c r="C111" t="n">
-        <v>28.9</v>
+        <v>28.6</v>
       </c>
       <c r="D111" t="n">
-        <v>28.9</v>
+        <v>28.7</v>
       </c>
       <c r="E111" t="n">
-        <v>28.7</v>
+        <v>28.5</v>
       </c>
       <c r="F111" t="n">
-        <v>33171.6892</v>
+        <v>32686.0298</v>
       </c>
       <c r="G111" t="n">
-        <v>1229562.27018783</v>
+        <v>849664.2251878305</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4886,9 +4844,7 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>27.9</v>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4897,28 +4853,29 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>28.9</v>
+        <v>28.8</v>
       </c>
       <c r="C112" t="n">
-        <v>28.9</v>
+        <v>29</v>
       </c>
       <c r="D112" t="n">
-        <v>28.9</v>
+        <v>29</v>
       </c>
       <c r="E112" t="n">
-        <v>28.9</v>
+        <v>28.8</v>
       </c>
       <c r="F112" t="n">
-        <v>11135.8153</v>
+        <v>42860.1649</v>
       </c>
       <c r="G112" t="n">
-        <v>1229562.27018783</v>
+        <v>892524.3900878305</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4927,9 +4884,7 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>27.9</v>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4938,69 +4893,69 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>28.8</v>
+        <v>29.1</v>
       </c>
       <c r="C113" t="n">
-        <v>28.7</v>
+        <v>29.2</v>
       </c>
       <c r="D113" t="n">
-        <v>28.8</v>
+        <v>29.2</v>
       </c>
       <c r="E113" t="n">
-        <v>28.7</v>
+        <v>29.1</v>
       </c>
       <c r="F113" t="n">
-        <v>49274.0577</v>
+        <v>30573.0687</v>
       </c>
       <c r="G113" t="n">
-        <v>1180288.21248783</v>
+        <v>923097.4587878304</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>27.9</v>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M113" t="n">
-        <v>1.023673835125448</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>29</v>
+        <v>29.2</v>
       </c>
       <c r="C114" t="n">
-        <v>29</v>
+        <v>29.1</v>
       </c>
       <c r="D114" t="n">
-        <v>29</v>
+        <v>29.2</v>
       </c>
       <c r="E114" t="n">
-        <v>29</v>
+        <v>29.1</v>
       </c>
       <c r="F114" t="n">
-        <v>10</v>
+        <v>75139.72040000001</v>
       </c>
       <c r="G114" t="n">
-        <v>1180298.21248783</v>
+        <v>847957.7383878304</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -5010,32 +4965,37 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>28.7</v>
+        <v>29.1</v>
       </c>
       <c r="C115" t="n">
-        <v>28.3</v>
+        <v>29.1</v>
       </c>
       <c r="D115" t="n">
-        <v>28.7</v>
+        <v>29.1</v>
       </c>
       <c r="E115" t="n">
-        <v>28.3</v>
+        <v>29.1</v>
       </c>
       <c r="F115" t="n">
-        <v>27265.1397</v>
+        <v>6193.567</v>
       </c>
       <c r="G115" t="n">
-        <v>1153033.07278783</v>
+        <v>847957.7383878304</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -5045,32 +5005,35 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>28.3</v>
+        <v>28.9</v>
       </c>
       <c r="C116" t="n">
-        <v>28.3</v>
+        <v>29</v>
       </c>
       <c r="D116" t="n">
-        <v>28.3</v>
+        <v>29</v>
       </c>
       <c r="E116" t="n">
-        <v>28.3</v>
+        <v>28.4</v>
       </c>
       <c r="F116" t="n">
-        <v>14849.8078</v>
+        <v>84935.41439999999</v>
       </c>
       <c r="G116" t="n">
-        <v>1153033.07278783</v>
+        <v>763022.3239878304</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -5084,28 +5047,29 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>28.5</v>
+        <v>28.6</v>
       </c>
       <c r="C117" t="n">
         <v>28.5</v>
       </c>
       <c r="D117" t="n">
-        <v>28.5</v>
+        <v>28.6</v>
       </c>
       <c r="E117" t="n">
         <v>28.5</v>
       </c>
       <c r="F117" t="n">
-        <v>9000</v>
+        <v>30502.7288</v>
       </c>
       <c r="G117" t="n">
-        <v>1162033.07278783</v>
+        <v>732519.5951878304</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -5119,6 +5083,7 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5128,19 +5093,19 @@
         <v>28.5</v>
       </c>
       <c r="C118" t="n">
-        <v>28.6</v>
+        <v>29</v>
       </c>
       <c r="D118" t="n">
-        <v>28.6</v>
+        <v>29</v>
       </c>
       <c r="E118" t="n">
         <v>28.5</v>
       </c>
       <c r="F118" t="n">
-        <v>23318.8709</v>
+        <v>121</v>
       </c>
       <c r="G118" t="n">
-        <v>1185351.94368783</v>
+        <v>732640.5951878304</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -5154,28 +5119,29 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>28.6</v>
+        <v>29</v>
       </c>
       <c r="C119" t="n">
-        <v>28.6</v>
+        <v>29</v>
       </c>
       <c r="D119" t="n">
-        <v>28.6</v>
+        <v>29</v>
       </c>
       <c r="E119" t="n">
-        <v>28.6</v>
+        <v>29</v>
       </c>
       <c r="F119" t="n">
-        <v>4148.559</v>
+        <v>3448.27586206</v>
       </c>
       <c r="G119" t="n">
-        <v>1185351.94368783</v>
+        <v>732640.5951878304</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -5189,34 +5155,35 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>28.9</v>
+        <v>29.1</v>
       </c>
       <c r="C120" t="n">
-        <v>28.9</v>
+        <v>29.3</v>
       </c>
       <c r="D120" t="n">
-        <v>28.9</v>
+        <v>29.3</v>
       </c>
       <c r="E120" t="n">
-        <v>28.9</v>
+        <v>29.1</v>
       </c>
       <c r="F120" t="n">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="G120" t="n">
-        <v>1185361.94368783</v>
+        <v>732673.5951878304</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
@@ -5224,28 +5191,29 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>28.7</v>
+        <v>28.9</v>
       </c>
       <c r="C121" t="n">
         <v>28.6</v>
       </c>
       <c r="D121" t="n">
-        <v>28.7</v>
+        <v>28.9</v>
       </c>
       <c r="E121" t="n">
         <v>28.6</v>
       </c>
       <c r="F121" t="n">
-        <v>24567.7166</v>
+        <v>88534.2971</v>
       </c>
       <c r="G121" t="n">
-        <v>1160794.22708783</v>
+        <v>644139.2980878304</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -5259,28 +5227,29 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>28.6</v>
+        <v>28.7</v>
       </c>
       <c r="C122" t="n">
-        <v>28.5</v>
+        <v>28.7</v>
       </c>
       <c r="D122" t="n">
-        <v>28.6</v>
+        <v>28.7</v>
       </c>
       <c r="E122" t="n">
-        <v>28.5</v>
+        <v>28.7</v>
       </c>
       <c r="F122" t="n">
-        <v>31266.8779</v>
+        <v>3199.1245</v>
       </c>
       <c r="G122" t="n">
-        <v>1129527.34918783</v>
+        <v>647338.4225878305</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -5294,28 +5263,29 @@
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>28.5</v>
+        <v>28.7</v>
       </c>
       <c r="C123" t="n">
-        <v>28.6</v>
+        <v>28.7</v>
       </c>
       <c r="D123" t="n">
-        <v>28.6</v>
+        <v>28.7</v>
       </c>
       <c r="E123" t="n">
-        <v>28.4</v>
+        <v>28.7</v>
       </c>
       <c r="F123" t="n">
-        <v>26646.2172</v>
+        <v>54.4686</v>
       </c>
       <c r="G123" t="n">
-        <v>1156173.56638783</v>
+        <v>647338.4225878305</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5329,28 +5299,29 @@
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>28.4</v>
+        <v>28.8</v>
       </c>
       <c r="C124" t="n">
-        <v>28.4</v>
+        <v>28.7</v>
       </c>
       <c r="D124" t="n">
-        <v>28.4</v>
+        <v>29.1</v>
       </c>
       <c r="E124" t="n">
-        <v>28.4</v>
+        <v>28.7</v>
       </c>
       <c r="F124" t="n">
-        <v>13116.8173</v>
+        <v>4250.5827</v>
       </c>
       <c r="G124" t="n">
-        <v>1143056.74908783</v>
+        <v>647338.4225878305</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5364,28 +5335,29 @@
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>28.8</v>
+        <v>29.1</v>
       </c>
       <c r="C125" t="n">
-        <v>28.8</v>
+        <v>29.1</v>
       </c>
       <c r="D125" t="n">
-        <v>28.8</v>
+        <v>29.1</v>
       </c>
       <c r="E125" t="n">
-        <v>28.8</v>
+        <v>29.1</v>
       </c>
       <c r="F125" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G125" t="n">
-        <v>1143066.74908783</v>
+        <v>647349.4225878305</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5399,34 +5371,35 @@
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>28.8</v>
+        <v>28.6</v>
       </c>
       <c r="C126" t="n">
-        <v>28.9</v>
+        <v>28.5</v>
       </c>
       <c r="D126" t="n">
-        <v>28.9</v>
+        <v>28.6</v>
       </c>
       <c r="E126" t="n">
-        <v>28.8</v>
+        <v>28.5</v>
       </c>
       <c r="F126" t="n">
-        <v>19207.6274</v>
+        <v>31610.0671</v>
       </c>
       <c r="G126" t="n">
-        <v>1162274.37648783</v>
+        <v>615739.3554878305</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
@@ -5434,28 +5407,29 @@
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>28.8</v>
+        <v>28.5</v>
       </c>
       <c r="C127" t="n">
-        <v>28.7</v>
+        <v>28.5</v>
       </c>
       <c r="D127" t="n">
-        <v>28.8</v>
+        <v>28.5</v>
       </c>
       <c r="E127" t="n">
-        <v>28.7</v>
+        <v>28.5</v>
       </c>
       <c r="F127" t="n">
-        <v>6137.0619</v>
+        <v>107.9649</v>
       </c>
       <c r="G127" t="n">
-        <v>1156137.31458783</v>
+        <v>615739.3554878305</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5469,34 +5443,35 @@
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>28.9</v>
+        <v>28.2</v>
       </c>
       <c r="C128" t="n">
-        <v>28.9</v>
+        <v>28.2</v>
       </c>
       <c r="D128" t="n">
-        <v>28.9</v>
+        <v>28.2</v>
       </c>
       <c r="E128" t="n">
-        <v>28.9</v>
+        <v>28.2</v>
       </c>
       <c r="F128" t="n">
-        <v>10</v>
+        <v>51394.4285</v>
       </c>
       <c r="G128" t="n">
-        <v>1156147.31458783</v>
+        <v>564344.9269878304</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
@@ -5504,34 +5479,35 @@
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>28.7</v>
+        <v>28.5</v>
       </c>
       <c r="C129" t="n">
-        <v>28.7</v>
+        <v>28.5</v>
       </c>
       <c r="D129" t="n">
-        <v>28.7</v>
+        <v>28.5</v>
       </c>
       <c r="E129" t="n">
-        <v>28.7</v>
+        <v>28.5</v>
       </c>
       <c r="F129" t="n">
-        <v>9994.4566</v>
+        <v>11</v>
       </c>
       <c r="G129" t="n">
-        <v>1146152.85798783</v>
+        <v>564355.9269878304</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
@@ -5539,1476 +5515,7 @@
       <c r="M129" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="C130" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="D130" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="E130" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="F130" t="n">
-        <v>157286.3835</v>
-      </c>
-      <c r="G130" t="n">
-        <v>988866.4744878304</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>1</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="C131" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="D131" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="E131" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="F131" t="n">
-        <v>10</v>
-      </c>
-      <c r="G131" t="n">
-        <v>988876.4744878304</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="C132" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="D132" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="E132" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="F132" t="n">
-        <v>38584.1642</v>
-      </c>
-      <c r="G132" t="n">
-        <v>950292.3102878304</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="C133" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="D133" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="E133" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="F133" t="n">
-        <v>10</v>
-      </c>
-      <c r="G133" t="n">
-        <v>950302.3102878304</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="C134" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="D134" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="E134" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="F134" t="n">
-        <v>96606.9611</v>
-      </c>
-      <c r="G134" t="n">
-        <v>853695.3491878305</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="C135" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="D135" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="E135" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="F135" t="n">
-        <v>6285.8838</v>
-      </c>
-      <c r="G135" t="n">
-        <v>853695.3491878305</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="C136" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="D136" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="E136" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="F136" t="n">
-        <v>10</v>
-      </c>
-      <c r="G136" t="n">
-        <v>853705.3491878305</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="C137" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="D137" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="E137" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="F137" t="n">
-        <v>4995.5845</v>
-      </c>
-      <c r="G137" t="n">
-        <v>848709.7646878305</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="C138" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="D138" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="E138" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="F138" t="n">
-        <v>41236.07</v>
-      </c>
-      <c r="G138" t="n">
-        <v>807473.6946878305</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="C139" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="D139" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="E139" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="F139" t="n">
-        <v>30</v>
-      </c>
-      <c r="G139" t="n">
-        <v>807503.6946878305</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="C140" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="D140" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="E140" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="F140" t="n">
-        <v>26501.3315</v>
-      </c>
-      <c r="G140" t="n">
-        <v>807503.6946878305</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="C141" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="D141" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="E141" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="F141" t="n">
-        <v>535.4866</v>
-      </c>
-      <c r="G141" t="n">
-        <v>806968.2080878306</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="C142" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="D142" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="E142" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="F142" t="n">
-        <v>19679.6801</v>
-      </c>
-      <c r="G142" t="n">
-        <v>806968.2080878306</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="C143" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="D143" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="E143" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="F143" t="n">
-        <v>59300.735</v>
-      </c>
-      <c r="G143" t="n">
-        <v>866268.9430878306</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="C144" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="D144" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="E144" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="F144" t="n">
-        <v>25245.9127</v>
-      </c>
-      <c r="G144" t="n">
-        <v>841023.0303878306</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="C145" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="D145" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="E145" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="F145" t="n">
-        <v>84.8034</v>
-      </c>
-      <c r="G145" t="n">
-        <v>841107.8337878305</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="C146" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="D146" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="E146" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="F146" t="n">
-        <v>1600.106</v>
-      </c>
-      <c r="G146" t="n">
-        <v>841107.8337878305</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="C147" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="D147" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="E147" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="F147" t="n">
-        <v>10</v>
-      </c>
-      <c r="G147" t="n">
-        <v>841107.8337878305</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="C148" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="D148" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="E148" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="F148" t="n">
-        <v>20876.5047</v>
-      </c>
-      <c r="G148" t="n">
-        <v>841107.8337878305</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="C149" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="D149" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="E149" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="F149" t="n">
-        <v>24139.6384</v>
-      </c>
-      <c r="G149" t="n">
-        <v>816968.1953878305</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="C150" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="D150" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="E150" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="F150" t="n">
-        <v>10</v>
-      </c>
-      <c r="G150" t="n">
-        <v>816978.1953878305</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="C151" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="D151" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="E151" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="F151" t="n">
-        <v>20.7609</v>
-      </c>
-      <c r="G151" t="n">
-        <v>816978.1953878305</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="C152" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="D152" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="E152" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="F152" t="n">
-        <v>20</v>
-      </c>
-      <c r="G152" t="n">
-        <v>816978.1953878305</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="C153" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="D153" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="E153" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="F153" t="n">
-        <v>32686.0298</v>
-      </c>
-      <c r="G153" t="n">
-        <v>849664.2251878305</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="C154" t="n">
-        <v>29</v>
-      </c>
-      <c r="D154" t="n">
-        <v>29</v>
-      </c>
-      <c r="E154" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="F154" t="n">
-        <v>42860.1649</v>
-      </c>
-      <c r="G154" t="n">
-        <v>892524.3900878305</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="C155" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="D155" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="E155" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="F155" t="n">
-        <v>30573.0687</v>
-      </c>
-      <c r="G155" t="n">
-        <v>923097.4587878304</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="C156" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="D156" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="E156" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="F156" t="n">
-        <v>75139.72040000001</v>
-      </c>
-      <c r="G156" t="n">
-        <v>847957.7383878304</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="C157" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="D157" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="E157" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="F157" t="n">
-        <v>6193.567</v>
-      </c>
-      <c r="G157" t="n">
-        <v>847957.7383878304</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="C158" t="n">
-        <v>29</v>
-      </c>
-      <c r="D158" t="n">
-        <v>29</v>
-      </c>
-      <c r="E158" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="F158" t="n">
-        <v>84935.41439999999</v>
-      </c>
-      <c r="G158" t="n">
-        <v>763022.3239878304</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="C159" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="D159" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="E159" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="F159" t="n">
-        <v>30502.7288</v>
-      </c>
-      <c r="G159" t="n">
-        <v>732519.5951878304</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="C160" t="n">
-        <v>29</v>
-      </c>
-      <c r="D160" t="n">
-        <v>29</v>
-      </c>
-      <c r="E160" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="F160" t="n">
-        <v>121</v>
-      </c>
-      <c r="G160" t="n">
-        <v>732640.5951878304</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>29</v>
-      </c>
-      <c r="C161" t="n">
-        <v>29</v>
-      </c>
-      <c r="D161" t="n">
-        <v>29</v>
-      </c>
-      <c r="E161" t="n">
-        <v>29</v>
-      </c>
-      <c r="F161" t="n">
-        <v>3448.27586206</v>
-      </c>
-      <c r="G161" t="n">
-        <v>732640.5951878304</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="C162" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="D162" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="E162" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="F162" t="n">
-        <v>33</v>
-      </c>
-      <c r="G162" t="n">
-        <v>732673.5951878304</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="C163" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="D163" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="E163" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="F163" t="n">
-        <v>88534.2971</v>
-      </c>
-      <c r="G163" t="n">
-        <v>644139.2980878304</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="C164" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="D164" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="E164" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="F164" t="n">
-        <v>3199.1245</v>
-      </c>
-      <c r="G164" t="n">
-        <v>647338.4225878305</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="C165" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="D165" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="E165" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="F165" t="n">
-        <v>54.4686</v>
-      </c>
-      <c r="G165" t="n">
-        <v>647338.4225878305</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="C166" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="D166" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="E166" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="F166" t="n">
-        <v>4250.5827</v>
-      </c>
-      <c r="G166" t="n">
-        <v>647338.4225878305</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="C167" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="D167" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="E167" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="F167" t="n">
-        <v>11</v>
-      </c>
-      <c r="G167" t="n">
-        <v>647349.4225878305</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="C168" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="D168" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="E168" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="F168" t="n">
-        <v>31610.0671</v>
-      </c>
-      <c r="G168" t="n">
-        <v>615739.3554878305</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="C169" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="D169" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="E169" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="F169" t="n">
-        <v>107.9649</v>
-      </c>
-      <c r="G169" t="n">
-        <v>615739.3554878305</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>28.2</v>
-      </c>
-      <c r="C170" t="n">
-        <v>28.2</v>
-      </c>
-      <c r="D170" t="n">
-        <v>28.2</v>
-      </c>
-      <c r="E170" t="n">
-        <v>28.2</v>
-      </c>
-      <c r="F170" t="n">
-        <v>51394.4285</v>
-      </c>
-      <c r="G170" t="n">
-        <v>564344.9269878304</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="C171" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="D171" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="E171" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="F171" t="n">
-        <v>11</v>
-      </c>
-      <c r="G171" t="n">
-        <v>564355.9269878304</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
+      <c r="N129" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-11-02 BackTest CHR.xlsx
+++ b/BackTest/2019-11-02 BackTest CHR.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N129"/>
+  <dimension ref="A1:N200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>28</v>
+        <v>27.4</v>
       </c>
       <c r="C2" t="n">
-        <v>28</v>
+        <v>27.4</v>
       </c>
       <c r="D2" t="n">
-        <v>28</v>
+        <v>27.4</v>
       </c>
       <c r="E2" t="n">
-        <v>28</v>
+        <v>27.4</v>
       </c>
       <c r="F2" t="n">
-        <v>42.7856</v>
+        <v>11</v>
       </c>
       <c r="G2" t="n">
-        <v>116006.50062728</v>
+        <v>-16257.50837272</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>27.6</v>
+        <v>27.3</v>
       </c>
       <c r="C3" t="n">
-        <v>27.9</v>
+        <v>27.2</v>
       </c>
       <c r="D3" t="n">
-        <v>27.9</v>
+        <v>27.3</v>
       </c>
       <c r="E3" t="n">
-        <v>27.5</v>
+        <v>27.2</v>
       </c>
       <c r="F3" t="n">
-        <v>102973.0884</v>
+        <v>7981.8841</v>
       </c>
       <c r="G3" t="n">
-        <v>13033.41222727996</v>
+        <v>-24239.39247272</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>28</v>
+        <v>27.4</v>
       </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
@@ -516,31 +516,31 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="C4" t="n">
-        <v>27.9</v>
+        <v>27.6</v>
       </c>
       <c r="D4" t="n">
-        <v>27.9</v>
+        <v>27.6</v>
       </c>
       <c r="E4" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="F4" t="n">
+        <v>11</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-24228.39247272</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>27.2</v>
-      </c>
-      <c r="F4" t="n">
-        <v>53107.9369</v>
-      </c>
-      <c r="G4" t="n">
-        <v>13033.41222727996</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>27.9</v>
       </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
@@ -558,22 +558,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>27.9</v>
+        <v>27.8</v>
       </c>
       <c r="C5" t="n">
-        <v>28</v>
+        <v>27.8</v>
       </c>
       <c r="D5" t="n">
-        <v>28</v>
+        <v>27.8</v>
       </c>
       <c r="E5" t="n">
-        <v>27.9</v>
+        <v>27.8</v>
       </c>
       <c r="F5" t="n">
-        <v>51394.4285</v>
+        <v>11</v>
       </c>
       <c r="G5" t="n">
-        <v>64427.84072727996</v>
+        <v>-24217.39247272</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
@@ -582,7 +582,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>27.9</v>
+        <v>27.6</v>
       </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
@@ -600,22 +600,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>28</v>
+        <v>27.2</v>
       </c>
       <c r="C6" t="n">
-        <v>28.3</v>
+        <v>27.1</v>
       </c>
       <c r="D6" t="n">
-        <v>28.3</v>
+        <v>27.2</v>
       </c>
       <c r="E6" t="n">
-        <v>28</v>
+        <v>27.1</v>
       </c>
       <c r="F6" t="n">
-        <v>7337.9707</v>
+        <v>107161.8094</v>
       </c>
       <c r="G6" t="n">
-        <v>71765.81142727996</v>
+        <v>-131379.20187272</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
@@ -624,7 +624,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>28</v>
+        <v>27.8</v>
       </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
@@ -642,22 +642,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>28</v>
+        <v>27.6</v>
       </c>
       <c r="C7" t="n">
-        <v>28</v>
+        <v>27.6</v>
       </c>
       <c r="D7" t="n">
-        <v>28</v>
+        <v>27.6</v>
       </c>
       <c r="E7" t="n">
-        <v>28</v>
+        <v>27.6</v>
       </c>
       <c r="F7" t="n">
-        <v>16.5167</v>
+        <v>11</v>
       </c>
       <c r="G7" t="n">
-        <v>71749.29472727996</v>
+        <v>-131368.20187272</v>
       </c>
       <c r="H7" t="n">
         <v>1</v>
@@ -666,7 +666,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>28.3</v>
+        <v>27.1</v>
       </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
@@ -684,22 +684,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>28.3</v>
+        <v>27.2</v>
       </c>
       <c r="C8" t="n">
-        <v>28.3</v>
+        <v>27.2</v>
       </c>
       <c r="D8" t="n">
-        <v>28.3</v>
+        <v>27.2</v>
       </c>
       <c r="E8" t="n">
-        <v>28.3</v>
+        <v>27.2</v>
       </c>
       <c r="F8" t="n">
-        <v>10</v>
+        <v>3000</v>
       </c>
       <c r="G8" t="n">
-        <v>71759.29472727996</v>
+        <v>-134368.20187272</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>28</v>
+        <v>27.6</v>
       </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
@@ -726,22 +726,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>28</v>
+        <v>27.2</v>
       </c>
       <c r="C9" t="n">
-        <v>28</v>
+        <v>27.2</v>
       </c>
       <c r="D9" t="n">
-        <v>28</v>
+        <v>27.2</v>
       </c>
       <c r="E9" t="n">
-        <v>28</v>
+        <v>27.2</v>
       </c>
       <c r="F9" t="n">
-        <v>89.4054</v>
+        <v>8369.2389</v>
       </c>
       <c r="G9" t="n">
-        <v>71669.88932727996</v>
+        <v>-134368.20187272</v>
       </c>
       <c r="H9" t="n">
         <v>1</v>
@@ -750,7 +750,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>28.3</v>
+        <v>27.2</v>
       </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
@@ -768,22 +768,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>28</v>
+        <v>27.2</v>
       </c>
       <c r="C10" t="n">
-        <v>28.3</v>
+        <v>27.2</v>
       </c>
       <c r="D10" t="n">
-        <v>28.3</v>
+        <v>27.2</v>
       </c>
       <c r="E10" t="n">
-        <v>28</v>
+        <v>27.2</v>
       </c>
       <c r="F10" t="n">
-        <v>22968.1978</v>
+        <v>11971.4028</v>
       </c>
       <c r="G10" t="n">
-        <v>94638.08712727996</v>
+        <v>-134368.20187272</v>
       </c>
       <c r="H10" t="n">
         <v>1</v>
@@ -792,7 +792,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>28</v>
+        <v>27.2</v>
       </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
@@ -810,22 +810,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>28.3</v>
+        <v>27.8</v>
       </c>
       <c r="C11" t="n">
-        <v>28.7</v>
+        <v>27.8</v>
       </c>
       <c r="D11" t="n">
-        <v>28.7</v>
+        <v>27.8</v>
       </c>
       <c r="E11" t="n">
-        <v>28.3</v>
+        <v>27.8</v>
       </c>
       <c r="F11" t="n">
-        <v>5825.3761</v>
+        <v>11</v>
       </c>
       <c r="G11" t="n">
-        <v>100463.4632272799</v>
+        <v>-134357.20187272</v>
       </c>
       <c r="H11" t="n">
         <v>1</v>
@@ -834,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>28.3</v>
+        <v>27.2</v>
       </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
@@ -852,30 +852,32 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>28.3</v>
+        <v>27.8</v>
       </c>
       <c r="C12" t="n">
-        <v>28.3</v>
+        <v>28</v>
       </c>
       <c r="D12" t="n">
-        <v>28.3</v>
+        <v>28</v>
       </c>
       <c r="E12" t="n">
-        <v>28.3</v>
+        <v>27.8</v>
       </c>
       <c r="F12" t="n">
-        <v>193.1751</v>
+        <v>65561.4964</v>
       </c>
       <c r="G12" t="n">
-        <v>100270.28812728</v>
+        <v>-68795.70547272</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>27.8</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
@@ -892,31 +894,31 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="D13" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="E13" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="F13" t="n">
+        <v>10</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-68805.70547272</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
         <v>28</v>
-      </c>
-      <c r="C13" t="n">
-        <v>28</v>
-      </c>
-      <c r="D13" t="n">
-        <v>28</v>
-      </c>
-      <c r="E13" t="n">
-        <v>28</v>
-      </c>
-      <c r="F13" t="n">
-        <v>400</v>
-      </c>
-      <c r="G13" t="n">
-        <v>99870.28812727996</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>28.3</v>
       </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
@@ -934,22 +936,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>28.4</v>
+        <v>27.8</v>
       </c>
       <c r="C14" t="n">
-        <v>28.4</v>
+        <v>27.8</v>
       </c>
       <c r="D14" t="n">
-        <v>28.4</v>
+        <v>27.8</v>
       </c>
       <c r="E14" t="n">
-        <v>28.4</v>
+        <v>27.8</v>
       </c>
       <c r="F14" t="n">
-        <v>11</v>
+        <v>60000</v>
       </c>
       <c r="G14" t="n">
-        <v>99881.28812727996</v>
+        <v>-8805.705472720001</v>
       </c>
       <c r="H14" t="n">
         <v>1</v>
@@ -958,7 +960,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>28</v>
+        <v>27.1</v>
       </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
@@ -976,32 +978,30 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>28.4</v>
+        <v>27.8</v>
       </c>
       <c r="C15" t="n">
-        <v>28.5</v>
+        <v>27.9</v>
       </c>
       <c r="D15" t="n">
-        <v>28.5</v>
+        <v>27.9</v>
       </c>
       <c r="E15" t="n">
-        <v>28.4</v>
+        <v>27.8</v>
       </c>
       <c r="F15" t="n">
-        <v>23215.9475</v>
+        <v>120011</v>
       </c>
       <c r="G15" t="n">
-        <v>123097.23562728</v>
+        <v>111205.29452728</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>28.4</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
@@ -1018,32 +1018,30 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>28.7</v>
+        <v>27.8</v>
       </c>
       <c r="C16" t="n">
-        <v>29.1</v>
+        <v>27.8</v>
       </c>
       <c r="D16" t="n">
-        <v>29.1</v>
+        <v>27.8</v>
       </c>
       <c r="E16" t="n">
-        <v>28.7</v>
+        <v>27.1</v>
       </c>
       <c r="F16" t="n">
-        <v>43215.9078</v>
+        <v>60760.0073</v>
       </c>
       <c r="G16" t="n">
-        <v>166313.14342728</v>
+        <v>50445.28722728</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
@@ -1060,22 +1058,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>29.1</v>
+        <v>27.5</v>
       </c>
       <c r="C17" t="n">
-        <v>29.3</v>
+        <v>27.1</v>
       </c>
       <c r="D17" t="n">
-        <v>29.3</v>
+        <v>27.7</v>
       </c>
       <c r="E17" t="n">
-        <v>29.1</v>
+        <v>27.1</v>
       </c>
       <c r="F17" t="n">
-        <v>62543.8747</v>
+        <v>27267.2704</v>
       </c>
       <c r="G17" t="n">
-        <v>228857.0181272799</v>
+        <v>23178.01682728</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1100,22 +1098,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>29.3</v>
+        <v>27.7</v>
       </c>
       <c r="C18" t="n">
-        <v>29.1</v>
+        <v>27.7</v>
       </c>
       <c r="D18" t="n">
-        <v>29.3</v>
+        <v>27.7</v>
       </c>
       <c r="E18" t="n">
-        <v>29.1</v>
+        <v>27.7</v>
       </c>
       <c r="F18" t="n">
-        <v>32956.21124948</v>
+        <v>11</v>
       </c>
       <c r="G18" t="n">
-        <v>195900.8068777999</v>
+        <v>23189.01682728</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1140,22 +1138,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>29.1</v>
+        <v>27.7</v>
       </c>
       <c r="C19" t="n">
-        <v>30.5</v>
+        <v>27.7</v>
       </c>
       <c r="D19" t="n">
-        <v>30.5</v>
+        <v>27.7</v>
       </c>
       <c r="E19" t="n">
-        <v>29.1</v>
+        <v>27.7</v>
       </c>
       <c r="F19" t="n">
-        <v>481769.9357726</v>
+        <v>50000</v>
       </c>
       <c r="G19" t="n">
-        <v>677670.7426503999</v>
+        <v>23189.01682728</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1180,22 +1178,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>30.5</v>
+        <v>27.2</v>
       </c>
       <c r="C20" t="n">
-        <v>30.7</v>
+        <v>27.6</v>
       </c>
       <c r="D20" t="n">
-        <v>30.7</v>
+        <v>27.6</v>
       </c>
       <c r="E20" t="n">
-        <v>30.5</v>
+        <v>27.2</v>
       </c>
       <c r="F20" t="n">
-        <v>40665.3827</v>
+        <v>5454.5826</v>
       </c>
       <c r="G20" t="n">
-        <v>718336.1253503999</v>
+        <v>17734.43422728</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1220,22 +1218,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>30.7</v>
+        <v>27.4</v>
       </c>
       <c r="C21" t="n">
-        <v>30.7</v>
+        <v>27.4</v>
       </c>
       <c r="D21" t="n">
-        <v>30.7</v>
+        <v>27.4</v>
       </c>
       <c r="E21" t="n">
-        <v>30.7</v>
+        <v>27.4</v>
       </c>
       <c r="F21" t="n">
-        <v>32414.1367</v>
+        <v>11</v>
       </c>
       <c r="G21" t="n">
-        <v>718336.1253503999</v>
+        <v>17723.43422728</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1260,30 +1258,32 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>30.7</v>
+        <v>27.6</v>
       </c>
       <c r="C22" t="n">
-        <v>31</v>
+        <v>27.6</v>
       </c>
       <c r="D22" t="n">
-        <v>31</v>
+        <v>27.6</v>
       </c>
       <c r="E22" t="n">
-        <v>30.7</v>
+        <v>27.6</v>
       </c>
       <c r="F22" t="n">
-        <v>68204.2294</v>
+        <v>12</v>
       </c>
       <c r="G22" t="n">
-        <v>786540.3547503998</v>
+        <v>17735.43422728</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>27.4</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr">
         <is>
@@ -1300,30 +1300,32 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>30.2</v>
+        <v>27.3</v>
       </c>
       <c r="C23" t="n">
-        <v>30.9</v>
+        <v>27.3</v>
       </c>
       <c r="D23" t="n">
-        <v>30.9</v>
+        <v>27.3</v>
       </c>
       <c r="E23" t="n">
-        <v>29.7</v>
+        <v>27.3</v>
       </c>
       <c r="F23" t="n">
-        <v>118213.2916</v>
+        <v>140.2197</v>
       </c>
       <c r="G23" t="n">
-        <v>668327.0631503998</v>
+        <v>17595.21452728</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>27.6</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr">
         <is>
@@ -1340,30 +1342,32 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>30.3</v>
+        <v>27.3</v>
       </c>
       <c r="C24" t="n">
-        <v>30.7</v>
+        <v>27.3</v>
       </c>
       <c r="D24" t="n">
-        <v>30.9</v>
+        <v>27.3</v>
       </c>
       <c r="E24" t="n">
-        <v>30.2</v>
+        <v>27.3</v>
       </c>
       <c r="F24" t="n">
-        <v>207087.4001</v>
+        <v>5871.0716</v>
       </c>
       <c r="G24" t="n">
-        <v>461239.6630503999</v>
+        <v>17595.21452728</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>27.3</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr">
         <is>
@@ -1380,30 +1384,32 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>30.7</v>
+        <v>27.4</v>
       </c>
       <c r="C25" t="n">
-        <v>31.1</v>
+        <v>27.2</v>
       </c>
       <c r="D25" t="n">
-        <v>31.1</v>
+        <v>27.4</v>
       </c>
       <c r="E25" t="n">
-        <v>30.7</v>
+        <v>27.2</v>
       </c>
       <c r="F25" t="n">
-        <v>232776.4981274</v>
+        <v>1699.08</v>
       </c>
       <c r="G25" t="n">
-        <v>694016.1611777998</v>
+        <v>15896.13452728</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>27.3</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr">
         <is>
@@ -1420,30 +1426,32 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>30.8</v>
+        <v>27.2</v>
       </c>
       <c r="C26" t="n">
-        <v>31.6</v>
+        <v>27.2</v>
       </c>
       <c r="D26" t="n">
-        <v>31.6</v>
+        <v>27.6</v>
       </c>
       <c r="E26" t="n">
-        <v>30.8</v>
+        <v>27.2</v>
       </c>
       <c r="F26" t="n">
-        <v>262604.0144</v>
+        <v>16449.2281</v>
       </c>
       <c r="G26" t="n">
-        <v>956620.1755777998</v>
+        <v>15896.13452728</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>27.2</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr">
         <is>
@@ -1460,30 +1468,32 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>31.5</v>
+        <v>27.1</v>
       </c>
       <c r="C27" t="n">
-        <v>31</v>
+        <v>27.6</v>
       </c>
       <c r="D27" t="n">
-        <v>31.5</v>
+        <v>27.6</v>
       </c>
       <c r="E27" t="n">
-        <v>30.8</v>
+        <v>27</v>
       </c>
       <c r="F27" t="n">
-        <v>6262</v>
+        <v>50044.1159</v>
       </c>
       <c r="G27" t="n">
-        <v>950358.1755777998</v>
+        <v>65940.25042728</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>27.2</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr">
         <is>
@@ -1500,30 +1510,32 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>31.4</v>
+        <v>27.2</v>
       </c>
       <c r="C28" t="n">
-        <v>30.9</v>
+        <v>27.6</v>
       </c>
       <c r="D28" t="n">
-        <v>31.4</v>
+        <v>27.6</v>
       </c>
       <c r="E28" t="n">
-        <v>29.1</v>
+        <v>27.2</v>
       </c>
       <c r="F28" t="n">
-        <v>77471.5368</v>
+        <v>23</v>
       </c>
       <c r="G28" t="n">
-        <v>872886.6387777998</v>
+        <v>65940.25042728</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>27.6</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr">
         <is>
@@ -1540,30 +1552,32 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>29.9</v>
+        <v>27.3</v>
       </c>
       <c r="C29" t="n">
-        <v>29.4</v>
+        <v>27.3</v>
       </c>
       <c r="D29" t="n">
-        <v>29.9</v>
+        <v>27.3</v>
       </c>
       <c r="E29" t="n">
-        <v>29.4</v>
+        <v>27.3</v>
       </c>
       <c r="F29" t="n">
-        <v>678.896</v>
+        <v>20</v>
       </c>
       <c r="G29" t="n">
-        <v>872207.7427777998</v>
+        <v>65920.25042728</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>27.6</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr">
         <is>
@@ -1580,30 +1594,32 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>29.2</v>
+        <v>27.6</v>
       </c>
       <c r="C30" t="n">
-        <v>29.7</v>
+        <v>27.6</v>
       </c>
       <c r="D30" t="n">
-        <v>29.8</v>
+        <v>27.6</v>
       </c>
       <c r="E30" t="n">
-        <v>28.9</v>
+        <v>27.6</v>
       </c>
       <c r="F30" t="n">
-        <v>60814.0869</v>
+        <v>11</v>
       </c>
       <c r="G30" t="n">
-        <v>933021.8296777998</v>
+        <v>65931.25042728</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>27.3</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr">
         <is>
@@ -1620,30 +1636,32 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>29.5</v>
+        <v>27.1</v>
       </c>
       <c r="C31" t="n">
-        <v>29.9</v>
+        <v>27.1</v>
       </c>
       <c r="D31" t="n">
-        <v>29.9</v>
+        <v>27.1</v>
       </c>
       <c r="E31" t="n">
-        <v>29.4</v>
+        <v>27.1</v>
       </c>
       <c r="F31" t="n">
-        <v>44331.3169</v>
+        <v>3480</v>
       </c>
       <c r="G31" t="n">
-        <v>977353.1465777998</v>
+        <v>62451.25042728</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>27.6</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr">
         <is>
@@ -1660,30 +1678,32 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>30</v>
+        <v>27.6</v>
       </c>
       <c r="C32" t="n">
-        <v>30.4</v>
+        <v>27.6</v>
       </c>
       <c r="D32" t="n">
-        <v>30.9</v>
+        <v>27.6</v>
       </c>
       <c r="E32" t="n">
-        <v>29.9</v>
+        <v>27.6</v>
       </c>
       <c r="F32" t="n">
-        <v>73404.53711003</v>
+        <v>11</v>
       </c>
       <c r="G32" t="n">
-        <v>1050757.68368783</v>
+        <v>62462.25042728</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr">
         <is>
@@ -1700,22 +1720,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>30.5</v>
+        <v>27.1</v>
       </c>
       <c r="C33" t="n">
-        <v>29.9</v>
+        <v>27</v>
       </c>
       <c r="D33" t="n">
-        <v>30.5</v>
+        <v>27.1</v>
       </c>
       <c r="E33" t="n">
-        <v>29.9</v>
+        <v>27</v>
       </c>
       <c r="F33" t="n">
-        <v>20131.4204</v>
+        <v>45266.088</v>
       </c>
       <c r="G33" t="n">
-        <v>1030626.26328783</v>
+        <v>17196.16242728</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1740,30 +1760,32 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>29.6</v>
+        <v>27.6</v>
       </c>
       <c r="C34" t="n">
-        <v>30</v>
+        <v>27.8</v>
       </c>
       <c r="D34" t="n">
-        <v>30.5</v>
+        <v>27.8</v>
       </c>
       <c r="E34" t="n">
-        <v>29.4</v>
+        <v>27.6</v>
       </c>
       <c r="F34" t="n">
-        <v>175285.3056</v>
+        <v>345.0359</v>
       </c>
       <c r="G34" t="n">
-        <v>1205911.56888783</v>
+        <v>17541.19832728</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>27</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr">
         <is>
@@ -1780,22 +1802,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>30.2</v>
+        <v>27.7</v>
       </c>
       <c r="C35" t="n">
-        <v>30.2</v>
+        <v>27.7</v>
       </c>
       <c r="D35" t="n">
-        <v>30.2</v>
+        <v>27.7</v>
       </c>
       <c r="E35" t="n">
-        <v>30.2</v>
+        <v>27.7</v>
       </c>
       <c r="F35" t="n">
-        <v>10</v>
+        <v>125.7761</v>
       </c>
       <c r="G35" t="n">
-        <v>1205921.56888783</v>
+        <v>17415.42222728</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1820,22 +1842,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>30.1</v>
+        <v>27.6</v>
       </c>
       <c r="C36" t="n">
-        <v>30.2</v>
+        <v>27.9</v>
       </c>
       <c r="D36" t="n">
-        <v>30.2</v>
+        <v>27.9</v>
       </c>
       <c r="E36" t="n">
-        <v>30</v>
+        <v>27.6</v>
       </c>
       <c r="F36" t="n">
-        <v>93648.9347</v>
+        <v>49387.0792</v>
       </c>
       <c r="G36" t="n">
-        <v>1205921.56888783</v>
+        <v>66802.50142727999</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1860,22 +1882,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>30</v>
+        <v>27.9</v>
       </c>
       <c r="C37" t="n">
-        <v>30</v>
+        <v>27.9</v>
       </c>
       <c r="D37" t="n">
-        <v>30</v>
+        <v>27.9</v>
       </c>
       <c r="E37" t="n">
-        <v>30</v>
+        <v>27.9</v>
       </c>
       <c r="F37" t="n">
-        <v>605.6179</v>
+        <v>28119.8453</v>
       </c>
       <c r="G37" t="n">
-        <v>1205315.95098783</v>
+        <v>66802.50142727999</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1900,22 +1922,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>29.9</v>
+        <v>28</v>
       </c>
       <c r="C38" t="n">
-        <v>30.1</v>
+        <v>28</v>
       </c>
       <c r="D38" t="n">
-        <v>30.1</v>
+        <v>28</v>
       </c>
       <c r="E38" t="n">
-        <v>29.5</v>
+        <v>28</v>
       </c>
       <c r="F38" t="n">
-        <v>4794.2606</v>
+        <v>10</v>
       </c>
       <c r="G38" t="n">
-        <v>1210110.21158783</v>
+        <v>66812.50142727999</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1940,22 +1962,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C39" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D39" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E39" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F39" t="n">
-        <v>20872.7666</v>
+        <v>6578.9285</v>
       </c>
       <c r="G39" t="n">
-        <v>1189237.44498783</v>
+        <v>66812.50142727999</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1980,22 +2002,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>29.5</v>
+        <v>27.4</v>
       </c>
       <c r="C40" t="n">
-        <v>29.4</v>
+        <v>28</v>
       </c>
       <c r="D40" t="n">
-        <v>29.5</v>
+        <v>28</v>
       </c>
       <c r="E40" t="n">
-        <v>29.4</v>
+        <v>27.4</v>
       </c>
       <c r="F40" t="n">
-        <v>15771.722</v>
+        <v>3162.02</v>
       </c>
       <c r="G40" t="n">
-        <v>1173465.72298783</v>
+        <v>66812.50142727999</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2020,22 +2042,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>29.9</v>
+        <v>27.4</v>
       </c>
       <c r="C41" t="n">
-        <v>29.8</v>
+        <v>28</v>
       </c>
       <c r="D41" t="n">
-        <v>29.9</v>
+        <v>28</v>
       </c>
       <c r="E41" t="n">
-        <v>29.4</v>
+        <v>27.4</v>
       </c>
       <c r="F41" t="n">
-        <v>29915.8197</v>
+        <v>192.4817</v>
       </c>
       <c r="G41" t="n">
-        <v>1203381.54268783</v>
+        <v>66812.50142727999</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2060,22 +2082,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>29.8</v>
+        <v>28</v>
       </c>
       <c r="C42" t="n">
-        <v>29.8</v>
+        <v>28.2</v>
       </c>
       <c r="D42" t="n">
-        <v>29.8</v>
+        <v>28.2</v>
       </c>
       <c r="E42" t="n">
-        <v>29.8</v>
+        <v>28</v>
       </c>
       <c r="F42" t="n">
-        <v>6347.5428</v>
+        <v>75413.1914</v>
       </c>
       <c r="G42" t="n">
-        <v>1203381.54268783</v>
+        <v>142225.69282728</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2100,22 +2122,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>29.8</v>
+        <v>27.7</v>
       </c>
       <c r="C43" t="n">
-        <v>29.9</v>
+        <v>28.1</v>
       </c>
       <c r="D43" t="n">
-        <v>29.9</v>
+        <v>28.1</v>
       </c>
       <c r="E43" t="n">
-        <v>29.4</v>
+        <v>27.2</v>
       </c>
       <c r="F43" t="n">
-        <v>139983.2478</v>
+        <v>13249.485</v>
       </c>
       <c r="G43" t="n">
-        <v>1343364.79048783</v>
+        <v>128976.20782728</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2140,22 +2162,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>29.9</v>
+        <v>27.4</v>
       </c>
       <c r="C44" t="n">
-        <v>29.9</v>
+        <v>27.4</v>
       </c>
       <c r="D44" t="n">
-        <v>29.9</v>
+        <v>27.4</v>
       </c>
       <c r="E44" t="n">
-        <v>29.9</v>
+        <v>27.4</v>
       </c>
       <c r="F44" t="n">
-        <v>3344.48160535</v>
+        <v>7827.4097</v>
       </c>
       <c r="G44" t="n">
-        <v>1343364.79048783</v>
+        <v>121148.79812728</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2180,22 +2202,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>29.7</v>
+        <v>27.9</v>
       </c>
       <c r="C45" t="n">
-        <v>29.7</v>
+        <v>27.9</v>
       </c>
       <c r="D45" t="n">
-        <v>29.7</v>
+        <v>27.9</v>
       </c>
       <c r="E45" t="n">
-        <v>29.7</v>
+        <v>27.9</v>
       </c>
       <c r="F45" t="n">
-        <v>11</v>
+        <v>101.4301</v>
       </c>
       <c r="G45" t="n">
-        <v>1343353.79048783</v>
+        <v>121250.22822728</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2220,22 +2242,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>29.7</v>
+        <v>27.3</v>
       </c>
       <c r="C46" t="n">
-        <v>29.7</v>
+        <v>27.3</v>
       </c>
       <c r="D46" t="n">
-        <v>29.7</v>
+        <v>27.3</v>
       </c>
       <c r="E46" t="n">
-        <v>29.4</v>
+        <v>27.3</v>
       </c>
       <c r="F46" t="n">
-        <v>31113.5763</v>
+        <v>40695.6085</v>
       </c>
       <c r="G46" t="n">
-        <v>1343353.79048783</v>
+        <v>80554.61972727996</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2260,22 +2282,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>29.2</v>
+        <v>27.9</v>
       </c>
       <c r="C47" t="n">
-        <v>29.4</v>
+        <v>28.7</v>
       </c>
       <c r="D47" t="n">
-        <v>29.4</v>
+        <v>28.7</v>
       </c>
       <c r="E47" t="n">
-        <v>28.6</v>
+        <v>27.9</v>
       </c>
       <c r="F47" t="n">
-        <v>123990.6555</v>
+        <v>11372.8575</v>
       </c>
       <c r="G47" t="n">
-        <v>1219363.13498783</v>
+        <v>91927.47722727996</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2300,22 +2322,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>28.7</v>
+        <v>28.6</v>
       </c>
       <c r="C48" t="n">
-        <v>29</v>
+        <v>28.6</v>
       </c>
       <c r="D48" t="n">
-        <v>29</v>
+        <v>28.6</v>
       </c>
       <c r="E48" t="n">
-        <v>28.7</v>
+        <v>28.6</v>
       </c>
       <c r="F48" t="n">
-        <v>53453.1604</v>
+        <v>22540.0642</v>
       </c>
       <c r="G48" t="n">
-        <v>1165909.97458783</v>
+        <v>69387.41302727995</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2340,22 +2362,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>29.3</v>
+        <v>28.6</v>
       </c>
       <c r="C49" t="n">
-        <v>29.3</v>
+        <v>28.6</v>
       </c>
       <c r="D49" t="n">
-        <v>29.3</v>
+        <v>28.6</v>
       </c>
       <c r="E49" t="n">
-        <v>28.5</v>
+        <v>28.6</v>
       </c>
       <c r="F49" t="n">
-        <v>113320.3682</v>
+        <v>26717.9987</v>
       </c>
       <c r="G49" t="n">
-        <v>1279230.34278783</v>
+        <v>69387.41302727995</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2383,19 +2405,19 @@
         <v>28.6</v>
       </c>
       <c r="C50" t="n">
-        <v>28.4</v>
+        <v>28.5</v>
       </c>
       <c r="D50" t="n">
         <v>28.6</v>
       </c>
       <c r="E50" t="n">
-        <v>28.4</v>
+        <v>28.5</v>
       </c>
       <c r="F50" t="n">
-        <v>75012.9644</v>
+        <v>22018.6013</v>
       </c>
       <c r="G50" t="n">
-        <v>1204217.37838783</v>
+        <v>47368.81172727996</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2420,22 +2442,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>28.5</v>
+        <v>28.7</v>
       </c>
       <c r="C51" t="n">
-        <v>28.5</v>
+        <v>28.7</v>
       </c>
       <c r="D51" t="n">
         <v>28.7</v>
       </c>
       <c r="E51" t="n">
-        <v>28.5</v>
+        <v>28.7</v>
       </c>
       <c r="F51" t="n">
-        <v>19757.4676</v>
+        <v>11</v>
       </c>
       <c r="G51" t="n">
-        <v>1223974.84598783</v>
+        <v>47379.81172727996</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2460,22 +2482,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>28.7</v>
+        <v>28.1</v>
       </c>
       <c r="C52" t="n">
-        <v>28.8</v>
+        <v>27.9</v>
       </c>
       <c r="D52" t="n">
-        <v>28.8</v>
+        <v>28.1</v>
       </c>
       <c r="E52" t="n">
-        <v>28.7</v>
+        <v>27.9</v>
       </c>
       <c r="F52" t="n">
-        <v>20</v>
+        <v>1065.7689</v>
       </c>
       <c r="G52" t="n">
-        <v>1223994.84598783</v>
+        <v>46314.04282727995</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2500,22 +2522,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>28.5</v>
+        <v>28.1</v>
       </c>
       <c r="C53" t="n">
-        <v>28.7</v>
+        <v>28.1</v>
       </c>
       <c r="D53" t="n">
-        <v>28.7</v>
+        <v>28.1</v>
       </c>
       <c r="E53" t="n">
-        <v>28.5</v>
+        <v>28.1</v>
       </c>
       <c r="F53" t="n">
-        <v>21825.0431</v>
+        <v>10</v>
       </c>
       <c r="G53" t="n">
-        <v>1202169.80288783</v>
+        <v>46324.04282727995</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2540,22 +2562,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>28.5</v>
+        <v>27.4</v>
       </c>
       <c r="C54" t="n">
-        <v>28.5</v>
+        <v>27.5</v>
       </c>
       <c r="D54" t="n">
-        <v>28.5</v>
+        <v>27.5</v>
       </c>
       <c r="E54" t="n">
-        <v>28.5</v>
+        <v>27.4</v>
       </c>
       <c r="F54" t="n">
-        <v>17604.7463</v>
+        <v>9354.8089</v>
       </c>
       <c r="G54" t="n">
-        <v>1184565.05658783</v>
+        <v>36969.23392727996</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2580,22 +2602,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>28.5</v>
+        <v>27.3</v>
       </c>
       <c r="C55" t="n">
-        <v>28.5</v>
+        <v>27.2</v>
       </c>
       <c r="D55" t="n">
-        <v>28.5</v>
+        <v>27.3</v>
       </c>
       <c r="E55" t="n">
-        <v>28.5</v>
+        <v>27.2</v>
       </c>
       <c r="F55" t="n">
-        <v>3562.2835</v>
+        <v>49123.9452</v>
       </c>
       <c r="G55" t="n">
-        <v>1184565.05658783</v>
+        <v>-12154.71127272004</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2620,22 +2642,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>28.6</v>
+        <v>28</v>
       </c>
       <c r="C56" t="n">
-        <v>28.8</v>
+        <v>28</v>
       </c>
       <c r="D56" t="n">
-        <v>28.8</v>
+        <v>28</v>
       </c>
       <c r="E56" t="n">
-        <v>28.6</v>
+        <v>28</v>
       </c>
       <c r="F56" t="n">
-        <v>86391.94439999999</v>
+        <v>10</v>
       </c>
       <c r="G56" t="n">
-        <v>1270957.00098783</v>
+        <v>-12144.71127272004</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2660,22 +2682,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>28.8</v>
+        <v>27.3</v>
       </c>
       <c r="C57" t="n">
-        <v>28.8</v>
+        <v>27.3</v>
       </c>
       <c r="D57" t="n">
-        <v>28.8</v>
+        <v>27.3</v>
       </c>
       <c r="E57" t="n">
-        <v>28.8</v>
+        <v>27.3</v>
       </c>
       <c r="F57" t="n">
-        <v>24200.1388</v>
+        <v>21.6139</v>
       </c>
       <c r="G57" t="n">
-        <v>1270957.00098783</v>
+        <v>-12166.32517272004</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2700,22 +2722,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>28.8</v>
+        <v>28</v>
       </c>
       <c r="C58" t="n">
-        <v>29</v>
+        <v>28.2</v>
       </c>
       <c r="D58" t="n">
-        <v>29</v>
+        <v>28.2</v>
       </c>
       <c r="E58" t="n">
-        <v>28.8</v>
+        <v>28</v>
       </c>
       <c r="F58" t="n">
-        <v>65007.0162</v>
+        <v>23899.6497</v>
       </c>
       <c r="G58" t="n">
-        <v>1335964.01718783</v>
+        <v>11733.32452727996</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2740,22 +2762,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>28.8</v>
+        <v>28.4</v>
       </c>
       <c r="C59" t="n">
         <v>28.5</v>
       </c>
       <c r="D59" t="n">
-        <v>28.8</v>
+        <v>28.5</v>
       </c>
       <c r="E59" t="n">
-        <v>28.5</v>
+        <v>28.4</v>
       </c>
       <c r="F59" t="n">
-        <v>68418.7372</v>
+        <v>452</v>
       </c>
       <c r="G59" t="n">
-        <v>1267545.27998783</v>
+        <v>12185.32452727996</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2780,22 +2802,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>28.4</v>
+        <v>28.5</v>
       </c>
       <c r="C60" t="n">
-        <v>28.4</v>
+        <v>28.6</v>
       </c>
       <c r="D60" t="n">
-        <v>28.4</v>
+        <v>28.6</v>
       </c>
       <c r="E60" t="n">
-        <v>28.4</v>
+        <v>28.5</v>
       </c>
       <c r="F60" t="n">
-        <v>45408.2704</v>
+        <v>53087.9369</v>
       </c>
       <c r="G60" t="n">
-        <v>1222137.00958783</v>
+        <v>65273.26142727995</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2820,22 +2842,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>28.7</v>
+        <v>28.6</v>
       </c>
       <c r="C61" t="n">
-        <v>28.7</v>
+        <v>28.6</v>
       </c>
       <c r="D61" t="n">
-        <v>28.7</v>
+        <v>28.6</v>
       </c>
       <c r="E61" t="n">
-        <v>28.7</v>
+        <v>28.6</v>
       </c>
       <c r="F61" t="n">
-        <v>10</v>
+        <v>45003.5077</v>
       </c>
       <c r="G61" t="n">
-        <v>1222147.00958783</v>
+        <v>65273.26142727995</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2860,7 +2882,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>28.3</v>
+        <v>28.6</v>
       </c>
       <c r="C62" t="n">
         <v>28.6</v>
@@ -2869,13 +2891,13 @@
         <v>28.6</v>
       </c>
       <c r="E62" t="n">
-        <v>28.3</v>
+        <v>28.6</v>
       </c>
       <c r="F62" t="n">
-        <v>42067.3375</v>
+        <v>30386.3873</v>
       </c>
       <c r="G62" t="n">
-        <v>1180079.67208783</v>
+        <v>65273.26142727995</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2900,22 +2922,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>28.4</v>
+        <v>28.6</v>
       </c>
       <c r="C63" t="n">
-        <v>28.3</v>
+        <v>28.7</v>
       </c>
       <c r="D63" t="n">
-        <v>28.4</v>
+        <v>28.7</v>
       </c>
       <c r="E63" t="n">
-        <v>28.3</v>
+        <v>28.6</v>
       </c>
       <c r="F63" t="n">
-        <v>1656.4626</v>
+        <v>11263.2025</v>
       </c>
       <c r="G63" t="n">
-        <v>1178423.20948783</v>
+        <v>76536.46392727995</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2940,22 +2962,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>28.4</v>
+        <v>28.8</v>
       </c>
       <c r="C64" t="n">
-        <v>28.4</v>
+        <v>29.3</v>
       </c>
       <c r="D64" t="n">
-        <v>28.4</v>
+        <v>29.3</v>
       </c>
       <c r="E64" t="n">
-        <v>28.4</v>
+        <v>28.8</v>
       </c>
       <c r="F64" t="n">
-        <v>11</v>
+        <v>117186.7508</v>
       </c>
       <c r="G64" t="n">
-        <v>1178434.20948783</v>
+        <v>193723.21472728</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2980,22 +3002,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>28.3</v>
+        <v>29.3</v>
       </c>
       <c r="C65" t="n">
-        <v>28.6</v>
+        <v>29.3</v>
       </c>
       <c r="D65" t="n">
-        <v>28.6</v>
+        <v>29.3</v>
       </c>
       <c r="E65" t="n">
-        <v>28.3</v>
+        <v>28.1</v>
       </c>
       <c r="F65" t="n">
-        <v>17945.3715</v>
+        <v>131574.8852</v>
       </c>
       <c r="G65" t="n">
-        <v>1196379.58098783</v>
+        <v>193723.21472728</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -3020,22 +3042,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>28.6</v>
+        <v>29</v>
       </c>
       <c r="C66" t="n">
-        <v>28.6</v>
+        <v>29.1</v>
       </c>
       <c r="D66" t="n">
-        <v>28.6</v>
+        <v>29.1</v>
       </c>
       <c r="E66" t="n">
-        <v>28.6</v>
+        <v>29</v>
       </c>
       <c r="F66" t="n">
-        <v>6954.8851</v>
+        <v>50000</v>
       </c>
       <c r="G66" t="n">
-        <v>1196379.58098783</v>
+        <v>143723.21472728</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -3060,22 +3082,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>28.7</v>
+        <v>27.8</v>
       </c>
       <c r="C67" t="n">
-        <v>28.7</v>
+        <v>27.6</v>
       </c>
       <c r="D67" t="n">
-        <v>28.7</v>
+        <v>27.8</v>
       </c>
       <c r="E67" t="n">
-        <v>28.7</v>
+        <v>27.6</v>
       </c>
       <c r="F67" t="n">
-        <v>11</v>
+        <v>15766.667</v>
       </c>
       <c r="G67" t="n">
-        <v>1196390.58098783</v>
+        <v>127956.54772728</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -3100,22 +3122,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>28.7</v>
+        <v>28.6</v>
       </c>
       <c r="C68" t="n">
-        <v>28.7</v>
+        <v>28.6</v>
       </c>
       <c r="D68" t="n">
-        <v>28.7</v>
+        <v>28.6</v>
       </c>
       <c r="E68" t="n">
-        <v>28.7</v>
+        <v>28.6</v>
       </c>
       <c r="F68" t="n">
-        <v>40884.425</v>
+        <v>10</v>
       </c>
       <c r="G68" t="n">
-        <v>1196390.58098783</v>
+        <v>127966.54772728</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3140,22 +3162,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>28.7</v>
+        <v>27.8</v>
       </c>
       <c r="C69" t="n">
-        <v>28.9</v>
+        <v>27.8</v>
       </c>
       <c r="D69" t="n">
-        <v>28.9</v>
+        <v>27.8</v>
       </c>
       <c r="E69" t="n">
-        <v>28.7</v>
+        <v>27.8</v>
       </c>
       <c r="F69" t="n">
-        <v>33171.6892</v>
+        <v>11892.2615</v>
       </c>
       <c r="G69" t="n">
-        <v>1229562.27018783</v>
+        <v>116074.28622728</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3180,22 +3202,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>28.9</v>
+        <v>27.8</v>
       </c>
       <c r="C70" t="n">
-        <v>28.9</v>
+        <v>27.8</v>
       </c>
       <c r="D70" t="n">
-        <v>28.9</v>
+        <v>27.8</v>
       </c>
       <c r="E70" t="n">
-        <v>28.9</v>
+        <v>27.8</v>
       </c>
       <c r="F70" t="n">
-        <v>11135.8153</v>
+        <v>18891.9151</v>
       </c>
       <c r="G70" t="n">
-        <v>1229562.27018783</v>
+        <v>116074.28622728</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3220,22 +3242,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>28.8</v>
+        <v>28.6</v>
       </c>
       <c r="C71" t="n">
-        <v>28.7</v>
+        <v>28.6</v>
       </c>
       <c r="D71" t="n">
-        <v>28.8</v>
+        <v>28.6</v>
       </c>
       <c r="E71" t="n">
-        <v>28.7</v>
+        <v>28.6</v>
       </c>
       <c r="F71" t="n">
-        <v>49274.0577</v>
+        <v>20</v>
       </c>
       <c r="G71" t="n">
-        <v>1180288.21248783</v>
+        <v>116094.28622728</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3260,22 +3282,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>29</v>
+        <v>28.6</v>
       </c>
       <c r="C72" t="n">
-        <v>29</v>
+        <v>28.5</v>
       </c>
       <c r="D72" t="n">
-        <v>29</v>
+        <v>28.6</v>
       </c>
       <c r="E72" t="n">
-        <v>29</v>
+        <v>28.5</v>
       </c>
       <c r="F72" t="n">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="G72" t="n">
-        <v>1180298.21248783</v>
+        <v>116049.28622728</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3300,22 +3322,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>28.7</v>
+        <v>28</v>
       </c>
       <c r="C73" t="n">
-        <v>28.3</v>
+        <v>28</v>
       </c>
       <c r="D73" t="n">
-        <v>28.7</v>
+        <v>28</v>
       </c>
       <c r="E73" t="n">
-        <v>28.3</v>
+        <v>28</v>
       </c>
       <c r="F73" t="n">
-        <v>27265.1397</v>
+        <v>42.7856</v>
       </c>
       <c r="G73" t="n">
-        <v>1153033.07278783</v>
+        <v>116006.50062728</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3340,22 +3362,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>28.3</v>
+        <v>27.6</v>
       </c>
       <c r="C74" t="n">
-        <v>28.3</v>
+        <v>27.9</v>
       </c>
       <c r="D74" t="n">
-        <v>28.3</v>
+        <v>27.9</v>
       </c>
       <c r="E74" t="n">
-        <v>28.3</v>
+        <v>27.5</v>
       </c>
       <c r="F74" t="n">
-        <v>14849.8078</v>
+        <v>102973.0884</v>
       </c>
       <c r="G74" t="n">
-        <v>1153033.07278783</v>
+        <v>13033.41222727996</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3380,22 +3402,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>28.5</v>
+        <v>27.5</v>
       </c>
       <c r="C75" t="n">
-        <v>28.5</v>
+        <v>27.9</v>
       </c>
       <c r="D75" t="n">
-        <v>28.5</v>
+        <v>27.9</v>
       </c>
       <c r="E75" t="n">
-        <v>28.5</v>
+        <v>27.2</v>
       </c>
       <c r="F75" t="n">
-        <v>9000</v>
+        <v>53107.9369</v>
       </c>
       <c r="G75" t="n">
-        <v>1162033.07278783</v>
+        <v>13033.41222727996</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3420,22 +3442,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>28.5</v>
+        <v>27.9</v>
       </c>
       <c r="C76" t="n">
-        <v>28.6</v>
+        <v>28</v>
       </c>
       <c r="D76" t="n">
-        <v>28.6</v>
+        <v>28</v>
       </c>
       <c r="E76" t="n">
-        <v>28.5</v>
+        <v>27.9</v>
       </c>
       <c r="F76" t="n">
-        <v>23318.8709</v>
+        <v>51394.4285</v>
       </c>
       <c r="G76" t="n">
-        <v>1185351.94368783</v>
+        <v>64427.84072727996</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3460,22 +3482,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>28.6</v>
+        <v>28</v>
       </c>
       <c r="C77" t="n">
-        <v>28.6</v>
+        <v>28.3</v>
       </c>
       <c r="D77" t="n">
-        <v>28.6</v>
+        <v>28.3</v>
       </c>
       <c r="E77" t="n">
-        <v>28.6</v>
+        <v>28</v>
       </c>
       <c r="F77" t="n">
-        <v>4148.559</v>
+        <v>7337.9707</v>
       </c>
       <c r="G77" t="n">
-        <v>1185351.94368783</v>
+        <v>71765.81142727996</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3500,22 +3522,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>28.9</v>
+        <v>28</v>
       </c>
       <c r="C78" t="n">
-        <v>28.9</v>
+        <v>28</v>
       </c>
       <c r="D78" t="n">
-        <v>28.9</v>
+        <v>28</v>
       </c>
       <c r="E78" t="n">
-        <v>28.9</v>
+        <v>28</v>
       </c>
       <c r="F78" t="n">
-        <v>10</v>
+        <v>16.5167</v>
       </c>
       <c r="G78" t="n">
-        <v>1185361.94368783</v>
+        <v>71749.29472727996</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3540,22 +3562,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>28.7</v>
+        <v>28.3</v>
       </c>
       <c r="C79" t="n">
-        <v>28.6</v>
+        <v>28.3</v>
       </c>
       <c r="D79" t="n">
-        <v>28.7</v>
+        <v>28.3</v>
       </c>
       <c r="E79" t="n">
-        <v>28.6</v>
+        <v>28.3</v>
       </c>
       <c r="F79" t="n">
-        <v>24567.7166</v>
+        <v>10</v>
       </c>
       <c r="G79" t="n">
-        <v>1160794.22708783</v>
+        <v>71759.29472727996</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3580,22 +3602,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>28.6</v>
+        <v>28</v>
       </c>
       <c r="C80" t="n">
-        <v>28.5</v>
+        <v>28</v>
       </c>
       <c r="D80" t="n">
-        <v>28.6</v>
+        <v>28</v>
       </c>
       <c r="E80" t="n">
-        <v>28.5</v>
+        <v>28</v>
       </c>
       <c r="F80" t="n">
-        <v>31266.8779</v>
+        <v>89.4054</v>
       </c>
       <c r="G80" t="n">
-        <v>1129527.34918783</v>
+        <v>71669.88932727996</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3620,22 +3642,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>28.5</v>
+        <v>28</v>
       </c>
       <c r="C81" t="n">
-        <v>28.6</v>
+        <v>28.3</v>
       </c>
       <c r="D81" t="n">
-        <v>28.6</v>
+        <v>28.3</v>
       </c>
       <c r="E81" t="n">
-        <v>28.4</v>
+        <v>28</v>
       </c>
       <c r="F81" t="n">
-        <v>26646.2172</v>
+        <v>22968.1978</v>
       </c>
       <c r="G81" t="n">
-        <v>1156173.56638783</v>
+        <v>94638.08712727996</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3660,22 +3682,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>28.4</v>
+        <v>28.3</v>
       </c>
       <c r="C82" t="n">
-        <v>28.4</v>
+        <v>28.7</v>
       </c>
       <c r="D82" t="n">
-        <v>28.4</v>
+        <v>28.7</v>
       </c>
       <c r="E82" t="n">
-        <v>28.4</v>
+        <v>28.3</v>
       </c>
       <c r="F82" t="n">
-        <v>13116.8173</v>
+        <v>5825.3761</v>
       </c>
       <c r="G82" t="n">
-        <v>1143056.74908783</v>
+        <v>100463.4632272799</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3700,22 +3722,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>28.8</v>
+        <v>28.3</v>
       </c>
       <c r="C83" t="n">
-        <v>28.8</v>
+        <v>28.3</v>
       </c>
       <c r="D83" t="n">
-        <v>28.8</v>
+        <v>28.3</v>
       </c>
       <c r="E83" t="n">
-        <v>28.8</v>
+        <v>28.3</v>
       </c>
       <c r="F83" t="n">
-        <v>10</v>
+        <v>193.1751</v>
       </c>
       <c r="G83" t="n">
-        <v>1143066.74908783</v>
+        <v>100270.28812728</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3740,22 +3762,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>28.8</v>
+        <v>28</v>
       </c>
       <c r="C84" t="n">
-        <v>28.9</v>
+        <v>28</v>
       </c>
       <c r="D84" t="n">
-        <v>28.9</v>
+        <v>28</v>
       </c>
       <c r="E84" t="n">
-        <v>28.8</v>
+        <v>28</v>
       </c>
       <c r="F84" t="n">
-        <v>19207.6274</v>
+        <v>400</v>
       </c>
       <c r="G84" t="n">
-        <v>1162274.37648783</v>
+        <v>99870.28812727996</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3780,22 +3802,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>28.8</v>
+        <v>28.4</v>
       </c>
       <c r="C85" t="n">
-        <v>28.7</v>
+        <v>28.4</v>
       </c>
       <c r="D85" t="n">
-        <v>28.8</v>
+        <v>28.4</v>
       </c>
       <c r="E85" t="n">
-        <v>28.7</v>
+        <v>28.4</v>
       </c>
       <c r="F85" t="n">
-        <v>6137.0619</v>
+        <v>11</v>
       </c>
       <c r="G85" t="n">
-        <v>1156137.31458783</v>
+        <v>99881.28812727996</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3820,22 +3842,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>28.9</v>
+        <v>28.4</v>
       </c>
       <c r="C86" t="n">
-        <v>28.9</v>
+        <v>28.5</v>
       </c>
       <c r="D86" t="n">
-        <v>28.9</v>
+        <v>28.5</v>
       </c>
       <c r="E86" t="n">
-        <v>28.9</v>
+        <v>28.4</v>
       </c>
       <c r="F86" t="n">
-        <v>10</v>
+        <v>23215.9475</v>
       </c>
       <c r="G86" t="n">
-        <v>1156147.31458783</v>
+        <v>123097.23562728</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3863,19 +3885,19 @@
         <v>28.7</v>
       </c>
       <c r="C87" t="n">
-        <v>28.7</v>
+        <v>29.1</v>
       </c>
       <c r="D87" t="n">
-        <v>28.7</v>
+        <v>29.1</v>
       </c>
       <c r="E87" t="n">
         <v>28.7</v>
       </c>
       <c r="F87" t="n">
-        <v>9994.4566</v>
+        <v>43215.9078</v>
       </c>
       <c r="G87" t="n">
-        <v>1146152.85798783</v>
+        <v>166313.14342728</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3900,22 +3922,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>28.6</v>
+        <v>29.1</v>
       </c>
       <c r="C88" t="n">
-        <v>28.4</v>
+        <v>29.3</v>
       </c>
       <c r="D88" t="n">
-        <v>28.6</v>
+        <v>29.3</v>
       </c>
       <c r="E88" t="n">
-        <v>28.4</v>
+        <v>29.1</v>
       </c>
       <c r="F88" t="n">
-        <v>157286.3835</v>
+        <v>62543.8747</v>
       </c>
       <c r="G88" t="n">
-        <v>988866.4744878304</v>
+        <v>228857.0181272799</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3940,22 +3962,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>28.7</v>
+        <v>29.3</v>
       </c>
       <c r="C89" t="n">
-        <v>28.7</v>
+        <v>29.1</v>
       </c>
       <c r="D89" t="n">
-        <v>28.7</v>
+        <v>29.3</v>
       </c>
       <c r="E89" t="n">
-        <v>28.7</v>
+        <v>29.1</v>
       </c>
       <c r="F89" t="n">
-        <v>10</v>
+        <v>32956.21124948</v>
       </c>
       <c r="G89" t="n">
-        <v>988876.4744878304</v>
+        <v>195900.8068777999</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3980,22 +4002,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>28.5</v>
+        <v>29.1</v>
       </c>
       <c r="C90" t="n">
-        <v>28.5</v>
+        <v>30.5</v>
       </c>
       <c r="D90" t="n">
-        <v>28.5</v>
+        <v>30.5</v>
       </c>
       <c r="E90" t="n">
-        <v>28.5</v>
+        <v>29.1</v>
       </c>
       <c r="F90" t="n">
-        <v>38584.1642</v>
+        <v>481769.9357726</v>
       </c>
       <c r="G90" t="n">
-        <v>950292.3102878304</v>
+        <v>677670.7426503999</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -4020,22 +4042,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>28.7</v>
+        <v>30.5</v>
       </c>
       <c r="C91" t="n">
-        <v>28.7</v>
+        <v>30.7</v>
       </c>
       <c r="D91" t="n">
-        <v>28.7</v>
+        <v>30.7</v>
       </c>
       <c r="E91" t="n">
-        <v>28.7</v>
+        <v>30.5</v>
       </c>
       <c r="F91" t="n">
-        <v>10</v>
+        <v>40665.3827</v>
       </c>
       <c r="G91" t="n">
-        <v>950302.3102878304</v>
+        <v>718336.1253503999</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -4060,22 +4082,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>28.5</v>
+        <v>30.7</v>
       </c>
       <c r="C92" t="n">
-        <v>28.6</v>
+        <v>30.7</v>
       </c>
       <c r="D92" t="n">
-        <v>28.6</v>
+        <v>30.7</v>
       </c>
       <c r="E92" t="n">
-        <v>28.3</v>
+        <v>30.7</v>
       </c>
       <c r="F92" t="n">
-        <v>96606.9611</v>
+        <v>32414.1367</v>
       </c>
       <c r="G92" t="n">
-        <v>853695.3491878305</v>
+        <v>718336.1253503999</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -4100,22 +4122,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>28.6</v>
+        <v>30.7</v>
       </c>
       <c r="C93" t="n">
-        <v>28.6</v>
+        <v>31</v>
       </c>
       <c r="D93" t="n">
-        <v>28.6</v>
+        <v>31</v>
       </c>
       <c r="E93" t="n">
-        <v>28.6</v>
+        <v>30.7</v>
       </c>
       <c r="F93" t="n">
-        <v>6285.8838</v>
+        <v>68204.2294</v>
       </c>
       <c r="G93" t="n">
-        <v>853695.3491878305</v>
+        <v>786540.3547503998</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4140,22 +4162,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>28.7</v>
+        <v>30.2</v>
       </c>
       <c r="C94" t="n">
-        <v>28.7</v>
+        <v>30.9</v>
       </c>
       <c r="D94" t="n">
-        <v>28.7</v>
+        <v>30.9</v>
       </c>
       <c r="E94" t="n">
-        <v>28.7</v>
+        <v>29.7</v>
       </c>
       <c r="F94" t="n">
-        <v>10</v>
+        <v>118213.2916</v>
       </c>
       <c r="G94" t="n">
-        <v>853705.3491878305</v>
+        <v>668327.0631503998</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4180,22 +4202,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>28.6</v>
+        <v>30.3</v>
       </c>
       <c r="C95" t="n">
-        <v>28.6</v>
+        <v>30.7</v>
       </c>
       <c r="D95" t="n">
-        <v>28.6</v>
+        <v>30.9</v>
       </c>
       <c r="E95" t="n">
-        <v>28.6</v>
+        <v>30.2</v>
       </c>
       <c r="F95" t="n">
-        <v>4995.5845</v>
+        <v>207087.4001</v>
       </c>
       <c r="G95" t="n">
-        <v>848709.7646878305</v>
+        <v>461239.6630503999</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4220,22 +4242,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>28.6</v>
+        <v>30.7</v>
       </c>
       <c r="C96" t="n">
-        <v>28.3</v>
+        <v>31.1</v>
       </c>
       <c r="D96" t="n">
-        <v>28.6</v>
+        <v>31.1</v>
       </c>
       <c r="E96" t="n">
-        <v>28.3</v>
+        <v>30.7</v>
       </c>
       <c r="F96" t="n">
-        <v>41236.07</v>
+        <v>232776.4981274</v>
       </c>
       <c r="G96" t="n">
-        <v>807473.6946878305</v>
+        <v>694016.1611777998</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4260,22 +4282,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>28.6</v>
+        <v>30.8</v>
       </c>
       <c r="C97" t="n">
-        <v>28.6</v>
+        <v>31.6</v>
       </c>
       <c r="D97" t="n">
-        <v>28.6</v>
+        <v>31.6</v>
       </c>
       <c r="E97" t="n">
-        <v>28.6</v>
+        <v>30.8</v>
       </c>
       <c r="F97" t="n">
-        <v>30</v>
+        <v>262604.0144</v>
       </c>
       <c r="G97" t="n">
-        <v>807503.6946878305</v>
+        <v>956620.1755777998</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4300,22 +4322,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>28.4</v>
+        <v>31.5</v>
       </c>
       <c r="C98" t="n">
-        <v>28.6</v>
+        <v>31</v>
       </c>
       <c r="D98" t="n">
-        <v>28.6</v>
+        <v>31.5</v>
       </c>
       <c r="E98" t="n">
-        <v>28.4</v>
+        <v>30.8</v>
       </c>
       <c r="F98" t="n">
-        <v>26501.3315</v>
+        <v>6262</v>
       </c>
       <c r="G98" t="n">
-        <v>807503.6946878305</v>
+        <v>950358.1755777998</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4340,39 +4362,37 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>28.4</v>
+        <v>31.4</v>
       </c>
       <c r="C99" t="n">
-        <v>28.4</v>
+        <v>30.9</v>
       </c>
       <c r="D99" t="n">
-        <v>28.4</v>
+        <v>31.4</v>
       </c>
       <c r="E99" t="n">
-        <v>28.4</v>
+        <v>29.1</v>
       </c>
       <c r="F99" t="n">
-        <v>535.4866</v>
+        <v>77471.5368</v>
       </c>
       <c r="G99" t="n">
-        <v>806968.2080878306</v>
+        <v>872886.6387777998</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M99" t="inlineStr"/>
       <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
@@ -4380,36 +4400,32 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>28.4</v>
+        <v>29.9</v>
       </c>
       <c r="C100" t="n">
-        <v>28.4</v>
+        <v>29.4</v>
       </c>
       <c r="D100" t="n">
-        <v>28.4</v>
+        <v>29.9</v>
       </c>
       <c r="E100" t="n">
-        <v>28.4</v>
+        <v>29.4</v>
       </c>
       <c r="F100" t="n">
-        <v>19679.6801</v>
+        <v>678.896</v>
       </c>
       <c r="G100" t="n">
-        <v>806968.2080878306</v>
+        <v>872207.7427777998</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4420,22 +4436,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>28.5</v>
+        <v>29.2</v>
       </c>
       <c r="C101" t="n">
-        <v>28.6</v>
+        <v>29.7</v>
       </c>
       <c r="D101" t="n">
-        <v>28.6</v>
+        <v>29.8</v>
       </c>
       <c r="E101" t="n">
-        <v>28.4</v>
+        <v>28.9</v>
       </c>
       <c r="F101" t="n">
-        <v>59300.735</v>
+        <v>60814.0869</v>
       </c>
       <c r="G101" t="n">
-        <v>866268.9430878306</v>
+        <v>933021.8296777998</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4445,11 +4461,7 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4460,22 +4472,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>28.4</v>
+        <v>29.5</v>
       </c>
       <c r="C102" t="n">
-        <v>28.3</v>
+        <v>29.9</v>
       </c>
       <c r="D102" t="n">
-        <v>28.4</v>
+        <v>29.9</v>
       </c>
       <c r="E102" t="n">
-        <v>28.3</v>
+        <v>29.4</v>
       </c>
       <c r="F102" t="n">
-        <v>25245.9127</v>
+        <v>44331.3169</v>
       </c>
       <c r="G102" t="n">
-        <v>841023.0303878306</v>
+        <v>977353.1465777998</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4485,11 +4497,7 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4500,22 +4508,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>28.5</v>
+        <v>30</v>
       </c>
       <c r="C103" t="n">
-        <v>28.5</v>
+        <v>30.4</v>
       </c>
       <c r="D103" t="n">
-        <v>28.5</v>
+        <v>30.9</v>
       </c>
       <c r="E103" t="n">
-        <v>28.5</v>
+        <v>29.9</v>
       </c>
       <c r="F103" t="n">
-        <v>84.8034</v>
+        <v>73404.53711003</v>
       </c>
       <c r="G103" t="n">
-        <v>841107.8337878305</v>
+        <v>1050757.68368783</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4525,11 +4533,7 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4540,22 +4544,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>28.3</v>
+        <v>30.5</v>
       </c>
       <c r="C104" t="n">
-        <v>28.5</v>
+        <v>29.9</v>
       </c>
       <c r="D104" t="n">
-        <v>28.5</v>
+        <v>30.5</v>
       </c>
       <c r="E104" t="n">
-        <v>28.3</v>
+        <v>29.9</v>
       </c>
       <c r="F104" t="n">
-        <v>1600.106</v>
+        <v>20131.4204</v>
       </c>
       <c r="G104" t="n">
-        <v>841107.8337878305</v>
+        <v>1030626.26328783</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4565,11 +4569,7 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4580,36 +4580,32 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>28.5</v>
+        <v>29.6</v>
       </c>
       <c r="C105" t="n">
-        <v>28.5</v>
+        <v>30</v>
       </c>
       <c r="D105" t="n">
-        <v>28.5</v>
+        <v>30.5</v>
       </c>
       <c r="E105" t="n">
-        <v>28.5</v>
+        <v>29.4</v>
       </c>
       <c r="F105" t="n">
-        <v>10</v>
+        <v>175285.3056</v>
       </c>
       <c r="G105" t="n">
-        <v>841107.8337878305</v>
+        <v>1205911.56888783</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4620,22 +4616,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>28.4</v>
+        <v>30.2</v>
       </c>
       <c r="C106" t="n">
-        <v>28.5</v>
+        <v>30.2</v>
       </c>
       <c r="D106" t="n">
-        <v>28.5</v>
+        <v>30.2</v>
       </c>
       <c r="E106" t="n">
-        <v>28.3</v>
+        <v>30.2</v>
       </c>
       <c r="F106" t="n">
-        <v>20876.5047</v>
+        <v>10</v>
       </c>
       <c r="G106" t="n">
-        <v>841107.8337878305</v>
+        <v>1205921.56888783</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4645,11 +4641,7 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4660,22 +4652,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>28.3</v>
+        <v>30.1</v>
       </c>
       <c r="C107" t="n">
-        <v>28.3</v>
+        <v>30.2</v>
       </c>
       <c r="D107" t="n">
-        <v>28.3</v>
+        <v>30.2</v>
       </c>
       <c r="E107" t="n">
-        <v>28.3</v>
+        <v>30</v>
       </c>
       <c r="F107" t="n">
-        <v>24139.6384</v>
+        <v>93648.9347</v>
       </c>
       <c r="G107" t="n">
-        <v>816968.1953878305</v>
+        <v>1205921.56888783</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4685,11 +4677,7 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4700,22 +4688,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>28.5</v>
+        <v>30</v>
       </c>
       <c r="C108" t="n">
-        <v>28.5</v>
+        <v>30</v>
       </c>
       <c r="D108" t="n">
-        <v>28.5</v>
+        <v>30</v>
       </c>
       <c r="E108" t="n">
-        <v>28.5</v>
+        <v>30</v>
       </c>
       <c r="F108" t="n">
-        <v>10</v>
+        <v>605.6179</v>
       </c>
       <c r="G108" t="n">
-        <v>816978.1953878305</v>
+        <v>1205315.95098783</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4725,11 +4713,7 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4740,22 +4724,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>28.3</v>
+        <v>29.9</v>
       </c>
       <c r="C109" t="n">
-        <v>28.5</v>
+        <v>30.1</v>
       </c>
       <c r="D109" t="n">
-        <v>28.5</v>
+        <v>30.1</v>
       </c>
       <c r="E109" t="n">
-        <v>28.3</v>
+        <v>29.5</v>
       </c>
       <c r="F109" t="n">
-        <v>20.7609</v>
+        <v>4794.2606</v>
       </c>
       <c r="G109" t="n">
-        <v>816978.1953878305</v>
+        <v>1210110.21158783</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4765,11 +4749,7 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4780,22 +4760,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>28.4</v>
+        <v>30</v>
       </c>
       <c r="C110" t="n">
-        <v>28.5</v>
+        <v>30</v>
       </c>
       <c r="D110" t="n">
-        <v>28.5</v>
+        <v>30</v>
       </c>
       <c r="E110" t="n">
-        <v>28.4</v>
+        <v>30</v>
       </c>
       <c r="F110" t="n">
-        <v>20</v>
+        <v>20872.7666</v>
       </c>
       <c r="G110" t="n">
-        <v>816978.1953878305</v>
+        <v>1189237.44498783</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4805,11 +4785,7 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4820,36 +4796,32 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>28.5</v>
+        <v>29.5</v>
       </c>
       <c r="C111" t="n">
-        <v>28.6</v>
+        <v>29.4</v>
       </c>
       <c r="D111" t="n">
-        <v>28.7</v>
+        <v>29.5</v>
       </c>
       <c r="E111" t="n">
-        <v>28.5</v>
+        <v>29.4</v>
       </c>
       <c r="F111" t="n">
-        <v>32686.0298</v>
+        <v>15771.722</v>
       </c>
       <c r="G111" t="n">
-        <v>849664.2251878305</v>
+        <v>1173465.72298783</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4860,36 +4832,32 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>28.8</v>
+        <v>29.9</v>
       </c>
       <c r="C112" t="n">
-        <v>29</v>
+        <v>29.8</v>
       </c>
       <c r="D112" t="n">
-        <v>29</v>
+        <v>29.9</v>
       </c>
       <c r="E112" t="n">
-        <v>28.8</v>
+        <v>29.4</v>
       </c>
       <c r="F112" t="n">
-        <v>42860.1649</v>
+        <v>29915.8197</v>
       </c>
       <c r="G112" t="n">
-        <v>892524.3900878305</v>
+        <v>1203381.54268783</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4900,36 +4868,32 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>29.1</v>
+        <v>29.8</v>
       </c>
       <c r="C113" t="n">
-        <v>29.2</v>
+        <v>29.8</v>
       </c>
       <c r="D113" t="n">
-        <v>29.2</v>
+        <v>29.8</v>
       </c>
       <c r="E113" t="n">
-        <v>29.1</v>
+        <v>29.8</v>
       </c>
       <c r="F113" t="n">
-        <v>30573.0687</v>
+        <v>6347.5428</v>
       </c>
       <c r="G113" t="n">
-        <v>923097.4587878304</v>
+        <v>1203381.54268783</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4940,36 +4904,32 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>29.2</v>
+        <v>29.8</v>
       </c>
       <c r="C114" t="n">
-        <v>29.1</v>
+        <v>29.9</v>
       </c>
       <c r="D114" t="n">
-        <v>29.2</v>
+        <v>29.9</v>
       </c>
       <c r="E114" t="n">
-        <v>29.1</v>
+        <v>29.4</v>
       </c>
       <c r="F114" t="n">
-        <v>75139.72040000001</v>
+        <v>139983.2478</v>
       </c>
       <c r="G114" t="n">
-        <v>847957.7383878304</v>
+        <v>1343364.79048783</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4980,22 +4940,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>29.1</v>
+        <v>29.9</v>
       </c>
       <c r="C115" t="n">
-        <v>29.1</v>
+        <v>29.9</v>
       </c>
       <c r="D115" t="n">
-        <v>29.1</v>
+        <v>29.9</v>
       </c>
       <c r="E115" t="n">
-        <v>29.1</v>
+        <v>29.9</v>
       </c>
       <c r="F115" t="n">
-        <v>6193.567</v>
+        <v>3344.48160535</v>
       </c>
       <c r="G115" t="n">
-        <v>847957.7383878304</v>
+        <v>1343364.79048783</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -5005,12 +4965,10 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
       <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
@@ -5018,22 +4976,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>28.9</v>
+        <v>29.7</v>
       </c>
       <c r="C116" t="n">
-        <v>29</v>
+        <v>29.7</v>
       </c>
       <c r="D116" t="n">
-        <v>29</v>
+        <v>29.7</v>
       </c>
       <c r="E116" t="n">
-        <v>28.4</v>
+        <v>29.7</v>
       </c>
       <c r="F116" t="n">
-        <v>84935.41439999999</v>
+        <v>11</v>
       </c>
       <c r="G116" t="n">
-        <v>763022.3239878304</v>
+        <v>1343353.79048783</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -5054,22 +5012,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>28.6</v>
+        <v>29.7</v>
       </c>
       <c r="C117" t="n">
-        <v>28.5</v>
+        <v>29.7</v>
       </c>
       <c r="D117" t="n">
-        <v>28.6</v>
+        <v>29.7</v>
       </c>
       <c r="E117" t="n">
-        <v>28.5</v>
+        <v>29.4</v>
       </c>
       <c r="F117" t="n">
-        <v>30502.7288</v>
+        <v>31113.5763</v>
       </c>
       <c r="G117" t="n">
-        <v>732519.5951878304</v>
+        <v>1343353.79048783</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -5090,22 +5048,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>28.5</v>
+        <v>29.2</v>
       </c>
       <c r="C118" t="n">
-        <v>29</v>
+        <v>29.4</v>
       </c>
       <c r="D118" t="n">
-        <v>29</v>
+        <v>29.4</v>
       </c>
       <c r="E118" t="n">
-        <v>28.5</v>
+        <v>28.6</v>
       </c>
       <c r="F118" t="n">
-        <v>121</v>
+        <v>123990.6555</v>
       </c>
       <c r="G118" t="n">
-        <v>732640.5951878304</v>
+        <v>1219363.13498783</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -5126,7 +5084,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>29</v>
+        <v>28.7</v>
       </c>
       <c r="C119" t="n">
         <v>29</v>
@@ -5135,13 +5093,13 @@
         <v>29</v>
       </c>
       <c r="E119" t="n">
-        <v>29</v>
+        <v>28.7</v>
       </c>
       <c r="F119" t="n">
-        <v>3448.27586206</v>
+        <v>53453.1604</v>
       </c>
       <c r="G119" t="n">
-        <v>732640.5951878304</v>
+        <v>1165909.97458783</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -5162,7 +5120,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>29.1</v>
+        <v>29.3</v>
       </c>
       <c r="C120" t="n">
         <v>29.3</v>
@@ -5171,19 +5129,19 @@
         <v>29.3</v>
       </c>
       <c r="E120" t="n">
-        <v>29.1</v>
+        <v>28.5</v>
       </c>
       <c r="F120" t="n">
-        <v>33</v>
+        <v>113320.3682</v>
       </c>
       <c r="G120" t="n">
-        <v>732673.5951878304</v>
+        <v>1279230.34278783</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
@@ -5198,28 +5156,28 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>28.9</v>
+        <v>28.6</v>
       </c>
       <c r="C121" t="n">
-        <v>28.6</v>
+        <v>28.4</v>
       </c>
       <c r="D121" t="n">
-        <v>28.9</v>
+        <v>28.6</v>
       </c>
       <c r="E121" t="n">
-        <v>28.6</v>
+        <v>28.4</v>
       </c>
       <c r="F121" t="n">
-        <v>88534.2971</v>
+        <v>75012.9644</v>
       </c>
       <c r="G121" t="n">
-        <v>644139.2980878304</v>
+        <v>1204217.37838783</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
@@ -5234,28 +5192,28 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>28.7</v>
+        <v>28.5</v>
       </c>
       <c r="C122" t="n">
-        <v>28.7</v>
+        <v>28.5</v>
       </c>
       <c r="D122" t="n">
         <v>28.7</v>
       </c>
       <c r="E122" t="n">
-        <v>28.7</v>
+        <v>28.5</v>
       </c>
       <c r="F122" t="n">
-        <v>3199.1245</v>
+        <v>19757.4676</v>
       </c>
       <c r="G122" t="n">
-        <v>647338.4225878305</v>
+        <v>1223974.84598783</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
@@ -5273,25 +5231,25 @@
         <v>28.7</v>
       </c>
       <c r="C123" t="n">
-        <v>28.7</v>
+        <v>28.8</v>
       </c>
       <c r="D123" t="n">
-        <v>28.7</v>
+        <v>28.8</v>
       </c>
       <c r="E123" t="n">
         <v>28.7</v>
       </c>
       <c r="F123" t="n">
-        <v>54.4686</v>
+        <v>20</v>
       </c>
       <c r="G123" t="n">
-        <v>647338.4225878305</v>
+        <v>1223994.84598783</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
@@ -5306,28 +5264,28 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>28.8</v>
+        <v>28.5</v>
       </c>
       <c r="C124" t="n">
         <v>28.7</v>
       </c>
       <c r="D124" t="n">
-        <v>29.1</v>
+        <v>28.7</v>
       </c>
       <c r="E124" t="n">
-        <v>28.7</v>
+        <v>28.5</v>
       </c>
       <c r="F124" t="n">
-        <v>4250.5827</v>
+        <v>21825.0431</v>
       </c>
       <c r="G124" t="n">
-        <v>647338.4225878305</v>
+        <v>1202169.80288783</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
@@ -5342,28 +5300,28 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>29.1</v>
+        <v>28.5</v>
       </c>
       <c r="C125" t="n">
-        <v>29.1</v>
+        <v>28.5</v>
       </c>
       <c r="D125" t="n">
-        <v>29.1</v>
+        <v>28.5</v>
       </c>
       <c r="E125" t="n">
-        <v>29.1</v>
+        <v>28.5</v>
       </c>
       <c r="F125" t="n">
-        <v>11</v>
+        <v>17604.7463</v>
       </c>
       <c r="G125" t="n">
-        <v>647349.4225878305</v>
+        <v>1184565.05658783</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
@@ -5378,22 +5336,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>28.6</v>
+        <v>28.5</v>
       </c>
       <c r="C126" t="n">
         <v>28.5</v>
       </c>
       <c r="D126" t="n">
-        <v>28.6</v>
+        <v>28.5</v>
       </c>
       <c r="E126" t="n">
         <v>28.5</v>
       </c>
       <c r="F126" t="n">
-        <v>31610.0671</v>
+        <v>3562.2835</v>
       </c>
       <c r="G126" t="n">
-        <v>615739.3554878305</v>
+        <v>1184565.05658783</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5414,22 +5372,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>28.5</v>
+        <v>28.6</v>
       </c>
       <c r="C127" t="n">
-        <v>28.5</v>
+        <v>28.8</v>
       </c>
       <c r="D127" t="n">
-        <v>28.5</v>
+        <v>28.8</v>
       </c>
       <c r="E127" t="n">
-        <v>28.5</v>
+        <v>28.6</v>
       </c>
       <c r="F127" t="n">
-        <v>107.9649</v>
+        <v>86391.94439999999</v>
       </c>
       <c r="G127" t="n">
-        <v>615739.3554878305</v>
+        <v>1270957.00098783</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5450,28 +5408,28 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>28.2</v>
+        <v>28.8</v>
       </c>
       <c r="C128" t="n">
-        <v>28.2</v>
+        <v>28.8</v>
       </c>
       <c r="D128" t="n">
-        <v>28.2</v>
+        <v>28.8</v>
       </c>
       <c r="E128" t="n">
-        <v>28.2</v>
+        <v>28.8</v>
       </c>
       <c r="F128" t="n">
-        <v>51394.4285</v>
+        <v>24200.1388</v>
       </c>
       <c r="G128" t="n">
-        <v>564344.9269878304</v>
+        <v>1270957.00098783</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
@@ -5486,22 +5444,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>28.5</v>
+        <v>28.8</v>
       </c>
       <c r="C129" t="n">
-        <v>28.5</v>
+        <v>29</v>
       </c>
       <c r="D129" t="n">
-        <v>28.5</v>
+        <v>29</v>
       </c>
       <c r="E129" t="n">
-        <v>28.5</v>
+        <v>28.8</v>
       </c>
       <c r="F129" t="n">
-        <v>11</v>
+        <v>65007.0162</v>
       </c>
       <c r="G129" t="n">
-        <v>564355.9269878304</v>
+        <v>1335964.01718783</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5517,6 +5475,2562 @@
       </c>
       <c r="N129" t="inlineStr"/>
     </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="C130" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="D130" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="E130" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="F130" t="n">
+        <v>68418.7372</v>
+      </c>
+      <c r="G130" t="n">
+        <v>1267545.27998783</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="C131" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="D131" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="E131" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="F131" t="n">
+        <v>45408.2704</v>
+      </c>
+      <c r="G131" t="n">
+        <v>1222137.00958783</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="C132" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="D132" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="E132" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="F132" t="n">
+        <v>10</v>
+      </c>
+      <c r="G132" t="n">
+        <v>1222147.00958783</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="C133" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="D133" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="E133" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="F133" t="n">
+        <v>42067.3375</v>
+      </c>
+      <c r="G133" t="n">
+        <v>1180079.67208783</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="C134" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="D134" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="E134" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="F134" t="n">
+        <v>1656.4626</v>
+      </c>
+      <c r="G134" t="n">
+        <v>1178423.20948783</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="C135" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="D135" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="E135" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="F135" t="n">
+        <v>11</v>
+      </c>
+      <c r="G135" t="n">
+        <v>1178434.20948783</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="C136" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="D136" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="E136" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="F136" t="n">
+        <v>17945.3715</v>
+      </c>
+      <c r="G136" t="n">
+        <v>1196379.58098783</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="C137" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="D137" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="E137" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="F137" t="n">
+        <v>6954.8851</v>
+      </c>
+      <c r="G137" t="n">
+        <v>1196379.58098783</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="C138" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="D138" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="E138" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="F138" t="n">
+        <v>11</v>
+      </c>
+      <c r="G138" t="n">
+        <v>1196390.58098783</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="C139" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="D139" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="E139" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="F139" t="n">
+        <v>40884.425</v>
+      </c>
+      <c r="G139" t="n">
+        <v>1196390.58098783</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="C140" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="D140" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="E140" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="F140" t="n">
+        <v>33171.6892</v>
+      </c>
+      <c r="G140" t="n">
+        <v>1229562.27018783</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="C141" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="D141" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="E141" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="F141" t="n">
+        <v>11135.8153</v>
+      </c>
+      <c r="G141" t="n">
+        <v>1229562.27018783</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="C142" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="D142" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="E142" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="F142" t="n">
+        <v>49274.0577</v>
+      </c>
+      <c r="G142" t="n">
+        <v>1180288.21248783</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>29</v>
+      </c>
+      <c r="C143" t="n">
+        <v>29</v>
+      </c>
+      <c r="D143" t="n">
+        <v>29</v>
+      </c>
+      <c r="E143" t="n">
+        <v>29</v>
+      </c>
+      <c r="F143" t="n">
+        <v>10</v>
+      </c>
+      <c r="G143" t="n">
+        <v>1180298.21248783</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="C144" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="D144" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="E144" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="F144" t="n">
+        <v>27265.1397</v>
+      </c>
+      <c r="G144" t="n">
+        <v>1153033.07278783</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="C145" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="D145" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="E145" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="F145" t="n">
+        <v>14849.8078</v>
+      </c>
+      <c r="G145" t="n">
+        <v>1153033.07278783</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="C146" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="D146" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="E146" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="F146" t="n">
+        <v>9000</v>
+      </c>
+      <c r="G146" t="n">
+        <v>1162033.07278783</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="C147" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="D147" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="E147" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="F147" t="n">
+        <v>23318.8709</v>
+      </c>
+      <c r="G147" t="n">
+        <v>1185351.94368783</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="C148" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="D148" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="E148" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="F148" t="n">
+        <v>4148.559</v>
+      </c>
+      <c r="G148" t="n">
+        <v>1185351.94368783</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="C149" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="D149" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="E149" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="F149" t="n">
+        <v>10</v>
+      </c>
+      <c r="G149" t="n">
+        <v>1185361.94368783</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="C150" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="D150" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="E150" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="F150" t="n">
+        <v>24567.7166</v>
+      </c>
+      <c r="G150" t="n">
+        <v>1160794.22708783</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="C151" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="D151" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="E151" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="F151" t="n">
+        <v>31266.8779</v>
+      </c>
+      <c r="G151" t="n">
+        <v>1129527.34918783</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="C152" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="D152" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="E152" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="F152" t="n">
+        <v>26646.2172</v>
+      </c>
+      <c r="G152" t="n">
+        <v>1156173.56638783</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="C153" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="D153" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="E153" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="F153" t="n">
+        <v>13116.8173</v>
+      </c>
+      <c r="G153" t="n">
+        <v>1143056.74908783</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="C154" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="D154" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="E154" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="F154" t="n">
+        <v>10</v>
+      </c>
+      <c r="G154" t="n">
+        <v>1143066.74908783</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="C155" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="D155" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="E155" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="F155" t="n">
+        <v>19207.6274</v>
+      </c>
+      <c r="G155" t="n">
+        <v>1162274.37648783</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="C156" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="D156" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="E156" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="F156" t="n">
+        <v>6137.0619</v>
+      </c>
+      <c r="G156" t="n">
+        <v>1156137.31458783</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="C157" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="D157" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="E157" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="F157" t="n">
+        <v>10</v>
+      </c>
+      <c r="G157" t="n">
+        <v>1156147.31458783</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="C158" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="D158" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="E158" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="F158" t="n">
+        <v>9994.4566</v>
+      </c>
+      <c r="G158" t="n">
+        <v>1146152.85798783</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="C159" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="D159" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="E159" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="F159" t="n">
+        <v>157286.3835</v>
+      </c>
+      <c r="G159" t="n">
+        <v>988866.4744878304</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="C160" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="D160" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="E160" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="F160" t="n">
+        <v>10</v>
+      </c>
+      <c r="G160" t="n">
+        <v>988876.4744878304</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="C161" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="D161" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="E161" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="F161" t="n">
+        <v>38584.1642</v>
+      </c>
+      <c r="G161" t="n">
+        <v>950292.3102878304</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="C162" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="D162" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="E162" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="F162" t="n">
+        <v>10</v>
+      </c>
+      <c r="G162" t="n">
+        <v>950302.3102878304</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="C163" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="D163" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="E163" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="F163" t="n">
+        <v>96606.9611</v>
+      </c>
+      <c r="G163" t="n">
+        <v>853695.3491878305</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="C164" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="D164" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="E164" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="F164" t="n">
+        <v>6285.8838</v>
+      </c>
+      <c r="G164" t="n">
+        <v>853695.3491878305</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="C165" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="D165" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="E165" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="F165" t="n">
+        <v>10</v>
+      </c>
+      <c r="G165" t="n">
+        <v>853705.3491878305</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="C166" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="D166" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="E166" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="F166" t="n">
+        <v>4995.5845</v>
+      </c>
+      <c r="G166" t="n">
+        <v>848709.7646878305</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="C167" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="D167" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="E167" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="F167" t="n">
+        <v>41236.07</v>
+      </c>
+      <c r="G167" t="n">
+        <v>807473.6946878305</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="C168" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="D168" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="E168" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="F168" t="n">
+        <v>30</v>
+      </c>
+      <c r="G168" t="n">
+        <v>807503.6946878305</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="C169" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="D169" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="E169" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="F169" t="n">
+        <v>26501.3315</v>
+      </c>
+      <c r="G169" t="n">
+        <v>807503.6946878305</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="C170" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="D170" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="E170" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="F170" t="n">
+        <v>535.4866</v>
+      </c>
+      <c r="G170" t="n">
+        <v>806968.2080878306</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="C171" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="D171" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="E171" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="F171" t="n">
+        <v>19679.6801</v>
+      </c>
+      <c r="G171" t="n">
+        <v>806968.2080878306</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="C172" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="D172" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="E172" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="F172" t="n">
+        <v>59300.735</v>
+      </c>
+      <c r="G172" t="n">
+        <v>866268.9430878306</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>1</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="C173" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="D173" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="E173" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="F173" t="n">
+        <v>25245.9127</v>
+      </c>
+      <c r="G173" t="n">
+        <v>841023.0303878306</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>1</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="C174" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="D174" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="E174" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="F174" t="n">
+        <v>84.8034</v>
+      </c>
+      <c r="G174" t="n">
+        <v>841107.8337878305</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>1</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="C175" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="D175" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="E175" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="F175" t="n">
+        <v>1600.106</v>
+      </c>
+      <c r="G175" t="n">
+        <v>841107.8337878305</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>1</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="C176" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="D176" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="E176" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="F176" t="n">
+        <v>10</v>
+      </c>
+      <c r="G176" t="n">
+        <v>841107.8337878305</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>1</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="C177" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="D177" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="E177" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="F177" t="n">
+        <v>20876.5047</v>
+      </c>
+      <c r="G177" t="n">
+        <v>841107.8337878305</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>1</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="C178" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="D178" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="E178" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="F178" t="n">
+        <v>24139.6384</v>
+      </c>
+      <c r="G178" t="n">
+        <v>816968.1953878305</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>1</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="C179" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="D179" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="E179" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="F179" t="n">
+        <v>10</v>
+      </c>
+      <c r="G179" t="n">
+        <v>816978.1953878305</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="C180" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="D180" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="E180" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="F180" t="n">
+        <v>20.7609</v>
+      </c>
+      <c r="G180" t="n">
+        <v>816978.1953878305</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>1</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="C181" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="D181" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="E181" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="F181" t="n">
+        <v>20</v>
+      </c>
+      <c r="G181" t="n">
+        <v>816978.1953878305</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>1</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="C182" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="D182" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="E182" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="F182" t="n">
+        <v>32686.0298</v>
+      </c>
+      <c r="G182" t="n">
+        <v>849664.2251878305</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>1</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="C183" t="n">
+        <v>29</v>
+      </c>
+      <c r="D183" t="n">
+        <v>29</v>
+      </c>
+      <c r="E183" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="F183" t="n">
+        <v>42860.1649</v>
+      </c>
+      <c r="G183" t="n">
+        <v>892524.3900878305</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>1</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="C184" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="D184" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="E184" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="F184" t="n">
+        <v>30573.0687</v>
+      </c>
+      <c r="G184" t="n">
+        <v>923097.4587878304</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>1</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="C185" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="D185" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="E185" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="F185" t="n">
+        <v>75139.72040000001</v>
+      </c>
+      <c r="G185" t="n">
+        <v>847957.7383878304</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>1</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="C186" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="D186" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="E186" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="F186" t="n">
+        <v>6193.567</v>
+      </c>
+      <c r="G186" t="n">
+        <v>847957.7383878304</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>1</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="C187" t="n">
+        <v>29</v>
+      </c>
+      <c r="D187" t="n">
+        <v>29</v>
+      </c>
+      <c r="E187" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="F187" t="n">
+        <v>84935.41439999999</v>
+      </c>
+      <c r="G187" t="n">
+        <v>763022.3239878304</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>1</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="C188" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="D188" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="E188" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="F188" t="n">
+        <v>30502.7288</v>
+      </c>
+      <c r="G188" t="n">
+        <v>732519.5951878304</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>1</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+      <c r="N188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="C189" t="n">
+        <v>29</v>
+      </c>
+      <c r="D189" t="n">
+        <v>29</v>
+      </c>
+      <c r="E189" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="F189" t="n">
+        <v>121</v>
+      </c>
+      <c r="G189" t="n">
+        <v>732640.5951878304</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>1</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>29</v>
+      </c>
+      <c r="C190" t="n">
+        <v>29</v>
+      </c>
+      <c r="D190" t="n">
+        <v>29</v>
+      </c>
+      <c r="E190" t="n">
+        <v>29</v>
+      </c>
+      <c r="F190" t="n">
+        <v>3448.27586206</v>
+      </c>
+      <c r="G190" t="n">
+        <v>732640.5951878304</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>1</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+      <c r="N190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="C191" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="D191" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="E191" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="F191" t="n">
+        <v>33</v>
+      </c>
+      <c r="G191" t="n">
+        <v>732673.5951878304</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
+        <v>1</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+      <c r="N191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="C192" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="D192" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="E192" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="F192" t="n">
+        <v>88534.2971</v>
+      </c>
+      <c r="G192" t="n">
+        <v>644139.2980878304</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
+        <v>1</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+      <c r="N192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="C193" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="D193" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="E193" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="F193" t="n">
+        <v>3199.1245</v>
+      </c>
+      <c r="G193" t="n">
+        <v>647338.4225878305</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
+        <v>1</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+      <c r="N193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="C194" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="D194" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="E194" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="F194" t="n">
+        <v>54.4686</v>
+      </c>
+      <c r="G194" t="n">
+        <v>647338.4225878305</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
+        <v>1</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+      <c r="N194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="C195" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="D195" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="E195" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="F195" t="n">
+        <v>4250.5827</v>
+      </c>
+      <c r="G195" t="n">
+        <v>647338.4225878305</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
+        <v>1</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+      <c r="N195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="C196" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="D196" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="E196" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="F196" t="n">
+        <v>11</v>
+      </c>
+      <c r="G196" t="n">
+        <v>647349.4225878305</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
+        <v>1</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+      <c r="N196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="C197" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="D197" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="E197" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="F197" t="n">
+        <v>31610.0671</v>
+      </c>
+      <c r="G197" t="n">
+        <v>615739.3554878305</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
+        <v>1</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+      <c r="N197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="C198" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="D198" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="E198" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="F198" t="n">
+        <v>107.9649</v>
+      </c>
+      <c r="G198" t="n">
+        <v>615739.3554878305</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
+        <v>1</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="n">
+        <v>1</v>
+      </c>
+      <c r="N198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="C199" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="D199" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="E199" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="F199" t="n">
+        <v>51394.4285</v>
+      </c>
+      <c r="G199" t="n">
+        <v>564344.9269878304</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
+      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+      <c r="N199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="C200" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="D200" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="E200" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="F200" t="n">
+        <v>11</v>
+      </c>
+      <c r="G200" t="n">
+        <v>564355.9269878304</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
+      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+      <c r="N200" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-11-02 BackTest CHR.xlsx
+++ b/BackTest/2019-11-02 BackTest CHR.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N200"/>
+  <dimension ref="A1:M200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>-16257.50837272</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,24 +484,21 @@
         <v>-24239.39247272</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
         <v>27.4</v>
       </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -534,24 +523,21 @@
         <v>-24228.39247272</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
         <v>27.2</v>
       </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -576,24 +562,21 @@
         <v>-24217.39247272</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
         <v>27.6</v>
       </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -618,24 +601,21 @@
         <v>-131379.20187272</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
         <v>27.8</v>
       </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -660,24 +640,19 @@
         <v>-131368.20187272</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -702,24 +677,19 @@
         <v>-134368.20187272</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -744,24 +714,19 @@
         <v>-134368.20187272</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -786,24 +751,21 @@
         <v>-134368.20187272</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
         <v>27.2</v>
       </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -828,24 +790,19 @@
         <v>-134357.20187272</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -870,24 +827,19 @@
         <v>-68795.70547272</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -912,24 +864,19 @@
         <v>-68805.70547272</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>28</v>
-      </c>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -954,24 +901,21 @@
         <v>-8805.705472720001</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
         <v>27.1</v>
       </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -998,20 +942,17 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1038,20 +979,17 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1076,22 +1014,21 @@
         <v>23178.01682728</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>27.8</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1116,22 +1053,21 @@
         <v>23189.01682728</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>27.1</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1156,22 +1092,21 @@
         <v>23189.01682728</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>27.7</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1196,22 +1131,21 @@
         <v>17734.43422728</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>27.7</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1236,22 +1170,21 @@
         <v>17723.43422728</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>27.6</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1276,24 +1209,21 @@
         <v>17735.43422728</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
         <v>27.4</v>
       </c>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1318,24 +1248,21 @@
         <v>17595.21452728</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
         <v>27.6</v>
       </c>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1360,24 +1287,21 @@
         <v>17595.21452728</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
         <v>27.3</v>
       </c>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1402,24 +1326,21 @@
         <v>15896.13452728</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
         <v>27.3</v>
       </c>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1444,24 +1365,21 @@
         <v>15896.13452728</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
         <v>27.2</v>
       </c>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1486,24 +1404,21 @@
         <v>65940.25042728</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
         <v>27.2</v>
       </c>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1528,24 +1443,21 @@
         <v>65940.25042728</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
         <v>27.6</v>
       </c>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1570,24 +1482,21 @@
         <v>65920.25042728</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
         <v>27.6</v>
       </c>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1612,24 +1521,21 @@
         <v>65931.25042728</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
         <v>27.3</v>
       </c>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1654,24 +1560,21 @@
         <v>62451.25042728</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
         <v>27.6</v>
       </c>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1696,24 +1599,21 @@
         <v>62462.25042728</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
         <v>27.1</v>
       </c>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1740,20 +1640,17 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1778,24 +1675,19 @@
         <v>17541.19832728</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>27</v>
-      </c>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1822,20 +1714,17 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1862,20 +1751,17 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1902,20 +1788,17 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1942,20 +1825,17 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1982,20 +1862,17 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2022,20 +1899,17 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2062,20 +1936,17 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2102,20 +1973,17 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2142,20 +2010,17 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2182,20 +2047,17 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2222,20 +2084,17 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2260,22 +2119,21 @@
         <v>80554.61972727996</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>27.9</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2300,22 +2158,21 @@
         <v>91927.47722727996</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>27.3</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2340,22 +2197,21 @@
         <v>69387.41302727995</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>28.7</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2380,22 +2236,21 @@
         <v>69387.41302727995</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>28.6</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2422,20 +2277,17 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2462,20 +2314,17 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2502,20 +2351,17 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2540,22 +2386,21 @@
         <v>46324.04282727995</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>27.9</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2580,22 +2425,21 @@
         <v>36969.23392727996</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>28.1</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2620,22 +2464,21 @@
         <v>-12154.71127272004</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>27.5</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2660,22 +2503,21 @@
         <v>-12144.71127272004</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>27.2</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2700,22 +2542,21 @@
         <v>-12166.32517272004</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2742,20 +2583,17 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2780,22 +2618,21 @@
         <v>12185.32452727996</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>28.2</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2822,20 +2659,17 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2862,20 +2696,17 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2902,20 +2733,17 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2942,20 +2770,17 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2982,20 +2807,17 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3022,20 +2844,17 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3062,20 +2881,17 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3102,20 +2918,17 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3142,20 +2955,17 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3182,20 +2992,17 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3222,20 +3029,17 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3260,22 +3064,21 @@
         <v>116094.28622728</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>27.8</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3302,20 +3105,17 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3340,22 +3140,21 @@
         <v>116006.50062728</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>28.5</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3380,22 +3179,21 @@
         <v>13033.41222727996</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3420,22 +3218,21 @@
         <v>13033.41222727996</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>27.9</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3460,22 +3257,21 @@
         <v>64427.84072727996</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>27.9</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3500,22 +3296,21 @@
         <v>71765.81142727996</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3540,22 +3335,21 @@
         <v>71749.29472727996</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>28.3</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3580,22 +3374,21 @@
         <v>71759.29472727996</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3622,20 +3415,17 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3662,20 +3452,17 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3700,22 +3487,21 @@
         <v>100463.4632272799</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>28.3</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3742,20 +3528,17 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3782,20 +3565,17 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3822,20 +3602,17 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3862,20 +3639,17 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3902,20 +3676,17 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3942,20 +3713,17 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3982,20 +3750,17 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -4022,20 +3787,17 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4062,20 +3824,17 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4102,20 +3861,17 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4142,20 +3898,17 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4182,20 +3935,17 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4222,20 +3972,17 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4262,20 +4009,17 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4302,20 +4046,17 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4342,20 +4083,17 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4382,18 +4120,17 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>1</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
       </c>
       <c r="M99" t="inlineStr"/>
-      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4420,16 +4157,17 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>1</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4454,18 +4192,17 @@
         <v>933021.8296777998</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4492,16 +4229,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4528,16 +4262,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4564,16 +4295,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4600,16 +4328,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>1</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4634,18 +4359,15 @@
         <v>1205921.56888783</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4670,18 +4392,15 @@
         <v>1205921.56888783</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4706,18 +4425,15 @@
         <v>1205315.95098783</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4742,18 +4458,15 @@
         <v>1210110.21158783</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4778,18 +4491,15 @@
         <v>1189237.44498783</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4814,18 +4524,15 @@
         <v>1173465.72298783</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4852,16 +4559,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>1</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4888,16 +4592,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>1</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4924,16 +4625,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>1</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4958,18 +4656,15 @@
         <v>1343364.79048783</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4996,16 +4691,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>1</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5032,16 +4724,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>1</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5068,16 +4757,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>1</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5104,16 +4790,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>1</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5140,16 +4823,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5176,16 +4856,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5210,18 +4887,15 @@
         <v>1223974.84598783</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5246,18 +4920,15 @@
         <v>1223994.84598783</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5284,16 +4955,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>1</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5320,16 +4988,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>1</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5354,18 +5019,15 @@
         <v>1184565.05658783</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5390,18 +5052,15 @@
         <v>1270957.00098783</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5426,18 +5085,15 @@
         <v>1270957.00098783</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5464,16 +5120,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5500,16 +5153,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5536,16 +5186,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5572,16 +5219,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5608,16 +5252,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5644,16 +5285,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5680,16 +5318,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5714,18 +5349,15 @@
         <v>1196379.58098783</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5752,16 +5384,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5786,18 +5415,15 @@
         <v>1196390.58098783</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5824,16 +5450,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5860,16 +5483,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5896,16 +5516,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5932,16 +5549,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5968,16 +5582,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -6004,16 +5615,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6040,16 +5648,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6076,16 +5681,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6112,16 +5714,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6148,16 +5747,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6184,16 +5780,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6220,16 +5813,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6256,16 +5846,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6292,16 +5879,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6328,16 +5912,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6364,16 +5945,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6400,16 +5978,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6436,16 +6011,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6472,16 +6044,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6508,16 +6077,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6544,16 +6110,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6580,16 +6143,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6616,16 +6176,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6652,16 +6209,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6688,16 +6242,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6724,16 +6275,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6760,16 +6308,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6796,16 +6341,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6830,18 +6372,15 @@
         <v>807473.6946878305</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6868,16 +6407,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6904,16 +6440,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6940,16 +6473,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6976,16 +6506,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -7012,16 +6539,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>1</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7048,16 +6572,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>1</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7084,16 +6605,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>1</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7120,16 +6638,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>1</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7156,16 +6671,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>1</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7192,16 +6704,13 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>1</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7228,16 +6737,13 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>1</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7264,16 +6770,13 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7300,16 +6803,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>1</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7336,16 +6836,13 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>1</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7372,16 +6869,13 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>1</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7408,16 +6902,13 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>1</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7444,16 +6935,13 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>1</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7478,18 +6966,15 @@
         <v>847957.7383878304</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7514,18 +6999,15 @@
         <v>847957.7383878304</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7550,18 +7032,15 @@
         <v>763022.3239878304</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7586,18 +7065,15 @@
         <v>732519.5951878304</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7624,16 +7100,13 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>1</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7660,16 +7133,13 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>1</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7696,16 +7166,13 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>1</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7732,16 +7199,13 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>1</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7768,16 +7232,13 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>1</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7802,18 +7263,15 @@
         <v>647338.4225878305</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7840,16 +7298,13 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>1</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7876,16 +7331,13 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>1</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7912,16 +7364,13 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>1</v>
-      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7948,16 +7397,13 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>1</v>
-      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7984,16 +7430,13 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -8020,18 +7463,15 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-02 BackTest CHR.xlsx
+++ b/BackTest/2019-11-02 BackTest CHR.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-16257.50837272</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-24239.39247272</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>27.4</v>
@@ -523,7 +523,7 @@
         <v>-24228.39247272</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>27.2</v>
@@ -562,7 +562,7 @@
         <v>-24217.39247272</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>27.6</v>
@@ -601,7 +601,7 @@
         <v>-131379.20187272</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>27.8</v>
@@ -640,9 +640,11 @@
         <v>-131368.20187272</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>27.1</v>
+      </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
@@ -677,9 +679,11 @@
         <v>-134368.20187272</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>27.6</v>
+      </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
@@ -714,9 +718,11 @@
         <v>-134368.20187272</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>27.2</v>
+      </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
@@ -751,7 +757,7 @@
         <v>-134368.20187272</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>27.2</v>
@@ -790,9 +796,11 @@
         <v>-134357.20187272</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>27.2</v>
+      </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
@@ -827,9 +835,11 @@
         <v>-68795.70547272</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>27.8</v>
+      </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
@@ -901,7 +911,7 @@
         <v>-8805.705472720001</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>27.1</v>
@@ -1014,7 +1024,7 @@
         <v>23178.01682728</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>27.8</v>
@@ -1053,7 +1063,7 @@
         <v>23189.01682728</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>27.1</v>
@@ -1092,7 +1102,7 @@
         <v>23189.01682728</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>27.7</v>
@@ -1131,7 +1141,7 @@
         <v>17734.43422728</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>27.7</v>
@@ -1170,7 +1180,7 @@
         <v>17723.43422728</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>27.6</v>
@@ -1209,7 +1219,7 @@
         <v>17735.43422728</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>27.4</v>
@@ -1248,7 +1258,7 @@
         <v>17595.21452728</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>27.6</v>
@@ -1287,7 +1297,7 @@
         <v>17595.21452728</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>27.3</v>
@@ -1326,7 +1336,7 @@
         <v>15896.13452728</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>27.3</v>
@@ -1365,7 +1375,7 @@
         <v>15896.13452728</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>27.2</v>
@@ -1404,7 +1414,7 @@
         <v>65940.25042728</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>27.2</v>
@@ -1443,7 +1453,7 @@
         <v>65940.25042728</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>27.6</v>
@@ -1482,7 +1492,7 @@
         <v>65920.25042728</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>27.6</v>
@@ -1521,7 +1531,7 @@
         <v>65931.25042728</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>27.3</v>
@@ -1560,7 +1570,7 @@
         <v>62451.25042728</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>27.6</v>
@@ -1599,7 +1609,7 @@
         <v>62462.25042728</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>27.1</v>
@@ -1638,9 +1648,11 @@
         <v>17196.16242728</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>27.6</v>
+      </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
@@ -1675,9 +1687,11 @@
         <v>17541.19832728</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>27</v>
+      </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
@@ -1712,9 +1726,11 @@
         <v>17415.42222728</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>27.8</v>
+      </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
@@ -1823,9 +1839,11 @@
         <v>66812.50142727999</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>27.9</v>
+      </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
@@ -2119,11 +2137,9 @@
         <v>80554.61972727996</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
-      </c>
-      <c r="I46" t="n">
-        <v>27.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
@@ -2158,11 +2174,9 @@
         <v>91927.47722727996</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
-      </c>
-      <c r="I47" t="n">
-        <v>27.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
@@ -2197,11 +2211,9 @@
         <v>69387.41302727995</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
-      </c>
-      <c r="I48" t="n">
-        <v>28.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
@@ -2236,11 +2248,9 @@
         <v>69387.41302727995</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
-      </c>
-      <c r="I49" t="n">
-        <v>28.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
@@ -2386,11 +2396,9 @@
         <v>46324.04282727995</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
-      </c>
-      <c r="I53" t="n">
-        <v>27.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
@@ -2425,11 +2433,9 @@
         <v>36969.23392727996</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
-      </c>
-      <c r="I54" t="n">
-        <v>28.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
@@ -2464,11 +2470,9 @@
         <v>-12154.71127272004</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
-      </c>
-      <c r="I55" t="n">
-        <v>27.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
@@ -2503,11 +2507,9 @@
         <v>-12144.71127272004</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
-      </c>
-      <c r="I56" t="n">
-        <v>27.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
@@ -2542,7 +2544,7 @@
         <v>-12166.32517272004</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
         <v>28</v>
@@ -2618,11 +2620,9 @@
         <v>12185.32452727996</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
-      </c>
-      <c r="I59" t="n">
-        <v>28.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
@@ -3064,11 +3064,9 @@
         <v>116094.28622728</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
-      </c>
-      <c r="I71" t="n">
-        <v>27.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
@@ -3140,11 +3138,9 @@
         <v>116006.50062728</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
-      </c>
-      <c r="I73" t="n">
-        <v>28.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
@@ -3179,11 +3175,9 @@
         <v>13033.41222727996</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
-      </c>
-      <c r="I74" t="n">
-        <v>28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
@@ -3218,11 +3212,9 @@
         <v>13033.41222727996</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
-      </c>
-      <c r="I75" t="n">
-        <v>27.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
@@ -3257,7 +3249,7 @@
         <v>64427.84072727996</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
         <v>27.9</v>
@@ -3296,11 +3288,9 @@
         <v>71765.81142727996</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
-      </c>
-      <c r="I77" t="n">
-        <v>28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
@@ -3335,11 +3325,9 @@
         <v>71749.29472727996</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
-      </c>
-      <c r="I78" t="n">
-        <v>28.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
@@ -3374,11 +3362,9 @@
         <v>71759.29472727996</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
-      </c>
-      <c r="I79" t="n">
-        <v>28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
@@ -3487,11 +3473,9 @@
         <v>100463.4632272799</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
-      </c>
-      <c r="I82" t="n">
-        <v>28.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
@@ -4192,16 +4176,18 @@
         <v>933021.8296777998</v>
       </c>
       <c r="H101" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L101" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
       <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
@@ -4231,7 +4217,11 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4264,7 +4254,11 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4297,7 +4291,11 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4330,7 +4328,11 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4359,11 +4361,15 @@
         <v>1205921.56888783</v>
       </c>
       <c r="H106" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4392,11 +4398,15 @@
         <v>1205921.56888783</v>
       </c>
       <c r="H107" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4425,11 +4435,15 @@
         <v>1205315.95098783</v>
       </c>
       <c r="H108" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4458,11 +4472,15 @@
         <v>1210110.21158783</v>
       </c>
       <c r="H109" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4491,11 +4509,15 @@
         <v>1189237.44498783</v>
       </c>
       <c r="H110" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4524,11 +4546,15 @@
         <v>1173465.72298783</v>
       </c>
       <c r="H111" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4561,7 +4587,11 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4594,7 +4624,11 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4627,7 +4661,11 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4656,14 +4694,16 @@
         <v>1343364.79048783</v>
       </c>
       <c r="H115" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
@@ -4689,7 +4729,7 @@
         <v>1343353.79048783</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4722,7 +4762,7 @@
         <v>1343353.79048783</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4755,7 +4795,7 @@
         <v>1219363.13498783</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4788,7 +4828,7 @@
         <v>1165909.97458783</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4821,7 +4861,7 @@
         <v>1279230.34278783</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4887,7 +4927,7 @@
         <v>1223974.84598783</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4920,7 +4960,7 @@
         <v>1223994.84598783</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4953,7 +4993,7 @@
         <v>1202169.80288783</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4986,7 +5026,7 @@
         <v>1184565.05658783</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -5019,7 +5059,7 @@
         <v>1184565.05658783</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -5052,7 +5092,7 @@
         <v>1270957.00098783</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -5085,7 +5125,7 @@
         <v>1270957.00098783</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -5118,7 +5158,7 @@
         <v>1335964.01718783</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -5151,7 +5191,7 @@
         <v>1267545.27998783</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -5184,7 +5224,7 @@
         <v>1222137.00958783</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5217,7 +5257,7 @@
         <v>1222147.00958783</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5250,7 +5290,7 @@
         <v>1180079.67208783</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5283,7 +5323,7 @@
         <v>1178423.20948783</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5316,7 +5356,7 @@
         <v>1178434.20948783</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5349,7 +5389,7 @@
         <v>1196379.58098783</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5382,7 +5422,7 @@
         <v>1196379.58098783</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5415,7 +5455,7 @@
         <v>1196390.58098783</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5448,7 +5488,7 @@
         <v>1196390.58098783</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5481,7 +5521,7 @@
         <v>1229562.27018783</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5514,7 +5554,7 @@
         <v>1229562.27018783</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5547,7 +5587,7 @@
         <v>1180288.21248783</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5580,7 +5620,7 @@
         <v>1180298.21248783</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5646,7 +5686,7 @@
         <v>1153033.07278783</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5679,7 +5719,7 @@
         <v>1162033.07278783</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5712,7 +5752,7 @@
         <v>1185351.94368783</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5745,7 +5785,7 @@
         <v>1185351.94368783</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5778,7 +5818,7 @@
         <v>1185361.94368783</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5910,7 +5950,7 @@
         <v>1143056.74908783</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5943,7 +5983,7 @@
         <v>1143066.74908783</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5976,7 +6016,7 @@
         <v>1162274.37648783</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -6009,7 +6049,7 @@
         <v>1156137.31458783</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -6273,7 +6313,7 @@
         <v>853695.3491878305</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6372,7 +6412,7 @@
         <v>807473.6946878305</v>
       </c>
       <c r="H167" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6966,7 +7006,7 @@
         <v>847957.7383878304</v>
       </c>
       <c r="H185" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6999,7 +7039,7 @@
         <v>847957.7383878304</v>
       </c>
       <c r="H186" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -7032,7 +7072,7 @@
         <v>763022.3239878304</v>
       </c>
       <c r="H187" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -7065,7 +7105,7 @@
         <v>732519.5951878304</v>
       </c>
       <c r="H188" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -7263,7 +7303,7 @@
         <v>647338.4225878305</v>
       </c>
       <c r="H194" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7472,6 +7512,6 @@
       <c r="M200" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-02 BackTest CHR.xlsx
+++ b/BackTest/2019-11-02 BackTest CHR.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1024,11 +1024,9 @@
         <v>23178.01682728</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>27.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
@@ -1102,11 +1100,9 @@
         <v>23189.01682728</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>27.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
@@ -1141,11 +1137,9 @@
         <v>17734.43422728</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>27.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
@@ -1180,11 +1174,9 @@
         <v>17723.43422728</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>27.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
@@ -1258,11 +1250,9 @@
         <v>17595.21452728</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>27.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
@@ -1336,11 +1326,9 @@
         <v>15896.13452728</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>27.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
@@ -1765,9 +1753,11 @@
         <v>66802.50142727999</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>27.7</v>
+      </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
@@ -1839,11 +1829,9 @@
         <v>66812.50142727999</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>27.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
@@ -2544,11 +2532,9 @@
         <v>-12166.32517272004</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
@@ -3249,11 +3235,9 @@
         <v>64427.84072727996</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>27.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
@@ -4694,16 +4678,18 @@
         <v>1343364.79048783</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L115" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
       <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
@@ -4729,11 +4715,15 @@
         <v>1343353.79048783</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4762,11 +4752,15 @@
         <v>1343353.79048783</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4795,11 +4789,15 @@
         <v>1219363.13498783</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4828,11 +4826,15 @@
         <v>1165909.97458783</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4861,11 +4863,15 @@
         <v>1279230.34278783</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4894,14 +4900,16 @@
         <v>1204217.37838783</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
@@ -4927,7 +4935,7 @@
         <v>1223974.84598783</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -5059,7 +5067,7 @@
         <v>1184565.05658783</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -5092,7 +5100,7 @@
         <v>1270957.00098783</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -5125,7 +5133,7 @@
         <v>1270957.00098783</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -5158,7 +5166,7 @@
         <v>1335964.01718783</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -5191,7 +5199,7 @@
         <v>1267545.27998783</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -5224,7 +5232,7 @@
         <v>1222137.00958783</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5257,7 +5265,7 @@
         <v>1222147.00958783</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5290,7 +5298,7 @@
         <v>1180079.67208783</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5323,7 +5331,7 @@
         <v>1178423.20948783</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5356,7 +5364,7 @@
         <v>1178434.20948783</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5389,7 +5397,7 @@
         <v>1196379.58098783</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5422,7 +5430,7 @@
         <v>1196379.58098783</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5455,7 +5463,7 @@
         <v>1196390.58098783</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5488,7 +5496,7 @@
         <v>1196390.58098783</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5521,7 +5529,7 @@
         <v>1229562.27018783</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5554,7 +5562,7 @@
         <v>1229562.27018783</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5587,7 +5595,7 @@
         <v>1180288.21248783</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5620,7 +5628,7 @@
         <v>1180298.21248783</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5686,7 +5694,7 @@
         <v>1153033.07278783</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5719,7 +5727,7 @@
         <v>1162033.07278783</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5752,7 +5760,7 @@
         <v>1185351.94368783</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5785,7 +5793,7 @@
         <v>1185351.94368783</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5818,7 +5826,7 @@
         <v>1185361.94368783</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5950,7 +5958,7 @@
         <v>1143056.74908783</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5983,7 +5991,7 @@
         <v>1143066.74908783</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -6016,7 +6024,7 @@
         <v>1162274.37648783</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -6049,7 +6057,7 @@
         <v>1156137.31458783</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -6313,7 +6321,7 @@
         <v>853695.3491878305</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -7512,6 +7520,6 @@
       <c r="M200" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-02 BackTest CHR.xlsx
+++ b/BackTest/2019-11-02 BackTest CHR.xlsx
@@ -874,9 +874,11 @@
         <v>-68805.70547272</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>28</v>
+      </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
@@ -950,9 +952,11 @@
         <v>111205.29452728</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>27.8</v>
+      </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
@@ -987,9 +991,11 @@
         <v>50445.28722728</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>27.9</v>
+      </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
@@ -1024,9 +1030,11 @@
         <v>23178.01682728</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>27.8</v>
+      </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
@@ -1326,9 +1334,11 @@
         <v>15896.13452728</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>27.3</v>
+      </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
@@ -1714,11 +1724,9 @@
         <v>17415.42222728</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>27.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
@@ -1753,11 +1761,9 @@
         <v>66802.50142727999</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>27.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
@@ -4086,18 +4092,16 @@
         <v>872886.6387777998</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
@@ -4123,15 +4127,11 @@
         <v>872207.7427777998</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4160,15 +4160,11 @@
         <v>933021.8296777998</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4201,11 +4197,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4238,11 +4230,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4275,11 +4263,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4308,15 +4292,11 @@
         <v>1205911.56888783</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4349,11 +4329,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4382,15 +4358,11 @@
         <v>1205921.56888783</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4423,11 +4395,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4456,15 +4424,11 @@
         <v>1210110.21158783</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4493,15 +4457,11 @@
         <v>1189237.44498783</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4530,15 +4490,11 @@
         <v>1173465.72298783</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4567,15 +4523,11 @@
         <v>1203381.54268783</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4604,15 +4556,11 @@
         <v>1203381.54268783</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4641,15 +4589,11 @@
         <v>1343364.79048783</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4678,15 +4622,11 @@
         <v>1343364.79048783</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4715,15 +4655,11 @@
         <v>1343353.79048783</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4752,15 +4688,11 @@
         <v>1343353.79048783</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4789,15 +4721,11 @@
         <v>1219363.13498783</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4826,15 +4754,11 @@
         <v>1165909.97458783</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4863,15 +4787,11 @@
         <v>1279230.34278783</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4904,12 +4824,10 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
       <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
@@ -4935,7 +4853,7 @@
         <v>1223974.84598783</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4968,7 +4886,7 @@
         <v>1223994.84598783</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -5001,7 +4919,7 @@
         <v>1202169.80288783</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -5034,7 +4952,7 @@
         <v>1184565.05658783</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>

--- a/BackTest/2019-11-02 BackTest CHR.xlsx
+++ b/BackTest/2019-11-02 BackTest CHR.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M200"/>
+  <dimension ref="A1:L200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>11</v>
       </c>
       <c r="G2" t="n">
-        <v>-16257.50837272</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,24 +473,21 @@
         <v>7981.8841</v>
       </c>
       <c r="G3" t="n">
-        <v>-24239.39247272</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
         <v>27.4</v>
       </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -520,24 +509,21 @@
         <v>11</v>
       </c>
       <c r="G4" t="n">
-        <v>-24228.39247272</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
         <v>27.2</v>
       </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -559,24 +545,21 @@
         <v>11</v>
       </c>
       <c r="G5" t="n">
-        <v>-24217.39247272</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
         <v>27.6</v>
       </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -598,24 +581,19 @@
         <v>107161.8094</v>
       </c>
       <c r="G6" t="n">
-        <v>-131379.20187272</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -637,24 +615,19 @@
         <v>11</v>
       </c>
       <c r="G7" t="n">
-        <v>-131368.20187272</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -676,24 +649,19 @@
         <v>3000</v>
       </c>
       <c r="G8" t="n">
-        <v>-134368.20187272</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -715,24 +683,19 @@
         <v>8369.2389</v>
       </c>
       <c r="G9" t="n">
-        <v>-134368.20187272</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -754,24 +717,19 @@
         <v>11971.4028</v>
       </c>
       <c r="G10" t="n">
-        <v>-134368.20187272</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -793,24 +751,19 @@
         <v>11</v>
       </c>
       <c r="G11" t="n">
-        <v>-134357.20187272</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -832,24 +785,19 @@
         <v>65561.4964</v>
       </c>
       <c r="G12" t="n">
-        <v>-68795.70547272</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -871,24 +819,19 @@
         <v>10</v>
       </c>
       <c r="G13" t="n">
-        <v>-68805.70547272</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>28</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -910,24 +853,19 @@
         <v>60000</v>
       </c>
       <c r="G14" t="n">
-        <v>-8805.705472720001</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -949,24 +887,19 @@
         <v>120011</v>
       </c>
       <c r="G15" t="n">
-        <v>111205.29452728</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -988,24 +921,19 @@
         <v>60760.0073</v>
       </c>
       <c r="G16" t="n">
-        <v>50445.28722728</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1027,24 +955,19 @@
         <v>27267.2704</v>
       </c>
       <c r="G17" t="n">
-        <v>23178.01682728</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1066,24 +989,19 @@
         <v>11</v>
       </c>
       <c r="G18" t="n">
-        <v>23189.01682728</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1105,22 +1023,19 @@
         <v>50000</v>
       </c>
       <c r="G19" t="n">
-        <v>23189.01682728</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1142,22 +1057,19 @@
         <v>5454.5826</v>
       </c>
       <c r="G20" t="n">
-        <v>17734.43422728</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1179,22 +1091,19 @@
         <v>11</v>
       </c>
       <c r="G21" t="n">
-        <v>17723.43422728</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1216,24 +1125,19 @@
         <v>12</v>
       </c>
       <c r="G22" t="n">
-        <v>17735.43422728</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1255,22 +1159,19 @@
         <v>140.2197</v>
       </c>
       <c r="G23" t="n">
-        <v>17595.21452728</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1292,24 +1193,19 @@
         <v>5871.0716</v>
       </c>
       <c r="G24" t="n">
-        <v>17595.21452728</v>
-      </c>
-      <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1331,24 +1227,19 @@
         <v>1699.08</v>
       </c>
       <c r="G25" t="n">
-        <v>15896.13452728</v>
-      </c>
-      <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1370,24 +1261,19 @@
         <v>16449.2281</v>
       </c>
       <c r="G26" t="n">
-        <v>15896.13452728</v>
-      </c>
-      <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1409,24 +1295,19 @@
         <v>50044.1159</v>
       </c>
       <c r="G27" t="n">
-        <v>65940.25042728</v>
-      </c>
-      <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1448,24 +1329,19 @@
         <v>23</v>
       </c>
       <c r="G28" t="n">
-        <v>65940.25042728</v>
-      </c>
-      <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1487,24 +1363,19 @@
         <v>20</v>
       </c>
       <c r="G29" t="n">
-        <v>65920.25042728</v>
-      </c>
-      <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1526,24 +1397,19 @@
         <v>11</v>
       </c>
       <c r="G30" t="n">
-        <v>65931.25042728</v>
-      </c>
-      <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1565,24 +1431,19 @@
         <v>3480</v>
       </c>
       <c r="G31" t="n">
-        <v>62451.25042728</v>
-      </c>
-      <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1604,24 +1465,19 @@
         <v>11</v>
       </c>
       <c r="G32" t="n">
-        <v>62462.25042728</v>
-      </c>
-      <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1643,24 +1499,19 @@
         <v>45266.088</v>
       </c>
       <c r="G33" t="n">
-        <v>17196.16242728</v>
-      </c>
-      <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1682,24 +1533,19 @@
         <v>345.0359</v>
       </c>
       <c r="G34" t="n">
-        <v>17541.19832728</v>
-      </c>
-      <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>27</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1721,22 +1567,19 @@
         <v>125.7761</v>
       </c>
       <c r="G35" t="n">
-        <v>17415.42222728</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1758,22 +1601,19 @@
         <v>49387.0792</v>
       </c>
       <c r="G36" t="n">
-        <v>66802.50142727999</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1795,22 +1635,19 @@
         <v>28119.8453</v>
       </c>
       <c r="G37" t="n">
-        <v>66802.50142727999</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1832,22 +1669,19 @@
         <v>10</v>
       </c>
       <c r="G38" t="n">
-        <v>66812.50142727999</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1869,22 +1703,19 @@
         <v>6578.9285</v>
       </c>
       <c r="G39" t="n">
-        <v>66812.50142727999</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1906,22 +1737,19 @@
         <v>3162.02</v>
       </c>
       <c r="G40" t="n">
-        <v>66812.50142727999</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1943,22 +1771,19 @@
         <v>192.4817</v>
       </c>
       <c r="G41" t="n">
-        <v>66812.50142727999</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1980,22 +1805,19 @@
         <v>75413.1914</v>
       </c>
       <c r="G42" t="n">
-        <v>142225.69282728</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2017,22 +1839,19 @@
         <v>13249.485</v>
       </c>
       <c r="G43" t="n">
-        <v>128976.20782728</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2054,22 +1873,19 @@
         <v>7827.4097</v>
       </c>
       <c r="G44" t="n">
-        <v>121148.79812728</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2091,22 +1907,19 @@
         <v>101.4301</v>
       </c>
       <c r="G45" t="n">
-        <v>121250.22822728</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2128,22 +1941,19 @@
         <v>40695.6085</v>
       </c>
       <c r="G46" t="n">
-        <v>80554.61972727996</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2165,22 +1975,19 @@
         <v>11372.8575</v>
       </c>
       <c r="G47" t="n">
-        <v>91927.47722727996</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2202,22 +2009,19 @@
         <v>22540.0642</v>
       </c>
       <c r="G48" t="n">
-        <v>69387.41302727995</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2239,22 +2043,19 @@
         <v>26717.9987</v>
       </c>
       <c r="G49" t="n">
-        <v>69387.41302727995</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2276,22 +2077,19 @@
         <v>22018.6013</v>
       </c>
       <c r="G50" t="n">
-        <v>47368.81172727996</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2313,22 +2111,19 @@
         <v>11</v>
       </c>
       <c r="G51" t="n">
-        <v>47379.81172727996</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2350,22 +2145,19 @@
         <v>1065.7689</v>
       </c>
       <c r="G52" t="n">
-        <v>46314.04282727995</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2387,22 +2179,19 @@
         <v>10</v>
       </c>
       <c r="G53" t="n">
-        <v>46324.04282727995</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2424,22 +2213,19 @@
         <v>9354.8089</v>
       </c>
       <c r="G54" t="n">
-        <v>36969.23392727996</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2461,22 +2247,19 @@
         <v>49123.9452</v>
       </c>
       <c r="G55" t="n">
-        <v>-12154.71127272004</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2498,22 +2281,19 @@
         <v>10</v>
       </c>
       <c r="G56" t="n">
-        <v>-12144.71127272004</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2535,22 +2315,19 @@
         <v>21.6139</v>
       </c>
       <c r="G57" t="n">
-        <v>-12166.32517272004</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2572,22 +2349,19 @@
         <v>23899.6497</v>
       </c>
       <c r="G58" t="n">
-        <v>11733.32452727996</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2609,22 +2383,19 @@
         <v>452</v>
       </c>
       <c r="G59" t="n">
-        <v>12185.32452727996</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2646,22 +2417,19 @@
         <v>53087.9369</v>
       </c>
       <c r="G60" t="n">
-        <v>65273.26142727995</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2683,22 +2451,19 @@
         <v>45003.5077</v>
       </c>
       <c r="G61" t="n">
-        <v>65273.26142727995</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2720,22 +2485,19 @@
         <v>30386.3873</v>
       </c>
       <c r="G62" t="n">
-        <v>65273.26142727995</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2757,22 +2519,19 @@
         <v>11263.2025</v>
       </c>
       <c r="G63" t="n">
-        <v>76536.46392727995</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2794,22 +2553,19 @@
         <v>117186.7508</v>
       </c>
       <c r="G64" t="n">
-        <v>193723.21472728</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2831,22 +2587,19 @@
         <v>131574.8852</v>
       </c>
       <c r="G65" t="n">
-        <v>193723.21472728</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2868,22 +2621,19 @@
         <v>50000</v>
       </c>
       <c r="G66" t="n">
-        <v>143723.21472728</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2905,22 +2655,19 @@
         <v>15766.667</v>
       </c>
       <c r="G67" t="n">
-        <v>127956.54772728</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2942,22 +2689,19 @@
         <v>10</v>
       </c>
       <c r="G68" t="n">
-        <v>127966.54772728</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2979,22 +2723,19 @@
         <v>11892.2615</v>
       </c>
       <c r="G69" t="n">
-        <v>116074.28622728</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3016,22 +2757,19 @@
         <v>18891.9151</v>
       </c>
       <c r="G70" t="n">
-        <v>116074.28622728</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3053,22 +2791,19 @@
         <v>20</v>
       </c>
       <c r="G71" t="n">
-        <v>116094.28622728</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3090,22 +2825,19 @@
         <v>45</v>
       </c>
       <c r="G72" t="n">
-        <v>116049.28622728</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3127,22 +2859,19 @@
         <v>42.7856</v>
       </c>
       <c r="G73" t="n">
-        <v>116006.50062728</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3164,22 +2893,19 @@
         <v>102973.0884</v>
       </c>
       <c r="G74" t="n">
-        <v>13033.41222727996</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3201,22 +2927,19 @@
         <v>53107.9369</v>
       </c>
       <c r="G75" t="n">
-        <v>13033.41222727996</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3238,22 +2961,19 @@
         <v>51394.4285</v>
       </c>
       <c r="G76" t="n">
-        <v>64427.84072727996</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3275,22 +2995,19 @@
         <v>7337.9707</v>
       </c>
       <c r="G77" t="n">
-        <v>71765.81142727996</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3312,22 +3029,19 @@
         <v>16.5167</v>
       </c>
       <c r="G78" t="n">
-        <v>71749.29472727996</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3349,22 +3063,19 @@
         <v>10</v>
       </c>
       <c r="G79" t="n">
-        <v>71759.29472727996</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3386,22 +3097,19 @@
         <v>89.4054</v>
       </c>
       <c r="G80" t="n">
-        <v>71669.88932727996</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3423,22 +3131,19 @@
         <v>22968.1978</v>
       </c>
       <c r="G81" t="n">
-        <v>94638.08712727996</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3460,22 +3165,19 @@
         <v>5825.3761</v>
       </c>
       <c r="G82" t="n">
-        <v>100463.4632272799</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3497,22 +3199,19 @@
         <v>193.1751</v>
       </c>
       <c r="G83" t="n">
-        <v>100270.28812728</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3534,22 +3233,19 @@
         <v>400</v>
       </c>
       <c r="G84" t="n">
-        <v>99870.28812727996</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3571,22 +3267,19 @@
         <v>11</v>
       </c>
       <c r="G85" t="n">
-        <v>99881.28812727996</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3608,22 +3301,19 @@
         <v>23215.9475</v>
       </c>
       <c r="G86" t="n">
-        <v>123097.23562728</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3645,22 +3335,19 @@
         <v>43215.9078</v>
       </c>
       <c r="G87" t="n">
-        <v>166313.14342728</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3682,22 +3369,19 @@
         <v>62543.8747</v>
       </c>
       <c r="G88" t="n">
-        <v>228857.0181272799</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3719,22 +3403,19 @@
         <v>32956.21124948</v>
       </c>
       <c r="G89" t="n">
-        <v>195900.8068777999</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3756,22 +3437,19 @@
         <v>481769.9357726</v>
       </c>
       <c r="G90" t="n">
-        <v>677670.7426503999</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3793,22 +3471,19 @@
         <v>40665.3827</v>
       </c>
       <c r="G91" t="n">
-        <v>718336.1253503999</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3830,22 +3505,19 @@
         <v>32414.1367</v>
       </c>
       <c r="G92" t="n">
-        <v>718336.1253503999</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3867,22 +3539,19 @@
         <v>68204.2294</v>
       </c>
       <c r="G93" t="n">
-        <v>786540.3547503998</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3904,22 +3573,19 @@
         <v>118213.2916</v>
       </c>
       <c r="G94" t="n">
-        <v>668327.0631503998</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3941,22 +3607,19 @@
         <v>207087.4001</v>
       </c>
       <c r="G95" t="n">
-        <v>461239.6630503999</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3978,22 +3641,19 @@
         <v>232776.4981274</v>
       </c>
       <c r="G96" t="n">
-        <v>694016.1611777998</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4015,22 +3675,19 @@
         <v>262604.0144</v>
       </c>
       <c r="G97" t="n">
-        <v>956620.1755777998</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4052,22 +3709,19 @@
         <v>6262</v>
       </c>
       <c r="G98" t="n">
-        <v>950358.1755777998</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4089,20 +3743,17 @@
         <v>77471.5368</v>
       </c>
       <c r="G99" t="n">
-        <v>872886.6387777998</v>
-      </c>
-      <c r="H99" t="n">
         <v>2</v>
       </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
+      <c r="J99" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4124,18 +3775,15 @@
         <v>678.896</v>
       </c>
       <c r="G100" t="n">
-        <v>872207.7427777998</v>
-      </c>
-      <c r="H100" t="n">
         <v>2</v>
       </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4157,18 +3805,15 @@
         <v>60814.0869</v>
       </c>
       <c r="G101" t="n">
-        <v>933021.8296777998</v>
-      </c>
-      <c r="H101" t="n">
         <v>2</v>
       </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4190,18 +3835,15 @@
         <v>44331.3169</v>
       </c>
       <c r="G102" t="n">
-        <v>977353.1465777998</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4223,18 +3865,15 @@
         <v>73404.53711003</v>
       </c>
       <c r="G103" t="n">
-        <v>1050757.68368783</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4256,18 +3895,15 @@
         <v>20131.4204</v>
       </c>
       <c r="G104" t="n">
-        <v>1030626.26328783</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4289,18 +3925,15 @@
         <v>175285.3056</v>
       </c>
       <c r="G105" t="n">
-        <v>1205911.56888783</v>
-      </c>
-      <c r="H105" t="n">
         <v>2</v>
       </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4322,18 +3955,15 @@
         <v>10</v>
       </c>
       <c r="G106" t="n">
-        <v>1205921.56888783</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4355,18 +3985,15 @@
         <v>93648.9347</v>
       </c>
       <c r="G107" t="n">
-        <v>1205921.56888783</v>
-      </c>
-      <c r="H107" t="n">
         <v>2</v>
       </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4388,18 +4015,15 @@
         <v>605.6179</v>
       </c>
       <c r="G108" t="n">
-        <v>1205315.95098783</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4421,18 +4045,15 @@
         <v>4794.2606</v>
       </c>
       <c r="G109" t="n">
-        <v>1210110.21158783</v>
-      </c>
-      <c r="H109" t="n">
         <v>2</v>
       </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4454,18 +4075,15 @@
         <v>20872.7666</v>
       </c>
       <c r="G110" t="n">
-        <v>1189237.44498783</v>
-      </c>
-      <c r="H110" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4487,18 +4105,15 @@
         <v>15771.722</v>
       </c>
       <c r="G111" t="n">
-        <v>1173465.72298783</v>
-      </c>
-      <c r="H111" t="n">
         <v>2</v>
       </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4520,18 +4135,15 @@
         <v>29915.8197</v>
       </c>
       <c r="G112" t="n">
-        <v>1203381.54268783</v>
-      </c>
-      <c r="H112" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4553,18 +4165,15 @@
         <v>6347.5428</v>
       </c>
       <c r="G113" t="n">
-        <v>1203381.54268783</v>
-      </c>
-      <c r="H113" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4586,18 +4195,15 @@
         <v>139983.2478</v>
       </c>
       <c r="G114" t="n">
-        <v>1343364.79048783</v>
-      </c>
-      <c r="H114" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4619,18 +4225,15 @@
         <v>3344.48160535</v>
       </c>
       <c r="G115" t="n">
-        <v>1343364.79048783</v>
-      </c>
-      <c r="H115" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4652,18 +4255,15 @@
         <v>11</v>
       </c>
       <c r="G116" t="n">
-        <v>1343353.79048783</v>
-      </c>
-      <c r="H116" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4685,18 +4285,15 @@
         <v>31113.5763</v>
       </c>
       <c r="G117" t="n">
-        <v>1343353.79048783</v>
-      </c>
-      <c r="H117" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4718,18 +4315,15 @@
         <v>123990.6555</v>
       </c>
       <c r="G118" t="n">
-        <v>1219363.13498783</v>
-      </c>
-      <c r="H118" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4751,18 +4345,15 @@
         <v>53453.1604</v>
       </c>
       <c r="G119" t="n">
-        <v>1165909.97458783</v>
-      </c>
-      <c r="H119" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4784,18 +4375,15 @@
         <v>113320.3682</v>
       </c>
       <c r="G120" t="n">
-        <v>1279230.34278783</v>
-      </c>
-      <c r="H120" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4817,18 +4405,15 @@
         <v>75012.9644</v>
       </c>
       <c r="G121" t="n">
-        <v>1204217.37838783</v>
-      </c>
-      <c r="H121" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4850,18 +4435,15 @@
         <v>19757.4676</v>
       </c>
       <c r="G122" t="n">
-        <v>1223974.84598783</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4883,18 +4465,15 @@
         <v>20</v>
       </c>
       <c r="G123" t="n">
-        <v>1223994.84598783</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4916,18 +4495,15 @@
         <v>21825.0431</v>
       </c>
       <c r="G124" t="n">
-        <v>1202169.80288783</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4949,18 +4525,15 @@
         <v>17604.7463</v>
       </c>
       <c r="G125" t="n">
-        <v>1184565.05658783</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4982,18 +4555,15 @@
         <v>3562.2835</v>
       </c>
       <c r="G126" t="n">
-        <v>1184565.05658783</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5015,18 +4585,15 @@
         <v>86391.94439999999</v>
       </c>
       <c r="G127" t="n">
-        <v>1270957.00098783</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5048,18 +4615,15 @@
         <v>24200.1388</v>
       </c>
       <c r="G128" t="n">
-        <v>1270957.00098783</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5081,18 +4645,15 @@
         <v>65007.0162</v>
       </c>
       <c r="G129" t="n">
-        <v>1335964.01718783</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5114,18 +4675,15 @@
         <v>68418.7372</v>
       </c>
       <c r="G130" t="n">
-        <v>1267545.27998783</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5147,18 +4705,15 @@
         <v>45408.2704</v>
       </c>
       <c r="G131" t="n">
-        <v>1222137.00958783</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5180,18 +4735,15 @@
         <v>10</v>
       </c>
       <c r="G132" t="n">
-        <v>1222147.00958783</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5213,18 +4765,15 @@
         <v>42067.3375</v>
       </c>
       <c r="G133" t="n">
-        <v>1180079.67208783</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5246,18 +4795,15 @@
         <v>1656.4626</v>
       </c>
       <c r="G134" t="n">
-        <v>1178423.20948783</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5279,18 +4825,15 @@
         <v>11</v>
       </c>
       <c r="G135" t="n">
-        <v>1178434.20948783</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5312,18 +4855,15 @@
         <v>17945.3715</v>
       </c>
       <c r="G136" t="n">
-        <v>1196379.58098783</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5345,18 +4885,15 @@
         <v>6954.8851</v>
       </c>
       <c r="G137" t="n">
-        <v>1196379.58098783</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5378,18 +4915,15 @@
         <v>11</v>
       </c>
       <c r="G138" t="n">
-        <v>1196390.58098783</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5411,18 +4945,15 @@
         <v>40884.425</v>
       </c>
       <c r="G139" t="n">
-        <v>1196390.58098783</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5444,18 +4975,15 @@
         <v>33171.6892</v>
       </c>
       <c r="G140" t="n">
-        <v>1229562.27018783</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5477,18 +5005,15 @@
         <v>11135.8153</v>
       </c>
       <c r="G141" t="n">
-        <v>1229562.27018783</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5510,18 +5035,15 @@
         <v>49274.0577</v>
       </c>
       <c r="G142" t="n">
-        <v>1180288.21248783</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5543,18 +5065,15 @@
         <v>10</v>
       </c>
       <c r="G143" t="n">
-        <v>1180298.21248783</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5576,18 +5095,15 @@
         <v>27265.1397</v>
       </c>
       <c r="G144" t="n">
-        <v>1153033.07278783</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5609,18 +5125,15 @@
         <v>14849.8078</v>
       </c>
       <c r="G145" t="n">
-        <v>1153033.07278783</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5642,18 +5155,15 @@
         <v>9000</v>
       </c>
       <c r="G146" t="n">
-        <v>1162033.07278783</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5675,18 +5185,15 @@
         <v>23318.8709</v>
       </c>
       <c r="G147" t="n">
-        <v>1185351.94368783</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5708,18 +5215,15 @@
         <v>4148.559</v>
       </c>
       <c r="G148" t="n">
-        <v>1185351.94368783</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5741,18 +5245,15 @@
         <v>10</v>
       </c>
       <c r="G149" t="n">
-        <v>1185361.94368783</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5774,18 +5275,15 @@
         <v>24567.7166</v>
       </c>
       <c r="G150" t="n">
-        <v>1160794.22708783</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5807,18 +5305,15 @@
         <v>31266.8779</v>
       </c>
       <c r="G151" t="n">
-        <v>1129527.34918783</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5840,18 +5335,15 @@
         <v>26646.2172</v>
       </c>
       <c r="G152" t="n">
-        <v>1156173.56638783</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5873,18 +5365,15 @@
         <v>13116.8173</v>
       </c>
       <c r="G153" t="n">
-        <v>1143056.74908783</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5906,18 +5395,15 @@
         <v>10</v>
       </c>
       <c r="G154" t="n">
-        <v>1143066.74908783</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5939,18 +5425,15 @@
         <v>19207.6274</v>
       </c>
       <c r="G155" t="n">
-        <v>1162274.37648783</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5972,18 +5455,15 @@
         <v>6137.0619</v>
       </c>
       <c r="G156" t="n">
-        <v>1156137.31458783</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6005,18 +5485,15 @@
         <v>10</v>
       </c>
       <c r="G157" t="n">
-        <v>1156147.31458783</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6038,18 +5515,15 @@
         <v>9994.4566</v>
       </c>
       <c r="G158" t="n">
-        <v>1146152.85798783</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6071,18 +5545,15 @@
         <v>157286.3835</v>
       </c>
       <c r="G159" t="n">
-        <v>988866.4744878304</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6104,18 +5575,15 @@
         <v>10</v>
       </c>
       <c r="G160" t="n">
-        <v>988876.4744878304</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6137,18 +5605,15 @@
         <v>38584.1642</v>
       </c>
       <c r="G161" t="n">
-        <v>950292.3102878304</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6170,18 +5635,15 @@
         <v>10</v>
       </c>
       <c r="G162" t="n">
-        <v>950302.3102878304</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6203,18 +5665,15 @@
         <v>96606.9611</v>
       </c>
       <c r="G163" t="n">
-        <v>853695.3491878305</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6236,18 +5695,15 @@
         <v>6285.8838</v>
       </c>
       <c r="G164" t="n">
-        <v>853695.3491878305</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6269,18 +5725,15 @@
         <v>10</v>
       </c>
       <c r="G165" t="n">
-        <v>853705.3491878305</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6302,18 +5755,15 @@
         <v>4995.5845</v>
       </c>
       <c r="G166" t="n">
-        <v>848709.7646878305</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6335,18 +5785,15 @@
         <v>41236.07</v>
       </c>
       <c r="G167" t="n">
-        <v>807473.6946878305</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6368,18 +5815,15 @@
         <v>30</v>
       </c>
       <c r="G168" t="n">
-        <v>807503.6946878305</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6401,18 +5845,15 @@
         <v>26501.3315</v>
       </c>
       <c r="G169" t="n">
-        <v>807503.6946878305</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6434,18 +5875,15 @@
         <v>535.4866</v>
       </c>
       <c r="G170" t="n">
-        <v>806968.2080878306</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6467,18 +5905,15 @@
         <v>19679.6801</v>
       </c>
       <c r="G171" t="n">
-        <v>806968.2080878306</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6500,18 +5935,15 @@
         <v>59300.735</v>
       </c>
       <c r="G172" t="n">
-        <v>866268.9430878306</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6533,18 +5965,15 @@
         <v>25245.9127</v>
       </c>
       <c r="G173" t="n">
-        <v>841023.0303878306</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6566,18 +5995,15 @@
         <v>84.8034</v>
       </c>
       <c r="G174" t="n">
-        <v>841107.8337878305</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6599,18 +6025,15 @@
         <v>1600.106</v>
       </c>
       <c r="G175" t="n">
-        <v>841107.8337878305</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6632,18 +6055,15 @@
         <v>10</v>
       </c>
       <c r="G176" t="n">
-        <v>841107.8337878305</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6665,18 +6085,15 @@
         <v>20876.5047</v>
       </c>
       <c r="G177" t="n">
-        <v>841107.8337878305</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6698,18 +6115,15 @@
         <v>24139.6384</v>
       </c>
       <c r="G178" t="n">
-        <v>816968.1953878305</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6731,18 +6145,15 @@
         <v>10</v>
       </c>
       <c r="G179" t="n">
-        <v>816978.1953878305</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6764,18 +6175,15 @@
         <v>20.7609</v>
       </c>
       <c r="G180" t="n">
-        <v>816978.1953878305</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6797,18 +6205,15 @@
         <v>20</v>
       </c>
       <c r="G181" t="n">
-        <v>816978.1953878305</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6830,18 +6235,15 @@
         <v>32686.0298</v>
       </c>
       <c r="G182" t="n">
-        <v>849664.2251878305</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6863,18 +6265,15 @@
         <v>42860.1649</v>
       </c>
       <c r="G183" t="n">
-        <v>892524.3900878305</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6896,18 +6295,15 @@
         <v>30573.0687</v>
       </c>
       <c r="G184" t="n">
-        <v>923097.4587878304</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6929,18 +6325,15 @@
         <v>75139.72040000001</v>
       </c>
       <c r="G185" t="n">
-        <v>847957.7383878304</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6962,18 +6355,15 @@
         <v>6193.567</v>
       </c>
       <c r="G186" t="n">
-        <v>847957.7383878304</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6995,18 +6385,15 @@
         <v>84935.41439999999</v>
       </c>
       <c r="G187" t="n">
-        <v>763022.3239878304</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7028,18 +6415,15 @@
         <v>30502.7288</v>
       </c>
       <c r="G188" t="n">
-        <v>732519.5951878304</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7061,18 +6445,15 @@
         <v>121</v>
       </c>
       <c r="G189" t="n">
-        <v>732640.5951878304</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7094,18 +6475,15 @@
         <v>3448.27586206</v>
       </c>
       <c r="G190" t="n">
-        <v>732640.5951878304</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7127,18 +6505,15 @@
         <v>33</v>
       </c>
       <c r="G191" t="n">
-        <v>732673.5951878304</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7160,18 +6535,15 @@
         <v>88534.2971</v>
       </c>
       <c r="G192" t="n">
-        <v>644139.2980878304</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7193,18 +6565,15 @@
         <v>3199.1245</v>
       </c>
       <c r="G193" t="n">
-        <v>647338.4225878305</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7226,18 +6595,15 @@
         <v>54.4686</v>
       </c>
       <c r="G194" t="n">
-        <v>647338.4225878305</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7259,18 +6625,15 @@
         <v>4250.5827</v>
       </c>
       <c r="G195" t="n">
-        <v>647338.4225878305</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7292,18 +6655,15 @@
         <v>11</v>
       </c>
       <c r="G196" t="n">
-        <v>647349.4225878305</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7325,18 +6685,15 @@
         <v>31610.0671</v>
       </c>
       <c r="G197" t="n">
-        <v>615739.3554878305</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7358,18 +6715,15 @@
         <v>107.9649</v>
       </c>
       <c r="G198" t="n">
-        <v>615739.3554878305</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7391,18 +6745,15 @@
         <v>51394.4285</v>
       </c>
       <c r="G199" t="n">
-        <v>564344.9269878304</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7424,18 +6775,15 @@
         <v>11</v>
       </c>
       <c r="G200" t="n">
-        <v>564355.9269878304</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
